--- a/chatgpt_vekstmedium_2023.11.12/Data/2_processed_data/chatgpt_vksmedium_yes_no.xlsx
+++ b/chatgpt_vekstmedium_2023.11.12/Data/2_processed_data/chatgpt_vksmedium_yes_no.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Comparative analysis of grape cultivation in Tamil Nadu found that using 'Dog Ridge' rootstock for 'Muscat Hamburg' grapes led to better growth, yield, and nutrient content compared to self-rooted cuttings.</t>
+          <t>Growth and yield of 'Muscat Hamburg' grape was compared when grafted on 'Dog Ridge' rootstock and self-rooted cuttings in Tamil Nadu, India. Grafted vines showed better results.</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Silicon preparations were tested on pine and oak seedlings and found to increase growth, photosynthetic efficiency, and biomass, particularly at a concentration of 2%.</t>
+          <t>Silicon preparations can promote growth in forest seedlings, increasing biomass and improving nutritional value. Spraying with a 2% concentration is most effective, particularly for oak seedlings.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The study examined the effects of soil media mixtures with phosphogypsum on young pine seedlings, finding no harmful effects. Further testing on heavy metals and long-term effects is needed.</t>
+          <t>This study investigated the effects of different soil media mixtures containing phosphogypsum on the growth of young pine seedlings. The mixtures did not have harmful effects, but longer-term observations are needed. Lower dosages appear to be more promising and cost-effective. Further testing is recommended for heavy metals and microbiome changes.</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>This study explores the growth-survival trade-off in non-phanerophyte species used in dune restoration. Findings suggest targeting foredune species for cost-effective restoration actions based on their low survival rates and reproductive effort.</t>
+          <t>This study investigates the growth-survival trade-offs in non-phanerophyte species used in a coastal dune restoration project. The results suggest that plant species of foredune communities have higher growth but lower survival rates, providing insights for cost-effective ecosystem restoration actions.</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A study on eelgrass restoration in Sweden found rapid colonization of invertebrates in all plots, regardless of patch size. Smaller patches can be as effective as continuous patches in promoting biodiversity. Variability between years emphasizes the need for monitoring.</t>
+          <t>A study found that the colonization of fauna in eelgrass restoration plots was rapid and similar regardless of patch size, suggesting smaller patches can be as effective for promoting biodiversity.</t>
         </is>
       </c>
     </row>
@@ -550,12 +550,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>The study investigates the relationship between seed production and pine regeneration using nutcracker birds as mediators. Results show that the abundance of seedlings depends on the number of birds and seeds.</t>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/chatgpt_vekstmedium_2023.11.12/Data/2_processed_data/chatgpt_vksmedium_yes_no.xlsx
+++ b/chatgpt_vekstmedium_2023.11.12/Data/2_processed_data/chatgpt_vksmedium_yes_no.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +440,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Growth and yield of 'Muscat Hamburg' grape was compared when grafted on 'Dog Ridge' rootstock and self-rooted cuttings in Tamil Nadu, India. Grafted vines showed better results.</t>
+          <t>This study compared the growth and yield of 'Muscat Hamburg' grapes grafted on 'Dog Ridge' rootstock and self-rooted cuttings in Tamil Nadu, India. The grafted vines showed better growth, yield, and nutrient content in the petiole compared to self-rooted cuttings.</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Silicon preparations can promote growth in forest seedlings, increasing biomass and improving nutritional value. Spraying with a 2% concentration is most effective, particularly for oak seedlings.</t>
+          <t>Using silicon preparations can promote growth of forest seedlings, particularly oak seedlings affected by oak powdery mildew, and improve their photosynthetic efficiency, biomass, and root nutrition. Spraying with a 2% concentration is most effective.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>This study investigated the effects of different soil media mixtures containing phosphogypsum on the growth of young pine seedlings. The mixtures did not have harmful effects, but longer-term observations are needed. Lower dosages appear to be more promising and cost-effective. Further testing is recommended for heavy metals and microbiome changes.</t>
+          <t>The study examined the effects of different soil media mixtures with phosphogypsum formulations on the growth of young pine seedlings in Polish forest conditions. The use of phosphogypsum-based preparations did not have toxic effects on the seedlings, and a mixture of phosphogypsum and organic ash showed positive effects on root development. However, longer-term observations are needed to fully understand the impact. Lower dosages of 1 and 2 t/ha appear to be the most promising. Heavy metal testing and monitoring of the microbiome are recommended.</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>This study investigates the growth-survival trade-offs in non-phanerophyte species used in a coastal dune restoration project. The results suggest that plant species of foredune communities have higher growth but lower survival rates, providing insights for cost-effective ecosystem restoration actions.</t>
+          <t>This study explores the growth-survival trade-off in non-phanerophyte species used in dune restoration. Plant traits like leaf dry matter content and floral displays affect this trade-off. Foredune plant species have higher growth but lower survival rates compared to transition dune species. This trade-off can inform cost-effective ecosystem restoration actions.</t>
         </is>
       </c>
     </row>
@@ -530,12 +530,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A study found that the colonization of fauna in eelgrass restoration plots was rapid and similar regardless of patch size, suggesting smaller patches can be as effective for promoting biodiversity.</t>
+          <t>Unclear</t>
         </is>
       </c>
     </row>
@@ -549,6 +544,1721 @@
         </is>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>The study examines the relationship between seed production and the regeneration of Pinus sibirica, finding that the abundance of seedlings is influenced by the number of Nucifraga birds and vice versa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Seasonal variation in cell wall composition and carbohydrate metabolism in the seagrass Posidonia oceanica growing at different depthsPosidonia oceanica is a common seagrass in the Mediterranean Sea that is able to sequester large amounts of carbon. The carbon assimilated during photosynthesis can be partitioned into non-structural sugars and cell-wall polymers. In this study, we investigated the distribution of carbon in starch, soluble carbohydrates and cell-wall polymers in leaves and rhizomes of P. oceanica. Analyses were performed during summer and winter in meadows located south of the Frioul archipelago near Marseille, France. The leaves and rhizomes were isolated from plants collected in shallow (2 m) and deep water (26 m). Our results showed that P. oceanica stores more carbon as starch, sucrose and cellulose in summer and that this is more pronounced in rhizomes from deep-water plants. In winter, the reduction in photoassimilates was correlated with a lower cellulose content, compensated with a greater lignin content, except in rhizomes from deep-water plants. The syringyl-to-guaiacyl (S/G) ratio in the lignin was higher in leaves than in rhizomes and decreased in rhizomes in winter, indicating a change in the distribution or structure of the lignin. These combined data show that deep-water plants store more carbon during summer, while in winter the shallow- and deep-water plants displayed a different cell wall composition reflecting their environment.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>This study examines the distribution of carbon in a seagrass called Posidonia oceanica and how it varies during different seasons and depths in the Mediterranean Sea. The results show that deep-water plants store more carbon during summer and have a different cell wall composition in winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nesting behaviour and description of the larva of Alysson spinosus (Panzer, 1801) (Hymenoptera: Bembicidae)The paper presents new data on the nesting habits of the digger wasp Alysson spinosus (Hymenoptera: Bembicidae). As food for larvae, the female provisioned about 7-8 hemipteran nymphs or imagines per cell. The collected prey belongs to two families of true hoppers (five species of Delphacidae and one species of Cicadellidae). Nests are built in sandy, shaded areas, and consist of a 10-12 cm long main burrow with 1-3 brood cells. Both sexes search for food (honeydew) on the leaves of lilac or small-leaved linden. The nests were infested by the dipteran kleptoparasitic Metopia argyrocephala (Diptera: Sarcophagidae). The mature larva is similar to that of the Nearctic Alysson melleus, from which it differs in having a blunt apical mandibular tooth and more prominent setae on the clypeus and labrum.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Serological, biological and molecular characterization of viruses causing mosaic diseases on cabbage (Brassica sp L.) in Central EthiopiaThe productivity of cabbage (Brassica oleracea var. capitata) in Ethiopia has been generally low due to several biotic and abiotic constraints among which are several viral diseases. There is a recent report indicating that this economically important vegetable is seriously affected in Ethiopia by Cauliflower mosaic virus (CaMV) and Turnip mosaic virus (TuMV). However, little information exists on the incidence and distribution of these viruses as the previous report is based on samples only from Addis Ababa. In this study, a total of 370 leaf samples were collected from 75 cabbage growing fields in Central Ethiopia in two rounds of survey. Two cabbage varieties locally known as ""Habesha gomen"" and ""Tikur gomen"" with virus-like symptoms were collected and tested with Double Antibody Sandwich Enzyme-Linked Immunosorbent Assay (DAS-ELISA) using polyclonal antibodies specific to CaMV and TuMV. Results from serological diagnosis were confirmed with PCR and Sanger sequencing. The results indicated a high incidence and wide distribution of both viruses in Central Ethiopia with an average of 29.5% infection for CaMV and 40% for TuMV. Biological inoculation tests for CaMV or TuMV or both on healthy cabbage seedlings gave similar symptoms as those observed in the field. Symptom severity was higher with co-infection of CaMV and TuMV followed by TuMV single infection. BLAST analysis showed that TuMV and CaMV isolates from Ethiopia have nucleotide identity of 95-98% and 93-98%, respectively to previously reported isolates. Phylogenetic analysis revealed that CaMV isolates from Ethiopia are closely related to isolates from USA and Italy within Group II clade whereas TuMV isolates have close similarities with isolates from World B clade including isolates from Kenya, UK, Japan and the Netherlands. The identification of the causative agents of the mosaic disease observed on cabbage in Central Ethiopia may lay the foundation for future management studies.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>This study investigates the occurrence of mosaic diseases caused by Cauliflower mosaic virus (CaMV) and Turnip mosaic virus (TuMV) in cabbage fields in Central Ethiopia. The viruses were found to have a high incidence and wide distribution, affecting cabbage productivity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Effect of composition and properties of soils and soil-sand substrates contaminated with copper on morphometric parameters of barley plantsIn a multifactor vegetation experiment, the effect of composition and properties of soils and soil-sand substrates contaminated with various doses of copper acetate on the morphometric parameters of spring barley seedlings was studied. It has been shown that germination and seed germination energy, as well as the length of roots, aboveground parts, and dry biomass of plants depend in a complex way on the concentration of Cu in soils and substrates, as well as on their buffering capacity to heavy metals. Two mechanisms of Cu influence on plant development have been revealed, i.e., metabolic at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg of soil and diffusional at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg. Using the methods of regression analysis of experimental data, a multiple regression equation has been obtained that combines the morphometric index of plants, the concentration of Cu in substrates, and the buffering capacity of soils to Cu. On its basis, in the soil buffering capacity-Cu concentration coordinates, a curve of values of the maximum permissible concentrations of Cu in soils was built on a plane in the range from 17 to 2047 mg/kg. It permits us to separate the zone of permissible development of barley plants (a decrease of the morphometric index by 15%) from the zone of exceeding the accepted values of the maximum permissible concentration of Cu. Thus, the maximum permissible concentration is considered to be a function of Cu concentration, the soil buffering capacity to heavy metals, and plant species rather than a fixed value.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The study examined the impact of copper-contaminated soil on barley plants, finding that plant growth depends on copper concentration and soil buffering capacity, with a variable maximum permissible concentration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Effects of hazelnut husk waste on quality parameters of German primrose (Primula obconica Hance)The study was conducted to determine the feasibility of using hazelnut shell waste as a growth medium for German primroses (Primula obconica Hance) under greenhouse conditions. Five different media combinations were prepared using sphagnum moss peat (SMP) and hazelnut husk waste (HHW). Some quality and growth parameters of P. obconica appeared to be significantly different depending on the growth medium. Results showed that HHW had a statistically significant impact on two parameters, namely aesthetic appearance score and mean flower weight, but had no impact on the other qualitative traits. The highest (8.94) and lowest (4.70) esthetic appearance scores were observed at 100% HHW and control treatments, respectively. In addition, the maximum (0.15 g) and minimum (0.097 g) mean flower weights were observed in HHW2 treatment and control plants, respectively.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>This study tested using hazelnut shell waste as a growth medium for German primroses. Results showed it had a significant impact on appearance and flower weight.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Effect of soil mixtures based on a gneiss-derived soil and two forest floor types on growth and nutritional status of Castanea sativa Mill. seedlingsAiming at the production of robust chestnut plants suitable for the establishment of plantations or for their use in afforestation of forest ecosystems, we studied the effect of soil mixtures on growth, physiological characteristics, and nutritional status of chestnut seedlings. In a complete randomized-block design pot experiment, the soil used was derived from gneiss weathering (GN) and the treatments included GN and GN with fertilization (GN-FER) as well as mixtures of GN with forest floor (FF) from chestnuts (GN-CFF) and from evergreen broad-leaved trees (GN-EFF). Both types of forest floor and fertilization had similar positive effect on seedlings growth and photosynthetic parameters. The most significant effects on soil nutrients were found in GN-CFF and GN-EFF treatments, except for extractable phosphorus (P) and exchangeable potassium (K), whose highest concentrations were observed in GN-FER. Leaf analysis showed that the concentrations of almost all nutrients in all treatments were within the adequacy limits, with the exception of nitrogen (N) in GN, copper (Cu) in GN-EFF, and K in all treatments. Both types of forest floor satisfied the nutritional needs of chestnut seedlings to a large extent and their incorporation in this type of soil combined with limited addition mainly of K and to a lesser degree of P could enhance adequacy of these nutrients in soil and plants. Thus, forest floor application may be an appropriate alternative to integrated nutrient management for robust chestnut seedlings production with significant forestry and environmental impacts.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Soil mixtures derived from gneiss weathering and forest floor types had positive effects on growth, photosynthesis, and nutrient status of chestnut seedlings. Forest floor application is a viable alternative for nutrient management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Distribution and resorption efficiency of macroelements (N, P, K, Ca, and Mg) in organs of Rumex alpinus L. in the Alps and the Giant (Krkonose) mountainsRumex alpinus, an alpine nitrophilous species, is a troublesome weed in pastures. Nutrient uptake and distributions in the organs of Rumex alpinus are not well-studied. We aimed to determine the distribution of macroelements in organs of Rumex alpinus together with the nitrogen-phosphorus potassium ratio (NPK) and the resorption efficiency of N, P, K, calcium (Ca), and magnesium (Mg) in the Alps of Austria, Italy, and the Krkonose (Giant) Mountains, Czech Republic. The pseudo-total and plant-available N, P, K, Ca, and Mg in soils and organs of Rumex alpinus (emerging, mature, and senescent leaves, petioles, stems, and rhizomes) were extracted with aqua regia and Mehlich-3 procedures, respectively, followed by inductively coupled plasma-optical emission spectrometry. The contents of total and available macroelements in the soils reflected high variability with localities. There was a significant effect of locality and organs on the element contents, indicating differences in nutrition. Rumex alpinus exhibited higher N and P contents in emerging and mature leaves than in the senescent compared to Ca and Mg. The N:P and N:K ratios in the mature leaves were within the normal range but were indicative of comparatively higher demand for P. The mean resorption efficiency for N, P, and K was 52, 50, and 22%, respectively, lower than values for most terrestrial plants (62, 65, and 70%). The relatively high availability of macroelements in soils and plant organs with low N, P, and K resorption efficiency indicates a high N, P, and especially K-demanding species of Rumex alpinus.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>This research examines the distribution and resorption efficiency of macroelements in the organs of Rumex alpinus in the Alps and the Giant Mountains. The study found high variability in soil nutrient contents and determined that Rumex alpinus has a high demand for nitrogen, phosphorus, and potassium. However, the plant's resorption efficiency for these macroelements is lower compared to other plants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cattle dung and bioturbation by dung beetles improve oak seedling establishment in Mediterranean silvopastoral ecosystemsThis study aims to determine whether the application of cattle manure and associated bioturbation by dung beetles and other invertebrates can increase oak seedling establishment in the high biodiversity Mediterranean silvopastoral systems known as ""dehesas"", which are comprised of scattered oaks and a grassland layer and are used for livestock rearing. A two-year study was conducted in a representative dehesa in southern Spain. Firstly, the effect of cattle dung pads on acorn consumption by livestock and wild predators was monitored, along with dung beetle abundance and plot bioturbation. Secondly, the indirect effects of bioturbation on acorn burial, acorn predation by rodents and oak seedling establishment were assessed under the condition of livestock exclusion. The results consistently demonstrate a high positive indirect effect of the presence of cattle manure on the persistence of acorns, as well as on seedling establishment, as a result of reduced predation by rodents and improved microhabitat conditions for the acorns and seedlings. These processes were mediated by bioturbation. Tunneler dung beetles, which move a great amount of soil material, were dominant in our records, which suggest their importance for passive acorn burial, without disregarding the influence of other edaphic invertebrates present. We conclude that the presence of cattle manure significantly improves oak seedling establishment in Mediterranean dehesas through the passive burial of acorns by bioturbation, which acts to protect them from predation by rodents, desiccation and other damage. Passive acorn burial by dung beetles and other invertebrates thus emerges as an important ecosystem service that has been little-studied to date. Appropriate rotational management of livestock could therefore contribute to addressing the bottleneck of oak regeneration in Mediterranean dehesas.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>The study found that applying cattle manure and dung beetles to Mediterranean silvopastoral ecosystems increased oak seedling establishment by improving acorn survival and reducing predation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Integrated application of selected elements of sustainability, circular economy, bioeconomy, and environmental management system in guesthousesEfforts to minimize negative effects on the environment are manifested in the hospitality sector in the form of integrated application of elements of sustainable business, circular economy, bioeconomy, and environmental management. Those who run accommodation facilities are becoming environmentally aware and feel that they should be more involved in sustainable practices and thus contribute to improving the environment both locally and nationally. The main goal of this study is to identify and evaluate the application of selected elements and measures of sustainable business, circular economy, bioeconomy, and environmental management in guesthouses of the Czech Republic. A questionnaire survey (n1 = 343) was carried out together with a qualitative focus group method (n2 = 5); the data evaluation was carried out using advanced statistical methods (Tukey HSD test, Kruskal-Wallis test, correspondence analysis). The results showed that a higher classification in the guesthouse is associated with an increasing trend in the number of environmentally friendly operating methods used. Measures related to waste sorting containers (74%) and energy-saving and LED light bulbs (68%) showed the highest values. The results are useful for the practice of national professional associations that support the careful handling of resources and thereby influence the entire hospitality sector.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Synergistic effects of methyl jasmonate treatment and propagation method on Norway spruce resistance against a bark-feeding insectUtilizing plants with enhanced resistance traits is gaining interest in plant protection. Two strategies are especially promising for increasing resistance against a forest insect pest, the pine weevil (Hylobius abietis): exogenous application of the plant defense hormone methyl jasmonate (MeJA), and production of plants through the clonal propagation method somatic embryogenesis (SE). Here, we quantified and compared the separate and combined effects of SE and MeJA on Norway spruce resistance to pine weevil damage. Plants produced via SE (emblings) and nursery seedlings (containerized and bare-root), were treated (or not) with MeJA and exposed to pine weevils in the field (followed for 3 years) and in the lab (with a non-choice experiment). Firstly, we found that SE and MeJA independently decreased pine weevil damage to Norway spruce plants in the field by 32-33% and 53-59%, respectively, compared to untreated containerized and bare-root seedlings. Secondly, SE and MeJA together reduced damage to an even greater extent, with treated emblings receiving 86-87% less damage when compared to either untreated containerized or bare-root seedlings in the field, and by 48% in the lab. Moreover, MeJA-treated emblings experienced 98% lower mortality than untreated containerized seedlings, and this high level of survival was similar to that experienced by treated bare-root seedlings. These positive effects on survival remained for MeJA-treated emblings across the 3-year experimental period. We conclude that SE and MeJA have the potential to work synergistically to improve plants' ability to resist damage, and can thus confer a strong plant protection advantage. The mechanisms underlying these responses merit further examination.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Using a plant defense hormone and a propagation method reduced damage to Norway spruce plants by a bark-feeding insect, showing potential for improved resistance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>First report of a 'Candidatus Phytoplasma asteris'-related strain (16Sri-B) associated with three Sempervivum cultivars in HungaryIn 2018, unusual symptoms were observed in Sempervivum plants in commercial nurseries in Hungary. Affected plants exhibited a section of the rosette emerging upwards above the foliage, with giant and often reddish leaves. These symptoms were observed in various Sempervivum species or varieties between 2019 and 2022, with approximately 1% of the plants showing these symptoms in specific cultivars. Leaves were collected from both symptomatic and symptomless plants of different taxa for DNA analysis. Nested PCR assays were performed, and amplicons were obtained from all diseased plants of Sempervivum cultivars Alpha, Purple Passion and Silberkarneol but not from asymptomatic plants of these cultivars. The DNA sequence analysis identified a 'Candidatus Phytoplasma asteris'-related strain in these symptomatic plants, which had 99.95% identity with Onion yellows phytoplasma and 'Muscari botryoides' aster yellows phytoplasma from the 'Candidatus Phytoplasma asteris' (16SrI-B) subgroup. Monitoring over a year showed a recovery from the symptoms, and phytoplasmas were no longer detected by PCR after one year. This is thought to be the first identification of a 'Ca. P. asteris'-related strain in Sempervivum worldwide.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A study in Hungary identified a strain of 'Candidatus Phytoplasma asteris' in Sempervivum plants, causing unusual symptoms, but the plants recovered after a year.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>First report of Neofusicoccum parvum causing canker and dieback on Alnus glutinosa in PortugalIn March 2022, sunken cankers were observed on the stem and branches of young and mature Alnus glutinosa trees in central Portugal. Cankers were characterised by necrotic lesions on the outer and inner bark that progressively girdled the circumference of stem and branches causing extensive canopy dieback. The incidence of the disease was estimated at 70% (linear plot of 50 m long). Isolations from the diseased tissues resulted in 20 fungal colonies resembling Botryosphaeriaceae species based on colony appearance and hyaline, fusiform, aseptate, thin-walled conidia characteristics. These isolates were identified as Neofusicoccum parvum. The identification was further confirmed through sequencing of the internal transcribed spacer region and comparison with the ex-type culture of N. parvum, exhibiting 100% sequence identity. Subsequent pathogenicity tests on common alder seedlings revealed similar necrotic lesions and wilting symptoms, fulfilling Koch's postulates. This is thought to be the first report of N. parvum affecting A. glutinosa in Portugal and in Europe.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Neofusicoccum parvum, a fungal species, caused canker and dieback on Alnus glutinosa trees in central Portugal, with a 70% incidence rate. Pathogenicity tests confirmed the first report of its impact on A. glutinosa in Portugal and Europe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>First report of Querciphoma minuta causing branch and stem canker in Platanus x hispanica in GermanyIn July and August 2022, numerous London plane (Platanus hispanica) trees in Cottbus, Germany, displayed large, dark-brown to red-brown lesions extending from the bark to the heartwood, affecting over 60% of the trees. Querciphoma minuta, a fungus within the Camarosporium complex, was identified in affected branches. Genomic and morphological analyses confirmed the identification. Pathogenicity tests revealed that Q. minuta caused necrosis and vascular discoloration in healthy plane tree seedlings, fulfilling Koch's postulates. Previously known to affect oak trees, this is thought to be the first report of Q. minuta as a potential canker pathogen of London plane trees. This suggests a broader host range and greater impact of the pathogen as a plant disease agent than previously recognized.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>The quality of grape and wine of Merlot and Blatina varieties in the agroecological conditions of the Trebinje vineyardThe aim of this paper is to present the quality of grape and wine of Merlot and Blatina varieties in the agro ecological conditions of the Trebinje vineyard, during the vintages of 2016 and 2017. The vineyards were established in 2004 (Merlot) and in 2013 (Blatina), at an altitude of 269 m, with the planting distance of 2.8 x 1 m for Blatina and 2.8 x 0.9 m for Merlot. The Merlot and Blatina grape varieties were grafted on Berlandieri x Riparia Kober 5BB rootstock. The research included analysis of the sugar, total acid content and pH as parameters of grape quality. The following parameters of wine quality were analyzed: alcohol content, total acid, total ash, content of extract and total phenols. The quality of the grapes, grown in the conditions of Trebinje vineyard is suitable to produce quality red wines.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>This paper investigates the quality of Merlot and Blatina grapes and wine in the Trebinje vineyard, demonstrating suitability for producing quality red wines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Stress induced by soil contamination with heavy metals and their effects on some biomarkers and DNA damage in maize plants at the vicinity of Ferronikel smelter in Drenas, KosovoThe Ferronikel smelter in Drenas is one of the main industrial areas in the Kosovo and pollution by heavy metals causes serious threat for all living organisms on this area. The objective of this study was to determine the concentration of some heavy metals (Fe, Cu, Mn, Cr, Cd, Ni and Pb) in agricultural soils and in maize plants, and their potential toxic effects on this plant through some sensitive biochemical and molecular markers. Maize seedlings growth in nine soil samples from different locations of this area. The highest concentrations of heavy metals in soils and maize leaves were conducted close to the Ferronikel smelter, and in some locations, the nickel and chromium concertation in soils exceeded 800 mg kg&lt;sup&gt;-1&lt;/sup&gt;. A significant effects of heavy metals induced toxicity resulted in the, build-up aminolevulinic acid and reduced activity of -aminolevulinic acid dehydratase, and chlorophyll content in the maize leaves. In general, maize seedlings growth in polluted locations showed an increase in nuclear DNA content and in G2M phase. We concluded that locations close to the smelter are affected by soil heavy metals pollution and these biochemical and molecular analysis would be a powerful ecotoxicological tool in biomonitoring of heavy metal pollution.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>This text discusses the effects of soil contamination with heavy metals from a smelter in Drenas, Kosovo, on maize plants and the potential ecological implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Control of Phytonemus pallidus (Acari: Tarsonemidae) from strawberry transplants using controlled atmosphere temperature treatmentSince it inhabits young leaves and buds of strawberry (Fragaria x ananassa Duchesne) crowns, cyclamen mite (Phytonemus pallidus Banks) is a difficult pest to control with biological or chemical means once it is present in a field. Controlled atmosphere temperature treatment (CATT) is a successful technique that has been commercially used in the Netherlands for nearly 2 decades to disinfect strawberry nursery stock, including elimination of cyclamen mite. During CATT, plants are treated at 35 degrees C, 50% CO2, and 10% O2 under high relative humidity for 48 h. The objective of this study was to test CATT against P. pallidus in North America at a scale that can be easily used on-farms by strawberry growers. Two greenhouse experiments were conducted where infested trayplants were treated with CATT or the acaricide abamectin, and P. pallidus number were compared to control plants. Plants were destructively sampled after 4 weeks, and CATT reduced mobile forms of P. pallidus by 99.9% in both experiments. Abamectin used in the first experiment had an efficacy of 95.5%. Our findings suggest that CATT is effective at nearly eliminating P. pallidus from strawberry planting material, and its application could reduce risks of field infestations and the need for multiple acaricide applications. While our results are encouraging, additional research is needed to assess the effects of CATT on strawberry plant survival, growth, and fruit production.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Controlled atmosphere temperature treatment (CATT) successfully reduced the number of Phytonemus pallidus (cyclamen mite) in strawberry plants by nearly 100%, offering a potential solution for growers to prevent infestations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bumblebees sense rootstock-mediated nutrition and fertilization regime in tomato. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Aims: Since producing more with less is required for increasing agricultural sustainability and reducing its environmental impact, breeding varieties with increased yield stability under reduced fertilizer application is an important goal, particularly in high valued horticultural crops such as tomato (Solanum lycopersicum L.). However, because of the difficulties to conciliate yield and fertilizer use efficiency through breeding, the graft-compatible genetic biodiversity existing in horticultural species offers the possibility to directly approach this objective in high-yielding elite varieties through improving nutrient capture and promoting ecosystem services such as insect pollination. We hypothesized that rootstocks affect pollinator foraging decisions through the nutritional status that impacts yield.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>This study explores how bumblebees can sense the nutritional status of tomato plants, specifically focusing on the rootstocks and their impact on pollination and yield.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Green compost amendment improves potato plant performance on Mars regolith simulant as substrate for cultivation in space. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Background and aims: Higher plants represent an optimal tool to regenerate resources while producing food in Space. However, the configuration of fertile cultivation substrates based on extraterrestrial resources is still a challenge. We evaluated the adaptability of potato (Solanum tuberosum L., cv. 'Colomba') to the growth on six substrates: the MMS-1 Mars regolith simulant, alone (R100) and in mixture with 30% in vol. of green compost (R70C30), a fluvial sand, alone or mixed with 30% of compost (S100 and S70C30), a red soil from Sicily (RS), and a volcanic soil from Campania (VS).</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Green compost amendment was found to improve the performance of potato plants grown on Mars regolith simulant as a substrate for cultivation in space.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Litter leachate as a potential selector of woody species germination at alpine treelineThe advancement of upper forest limits is driven by environmental conditions, but our current understanding overlooks the attributes of habitats and germination ability of woody species. Habitats, through plant litter, impact the competitive relation of germination and seedling growth. The aims of this study were to identify the selective effect of six litter leachates on the germination of indigenous Norway spruce (Picea abies) and nonindigenous dwarf pine (Pinus mugo) and compare the germination rates of the species. We collected plant litter and seeds from the (sub)alpine belt of the Hruby Jesenik Mts. (the Eastern Sudetes Mts.; the Czech Republic). We evaluated the effect of plant litter leachates from alpine heathlands, wind-swept alpine grasslands, subalpine tall-herb plants, Pinus mugo scrub, subalpine Vaccinium vegetation, and Norway spruce clonal groups on germination process under standard light and temperature conditions. The germination of Norway spruce was inhibited by the litter leachate from subalpine tall-herb vegetation mainly dominated by Calamagrostis villosa, whereas that of dwarf pine was not. The other five litter leachates had no significant effect on the both. Under standard conditions, the germination time of dwarf pine is on average one day faster. These results suggest that most of the litter leachates examined may have small impacts on the germinability and germination time of Norway spruce and dwarf pine, but litter from the subalpine tall-herb vegetation can act as a filter that influences the seedling composition of the woody species.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Litter leachate affects germination of Norway spruce, but not dwarf pine. Subalpine tall-herb vegetation serves as a filter, impacting woody species seedling composition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Perfect poopers; passerine birds facilitate sexual reproduction in clonal keystone plants of the boreal forest through directed endozoochory towards dead woodBerry-producing Vaccinium shrubs are keystone species in boreal forest ecosystems and their berries provide an essential food source for many vertebrates. In Fennoscandia, both the abundance and cover of Vaccinium have decreased in forests, with intensive forestry practice as a main driver. Vaccinium seedling recruitment is constricted to recruitment windows of opportunity and appears to be infrequent, mainly due to seed dispersal limitation. Passerine birds are key players in seed dispersal, which can be directed towards perching points such as coarse woody debris.In this study, we investigated the potential for directed endozoochory by passerine birds towards cut stumps and if such stumps were viable recruitment windows for Vaccinium species, in an intensively managed boreal forest landscape of central Norway. We surveyed stump and paired forest floor microsites for passerine scat (i.e. potential seed rain) and Vaccinium seedlings. We collected passerine scat and conducted germination experiments to assess if they contained viable seed. We tested the microsite effect (i.e. forest floor/stump) on scat deposition and seedling establishment and then used modified ensemble classifiers to identify important environmental factors affecting scat deposition and seedling establishment patterns.We found that passerine scat was disproportionally deposited on stumps, and that the vast majority of scat contained viable Vaccinium seed. Stumps were also suitable recruitment windows for Vaccinium species, as a higher probability of seedling establishment occurred at stumps compared with the forest floor. However, scat deposition and seedling establishment at stumps were rather contextual and determined by environmental variables. The probability of scat deposition increased with higher complexity of the vertical forest structure and lower canopy cover, whereas seedling establishment required bryophyte cover and larger stumps, or alternatively smaller stumps with competition-free spaces. Our results highlight a pathway to successful sexual reproduction for Vaccinium species in managed forests: passerine birds direct endozoochorous seed dispersal towards tree stumps, which can offer suitable conditions for seedling establishment. However, the spatiotemporal variability both in forest stand structure and in stump conditions have a strong influence on the success of sexual recruitment via this pathway.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Passerine birds in the boreal forest help facilitate seed dispersal and sexual reproduction for Vaccinium shrubs by depositing seeds in tree stumps, providing suitable conditions for seedling establishment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Insect pests in hempIndustrial hemp plants have many unique physical, physiological and biochemical characteristics. These combine to make it among the best converters of solar energy, carbon dioxide, water and silica to plant biomass among commercialised plant species. One of the facets of this success is the ability to resist attack by potential animal pests. Most parts of the plant are resistant to physical attack by virtue of their strength and hardness and their chemical composition. The stems' fibre sheath is uniquely strong, but this physical characteristic is only half of the story in its ability to resist attack from pests. The other half lies in the multiplicity of secondary metabolites, including flavonoids, terpenoids and sterols that are similar to compounds that provide resistance to the feeding activities of arthropods and mammals in other plant species. Sadly, there is little scientific proof of this statement: It is a presumption supported by what we see in 'farmers' fields, in Australia and around the world. This does not mean industrial hemp has no insect pests but there seems to be no specific cadre of insects attached to this crop - anywhere. Note that hemp is still a 'new' crop' outside Europe and hemp fields are well dispersed across rural landscapes. All around the world we find small groups of insects that are 'general' pests of many farming systems crops. They seem to have the ability to nullify the natural resistance factors of many plant hosts. The Australian group focuses mainly on the seed heads (and sometimes the seedlings). cotton bollworm (Helicoverpa armigera) and native budworm (H. punctigera) are the most damaging. They find and colonise dispersed crops without difficulty. It is rare to visit a grain crop during the reproductive phase without finding Helicoverpa caterpillars as well as Rutherglen bug (Nysius vinitor) and green vegetable bug (Nezara viridula), which are similarly pandemic, but probably less damaging. Then there is a further group of species that is diverse, sporadic, potentially devastating and even more difficult to define in economic terms: leaf beetles (Monoleptis australis), mirids (Creontiades pallida), stem borer (cerambycid beetle), seed-collecting ants, wireworms and red-legged earth mite (Halotydeus destructor). Then there is another group of insects found on hemp plants that are 'probably just visiting' from weeds etc. They include cabbage white butterflies (Pieris rapae) and miscellaneous grass moths. Effective management interventions include organic, biological, and conventional options.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Industrial hemp plants have natural resistance to many insect pests due to their physical strength and chemical composition. However, there are still some pests that can cause damage, including cotton bollworm and native budworm. Other sporadic pests include leaf beetles, mirids, and seed-collecting ants. Effective management options include organic, biological, and conventional methods.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Morphological definition populations of Allium ursinum L. from the western part of the republic of SerbiaIn Western Serbia, at an altitude of 80 to 1211 m, thirteen populations of wild garlic (Allium ursinum L.) were discovered at different localities in eight different soil types. Plant material was sampled from each of the thirteen localities by the method of random sampling. Morphological parameters were measured on the sampled plant material: length of aboveground and underground part of the plant, bulb thickness, weight, length, leaf width, length and thickness of the flower stalk, with the aim of assessing the locality that has the most productive morphological parameters. The populations of Allium ursinum growing on the mountains Povlen and Rudnik have the most productive morphological parameters. It can be said that wild garlic in these two localities is the most adequate plant material for harvesting fresh plant material, which will be used for other research in agronomy.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>The study measured morphological parameters of Allium ursinum populations in Western Serbia and found that the populations on mountains Povlen and Rudnik have the most productive parameters for agricultural research.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrogen rates influence on radicchio yield and yield componentsField experiments were laid out in two consecutive seasons between 2019 and 2020 on the laboratory field of Biotechnical centre in Naklo near Kranj, Slovenia (an altitude: 420 m; = 46 degrees 16' 18""; a = 14 degrees 18' 56""). It was conducted with the objective of finding the effect of nitrogen application levels (0 - control, 50, 100, 150 and 200 kg/ha) and 6 cultivars ('Monivip', 'Castel Franco', 'Anivip', 'Foresto', 'Palla rossa' and 'Verona') on yield and yield components of headed chicory. Trial was arranged in spilt plot factorial scheme (main plot - N levels; subplots - cultivars) on randomized complete block design base with four replications for all the seasons. The N fertilizers were applied as KAN (27% calcium amonium nitrate) in two split doses (at transplanting and 40 days after transplanting). The experimental variables measured were fresh weight (g/plant) and yield attributes (dry matter, crop height, leaf number and head firmness). There was no interaction effect of cultivar and nitrogen application levels of tested parameters. Highest fresh weight (360.2 g/crop) achived when the cultivars received 150 kg N/ha. In contrast, percentage of dry matter content and firmmness of radicchio heads decreased as increased soil N supply. Crops that received 150 kg N/ha recived heighst height (34.5 cm). N levels were not significantly effect on the leaf number of the mature heads.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Field experiments in Slovenia found that nitrogen application levels and cultivars did not interact in their effect on radicchio yield and yield components. The highest fresh weight was achieved with 150 kg N/ha, but dry matter content and firmness of radicchio heads decreased with increased soil N supply. N levels did not significantly affect leaf number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hypoglycin A in Acer genus plantsHypoglycin A (HGA) is an amino acid occuring in the Sapindaceae family. Ingestion of certain Acer genus plants belonging to this family has been connected with atypical myopathy (AM) or seasonal pasture myopathy (SPM). To date, all cases of AM/SPM have been associated with sycamore (Acer pseudoplatanus) and boxelder maple (Acer negundo). The aim of this work was to determine and compare HGA in sycamore, boxelder and silver maple (Acer saccharinum), the trees known for HGA content, whose occurence is quite common in the Czech Republic. In sycamore and boxelder maple the effect of location, weather condition and sampling season was evaluated. The other aim was screening for presence of HGA in 12 other species of Acer genus which are grown as ornamental trees in Europe. The determination of HGA was conducted using ultra - high performance liquid chromatography - tandem mass spectrometry (LC/MS). HGA was detected in all samples of sycamore, boxelder and silver maple except for eight leave samples of boxelder maple. In the case of sycamore maple, the highest concentrations of HGA (median) were found in seedlings (770 mg/kg) followed by samaras (130 mg/kg) and by leaves (48 mg/kg) and inflorescences (24 mg/kg). In boxelder maple, significantly higher concentrations of HGA (median) were found in seedlings (550 mg/kg) compared with samaras (45 mg/kg), leaves (14 mg/kg) and inflorescences (24 mg/kg). According to the results the seedlings could pose a significant risk of poisoning, although other factors such as accessibility and palatability of other parts, especially samaras, should be considered. No significant differences of HGA concentrations in silver maple (56 mg/kg) were found between samaras, leaves and inflorescences. HGA was also identified in sugar maple (Acer saccharum), Japanese maple (Acer palmatum), trident maple (Acer buergerianum), paperbark maple (Acer griseum) and Himalayan maple (Acer oblongum). Although silver maple and other ornamental maples have not been reported to cause AM/SPM, the possibility of intoxication in animals can not be excluded.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Breeding assessment of leafiness for species, varieties and ecotypes of genus FestucaSpecies of the genus Festuca are valuable forage plants in natural and sown grasslands, used for hay, grazing, anti-erosion and ornamental purposes. The proportion of leaves in the biomass is an important breeding criterion, with a direct influence on the forage quality. The aim is to evaluate the leafiness of species, varieties and ecotypes of fescue and and make a selection in view of the breeding. The object of the study are accessions of local and foreign origin from genus Festuca. In the autumn of 2015 in the experimental field of the Institute of Forage Crops - Pleven was established collection nursery (KP), with individual plants, including 3 species: tall, meadow and red fescue, including 4 varieties, 3 ecotypes and 1 breeding population, or a total of 8 accessions of fescue, by origin - 5 Bulgarian (BG) and 3 Romanian (RO); by level of ploidy - 6 hexaploid (6n), 1 tetraploid (4n) and 1 diploid (2n). During the period 2016 - 2019, annually at the first forage cut samples were taken for leafiness. The reporting is, based on dry mass, as a share of leaves of total biomass, %. Mean, minimum, maximum values, standard deviations and coefficients of variation by years and average for the period are calculated. The variation of the trait, expressed by CV, averaged a strong 21.72% over the period, with differences by year - strongest in 2016, CV=30.76%, and relatively weakest in 2019. CV=13.93% middle grade. Average values for leafiness vary among specimens, years and genetic constitution (ecotype, variety). The accessions are distributed according to the degree of leafiness, as follows: low foliage: up to 25% - there are no accessions; medium leafy: from 26% to 50% - 2 accession red fescue variety Capriora and local ecotype Atoluka, and strong leafy: over 50% - 6 accessions, in ascending order - red fescue local ecotype Ravnogor, meadow fescue Transilvan and Merifest T, tall fescue IRGR Sadovo, Adela and Albena. On average for the period, tall fescue variety Albena is the leafiest 59.54%.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Breeding assessment of leafiness in Festuca species for forage quality. Evaluation of species, varieties, and ecotypes to select high leafy accessions. Variations in leafiness and the leafiest variety is tall fescue Albena at 59.54%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Insight into a complex of phenolic compounds in plump fruits (Prunus domestica L.) in the conditions of Tambov oblastThe fruits of Prunus domestica L. are a valuable source of phenolic compounds, in particular hydroxycinnamic acids and their esters. Hybrid origin of Prunus domestica hexaploid species, the ample number of the varieties, and expanded geograph y of the cultivation preclude scientists from arriving at a definitive conclusion on the content levels and composition of phenolic compounds in plum fruits. The goal of our study is to determine and identify the phenolic composition of fruits of Prunus domestica L. grown in Tambov oblast of the Russian Federation. The research focused on eight fresh-eating and all-purpose varieties. Experimental plantations were established in 2014 in the 6 x 3-m setup. The plum-cherry hybrid (SVG) 11-19 was used as a rootstock. The phenolic components of plum fruits were determined by reverse phase high performance liquid chromatography (RP HPLC) using a Thermo Ultimate 3000 liquid chromatography system equipped with a DAD-3000 detector. A chromatography run of the plum fruit methanol extracts was performed through a mobile phase binary gradient represented by acetonitrile and aqueous potassium dihydrogen phosphate acidified with orthophosphoric acid to pH 2.5. The hydroxycinnamic acids in the plum fruits were determined to be as follows: 5.33-181.54 mg/100 g of 4-Caffeoylquinic acid, 1.69-31.73 mg/100 g of 5-Caffeoylquinic acid, 0.54-5.77 mg/100 g of 3-p-Coumaroylquinic acid, and 0.04-0.63 mg/100 g of 3-Caffeoylquinic acid. Quercitin-3-rutinoside at 0.77-9.17 mg/100 g was dominant among flavonols. Three anthocyanins, namely, cyanidin-3-glucoside, cyanidin-3-rutinoside, and peonidin-3-glucoside, were identified in the studied plum fruits. The structural composition of plum fruit anthocyanins was dominated by cyaniding-3-glucoside, accounting for 60 to 90% of the total anthocyanin content. The obtained data on the content of phenolic components in fruits of specified plum varieties (Prunus domestica L.) point toward the potential of the use of the specified plum varieties as a source of hydroxycinnamic acids, anthocyanins, and flavonols in the population diet.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Study focused on determining the phenolic composition of plum fruits grown in Tambov oblast, Russia using high performance liquid chromatography. Plum fruits were found to be a potential source of phenolic compounds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Metabolomics and DNA-based authentication of two traditional Asian medicinal and aromatic species of Salvia subg. PerovskiaSubgenus Perovskia of the extended genus of Salvia comprises several Central Asian medicinal and aromatic species, of which S. yangii and S. abrotanoides are the most widespread. These plants are cultivated in Europe as robust ornamentals, and several cultivars are available. However, their medicinal potential remains underutilized because of limited information about their phytochemical and genetic diversity. Thus, we combined an ultra-high performance liquid chromatography quadrupole time of flight mass spectrometry (UHPLC-QTOF-MS) based metabolomics with DNA barcoding approach based on trnH-psbA and ITS2 barcodes to clarify the relationships between these two taxa. Metabolomic analysis demonstrated that aerial parts are more similar than roots and none of the major compounds stand out as distinct. Sugiol in S. yangii leaves and carnosic acid quinone in S. abrotanoides were mostly responsible for their chemical differentiation, whereas in roots the distinction was supported by the presence of five norditerpenoids in S. yangii and two flavonoids and one norditerpenoid in S. abrotanoides. To verify the metabolomics-based differentiation, we performed DNA authentication that revealed S. yangii and S. abrotanoides to be very closely related but separate species. We demonstrated that DNA barcoding coupled with parallel LC-MS profiling constitutes a powerful tool in identification of taxonomically close Salvia species.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Effect of rootstock selection on tree growth, yield, and fruit quality of lemon varieties cultivated in GreeceLemon is a prominent citrus fruit that supports regional economies worldwide. Several agronomic and fruit quality attributes are affected by the rootstock selection, thus its selection is essential for a successful grove. This study aims to compare the agronomic and quality attributes of four lemon cultivars ('Mikrokarpo Messaras', 'Nouvel Athos', 'Femminello Commune,' and 'Zia gara Bianca') grafted onto three rootstocks ('Sour Orange', 'Yuma Ponderosa lemon', and 'Volkameriana'). The yield and rootstock/scion ratio were estimated along with fruit morphological characteristics (size, equatorial, and polar diameter). Internal fruit quality was also estimated (total soluble solids, total acidity, juiciness, ascorbic acid, total phenols, and total antioxidant activity). 'Volkameriana' rootstock stood out among the studied rootstocks, as all grafted lemon varieties increased their productivity. Its combination with the Italian cultivar 'Femminello Commune' exhibited enhanced tree vigor and tree yield. For all studied cultivars, the use of 'Volkameriana' or 'Yuma Ponderosa lemon' rootstocks decreased the total soluble content and total acidity, increased the ascorbic acid content, and did not influence the TSS/TA ratio, total phenols or total antioxidant activity. In conclusion, the vigorous 'Volkameriana' and 'Yuma Ponderosa lemon' rootstocks are a promising replacement for 'sour orange'. This research provides valuable insights into the potential use of 'Yuma Ponderosa lemon' as a rootstock for lemons, as existing literature is rather limited.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>The state of appleThe RHS fruit naming service addresses the global fascination with apples beyond horticulture, catering to a rising demand for identification. Receiving 1000 to 1200 cultivars annually, the RHS covers the entire UK, aiming for comprehensive coverage, notably in the South East, South West, and North of England. Samples, sourced from diverse locations, inform planting trends and historical insights. Identification involves a mix of experience, books, online tools, and comparisons. DNA testing is a last resort. The top 10 cultivars in 2022, including Bramley's Seedling, reveal popular varieties and their characteristics. The service adapts to modern interests, receiving cultivars like Falstaff, reflecting a continual quest to preserve apple diversity.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Seed weight and optimal imbibition period for some herbaceous peony (Paeonia spp.) species native to SerbiaHerbaceous peonies are plant species with high ornamental and medicinal value. Due to their endangerment, wild peonies are protected by law in Serbia. Possible ways to protect them are propagation and/or cultivation. Peonies can be propagated vegetatively (by rhizome division) or generatively (with seeds). As peony seeds have a double dormancy and their germination is a long-term process, it is important to determine which seed characteristics and pre-treatments have a positive effect on germination. Since peony seed weight is an important seed characteristic, and imbibition period is an effective pre-treatment, the aim of this study was to evaluate the peony species native to Serbia, and to determine seed mass, seed imbibition capacity, the influence of seed weight on imbibition and the influence of habitat on the studied parameters, as the mentioned parameters have hardly been studied for the tested species. The research was conducted in 2021. on three peony species native to Serbia (Paeonia tenuifolia L.-fern leaf peony or steppe peony; Paeonia peregrina Mill.-Balkan peony or Kosovo peony and Paeonia daurica Andrews). According to our one-year research, there was no statistically significant difference in seed weight depending on the natural habitat within the species and also not between P. peregrina and P. daurica. A significant difference was found in seed weight between steppe peonies and the other two studied species. In agreement with our results, the optimal imbibition time is two to three days for P. peregrina and one to two days for P. tenuifolia and P. daurica. The findings can be used as preliminary research for future peony germination studies.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>This study examined seed weight and imbibition period of herbaceous peony species native to Serbia, providing preliminary research for future peony germination studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Effects of cultivar and plant origin on the aeroponic production of potato minitubersAeroponics is eco-friendly, soilless technology for the cultivation of vegetable plants that can be used for the production of pathogen-free pre-basic seed potato, namely minitubers. In aeroponic modules, the underground parts of potato plants grow suspended in the mist of finely dispersed nutrient solution to produce tubers, while the shoots grow above the module under greenhouse conditions. This study aimed to evaluate the effects of the cultivar and origin of planting material on the minituber production in an aeroponic facility in Guca, Serbia. Two potato cultivars, Sinora and Agria, and two types of planting material, acclimated microplants and plants originating from sprouted minitubers, were used in the study. Plants were grown in the 2019 season with a planting density of 24 plants per m2 and ~14-day harvest intervals. Agria plants of both plant origins steadily tuberized during most of the cultivation period and formed a significantly larger number of minitubers (13.61) compared to cultivar Sinora (3.35), which quickly completed the growth cycle. In both investigated cultivars, the mass of formed minitubers was significantly higher in the plants originating from minitubers (18.80 g) compared to plants of in vitro origin (9.04 g). Agria plants of minituber origin produced the heaviest minitubers (19.05 g), while Sinora plants of in vitro origin formed the least heavy tubers (5.29 g). The highest yield of minitubers, 6.26 kg m-2, was recorded for Agria plants of minituber origin. The results of our study suggest that both plant origin and potato genotype significantly affect minituber production in aeroponics.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>This study evaluated the effects of cultivar and plant origin on minituber production in an aeroponic facility. Agria plants of minituber origin had the highest yield and heaviest tubers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Experimental investigation of the responses of meadow buttercup (Ranunculus acris L.) to sodic salinity and its implications for habitat monitoringRanunculus acris L. is a native species widely distributed throughout Europe and is invasive in nonnative areas, causing substantial economic losses in pasture productivity. The present study examined the effects of sodic salinity on the growth and functioning of this species. Salinity stresses the germination process and seedling growth, indicating that the studied species experience serious limitations at 60-90 mmol dm&lt;sup&gt;-3&lt;/sup&gt; NaCl and cannot establish in habitats where salinity is equal to or greater than 150 mmol dm&lt;sup&gt;-3&lt;/sup&gt; NaCl. R. acris is tuned to subsaline habitats characteristic of temperate meadows, as its growth and functioning were the best when the plants were treated with 30 mmol dm&lt;sup&gt;-3&lt;/sup&gt; NaCl. Increasing salinity (60 and 90 mmol dm&lt;sup&gt;-3&lt;/sup&gt; NaCl) hampered growth, leaf morphology and photosynthesis but not mineral nutrition, as Na accumulation seemed to be the most outlined effect of NaCl application. Changes in leaf morphological characteristics coordinated well with Na content in those organs, which indicates that leaf appearance can be easily catchable sign of progressing salinity. Ultimately, progressing salinity reduces the competitiveness of the studied species, shifting its strategy to ruderal behavior, but under subsaline conditions, the strategy of this species seems to be most balanced.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>The study found that sodic salinity negatively affects the growth and functioning of the meadow buttercup. The species is best adapted to subsaline habitats and shows limitations at higher salinities. Increases in salinity hampered growth, leaf morphology, and photosynthesis, but not mineral nutrition. Leaf appearance can be a sign of progressing salinity. Ultimately, rising salinity reduces the competitiveness of the species and shifts its strategy to ruderal behavior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sexual reproduction in two mixed stands of coastal and interior Douglas-fir (Pseudotsuga menziesii (Mirb.) Franco) in GermanyAdult individuals and seeds of two mixed stands of coastal and interior Douglas-fir (Pseudotsuga menziesii (Mirb.) Franco) were analysed for genetic differentiation between the two varieties and evidence of intervarietal pollination. Clear genetic discrimination between the two varieties was observed based on multilocus evaluation of nine microsatellite markers using other Douglas-fir stands of known variety composition for comparison. Analysis of pollination distances showed that 80% of pollinations took place within a distance of about 44-55 m. Analysis of stand structure showed clearly separated areas of mainly coastal or interior Douglas-fir within both stands. Together with short pollination distances this led to an apparent dominance of intravarietal pollinations. However, analysis of pollination partners of trees growing near the border of the variety specific areas, does not indicate the existence of reproductive barriers between trees of the two varieties growing in mixed stands. Therefore, commercial seed harvesting in mixed stands should be avoided if the production of seed lots of pure coastal or interior Douglas-fir is intended.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Infestation of pine (Pinus sylvestris L.) seedlings with the pinewood nematode Bursaphelenchus xylophilus Steiner and Buhrer (Nickle) through wood sawdustKey message: There are various pathways for infesting pine trees with the pinewood nematode (PWN), Bursaphelenchus xylophilus. As a result of the experiment, we determined that sawdust infested with the nematode can pose a phytosanitary risk. Nematodes actively moved from infested sawdust into root or stem damaged pine seedlings. Context: The spread of PWN, Bursaphelenchus xylophilus in pine plantations and forests is caused by beetles of the genus Monochamus, but the nematode can also be introduced via different coniferous commodities. Aims: The study objective was to assess the possibility that injured roots and stems of Pinus sylvestris seedlings could be infested with PWN through nematode-infested sawdust.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>The study aimed to assess if pine seedlings could be infested with pinewood nematodes through sawdust. Findings showed that nematodes can move from infested sawdust into damaged seedlings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Seed treatment potential for the improvement of lucerne seed performance and early field growthSeed treatments have a potential to improve seed performance traits and consequently optimize crop establishment. However, there is a lack of systematic research for these techniques in lucerne, especially under field conditions. The goal of this study was to investigate the potential of various seed treatments on the improvement of lucerne germination and emergence under lab conditions and early seedling growth in the field. Compared treatments were heat treatment; seed priming with water, potassium permanganate, chitosan, vermitea, or bokashi juice; and seed coating with cinnamon, gypsum, wood ash, tannin quebracho, and cocoa powder. Among the seed priming methods, potassium permanganate and chitosan provided the best results in the improvement of seedling length or emergence dynamics, whilst coating with bentonite and gypsum could be recommended for having a positive impact on root development. Cinnamon powder significantly improved the emergence dynamics, seedling, and shoot length. The combination of priming and coating methods seems to be the most effective when assessed under the field conditions, where some positive response in root traits can be evaluated.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Various seed treatments, including heat treatment, seed priming, and seed coating, were tested for their potential to improve lucerne seed performance and early field growth. Seed priming with potassium permanganate and chitosan showed the best results for seedling length and emergence dynamics, while coating with bentonite and gypsum had a positive impact on root development. Cinnamon powder improved emergence dynamics, seedling, and shoot length. The combination of priming and coating methods was found to be the most effective in field conditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Effect of sweet pepper (Capsicum annuum L.) seedling age and cultivation method on seedling quality, photosynthetic parameters and productivityThe age of seedlings affects not only the quality of the seedlings but also the yield. The age of seedlings of sweet peppers grown in a greenhouse and their cultivation method has been little studied. Therefore, the aim of this research was to determine the effect of agrotechnological tools (direct seeding or transplanting) on sweet pepper (Capsicum annuum L.) seedling quality and crop yield. The research was carried out in a greenhouse covered with double polymeric film at the Institute of Horticulture, Lithuanian Research Centre for Agriculture and Forestry. Two factors were investigated: seedling establishment method (direct seeding and transplanting) and their different age (60, 50, and 40 days). The 60-day-old seedlings (both sown directly and grown by transplanting) were taller, and had more leaves, a larger leaf area, and a thicker stem, than the 50- and 40-day-old seedlings. The highest content of dry matter was found in the leaves of 60-day-old seedlings that were grown by transplanting. The chlorophyll index was also highest in the leaves of these seedlings. The highest photosynthetic parameters (photosynthetic rate, stomatal conductance, intercellular CO&lt;sub&gt;2&lt;/sub&gt;, transpiration rate) were found in the leaves of 40-day-old seedlings (both sown directly and grown by transplanting). Higher yields were demonstrated in sweet peppers whose seedlings were planted in the greenhouse at the age of 60 days and which were sown directly in cups.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>The age of sweet pepper seedlings and the cultivation method have an impact on seedling quality and productivity. 60-day-old seedlings grown by transplanting had higher yield.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>The content of Cd and Pb in herbs and single-component spices used in Polish cuisineSpices and herbs play an important role in the human diet, mostly due to the presence of essential oils and high antioxidant activity. Therefore, the toxicity of metals raises concerns about the safety of consumption of spices and herbs. This paper examines the content of Cd and Pb in fresh and dried herbs and single-component spices that are the most popular in Polish cuisine: 100 samples of nine kinds of dried herbs, 184 samples of 15 kinds of fresh herbs and 148 samples of 14 kinds of loose single-component spices. The level of Cd and Pb was determined using the GF AAS method. The safety of herbs and spices for consumption was estimated based on the percentage intake of Cd and Pb compared with the tolerable intake (% TWI, % BMDL), chronic daily intake (CDI), target hazard quotient (THQ), hazard index (HI) and comparisons of the results of chemical analyses with the maximum admissible levels of Cd and Pb in Poland and in the European Union. Calculated per fresh weight of the product, dried herbs on average contained 0.134 +or- 0.168 mg of Cd and 0.548 +or- 0.161 mg of Pb per kg&lt;sup&gt;-1&lt;/sup&gt;, fresh herbs on average contained 0.004 +or- 0.007 mg of Cd and 0.039 +or- 0.033 mg of Pb per kg&lt;sup&gt;-1&lt;/sup&gt;, and the mean content of Cd in spices was 0.017 +or- 0.019 mg per kg&lt;sup&gt;-1&lt;/sup&gt; and 0.064 +or- 0.050 mg of Pb. The % TWI, % BMDL, CDI, THQ and HI (Cd + Pb) for all the analysed products were lower than 1. The results do not imply a risk due to the supply of Cd and Pb with the diet to the human body, primarily due to the small intake of these products. However, it should be highlighted that the content of Cd in dried coriander and estragon and that of Pb in watercress, jiaogulan, celery, basil and dill exceeded the acceptable limit. Thus, their consumption for people from particularly sensitive groups such as babies, pregnant and breastfeeding women and people should be carefully limited.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Cd and Pb content in herbs and spices used in Polish cuisine was examined. The results showed low risk of toxicity, but some products exceeded acceptable limits and should be consumed with caution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Phenotyping grapevine cultivars for resistance to Eutypa dieback. (Special issue on grapevine trunk diseases.)Eutypa dieback of grapevine is a trunk disease that affects vineyard productivity. Wood symptoms of this disease develop consistently in greenhouse-grown plants, after inoculation of woody stems with the causal fungus Eutypa lata. Wood symptoms are a common measure of host cultivar resistance and E. lata isolate virulence. Leaf symptoms of the disease also develop in the greenhouse, although reports of low correlations between severity of wood and leaf symptoms (for some cultivars and isolates) indicate that a definitive procedure is required for evaluating cultivar resistance. Three 'phenotyping assays', replicated with two E. lata isolates (BX1-10 and M14), were assessed for quantifying resistance of a set of Vitis vinifera cultivars ('Black Corinth', 'Carignane', 'Husseine', 'Merlot', 'Muscat Hamburg', 'Palomino', 'Peloursin', 'Primitivo', and 'Thompson Seedless'). The methods were: Assay 1 (leaf and woody-stem symptoms measured 1 year post-inoculation on plants propagated from rooted, dormant cuttings); Assay 2 (green stem symptoms measured 4 months post-inoculation on plants propagated from rooted, green cuttings); and Assay 3 (leaf symptoms measured 6 weeks post-inoculation on plants propagated from rooted, dormant cuttings). High rates of mortality among some cultivars ('Merlot') in Assay 3 confounded results based on leaf symptoms. Results from Assays 1 and 2 were more consistent with each other, especially for the most resistant cultivars ['Merlot' and 'Primitivo' (aka 'Zinfandel')]', than they were for these cultivars in Assay 3. Compared to resistant cultivars, there was more variation in the most susceptible cultivar, including 'Black Corinth', 'Carignane', 'Husseine', and 'Thompson Seedless', regardless of the assay. Assay 1 with isolate BX1-10 was the most repeatable and provided data on wood and leaf symptoms for cultivar comparisons. Assay 2 was the most rapid, and gave results similar to those from Assay 1. Assay 2 also accommodated germplasm that can only be propagated from green cuttings.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Impact of quince clonal rootstocks on yield and fruit quality characteristics of European pear (Pyrus communis L.) cultivarsThe study was conducted during two sequential research years of 2020 and 2021 at the fruit research station of Ondokuz Mayis University, Turkiye. The aim of the research was to assess the effect of quince clonal rootstocks (Province Quince BA29 [BA29], Quince A [QA], and Quince MC [MC]) on yield and fruit quality of pear cultivars ('Deveci', 'Williams', 'Santa Maria' and 'Abate Fetel'). Fruit weight, width, length, fruit stalk length and thickness, fruit color traits (L*, a*, b*, chroma, hue degrees ), fruit firmness, total soluble solids, acidity, pH, marketable fruit rate, black spotted fruit rate, and preharvest fruit drop rate were evaluated as quality properties. In the case of yield attributes, number of fruit per tree, yield per tree, yield per hectare, yield per trunk cross sectional area, and yield per canopy volume were taken into consideration. Results of the research revealed that all aforementioned evaluated characteristics were statistically significantly affected under three factors combination at the 5 level of significance (P &lt; 0.05) when Duncan's multiple range test was applied to the data. In brief, it was revealed that treatment combinations affected yield and quality characteristics. In general, in terms of yield per tree and yield per hectare, it was observed that the 'Santa Maria' cultivar gave better results in all rootstocks.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Physiological and biochemical parameters of drought tolerance of some genotypes of garden rosesTo identify drought resistance of the studied genotypes of garden roses during the period of maximum probability of drought on the Southern Coast of the Crimea, the water regime, proline concentration, enzyme activity and chlorophyll fluorescence induction parameters under controlled dehydration were studied. Analysis of water regime parameters showed that under conditions of water stress, the best water-holding and recovery capabilities were shown by leaves of cv. 'Borisfen' and R. hugonis species. Species R. indica, R. bracteata, R. rouletti, R. foetida showed instability of water regime under conditions imitating dry weather. Studies of changes in biochemical parameters revealed that under relatively mild wilting conditions after removal of stress, metabolic processes are restored in R. hugonis, R. bracteata, R. indica and cv. 'Borisfen'. Wilting under conditions imitating dry weather does not cause irreversible metabolic disturbances in R. hugonis, R. bracteata, and cv. 'Borisfen'. Under different wilting conditions, cv. 'Borisfen'and R. foetida species had relatively stable functioning of FS II. Simulation of dry weather led to irreversible disturbances in the oxygen-releasing complex and thylakoid destruction in R. gallica during the stressor, and in R. indica and R. bracteata species - after recovery of water availability. The highest drought tolerance is in in cv. 'Borisfen' and R. hugonis sprcies.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Physiological and biochemical characteristics of drought tolerance in different garden rose genotypes were studied. The best water-holding capabilities were found in cv. 'Borisfen' and R. hugonis species, while R. indica, R. bracteata, R. rouletti, R. foetida showed instability. Recovery of metabolic processes was observed in R. hugonis, R. bracteata, R. indica, and cv. 'Borisfen' after mild wilting, but irreversible disturbances occurred in R. gallica, R. indica, and R. bracteata under severe wilting conditions. The highest drought tolerance was found in cv. 'Borisfen' and R. hugonis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Biodegradable mulching film vs. traditional polyethylene: effects on yield and quality of San Marzano tomato fruitsMulching is a common practice for improving crop yield and obtaining an out-of-season production, but when made using plastic materials it can bring environmental problems due to the management and the disposal of films at the end of the cropping seasons. To increase the sustainability of this practice, recently, mulching films made with biodegradable organic materials have become more widely used. Our aim was to evaluate the effect of a biodegradable mulching film on yield and qualitative traits of the San Marzano tomato fruits over two years (2014 and 2015). Two different types of mulching were tested: (i) black biodegradable film (MB12) and (ii) black low-density polyethylene (LDPE) were compared to bare soil (BS). Both mulching films elicited a 25% increase in yield, mainly due to the significantly higher number of fruits per square meter, compared to BS. Both mulching films also elicited a 9.9% increase in total soluble solids and a 57% increase in carotenoid content, while firmness showed the highest value in BS fruits. MB12 determined the highest value of the Hunter color ratio a/b of tomato fruits, followed by LDPE, while the lowest value was recorded in BS fruits. Both mulching films elicited an increase of 9.6%, 26.0%, and 11.7% for flavonoids, polyphenols, and AsA, respectively. In 2014, the MB12 degradation started at 71 days after transplant (DAT); in 2015, at 104 DAT. Therefore, replacing polyethylene with biodegradable film would seem to be an agronomically efficient and environmentally sustainable practice.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Biodegradable mulching film increases tomato yield and quality. Both types of film tested (biodegradable and polyethylene) showed positive effects, with biodegradable film being more sustainable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Patterns of copper bioaccumulation and translocation in grapevine grafts depending on rootstocksThe long-term use of copper (Cu) fungicides in viticulture in Europe has led to Cu accumulation in vineyard top soils. However, less is known about the accumulation of Cu in grapevine grafts after the callusing process/before planting in the nursery. This paper presents the capacity of 5BB and SO4 rootstocks to accumulate Cu, as well as the patterns of translocation in the grafts. After heat forcing (callusing), the grapevine grafts of Sauvignon Blanc on 5BB and SO4 rootstocks were grown in pots for six months in a glasshouse and exposed to various Cu formulations (Cu-oxychloride, Cu-gluconate) and concentrations in peat (50, 150, 500, and 1000 mg Cu of dry weight (DW)). In addition to monitoring the shoot growth dynamics and analyzing the copper content in graft organs, bioaccumulation (BAFs) and translocation factors (TFs) of Cu were calculated. The mean Cu concentrations were ranked as follows: roots (15-164) &gt; rootstock trunks (8-38) &gt; canes (5-21) mg kg&lt;sup&gt;-1&lt;/sup&gt; DW. The Cu concentrations depended on the Cu formulation and concentration in the substrate. Higher Cu content was found in the roots of both rootstocks (5BB and SO4, 23-155 and 15-164 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW, respectively) and the lowest in the canes (less than 10 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW) of grafts grown in Cu-oxychloride-treated peat. Based on the BAFs and TFs, both rootstocks could be considered as Cu exclusive. A higher translocation rate was determined in systemic Cu-gluconate and SO4 rootstock. With shoot length measurements, the significant inhibitory effects of Cu on grapevine grafts growth could not be confirmed, despite the inhibitory effects that were clearly expressed in the first two months of growth. Soils containing more than 500 mg Cu/kg&lt;sup&gt;-1&lt;/sup&gt; are less suitable for growing vine grafts.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>This study investigated the accumulation and translocation of copper in grapevine grafts grown in different soil media. Both rootstocks showed high copper accumulation, with SO4 rootstock having a higher translocation rate. Soil with high copper content was found to inhibit graft growth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Analysis regarding the organization, establishment, maintenance and harvesting of sea bunckthorn in plantationRomania brings its contribution to the European Union through a valuable heritage, with numerous species of plants and animals, some endemic and relict, among them medicinal plants and those with high nutritional value. Romania's geographical position and climate have always offered special conditions for favourable for the culture of fruit trees and shrubs. Around towns, in familiar gardens, in small spaces around buildings, on walls and trellises, the cultivation of various species of trees and shrubs is a leisure occupation and a source of fruit supply. Fruit trees and shrubs in parks, around houses, on roads and alignments, in addition to aesthetics and fruit production, contribute to improving the climate, preventing and combating environmental pollution. Hippophae rhamnoides-Sea buckthorn is a shrub of particular importance, found both in spontaneous flora and in controlled cultures. In Romania, sea buckthorn grows spontaneously in the Subcarpathian area of Moldova and Muntenia. Depending on the place where it is planted, sea buckthorn can grow as a shrub or tree at a height of 1.5 m to 3.5 m, or even more. In arid areas it can become creeping, being an adaptation to environmental conditions. Sea buckthorn is used in food, medicine, animal feed and forestry. Used in agriculture, buckthorn has a very important role in increasing the winter resistance of bees. From a nutritional point of view, sea buckthorn has a high content of minerals, vitamins, oils, acids and unsaturated fats, present in the fruits and leaves. Sea buckthorn fruits have a high content of vitamin E, C and carotenoids with strong oxidative action, which slow down aging. Sea buckthorn oil relieves light medication, heals wounds and skin lesions, burns and speeds up the healing process Considering the special valences in maintaining health and treating some ailments, we must take care of this natural wealth of Romania - buckhorn, and we must not consider it inexhaustible, in order not to disappear especially from the spontaneous flora before our eyes.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sea buckthorn is a valuable shrub in Romania, with numerous uses including food, medicine, and forestry. It has high nutritional value and can improve the climate and prevent pollution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Reciprocal bark exchange helps to disentangle tree species-dependent bark and wood trait effects on invertebrate diversityPrevious studies showed that bark cover at early-decay stage had profound control on the invertebrate assemblages of bark and wood, with possible consequence for the decomposition process. However, previous experimental designs could not disentangle how bark versus wood traits affect the invertebrate assemblage process in bark and/or wood separately because wood traits of different tree species may vary independently from bark traits. Furthermore, we do not know whether such tree species-specific bark trait effects are still influential at mid-decay stage. To unravel whether and how bark and wood traits influence invertebrate communities in tree logs at mid-decay stage, we introduce reciprocal bark transplantation within pairs of different tree species as a new method. We applied this method to two pairs of phylogenetically contrasting species of gymnosperms (pair I: Araucaria araucana and Cryptomeria japonica, pair II: Picea abies and Thuja plicata) and another gymnosperm (Chamaecyparis lawsoniana) set as disturbance control to test for potential bark manipulation artefacts on invertebrate community composition. Our bark exchange experiment revealed that both bark and wood host abundant and divergent subsets of invertebrates on mid-decay logs of different tree species. We further documented that the invertebrate community composition was predominantly shaped by the traits of host tissue per se, while also being significantly but less strongly affected by the traits of the other tissue, that is, the adjacent bark or wood. Our results indicated that bark trait effects faded with time and how long bark trait effects persist greatly depends on bark thickness. Synthesis. Our study suggests that maintaining deadwood heterogeneity related to variation between tree species and bark versus wood, is important for nursing a large biodiversity of invertebrates. Combined with bark removal methodology, our bark exchange method can be further extended to more decay stages and more forest biomes to track bark trait effects and bark induced priority effects on deadwood decomposition, and its associated invertebrate and microbial communities.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Reciprocal bark exchange between tree species reveals that both bark and wood have different effects on invertebrate communities in mid-decay logs, emphasizing the importance of maintaining deadwood heterogeneity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Basic chemical composition, antioxidant activity and selected polyphenolic compounds profile in garlic leaves and bulbs collected at various stages of developmentGarlic is commonly used as vegetable or spice and as a herb in folklore as well as traditional medicine in many countries. The current study aimed to compare the chemical composition, antioxidant activity, and the content of selected polyphenolic compounds in cloves as well as leaves of winter garlic plants of the Harnas and Ornak cultivars, which are of Polish origin. Garlic was grown from cloves for three years (2018-2020) in the experimental field of the University of Agriculture in Krakow, Poland. The research material was harvested on three dates: May; June, unripe garlic plants; and in July, the plant at full maturity. The content of vitamin C in the fresh material was determined. The proximate analysis was determined in the freeze-dried plants of garlic, and the total carbohydrate content was calculated. The antioxidant activity and the content of selected polyphenolic compounds were also determined. Garlic cloves showed a higher content of dry matter, and total carbohydrates than the leaves of garlic plants. On the other hand, in the leaves, a significantly higher content of protein, total fat and ash were observed. Additionally, garlic leaves were characterised by a higher content of vitamin C, total polyphenols, and a higher antioxidant activity than garlic cloves. The leaves of young garlic plants from the May harvest were distinguished by a higher content of these compounds. The dominant phenolic compounds were catechin and epicatechin. The leaves of young plants can be a valuable source of bioactive substances, especially in early spring.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>The study compared the chemical composition and antioxidant activity of garlic leaves and bulbs at different stages of development. Garlic leaves contained more protein, fat, ash, vitamin C, and polyphenols than bulbs. Young plants had higher levels of bioactive compounds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>No evidence for seed transmission of tomato yellow leaf curl Sardinia virus in tomatoSeed transmission is an important factor in the epidemiology of plant pathogens. Geminiviruses are serious pests spread in tropical and subtropical regions. They are transmitted by hemipteran insects, but a few cases of transmission through seeds were recently reported. Here, we investigated the tomato seed transmissibility of the begomovirus tomato yellow leaf curl Sardinia virus (TYLCSV), one of the agents inducing the tomato yellow leaf curl disease, heavily affecting tomato crops in the Mediterranean area. None of the 180 seedlings originating from TYLCSV-infected plants showed any phenotypic alteration typical of virus infection. Moreover, whole viral genomic molecules could not be detected in their cotyledons and true leaves, neither by membrane hybridization nor by rolling-circle amplification followed by PCR, indicating that TYLCSV is not a seed-transmissible pathogen for tomato. Examining the localization of TYLCSV DNA in progenitor plants, we detected the virus genome by PCR in all vegetative and reproductive tissues, but viral genomic and replicative forms were found only in leaves, flowers and fruit flesh, not in seeds and embryos. Closer investigations allowed us to discover for the first time that these embryos were superficially contaminated by TYLCSV DNA but whole genomic molecules were not detectable. Therefore, the inability of TYLCSV genomic molecules to colonize tomato embryos during infection justifies the lack of seed transmissibility observed in this host.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tomato yellow leaf curl Sardinia virus (TYLCSV) does not transmit through tomato seeds, as genetic material was not detected in seedlings or embryos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Improving field establishment and yield in seed propagated Miscanthus through manipulating plug size, sowing date and seedling ageBiomass crops provide significant potential to substitute for fossil fuels and mitigate against climate change. It is widely acknowledged that significant scale up of biomass crops is required to help reach net zero targets. Miscanthus is a leading biomass crop embodying many characteristics that make it a highly sustainable source of biomass but planted area remains low. Miscanthus is commonly propagated via rhizome, but efficient alternatives may increase uptake and help diversify the cultivated crop. Using seed-propagate plug plants of Miscanthus has several potential benefits such as improving propagation rates and scale up of plantations. Plugs also provide an opportunity to vary the time and conditions under protected growth, to achieve optimal plantlets before planting. We varied combinations of glasshouse growth period and field planting dates under UK temperate conditions, which demonstrated the special importance of planting date on yield, stem number and establishment rates of Miscanthus. We also propagated Miscanthus in four different commercial plug designs that contained different volumes of substrate, the resulting seedlings were planted at three different dates into field trials. In the glasshouse, plug design had significant effects on above and belowground biomass accumulation and at a later time point belowground growth was restricted in some plug designs. After subsequent growth in the field, plug design and planting date had a significant effect on yield. The effects of plug design on yield were no longer significant after a second growth season but planting date continued to have a significant effect. After the second growth year, it was found that planting date had a significant effect on surviving plants, with the mid-season planting producing higher survival rates over all plug types. Establishment was positively correlated with DM biomass produced in the first growth season. Sowing date had a significant effect on establishment but the impacts of plug design were more nuanced and were significant at later planting dates. We discuss the potential to use the flexibility afforded by seed propagation of plug plants to deliver significant impacts in achieving high yield and establishment of biomass crops during the critical first two years of growth.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Using seed-propagate plug plants of Miscanthus can improve propagation rates and scale up of plantations, while plug design and planting date have significant effects on yield and establishment rates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Experimental thermocline deepening highlights the resilience of the seagrass Posidonia oceanica: an opportunity to investigate shoot adaptabilityThe deepening of the thermocline, correlated to the rising temperature, can contribute affecting seagrass performance in a changing climate scenario. Here, the effect of the thermocline deepening on the seagrass Posidonia oceanica has been investigated in Cyprus through a manipulative experiment that allowed also testing the effects of the irradiance, origin depth and translocation. P. oceanica shoots were collected from 31 m of depth and transplanted at 12 m under a shading net, simulating the 31 m light conditions. Morphology (i.e. leaf area, leaf necrosis, number of leaves) and physiology (i.e. growth rate) were evaluated. Thermocline and origin depth effects were found with an increase of leaf necrosis, while a translocation effect was highlighted by a decrease in leaf area. No differences in shoot growth rate due to treatments were found. This experiment indicated an overall wide morphological and physiological acclimation of P. oceanica cuttings in coping with future thermocline conditions and it indirectly provides information for restoration efforts.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Three active phytotoxic compounds from the leaves of Albizia richardiana (Voigt.) king and prain for the development of bioherbicides to control weedsThe global population is increasing day by day. To meet the food demand for such a huge number of people, crop production must increase without damaging the environment, and to prevent synthetic chemical herbicides from polluting the environment, controlling weeds using bioherbicides is essential. Accordingly, using phytotoxic substances obtained from plants for biological weed management has attracted attention. The plant Albizia richardiana possesses phytotoxic compounds that have been previously recorded. Hence, we have conducted this research to characterize more phytotoxic compounds in Albizia richardiana. Aqueous methanolic extracts of Albizia richardiana plant significantly restricted the growth of the examined plants lettuce and Italian ryegrass in a species- and concentration-dependent manner. Three active phytotoxic compounds were isolated through various chromatographic methods and identified as compound 1, 2, and 3. Compound 3 exhibited stronger phytotoxic potentials than the other two compounds and significantly suppressed the growth of Lepidium sativum (cress). The concentration of the compounds required for 50% growth reduction (I&lt;sub&gt;50&lt;/sub&gt; value) of the Lepidium sativum seedlings ranged between 0.0827 to 0.4133 mg/mL. The results suggest that these three phytotoxic compounds might contribute to the allelopathic potential of Albizia richardiana.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Research on Albizia richardiana plant revealed three phytotoxic compounds that can be used as bioherbicides to control weeds, potentially reducing the need for synthetic chemical herbicides.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Multispecies crop mixtures increase insect biodiversity in an intercropping experimentRecent biodiversity declines require action across sectors such as agriculture. The situation is particularly acute for arthropods, a species-rich taxon providing important ecosystem services. To counteract the negative consequences of agricultural intensification, creating a less hostile agricultural 'matrix' through growing crop mixtures can reduce harm for arthropods without yield losses. While grassland biodiversity experiments showed positive plant biodiversity effects on arthropods, experiments manipulating crop diversity and agrochemical input used to study arthropods are lacking. Here, we experimentally manipulated crop diversity (1-3 species, fallows), crop species (wheat, faba bean, linseed and oilseed rape) and agrochemical input (high vs. low) and studied responses of arthropod biodiversity. We tested whether arthropod responses were affected by crop diversity, mixtures and management. Additionally, we measured crop biomass. Crop biomass increased with crop diversity under high-input management, while under low management intensity, biomass was highest in two-species mixtures. Increasing crop diversity positively affected arthropod abundance and diversity, under both low- and high-input management. Crop mixtures containing faba bean, linseed or oilseed rape had particularly high arthropod diversity. Mass-flowering crops attracted more arthropods than legumes or cereals. Integrating intercropping into agricultural systems could increase flower visits by insects up to 1.5 million per hectare, thus likely also supporting pollination and pest-control ecosystem services. Flower visitor network complexity increased in mixtures containing linseed and faba bean and under low-input management. Intercropping can counteract insect declines in farmland by creating beneficial matrix habitat without compromising crop yield.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Crop mixtures, specifically those containing faba bean, linseed, or oilseed rape, can increase arthropod biodiversity and abundance, supporting pollination and pest-control ecosystem services without compromising crop yield.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Microbiological indication of soils in forest plantations of the Shirinskaya steppeTo control soil degradation and desertification, sustainable long-term protective forest plantations that perform water and soil protection functions are commonly used on the erosion-prone lands of steppe ecosystems. In the Shirinskaya dry lake-basin steppe (Khakassia) in the coastal zone of Lake Shira, the staff of the Sukachev Institute of Forest, Siberian Branch, Russian Academy of Sciences, has created artificial plantings of forest cultures (Pinus sylvestris L., Larix sibirica L., and Ulmus humilis L.) and provenance trials (P. sibirica Du Tour and P. sylvestris). A wildfire damaged the coastal 40-year-old forest cultures in 2015; the surface soil layer was burnt out. Agrotechnical soil cultivation for planting provenance trials (2017) and wildfire in forest cultures affected the state of soil microbiomes. The aim of the research is to assess the rate of recovery and formation of biological soil properties in forest plantations after disturbances (wildfire and agrotechnical influences) in the coastal dry-steppe zone of Lake Shira using microbiological indicators. The research objects are the Burnt Areas (postfire and postconflagration areas) and Provenance Trial Plantation sites. The use of microbial indicators shows that the soil microbiomes on the burnt sites are restored with different intensities. The recovery of soil microbiomes on the postfire sites is much faster than in the postconflagration sites, as is evidenced by the high values of the total number of microorganisms (TNM), microbial biomass (MB), enzymatic activity (EA), and humification coefficient (C&lt;sub&gt;h&lt;/sub&gt;), which are close to the control values. Specific microbial respiration (qCO&lt;sub&gt;2&lt;/sub&gt;) is within the range of natural variability. The burnt soil is characterized by an increased proportion of hydrolytic microorganisms actively participating in the decomposition of half-burnt plant residues. On the provenance trial sites under the pine seedlings, specific rhizosphere microbiomes are forming due to the influence of the root exudates of climatypes. The values of TNM, ETGM, MB, EA, and qCO&lt;sub&gt;2&lt;/sub&gt; change either upwards or downwards; the state of microbial communities has not reached its ecophysiological norm.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>The study examines the recovery and formation of biological soil properties in forest plantations after disturbances such as wildfires using microbiological indicators.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Functional analysis of the P-type ATPases Apt2-4 from Cryptococcus neoformans by heterologous expression in Saccharomyces cerevisiaeLipid flippases of the P4-ATPase family actively transport phospholipids across cell membranes, an activity essential for key cellular processes such as vesicle budding and membrane trafficking. Members of this transporter family have also been implicated in the development of drug resistance in fungi. The encapsulated fungal pathogen Cryptococcus neoformans contains four P4-ATPases, among which Apt2-4p are poorly characterized. Using heterologous expression in the flippase-deficient S. cerevisiae strain dnf1dnf2drs2, we tested their lipid flippase activity in comparison to Apt1p using complementation tests and fluorescent lipid uptake assays. Apt2p and Apt3p required the co-expression of the C. neoformans Cdc50 protein for activity. Apt2p/Cdc50p displayed a narrow substrate specificity, limited to phosphatidylethanolamine and -choline. Despite its inability to transport fluorescent lipids, the Apt3p/Cdc50p complex still rescued the cold-sensitive phenotype of dnf1dnf2drs2, suggesting a functional role for the flippase in the secretory pathway. Apt4p, the closest homolog to Saccharomyces Neo1p, which does not require a Cdc50 protein, was unable to complement several flippase-deficient mutant phenotypes, neither in the presence nor absence of a beta-subunit. These results identify C. neoformans Cdc50 as an essential subunit for Apt1-3p and provide a first insight into the molecular mechanisms underlying their physiological functions.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Formation of seed potato yield depending on the elements of cultivation technologyIt is possible to realise the maximum genetic potential of modern potato varieties by improving the elements of agricultural technology, in particular, optimising plant nutrition, which determines the relevance of this study. The purpose of the study was to substantiate the specific features of potato productivity formation depending on the elements of growing technology in Forest-Steppe conditions. Field studies were conducted during 2019-2021 on chernozem soils. The features of growth and development of potato varieties of various ripeness groups Laperla, Granada, and Memphis in Forest-Steppe conditions are examined. It is established that the yield of potato seed tubers of the varieties under study varies depending on the dose and method of fertilisation, the fraction of planting tubers, and varietal characteristics. The highest indicators of individual productivity of potato plants of the Laperla, Granada, and Memphis varieties were formed when locally applied in rows N45R45K45 against the background of semi-rotted manure, phosphorus-potassium fertiliser, and the use of seed tubers with a fraction of &gt;60 mm. As a result of the action of the factors under study, the number of stems in the bush and under it increased. A strong direct correlation was established between the number of stems in the bush and the number of tubers (r=0.78), with a coefficient of determination of 61.0%. The maximum yield of potato tubers of the examined potato varieties (29.7-41.1 t/ha) was obtained by local application of N45R45K45 against the background of semi-rotted manure and phosphorus-potassium fertiliser, depending on the size of seed tubers by the largest transverse diameter. It was identified that the use of tubers with a fraction of &gt;60 mm for planting the potato varieties under study is irrational since the consumption of seed material exceeds the yield growth indicators. It was determined that Laperla, Granada, and Memphis tubers with a fraction of 28-60 mm are optimal for planting potato varieties of different ripeness groups. The research results can be used to adjust the elements of agricultural technology of seed potatoes, obtain high-quality planting material, and conduct profitable agribusiness.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Optimizing plant nutrition and cultivation methods can maximize potato yield. The study examines the growth and development of different potato varieties in Forest-Steppe conditions, finding that yield depends on fertilization, planting tuber fraction, and variety characteristics. Maximum yield is achieved with specific fertilization methods and using seed tubers of a certain size. The findings can be applied to improve seed potato production and agribusiness profitability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Low-density polyethylene film biodegradation potential by fungal species from ThailandAccumulated plastic waste in the environment is a serious problem that poses an ecological threat. Plastic waste has been reduced by initiating and applying different alternative methods from several perspectives, including fungal treatment. Biodegradation of 30 fungi from Thailand were screened in mineral salt medium agar containing low-density polyethylene (LDPE) films. Diaporthe italiana, Thyrostroma jaczewskii, Collectotrichum fructicola, and Stagonosporopsis citrulli were found to grow significantly by culturing with LDPE film as the only sole carbon source compared to those obtained from Aspergillus niger. These fungi were further cultured in mineral salt medium broth containing LDPE film as the sole carbon source for 90 days. The biodegradation ability of these fungi was evaluated from the amount of CO&lt;sub&gt;2&lt;/sub&gt; and enzyme production. Different amounts of CO&lt;sub&gt;2&lt;/sub&gt; were released from D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger culturing with LDPE film, ranging from 0.45 to 1.45, 0.36 to 1.22, 0.45 to 1.45, 0.33 to 1.26, and 0.37 to 1.27 g/L, respectively. These fungi were able to secrete a large amount of laccase enzyme compared to manganese peroxidase, and lignin peroxidase enzymes detected under the same conditions. The degradation of LDPE films by culturing with these fungi was further determined. LDPE films cultured with D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger showed weight loss of 43.90%, 46.34%, 48.78%, 45.12%, and 28.78%, respectively. The tensile strength of LDPE films cultured with D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger also reduced significantly by 1.56, 1.78, 0.43, 1.86, and 3.34 MPa, respectively. The results from Fourier transform infrared spectroscopy (FTIR) reveal an increasing carbonyl index in LDPE films culturing with these fungi, especially C. fructicola. Analysis of LDPE films using scanning electron microscopy (SEM) confirmed the biodegradation by the presence of morphological changes such as cracks, scions, and holes on the surface of the film. The volatile organic compounds (VOCs) emitted from LDPE films cultured with these fungi were analyzed by gas chromatography-mass spectrometry (GC-MS). VOCs such as 1,3-dimethoxy-benzene, 1,3-dimethoxy-5-(1-methylethyl)-benzene, and 1,1-dimethoxy-decane were detected among these fungi. Overall, these fungi have the ability to break down and consume the LDPE film. The fungus C. fructicola is a promising resource for the biodegradation of LDPE which may be further applied in plastic degradation systems based on fungi.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fungi from Thailand were tested for their ability to biodegrade low-density polyethylene (LDPE) films. Several fungi showed significant growth and degradation of LDPE films, indicating their potential use in plastic degradation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Bot gummosis of lemon (Citrus x limon) caused by Neofusicoccum parvumNeofusicoccum parvum, in the family Botryosphaeriaceae, was identified as the causal agent of bot gummosis of lemon (Citrus x limon) trees, in the two major lemon-producing regions in Italy. Gummy cankers on trunk and scaffold branches of mature trees were the most typical disease symptoms. Neofusicoccum parvum was the sole fungus constantly and consistently isolated from the canker bark of symptomatic lemon trees. It was identified on the basis of morphological characters and the phylogenetic analysis of three loci, i.e., the internal transcribed spacer of nuclear ribosomal DNA (ITS) as well as the translation elongation factor 1-alpha (TEF1) and beta-tubulin (TUB2) genes. The pathogenicity of N. parvum was demonstrated by wound inoculating two lemon cultivars, 'Femminello 2kr' and 'Monachello', as well as citrange (C. sinensis x Poncirus trifoliata) 'Carrizo' rootstock. In artificial inoculations, the fungus was very aggressive on lemons and weakly virulent on citrange, consistently with symptoms observed in the field as a consequence of natural infections. This is the first report of N. parvum, both in a wide and in a strict taxonomic sense, as a pathogen of lemon in Italy.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Low efficacy of Isaria fumosorosea against box tree moth Cydalima perspectalis: are host plant phytochemicals involved in herbivore defence against fungal pathogens?Buxus sp. is an important native and ornamental tree in Europe threatened by a serious invasive pest Cydalima perspectalis. The larvae of this moth are able to defoliate box trees and cause their death. The development of novel biopesticides targeting this pest might help protect Buxus trees grown wildly or in city parks. Laboratory experiments were conducted to assess the efficacy of entomopathogenic fungus Isaria fumosorosea strain CCM 8367 against C. perspectalis. The last-instar larvae of the box tree moth were treated by the suspension of fungus conidia at concentrations ranging from 1 x 10&lt;sup&gt;4&lt;/sup&gt; to 1 x 10&lt;sup&gt;8&lt;/sup&gt; spores per 1 mL. Fungus infection was observed mostly in pupae, but the maximum mortality did not exceed 60%, indicating a very low susceptibility of C. perspectalis to I. fumosorosea. Furthermore, a number of ungerminated fungal conidia were found on larval cuticles using a low-temperature scanning electron microscopy. Our data also reveal that the hydroalcoholic extract from B. sempervirens leaves significantly inhibits both the germination of I. fumosorosea conidia and fungus growth. It can be speculated that the strain CCM 8367 of I. fumosorosea is not a potent biocontrol agent against C. perspectalis and low virulence of the fungus might be due to the accumulation of host plant phytochemicals having antimicrobial activity in larval cuticle of the pest.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>The efficacy of Isaria fumosorosea against the box tree moth is low. Host plant phytochemicals may be involved in the moth's defense against fungal pathogens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Defaunation changes leaf trait composition of recruit communities in tropical forests in French GuianaHunting impacts tropical vertebrate populations, causing declines of species that function as seed dispersers and predators, or that browse seedlings and saplings. Whether and how the resulting reductions in seed dispersal, seed predation, and browsing translate to changes in the tree composition is poorly understood. Here, we assess the effect of defaunation on the functional composition of communities of tree recruits in tropical rainforests in French Guiana. We selected eight sites along a gradient of defaunation, caused by differences in hunting pressure, in otherwise intact old-growth forests in French Guiana. We measured shifts in functional composition by comparing leaf and fruit traits and wood density between tree recruits (up to 5 cm diameter at breast height) and adults, and tested whether and how these compositional shifts related to defaunation. We found a positive relationship with defaunation for shifts in specific leaf area, a negative relationship for shifts of leaf toughness and wood density, and a weak relationship for shifts in fruit traits. Our results suggest that the loss of vertebrates affects ecological processes such as seed dispersal and browsing, of which browsing remains understudied. Even though these changes sometimes seem minor, together they result in major shifts in forest composition. These changes have long-term ramifications that may alter forest dynamics for generations.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Defaunation caused by hunting in French Guiana's rainforests is affecting the functional composition of tree communities, resulting in shifts in leaf and fruit traits and wood density. These changes have long-term ecological consequences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Disentangling the effects of biomass and productivity in plant competitionThe relationship between competition and productivity in plant communities is unclear, and this is likely to be due to (1) a confusion in the literature between productivity and biomass, (2) the lack of studies assessing variation in competition in all combinations of biomass and productivity. We assessed the outcome of plant-plant interactions by removing the neighbors around five focal species in 14 herbaceous communities with contrasting biomasses and productivities: meadows with high biomass and productivity, heathlands with high biomass and low productivity, understory communities of deciduous forests with low biomass and high productivity and calcareous grasslands with low biomass and low productivity. Competition intensity was quantified with the relative interaction index (RII) calculated for both survival and growth of the transplanted targets assessed with the increase in leaf number. To examine which traits better explain variation in competition and what drives variation in diversity, we also quantified litter decomposition rate, species composition and diversity and six morphological traits related to plant size and growth rate for eight dominant species of each community. Our main questions were: (1) Is competition mostly related to biomass or productivity? (2) Which traits of the community dominants better explain variation in competition? (3) Is variation in competition and related traits correlated with variation in diversity? Competition for survival significantly increased with increasing community biomass (but not productivity). In addition, competition for survival increased with the size traits and competitive effects of the dominant species of the communities, whereas diversity decreased. Competition for growth also increased with increasing productivity, but only for high-biomass communities. Additionally, the increase in competition for growth with increasing soil fertility, as measured with litter decomposition rate, was only due to an increase in target growth in plots without neighbors and was unrelated to community competitive effects and species diversity. The results of our study illustrate how the confusion between productivity and biomass could have contributed to the long-standing debate on variation in competition along productivity gradients and its consequence for diversity.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Research explores the relationship between competition and productivity in plant communities, highlighting the confusion between productivity and biomass and the need for further study in this area. The study also examines traits that explain competition and its correlation with diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Adding fish waste to the diet of Iceland scallop Chlamys islandica: effects on feeding and reproductive abilityOrganic enrichment from fish farming may impact benthic species and habitats in adjacent areas. Norwegian salmon farming is continuously growing, but, due to area conflicts and severe sea-lice problems in the western areas, growth of the industry is focused in the northern areas. Knowledge is scarce on how an increase in fish farming will impact Arctic and subarctic species and habitats. One such species is the Iceland scallop Chlamys islandica, distributed from the Lofoten Islands in Nordland County to the Varangerfjord in Troms and Finnmark County. To study the impact of fine-particle fish faeces on feeding and reproductive ability in adult Iceland scallop, particles &lt; 41 m of finfish waste were added to the diet. Effects were tested via shortterm (weeks) feeding studies using 2 diets, 100% cultured algal species and a 50% mix of algae and fish waste. In addition, a 100% fish waste diet was used to study longer-term effects on reproductive ability (months). Feeding (% particle clearance and feeding rate) on the microalgae diet tended to be higher than that on the diet containing fish waste, but the difference was significant only in 2 out of 4 cases. We did not find any effect of diets on reproductive ability (gonad development and fatty acid profiles) of scallops. Lack of knowledge on sufficient food levels for gonad maturation in this species may have affected the results. We suggest that future work includes the transplant of scallops from a reference site to fish production sites and that investigations begin immediately after spawning early in scallop gonad development.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>The study investigates the impact of fish waste on feeding and reproductive ability in Iceland scallops. Results show some differences in feeding but no significant effects on reproductive ability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Chemical composition of tissues of Syringa vulgaris L. and soil features in abandoned cemeteriesAbandoned anthropogenic sites are transformed when they come into use. In the present study, such objects were abandoned Evangelical cemeteries located in the Land of the Great Mazurian Lakes (northern Poland). This study aims to compare the concentrations of selected major (Ca, Na, Mg, Al, Fe) and potentially toxic elements (Zn, Cd, Pb) in the roots, leaves, and branches of Syringa vulgaris and buried necrosols and unburied soils in which this species grows. The soils analysed differ in their profile structure; in the case of burial necrosols, anthropogenic layers are present, while Brunic Arenosol has a natural horizon arrangement. Regarding pH, the soils analysed are characterised in the weakly acidic (6.6-6.8) to alkaline (7.2-8.6) range, both in KCl and H&lt;sub&gt;2&lt;/sub&gt;O. Total phosphorus has high values in the humus and anthropogenic horizons, especially at coffin sites (Rudowka Mala: layer of Ccoffin - 759 mg.kg&lt;sup&gt;-1&lt;/sup&gt;; Szymonka - 844 mg.kg&lt;sup&gt;-1&lt;/sup&gt;). Necrosols are characterised by a slightly higher variation in major element content than soils outside the burial area. The highest elemental content in Syringa vulgaris is accumulated in leaves and roots. Potassium (K) has the highest content in the studied tissues, and cadmium (Cd) is the lowest. The study showed no significant differences in heavy metal accumulation for plants directly associated with necrosols and soils formed outside of burials, which is confirmed by analyses of environmental indicators. The study showed that plant chemistry is more influenced by the soil substrate and soil-forming process than the soil anthropogenisation associated with burials. There was no significant effect of burials on the chemical composition of individual parts of Syringa vulgaris.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>This study compared the chemical composition of Syringa vulgaris (lilac) and soil in abandoned cemeteries. The plant's tissue composition was more influenced by soil substrate and formation process than burial sites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Application of real-time PCR for the detection and quantification of oomycetes in ornamental nursery stockNumerous Phytophthora and Pythium disease outbreaks have occurred in Europe following inadvertent introduction of contaminated ornamental plants. Detection and identification of pathogens are crucial to reduce risks and improve plant biosecurity in Europe and globally. Oomycete diversity present in roots and compost was determined in 99 hardy woody plants bought from nurseries, retailers and internet sellers, using both isolations and molecular analyses. Oomycete DNA was quantified using real-time PCR of environmental DNA from the plants using three loci: ITS, trnM-trnP-trnM and atp9-nad9. At least one oomycete species was isolated from 89.9% of plants using classical techniques. In total, 10 Phytophthora spp., 17 Pythium spp. and 5 Phytopythium spp. were isolated. Oomycetes were isolated from 86% of asymptomatic plants, but real-time PCR demonstrated that oomycetes were associated with all plants tested. More oomycete DNA occurred in composts in comparison with roots and filters from baiting water (a mean of 7.91 ng g&lt;sup&gt;-1&lt;/sup&gt;, 6.55 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; and 5.62 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; of oomycete DNA detected in compost with ITS, trnM and atp9 probes, respectively); the ITS probe detected the highest quantities of oomycete DNA. No significant differences were found in quantities of oomycete DNA detected using real-time PCR in plants purchased online or from traditional retailers.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Real-time PCR was used to detect and quantify oomycetes in ornamental plants bought from various sources. Oomycete DNA was found in composts, roots, and filters, with the highest quantities detected using the ITS probe. No differences were found between plants purchased online or from traditional retailers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Major transcriptomic differences are induced by warmer temperature conditions experienced during asexual and sexual reproduction in Fragaria vesca ecotypesA major challenge for plants in a rapidly changing climate is to adapt to rising temperatures. Some plants adapt to temperature conditions by generating an epigenetic memory that can be transmitted both meiotically and mitotically. Such epigenetic memories may increase phenotypic variation to global warming and provide time for adaptation to occur through classical genetic selection. The goal of this study was to understand how warmer temperature conditions experienced during sexual and asexual reproduction affect the transcriptomes of different strawberry (Fragaria vesca) ecotypes. We let four European F. vesca ecotypes reproduce at two contrasting temperatures (18 and 28 degrees C), either asexually through stolon formation for several generations, or sexually by seeds (achenes). We then analyzed the transcriptome of unfolding leaves, with emphasis on differential expression of genes belonging to the epigenetic machinery. For asexually reproduced plants we found a general transcriptomic response to temperature conditions but for sexually reproduced plants we found less significant responses. We predicted several splicing isoforms for important genes (e.g. a SOC1, LHY, and SVP homolog), and found significantly more differentially presented splicing event variants following asexual vs. sexual reproduction. This difference could be due to the stochastic character of recombination during meiosis or to differential creation or erasure of epigenetic marks during embryogenesis and seed development. Strikingly, very few differentially expressed genes were shared between ecotypes, perhaps because ecotypes differ greatly both genetically and epigenetically. Genes related to the epigenetic machinery were predominantly upregulated at 28 degrees C during asexual reproduction but downregulated after sexual reproduction, indicating that temperature-induced change affects the epigenetic machinery differently during the two types of reproduction.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Study investigates the effects of warmer temperatures on the transcriptomes of different strawberry ecotypes during asexual and sexual reproduction, highlighting differences in gene expression and splicing isoforms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Changes to volatile profiles of arborvitae, Thuja occidentalis, from drought and insect infestation: olfactory cues for the cypress bark beetle, Phloeosinus aubeiThe cypress bark beetle, Phloeosinus aubei (Coleoptera, Curculionidae, Scolytinae) prefers to build breeding galleries in decaying host trees. However, volatile cues specific to decaying or actively infested trees have not yet been reported. Any such information would be useful for the management of this invasive, wood-boring species that has become established across Europe in the temperate zone and is now a key pest of ornamental Cupressaceae in nurseries and urban landscapes. Our objective was to reveal key components in host volatiles specific to stressed trees, which could be potential signals for the pest of its suitability for colonisation. Volatile profiles of arborvitae, Thuja occidentalis 'Smaragd' suffering from either dehydration or fresh infestation of P. aubei was collected and compared to that samples from healthy control trees. Analyses of volatiles by gas chromatography coupled to an electroantennographic detector revealed substantial differences between healthy, dehydrated and infested trees. Structural elucidation of the major antennally active components revealed that both a-pinene and a-thujene were prevalent in the volatiles of infested trees, whilst a-thujone was the major component in volatiles of healthy trees. In volatiles collected from trunks housing fresh P. aubei female nuptial chambers, sharp increases of beta-pinene, myrcene, limonene, and p-cymene were noticed, alongside trace amounts of camphene and fenchene. Volatiles collected from fresh frass showed a similar profile, but with a somewhat smaller amount of limonene. Fenchone was present in each type of volatiles, however, only in low amounts. Further studies should be directed to reveal the behavioural role of these components, which could be helpful in developing kairomone-based techniques for monitoring the flight of the pest in stands of scale-leafed trees.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Changes in volatile profiles of arborvitae from drought and insect infestation were analyzed. Key components specific to stressed trees were identified, which could be useful for pest management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Traditional herbal drugs against liver diseases - experimented in vitro using HepG2 cells for induced steatosisSalvia fruticosa leaves, Malva sylvestris flowers, Taraxacum officinale aerial parts, Plantago ovata seeds, Tanacetum parthenium aerial parts, and Allium sativum bulbs are documented for traditional use against hepatic disorders and different liver diseases. To evaluate herbal drug material for potential use against liver diseases, at molecular level for the efficacy linked to ethnobotanical documented data. Different herbal extracts were prepared and standardized by HPLC, according to European Pharmacopoeia. Initially 0.25 mg/mL each standardized extract was applied to oleic+palmitic acid induced fatty liver using a HepG2 cell culture model. ALT, AST, GSH, and MDA levels were comparatively analyzed, in addition to cell Nil Red staining. The highest activity for MDA reduction was observed for the A. sativum extract at 48.2% level, followed by 36.4% for M. sylvestris, and S. fruticosa extracts with 27.3% reduction, respectively. Glutathione levels increased to 59.1% when A. sativum extract was applied. M. sylvestris extract increased the glutathione levels in the medium by 49.7%; S. fruticosa extract decreased ALT levels by 53.5% and M. sylvestris extract by 38.5%, whereas the standard resveratrol reduced ALT level by 30.9%, respectively. The AST levels for M. sylvestris extract was 46.5%, compared to resveratrol by 93%. A. sativum, M. sylvestris, and S. fruticosa standard extracts showed relatively good correlation and activity where further in vivo studies should be performed.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>First report of canna yellow streak virus in IranCanna indica (canna) a species in the Cannaceae family, is a perennial ornamental plant widely used in landscape designing. Different species of plant viruses have been reported which infect this plant and act as a significant threat to canna plants, leading to a range of symptoms and a decrease in their decorative values, as well as lower quality propagated materials and significant financial losses. Canna cultivars that are extensively cultivated for their ornamental values are susceptible to a recently discovered Potyvirus known as canna yellow streak virus (CaYSV). This virus has infected many canna cultivars found in gardens, leading to significant impact and concern in horticultural settings. During a survey conducted in the summer of 2022, severe veinal chlorosis and veinal streaking symptoms were observed on the leaves of canna plants in the green space of Yazd City, Iran. Total genomic RNA was extracted from symptomatic leaves of 20 canna samples and one symptomless sample (negative control), and subjected to RT-PCR using a Potyvirus degenerate primer pair (NIb3R, NIb2F). RT-PCR resulted in the amplification of a DNA fragment with the expected size of approximately 350 bp in all of the symptomatic samples, whereas no DNA fragment was obtained from a symptomless plant. The amplified DNA fragment was subjected to the Sanger sequencing method, and its size was confirmed to be exactly 350 bp. Sequence analysis of the nucleotide sequence of this amplicon with the same region of other corresponding CaYSV isolates in the GenBank revealed that the Iranian CaYSV isolate was the most similar (99.05%) to an isolate from Russia (Acc. No. MG_545919.1) and the less similar (89.59%) to a CaYSV isolate from United Kingdom (Acc. No. EF_466139.1).</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>First report of canna yellow streak virus in Iran's canna plants causing severe symptoms. The virus is similar to isolates from Russia and UK.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Same, same, but different: drought and salinity affect BVOC emission rate and alter blend composition of urban treesDrought and salt are key abiotic stressors in temperate cities. Biogenic volatile organic compound (BVOC) emissions, often dominated by trees, influence the urban troposphere and mediate plant-plant and plant-insect interactions. While knowledge on constitutive BVOC emissions is increasing, modulation of blends by stress has yet received little attention. We thus investigated BVOC blends and herbivore-related subsets ('bouquets') of Quercus robur, Fagus sylvatica, Betula pendula and Carpinus betulus seedlings under control, and after 2-weeks of drought and salt stress using PTR-Tof-MS. 22 BVOCs were related to metabolic pathways, and changes among blends and bouquets were assessed. Drought led to a slight increase of isoprene and monoterpene emissions from Q. robur and F. sylvatica, respectively, while total non-isoprene emissions generally declined under water stress. Both drought and salinity led to distinct, species-specific changes in the emission rates of single BVOCs, and resulted in markedly different herbivore-related bouquets in F. sylvatica and C. betulus. Oxygenated VOCs and green leaf volatiles in particular increased in these two salt-sensitive species, while pathway-specific effects were less clear under drought. Findings indicate significant consequences of common urban stressors on BVOC emission spectra, including tropospheric ozone formation and severely hampered plant communication cues under stress.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Drought and salt stress affect the emission rates and composition of biogenic volatile organic compounds (BVOCs) in urban trees, with specific changes in BVOC blends and herbivore-related bouquets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Severe dieback and mortality of wild olive trees associated with Phytophthora species in ItalyIn March 2022, extensive dieback and mortality of wild olive trees (Olea europaea var. sylvestris) were observed in an area of approximately 200 hectares located in central Sardinia, Italy. The affected trees exhibited severe symptoms, including leaf chlorosis, wilting, defoliation of the entire crown and root rot. Many of the trees displayed necrotic lesions on their feeder roots. The estimated tree mortality in the affected area was approximately 60%, with an 80% disease incidence. To investigate the cause of this dieback and mortality, soil samples were collected from the rhizosphere of 16 unhealthy wild olive trees. A baiting technique was employed using fresh Ceratonia siliqua leaves as bait. Additionally, isolations were made by plating small fragments of root phloem tissue from lesion margins onto Phytophthora selective medium (SMA). The analysis consistently revealed the presence of a homothallic Phytophthora species in 14 of the sampled trees. An additional Phytophthora species was detected in the rhizosphere of 4 diseased trees. Further characterization of the Phytophthora species involved DNA sequencing of the ITS and cox1 genes. The obtained sequences showed a high degree of identity (99-100%) with sequences of ex-type cultures of P. bilorbang (CBS131653) and P. pseudocryptogea (CBS139749). To confirm the pathogenicity of both Phytophthora species, inoculation experiments were conducted using 6-month-old wild olive seedlings and the soil infestation method. Three weeks after inoculation with P. bilorbang and P. pseudocryptogea, all seedlings displayed symptoms of wilting and dieback. Additionally, the fine root weight of inoculated plants was significantly reduced compared to non-inoculated controls. Both Phytophthora species was subsequently re-isolated from the necrotic roots of inoculated seedlings, satisfying Koch's postulates. This is thought to be the first report of P. bilorbang on wild olive worldwide.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Severe dieback and mortality of wild olive trees in Italy caused by Phytophthora species, including the first report of P. bilorbang on wild olive trees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Morpho-physiological effects of irrigation with saline water in Ex vitro plants of Juglans regia 'Sorrento'Soil salinization is a global problem limiting growth and economical yield in fruit species including walnut. Knowledge of the response of varieties and cultivars to salinity can represent an important contribution to future walnut plantation in areas affected by soil salinization. Juglans regia 'Sorrento' is a commercially important Italian variety. The present work aimed to explore the morpho-physiological response to NaCl-induced stress in 'Sorrento' plants using clonally propagated ex vitro plantlets to reduce the impact of genetic variation. Ex vitro acclimatized plants were exposed to salinity conditions by irrigating pot soil with half-strength Hoagland solution containing 100 mM NaCl for 20 days. Salt-induced effects on plant growth, chlorophyll and carotenoid content, osmolality, membrane injury and on activities of antioxidant enzymes catalase and guaiacol peroxidase (G-POD) in leaves were evaluated. Morphological and growth parameters were not significantly altered by salt stress with respect to the control. Slight differences in leaf necrosis and absence of injury in the membranes, stable content of photosynthetic pigments, and an increase in G-POD activity were also found in salt-treated plants. These results collectively suggest that 'Sorrento' has potential for the cultivation in salinized environments.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>The study examined the effects of saltwater irrigation on Juglans regia 'Sorrento' plants. The plants showed no significant morphological or growth changes, indicating potential for cultivation in salinized environments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Masting increases seedling recruitment near and far: predator satiation and improved dispersal in a fleshy-fruited treeThe animal dispersal hypothesis predicts that mast seeding can increase dispersal rate of seeds by dispersers and enhance reproductive success of plants. However, in contrast to pollination efficiency and predator satiation hypothesis, the animal dispersal hypothesis has received mixed support. Using 12-year data on fruit production and seedling recruitment of a fleshy-fruited tree rowan (Sorbus aucuparia, Rosaceae), we tested if an increase in the fruit production at the population level results in higher proportion of fruits recruiting into seedlings. Recruitment was recorded near (under rowans) and far (under heterospecifics) from conspecifics. Higher recruitment rates under rowans would support predator satiation hypothesis. Higher recruitment rates under heterospecific trees, where fruits can only arrive with animal assistance, would support animal dispersal hypothesis. High population-level fruit production increased the proportion of fruits recruiting into seedlings both near and far from rowans. In contrast, high individual-level fruit production did not have a positive effect on the proportion of fruits recruiting into seedlings. Synthesis. Population-level synchronisation of fruit production is required to generate a more effective plant regeneration. Our findings show that masting enhances seedling recruitment through predator satiation and increased seed dispersal by frugivores. The results provide support for both animal dispersal and predator satiation hypotheses indicating that both mechanisms can operate simultaneously.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Masting increases fruit production in rowan trees, leading to higher seedling recruitment both near and far from rowans, supporting predator satiation and animal dispersal hypotheses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Possibilities of increasing biodiversity in the genus Elaeagnus L. during reproduction by soft cuttingsIn this article, for the first time in Russia, the reproduction results of four species of the genus Elaeagnus L. by soft cuttings are presented comparatively. The promising genus of Elaeagnus L. have been identified in terms of fruiting and ornamentally. Their reproduction methods by soft cuttings with growth regulators, which make it possible to obtain high-quality seedlings for planting plantations, have been studied. Experiments on reproduction by soft cuttings were carried out in 2018 - 2020 on the territory of the Fruit Station of the RSAU-Moscow Agricultural Academy, named after K.A. Timiryazev. The cuttings were treated with three different growth regulators, stimulants of root formation (IMA-indolylbutyric acid), GHC-hydroxycinnamic acid (Zircon), and BCI + GGA (Universal rooting agent) and water was used as a control. The obtained results were processed by analysis of variance, as a result of which the morphological variability of rooted soft cuttings was revealed when treated with growth and development regulators. It was found that the genotype and stimulants significantly affect the average length and number of roots, the growth of shoots, their number, and the number of leaves on the shoot. The most effective was the growth and development regulator GKK + IMC. The results obtained make it possible to increase the biodiversity of valuable genotypes of the genus Elaeagnus L.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>This article discusses the successful reproduction of four species of the Elaeagnus genus using soft cuttings and growth regulators, which could increase biodiversity in the genus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Bryophytes of Europe Traits (BET) data set: a fundamental tool for ecological studiesBryophytes are a diverse group of organisms with unique properties, yet they are severely underrepresented in plant trait databases. Building on the recently published European Red List of bryophytes and previous trait compilations, we present the Bryophytes of Europe Traits (BET) data set, including biological traits such as those related to life history, growth habit, sexual and vegetative reproduction; ecological traits such as indicator values, substrate and habitat; and bioclimatic variables based on the species' European range. The data set includes values for 65 traits and 25 bioclimatic variables, containing more than 135,000 trait values with a completeness of 82.7% on average. The data set will enable future studies in bryophyte biology, ecology and conservation, and may help to answer fundamental questions in bryology.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Tarenaya cultivars: genome size and genetic diversityThe spider flower, Tarenaya hassleriana (syn. Cleome spinosa), belongs to the family Cleomaceae, that originates in South America and is used as ornamental plant. Cultivar series were bred on a small scale, but showed low morphological diversity. The used gene pool and the hybridization steps carried out are largely unknown, but it is assumed that T. hassleriana was involved. Therefore, genome size as well as morphological and genetic diversity of seven generatively and ten vegetatively propagated cultivars were determined. Also T. boliviensis was included in the study. A field trial performed in 2021 at the Saxon State Office for Environment, Agriculture and Geology in Dresden, Germany, showed better flowering performance and overall impression for vegetatively propagated in comparison to the seed-propagated cultivars. To estimate the genetic distance, 168 individual bands from RAPD/dpRAPD analysis provided a clear distinction between T. boliviensis and the cultivars as well as between the groups of vegetatively and seed-propagated cultivars. Within the cultivar groups the genetic variation was found to be highly reduced. Three biological replicates of leaves and petals were measured with the flow cytometer CytoFLEX (Beckman Coulter). The 2C DNA contents were calculated using the internal standard tomato 'Stupicke' and the software CytExpert 2.3. Mean 2C values could be distinguished into two main groups. Group 1 varied from 0.64 to 0.67 pg and included all generatively and three vegetatively propagated cultivars. Group 2 varied from 0.92 to 1.01 pg and consisted of seven cultivars and T. boliviensis. These results support further breeding and the enhancement of variability of ornamental Tarenaya.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>A study on Tarenaya cultivars found low morphological diversity but clear genetic differentiation between seed-propagated and vegetatively propagated cultivars. Vegetatively propagated cultivars showed better performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Compatibility of interspecific hybridization between tulip cultivars and wild species native to ChinaInterspecific hybridization is an important means of breeding new cultivars with novel characteristics introduced from their parents. The interspecific hybridization was carried out between five tulip cultivars 'Heart of Poland', 'Golden Parade', 'Purple Dream', 'Crystal Star', 'Bolroyal Dream' and wild specie Tulipa altaica. In five combinations, the compatibility was observed including pollen germinability, stigma receptivity, fruit-setting, hybrid seed germination and bulblet formation in this paper. The results showed that T. altaica has the highest germination rate (69.58%) compared with any other parents. The highest stigmatic receptivity of five female cultivars was recorded on 10:00 am one day after flowering. The crosses of 'Heart of Poland' x T. altaica and 'Bolroyal Dream' x T. altaica displayed a higher percentage of fruit setting with 79.32 and 82.23%, respectively. A total of 698 hybrid seeds were obtained from interspecific hybridization combinations, including 'Heart of Poland' x T. altaica, 'Purple dream' x T. altaica and 'Bolroyal Dream' x T. altaica. In contrast, other two crosses were completely unsuccessful when 'Golden Parade' and 'Crystal Star' were used as female parents. The higher rates of seed germination and bulblet formation were recorded in two crosses with 63.45 and 55.63% in 'Heart of Poland' x T. altaica, 58.35 and 61.88% in 'Bolroyal Dream' x T. altaica. The results of this paper could provide some useful information about the interspecific cross between T. altaica and tulip cultivars.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Interspecific hybridization between tulip cultivars and T. altaica showed varying compatibility in terms of germination, fruit-setting, and seed formation. T. altaica had the highest germination rate compared to other parents. Successful crosses included 'Heart of Poland' x T. altaica and 'Bolroyal Dream' x T. altaica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Flower morphology and biometrical aspects in rolB and ORF13a Kalanchoe blossfeldiana 'Molly' linesKalanchoe blossfeldiana and its derived hybrids comprise one of the most important potted plants in Europe and ranks first in Denmark's best-selling ornamental species. There is a strong market for Kalanchoe and consumers have an increasing demand for novelty and high quality of Kalanchoe products. At the same time, the flower morphology plays a crucial role in the breeding of new varieties. Breeding new traits using natural transformation with Rhizobium rhizogenes successfully introduced compact growth in Kalanchoe by introgression of transfer-DNA fragments of the root-inducing (Ri) plasmid into plants during bacterial infection. However, the role and function of individual root oncogenic loci (rol)-genes and open reading frames (ORFs) from R. rhizogenes basically remains unclear. This work aimed at investigating the effect of individual constructs overexpressing rolB and ORF13a in K. blossfeldiana 'Molly' by assessing biometrical and flower morphology features. Plants transformed with rolB and ORF13a had 30 and 37% lower height compared to wild type (WT), respectively 90 days after propagation. The rolB line plant diameter exhibited a reduction of 25% while ORF13a was 34% reduced in comparison to WT. Additionally, the leaf number of rolB and ORF13a was reduced to 40% less in comparison to WT. Moreover, the flower morphology of rolB and ORF13a showed markedly distinct flower shape compared to the WT. The transgenic lines exhibited lobose corollas, where the four petals were fan-shaped. In addition, the edges of petals from transgenic lines were not smooth as WT, presenting curly and irregular edges. Therefore, transformation with the single constructs of rolB and ORF13a resulted in different compactness levels between the transgenic lines of K. blossfeldiana 'Molly', demonstrating that unexplored ORFs could also present a novel genetic pool in terms of dwarfed phenotypes.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Induced drought affects morphological and eco-physiological response of Mediterranean wild rosesWater scarcity for the irrigation of ornamental crops is a typical phenomenon of nursery activities in the south Mediterranean districts and has frequently detrimental effects on plant growth, yield and quality. Wild roses are generally hardy plants with high ornamental potentialities and possible tolerance to the main abiotic stresses typical of their native environments. Therefore, a greenhouse experiment was carried out with the aim to evaluate growing and qualitative response of two Sicilian rose species to increasing deficit irrigation. Rooted-cuttings plants of Rosa canina L. and R. sempervirens L. were grown in 4-L plastic containers under drought stress induced by progressively reducing the irrigation volumes (900, 600 and 300 mL plant&lt;sup&gt;-1&lt;/sup&gt;) during each irrigation. Morphological and eco-physiological parameters were measured throughout the experiment. Increasing irrigation deficit resulted in a decrease of plant growth (at canopy and root level), ornamental effect, biomass yield and partitioning, stem water potential, leaf net photosynthesis and transpiration; this behavior was more evident in R. canina than in R. sempervirens potted plants. The identification of wild roses tolerant to moderate drought may allow to use them for ornamental nursery production and for landscaping in south Mediterranean areas often characterized by a low availability of the irrigation water.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>A greenhouse experiment found that increasing drought stress reduced plant growth, yield, and quality in two Sicilian rose species. Identifying drought-tolerant roses could benefit nursery production in water-scarce regions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>How the physical properties of the leaves of common plants affect dependent acoustic characterization in urban areas of Istanbul, TurkeyTo date, several ecological studies have addressed the influences of environmental noise. However, fundamental studies on noise reduction depending on the acoustic characterization of natural materials are still lacking. The present study quantitatively evaluates experimental data on sound absorption and attenuation of untreated plant leaves commonly found in urban areas. The leaves of English Ivy (Hedera helix L.), Horse Chestnut (Aesculus hippocastanum L.), Hortensia (Hydrangea macrophylla (Thunb.) Ser.), Japanese Privet (Ligustrum japonicum Thunb.), Laurel (Laurus nobilis L.), Linden (Tilia tomentosa Moench), Magnolia (Magnolia grandiflora L.), Osmanthus (Osmanthus heterophyllus (G. Don) P.S. Green), Plane Tree (Platanus orientalis L.), and Cherry Laurel (Prunus laurocerasus L.) were collected from branches of healthy plants grown under identical climate and soil conditions. To acoustically characterize plant leaves, impedance tube and pulse-echo techniques were used to experimentally determine the normal incidence sound absorption coefficient (SAC), speed of sound and sound attenuation coefficient (SC) values, respectively. In addition, as more effective numerical outputs, the normalized SAC (SAC') and normalized NRC (NRC') values were calculated by empirical modelling. As a statistical approach, multiple regression was also conducted to predict the dependent acoustic variables based on the independent physical parameters of the samples.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>An ecological study in Istanbul evaluates how the physical properties of plant leaves affect sound absorption and attenuation in urban areas, using experimental data and statistical analysis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Effects of species and varietal differences on intergeneric cross-compatibility between apple and pearHybridization across species and genus has been utilized to improve agriculturally important traits in crops. These interspecific and intergeneric hybridizations are often inhibited by reproductive barriers at the prezygotic and postzygotic stages. In this study, we used intergeneric hybridization between apple and pear to investigate the effects of species and varietal differences on pollen tube growth, seed germination, and seedling survival in a wide range of germplasms . In apple pistils pollinated by pears, inferior pollen tube growth was often observed for European pear cultivars, whereas hybrid seedlings derived from a cross between apple and European pear showed higher survival rate. In contrast, Japanese pear and Chinese pear pollination resulted in higher fruit setting which likely resulted from a higher rate of compatible pistils but a lower rate of seedling survival. Our results suggest the presence of both prezygotic and postzygotic barriers that occur independently in different crossing combinations. We also developed a Cleaved Amplified Polymorphic Sequence marker for detecting intergeneric hybrids derived from a wide range of crosses between apples and pears. The results of the present study will help in the development of intergeneric hybrids between apple and pear for introducing valuable traits from a diverse gene pool.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>The study explored the effects of species and varietal differences on pollination and hybrid seedling survival between apple and pear, highlighting prezygotic and postzygotic barriers, and providing potential markers for intergeneric hybrids.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Investigating the effects of fish effluents as organic fertilisers on onion (Allium cepa) yield, soil nutrients, and soil microbiomeAlthough waste waters from aquaculture farms, known as fish effluents, have been shown to be a viable source of nutrients for crop production, their use is not permitted in organic production under the current European regulatory framework, Council Regulation (EU) 2018/848. In contrast, the use of livestock manure as fertiliser is allowed and indeed encouraged. In this work we tested the effects of two types of fish effluents - filtered and unfiltered fish waters - from an aquaponic system on the yield of onions (Allium cepa) and the soil nutrients and microbiome, compared with a fertilisation regime using composted horse manure. Soil fertility was enhanced by the addition of fish effluents, in particular in the soil treated with unfiltered fish water or sludge, which resulted in the soil with the highest nitrate content. Fertilisation with fish water and aerobically treated fish sludge resulted in higher yields than the manure, performing the best in all growth and yield measurements. The bulb weight and bulb diameter in the onions fertilised with manure were 102.43 g +or- 7.26 and 61 mm +or- 2.05 respectively, the ones fertilised with filtered fish effluents were 126 g +or- 6.64 and 66.52 mm +or- 2.17, and the ones fertilised with filtered (fish water) and unfiltered (sludge) fish effluents were 133.32 g +or- 6.86 and 67.66 mm +or- 1.81. The horse manure significantly affected the microbial community structure of the soil, resulting in a higher species diversity compared with the fish effluents, with the most predominant genus types being Flavobacterium, Pseudarthrobacter, Sphingomonas, Massilia, Nitrososphaera, Pseudomonas and Nocardioides. However, the microbial activity in the soil with fish effluents was also significant, which indicates that the soil treated in this way can be considered a 'living soil', as required for organic certification in the EU. Overall, the results confirm the findings of previous studies on the effectiveness of fish effluents as fertilisers, and highlight the superior performance of fish effluents compared with a livestock manure, thus directly questioning the prohibition on using fish effluents in organic agriculture.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Fish effluents were tested as fertilisers for onion crops and found to enhance soil fertility and yield. The use of fish effluents may challenge current regulations on organic agriculture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Comparison of the biomass and dendrometric parameters of Norway spruce with its different representations in young stands at lower altitudes in the Czech RepublicIn forestry, it is still common to plant the seedlings of and cultivate Norway spruce (Picea abies L. Karst) at lower altitudes; however, the climatic change that has been occurring increases evaporative demands in these areas. As a result, the spruce evidently suffers from drought, withers and loses its power to grow, thus, influencing stem thickness and tree-height growth, as well as biomass production. Therefore, the growth and biomass production of young (5-, 15- and 25-year-old) Norway spruce stands at these altitudes (i.e., from 200 to 500 m a.s.l.) was surveyed, as a case study, across the Training Forest Enterprise ""Masaryk Forest"" Krtiny. There, 48 stands with a varied representation of spruce (i.e., up to 30%, 31%-60%, 61%-90% and over 91%) were analyzed. In each stand, 12 trees were sampled across all social status classes (i.e., sub-dominant, co-dominant and dominant) in detail. Basic dendrometric parameters (such as the total tree height, height of the crown base and stem diameter at breast height) and the amount of the above-ground tree organ biomass (i.e., stem, branches and needles) were investigated. Based on the trends found in the biomass production here and climate change predictions, we recommend that Norway spruce be cultivated only in zones from an altitude of ca 400 m a.s.l., with an annual precipitation of 700 mm and an average annual temperature of 7 degrees C, and its percentage representation in the stand be no more than 30%.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>The study examines the growth and biomass production of Norway spruce at lower altitudes in the Czech Republic, and recommends specific conditions for cultivation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Transgenerational effects of water limitation on reproductive mother plants in a common garden of the shrub Frangula alnusA better understanding of responses to water limitation in woody species can help us to cope with the consequences of the progressing climate change. We focused on the putative transgenerational effects of water limitation in the maternal environment during reproduction. Water was restricted for cuttings of Frangula alnus Mill. in a common garden setting, with a Belgian (local), Italian and Swedish provenance, during the growing season of 2020 and mature berries were collected during the whole reproductive phase. Stones that were extracted from the berries were given a cold stratification. In the next spring, the germination percentage of the stones from the water restricted maternal environment was significantly higher than that of the stones from the normal maternal environment, for the three provenances, notwithstanding the fact that stone weight was not different. The timing of seedling emergence was advanced for the water-limited maternal environment, but only for the stones harvested when mature berry production was the highest (9th and 16th of July 2020). Population differentiation was observed for the timing of seedling emergence, which reflected population differentiation for bud burst of the mother plants in the common garden, including a counter-gradient effect for the Swedish provenance, and corroborating the suggestion that the timing of seedling emergence and leaf phenology may have a common genetic basis. In addition, the Swedish provenance displayed a somewhat more stable germination percentage over the whole berry collection period when the stones were harvested. A partitioning of variance analysis suggested that germination percentage is more genetically determined than timing of seedling emergence, probably reflecting the more important need to sense the environment for an adequate timing of emergence.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Water limitation during reproduction of Frangula alnus shrubs had transgenerational effects, increasing germination and advancing seedling emergence, with population differentiation in timing and germination stability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Invasive plants and agri-food waste extracts as sustainable alternatives for the pre-emergence urban weed control in Portugal central regionThe continued use of synthetic herbicides to control weeds leads to environmental pollution and health issues. Consequently, chemical formulations have been increasingly banned. However, sustainable solutions are lacking in the market. Alternatively, valorisation of phytotoxic waste to reduce the herbicides use promotes sustainability, meeting circular economy. We aimed at assessing the herbicidal potential of aqueous extracts of waste from the management of invasive plants (Acacia dealbata bark, Oxalis pes-caprae biomass) and agri-food (spent coffee grounds) on common urban weeds (Achillea ageratum, Conyza canadensis and Dittrichia viscosa) in Portugal. In vitro (paper and soil) and pot assays (soil) were conducted to test the pre-emergence (germination and seedlings) and post-emergence (well-stablished plants) effect of waste extracts on these weeds. Extracts reduced pre-emergence performance of weeds, but marginally affected post-emergence parameters. Germination was inhibited up to 83% by O. pes-caprae in A. ageratum, up to 88% and 87% by A. dealbata and O. pes-caprae in C. canadensis, and up to 70% by concentration in D. viscosa. A. dealbata and O. pes-caprae extracts also drastically reduced radicle length (30% and 55% in A. ageratum, 77% and 81% in C. canadensis, 90% and 92% in D. viscosa, respectively). However, soil neutralized the inhibitory pre-emergence effect. The main findings highlight that the use of A. dealbata and O. pes-caprae extracts as bioherbicides may require an additional synthetic herbicides application, as extracts alone cannot fully control urban weeds in areas without soil. Combining bioherbicides and commercial formulations still reduces the application of toxic chemicals, promoting sustainability.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Study in Portugal assessed the herbicidal potential of waste extracts from invasive plants (Acacia dealbata bark, Oxalis pes-caprae biomass) and agri-food (spent coffee grounds) on common urban weeds. Extracts reduced pre-emergence performance of weeds but had limited post-emergence effect. Soil neutralized pre-emergence effect, suggesting the need for additional synthetic herbicides in areas without soil. Combining bioherbicides and commercial formulations promotes sustainability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L.)Glasshouse experiments to evaluate the effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L) were conducted in summer 2017 and winter 2018 at Dohne Agriculture Development Institute, Stutterheim, Eastern Cape, South Africa. Two cultivars of Swiss chard, Star 1801 and Fordhook giant, were planted in 200 cavity trays using a hygromix commercial growing medium incorporated with fertilizer treatments at different rates of bioslurry: no incorporation (control), 50% bioslurry, 100% bioslurry, 200% bioslurry and the recommended rate of 2:3:4 (30) NPK fertilizers. In the glasshouse the experiments were arranged in a randomized complete block design (RCBD) which was replicated three times. At four weeks after germination, ten (10) seedlings per treatment were destructively sampled randomly to determine the plant growth and biological mass parameters: (i) Seedling height, shoot and root height; (ii) Seedling mass; (iii) Fresh shoot and fresh root mass as well as their dry mass; (iv) Nutrient content of leaves. The results indicated that fertilization with 100%Bioslurry produced significantly taller seedlings and shoot height, while the shortest seedlings were obtained from the recommended inorganic fertilizer. Fertilization with 200%Bioslurry and the control treatment produced significantly higher biological yield compared to other treatments. The interaction between fertilizer treatments, cultivar and season indicated that summer season performed better compared to winter in seedling growth and development, and Fordhook giant fertilized with 100% and 200% bioslurry was superior compared to Star 1801. Fertilization with 50% bioslurry resulted in seedlings with higher sodium, while the seedlings grown in the control treatment showed higher copper content. The highest manganese was obtained from the seedlings fertilized with the inorganic fertilizer. It is therefore, concluded that fertilization with bioslurry at 100% and 200% bioslurry application rates enhanced the growth and quality of Swiss chard seedlings.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Glasshouse experiments showed that fertilization with bioslurry at 100% and 200% rates improved the growth and quality of Swiss chard seedlings compared to inorganic fertilizers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Identification and management of Tomato brown rugose fruit virus in greenhouses in MexicoTomato brown rugose fruit virus (ToBRFV) has become a cause of great concern in the global tomato agro-industry since its first report in Israel in 2014. Global tomato production is affected by ToBRFV, and management practices are being evaluated. We tested seed lots from international producers as well as greenhouse substrates and water wells as possible sources of virus contamination. We identified a second introduction of ToBRFV in Mexico by a strain closely resembling isolates from the Netherlands and the Middle East. ToBRFV was detected by RT-PCR in seed coats and epicotyls (from commercial seeds and seedlings obtained from infected tomato plants), indicating a transmission rate of 9%. Virus-like particles (VLPs) were found in wells used for irrigation in greenhouses, but these exhibited low infectivity. These findings suggest that water sources could serve as ToBRFV reservoirs. We evaluated four chemical and six thermal methods for sanitizing substrates, plasticware, and other greenhouse utensils, using detached leaf bioassays in Nicotiana rustica. The most effective chemical sanitization method was treatment with glutaraldehyde plus quaternary ammonium salts and pentapotassium salts. The most effective heat treatment was at 92 degrees C for 30 minutes, which inactivated the virus. Tomato producers could implement these sanitization methods to control ToBRFV.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Research in Mexico has identified Tomato brown rugose fruit virus (ToBRFV) in greenhouses and found that it can be transmitted through seed coats, seedlings, and water sources. Chemical and heat treatments were found to be effective in sanitizing growing media and utensils.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Canadian Plant Disease Survey 2023 volume 103: disease highlights 2022Diseases of berry, vegetable, ornamental nursery and landscape plants in south coastal British Columbia submitted to Elmhirst Diagnostics &amp; Research in 2022 and causal agents are listed. In April - May, cold, wet soils led to nutrient deficiency symptoms on foliage and cool, rainy weather through June led to high levels of botrytis in berries and many other crops. This was followed by hot, dry weather from July-September causing heat and drought stress on many crops and landscape plants. Powdery mildew was severe on many nursery and landscape plants, such as big-leaf maple (Acer macrophyllum). No significant new diseases were observed.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>The Canadian Plant Disease Survey found that in 2022, cold, wet soils caused nutrient deficiency in plants, while cool, rainy weather led to high levels of botrytis in berries. Hot, dry weather in the following months caused heat and drought stress. Powdery mildew was also observed on many plants. No new diseases were found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>In-silico prediction and in vitro validation of antioxidant, antibacterial and antifungal potential of black turmeric (Curcuma Caesia Roxb.) essential oils and its constituentsThe growing interest in the health and pharmaceutical industries has led to a significant increase in demand for essential oils. Curcuma caesia, as a member of the Zingiberaceae family, has been used for its high-quality essential oils (EOs) with remarkable therapeutic properties. The current study aimed at predicting the in-silico interactions of C. caesia volatile constituents against the protein responsible for oxidative and microbial stress in order to investigate their potential for industrial and pharmaceutical applications. The accuracy of the in-silico predictions was confirmed by carrying out the in vitro validation of the antioxidant, antibacterial, and antifungal activity of the EOs derived from the rhizome and leaves, as well as its volatile constituents. EOs from the rhizome and leaf samples of C. caesia were extracted through the hydro distillation method and yielded a percentage (%) of 1.80 +or- 0.02 and 0.95 +or- 0.02 (fresh weight basis, v/w), respectively. A total of 38 and 29 volatile constituents were identified in the rhizome and leaf EOs by gas-chromatography mass spectrometry analysis, representing 92.55% and 90.75% of the total peak area, respectively. The rhizome and leaf EOs showed oxygenated sesquiterpene (39.91% and 27.69%) as the predominate fractions followed by sesquiterpene hydrocarbons (13.36% and 18.44%). Curzerenone (18.09%), epicurzerenone (12.47%), eucalyptol (11.57%), camphor (5.94%), and germacrone (4.47%) were the major constituents in the rhizome EO, whereas, the leaf EO was dominated by eucalyptol (12.53%), camphor (7.23%), curzerenone (5.24%), germacrone (4.81%) and curzerene (4.9%). The in vitro biological activities such as antioxidant, antibacterial, and antifungal potential of C. caesia EOs were evaluated. The antioxidant evaluation using enzymatic and non-enzymatic assays, showed excellent potential of C. caesia EOs as compared to standard drugs. Specifically, in the enzymatic assay, leaf EO of C. caesia was resulted into the reduction of ROS and an increase in the activity of superoxide dismutase (SOD), catalase (CAT), and glutathione S-transferase (GST) in OZ-stimulated PMNs. The EOs also displayed a remarkable antibacterial activity against Staphylococcus aureus, elucidating it as the most susceptible strain. Further, the in-silico prediction of the constituents was conducted using Swiss-ADME, and molecular docking analysis. Swiss-ADME revealed the drug-likeness and safety properties of constituents present in C. caesia EOs. The molecular docking study was carried out to interpret the possible interactions of phytoconstituents qualified in the Swiss-ADME study with two bacterial proteins (Tyrosyl-tRNA synthetase from Staphylococcus aureus (PDB ID: 1JIJ) and Glucosamine 6-phosphate synthase from Escherichia coli (PDB ID: 1XFF)), one fungal protein (N-myristoyl transferase from Candida albicans (PDB ID: 1IYL)) and one oxidative protein (Human peroxiredoxin 5 (PDB ID: 1HD2)). Furthermore, to validate the result of molecular docking, the biological activity of higher affinity constituents was also evaluated. As a result, the in vitro findings supported the in-silico prediction. Therefore, C. caesia or its constituents like curzerenone, camphor, eucalyptol, epicurzerenone, germacrone, viridifloral, muurola-4,10(14)-dien-1-ol, and globulol might be a valuable source for developing antioxidant and antimicrobial drugs. To the best of present author's knowledge, this is the first scientific report on the in-silico prediction of C. caesia constituents against bacterial, fungal and oxidative proteins through molecular docking, which may contribute to the development of various alternatives against multi-drug resistance.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Application of living mulch in rows of the apple trees on several rootstocks - long-term evaluationThe long-term influence of several living mulches on apple tree growth, nutrient status, yield, and fruit quality concerning the year of cover crop sowing in tree rows was evaluated in the Lower Silesia region in the southwestern part of Poland. The estimation was conducted in six apple tree 'Ligol' populations differentiated by the rootstock: M.26, M.9, P 60, P 2, P 16, and P 22. In experiment no. 1, one-year-old nursery stock was planted, and perennial living mulches were sown: colonial bent grass (Agrostis vulgaris With.) and white clover (Trifolium repens L.) in the same year and blue fescue (Festuca ovina L.) in the following year. In experiment no. 2, which involved two-year-old stock, the sowing of blue fescue was delayed until the second, third, fourth, and fifth years following orchard planting. The presence of the cover crop significantly affected young tree growth when one-year-old trees were planted. The sowing of the living mulch in the first or the second year after tree planting led to a significant reduction in the cumulative yield obtained from the young trees. The living mulch improved the red coloration of the fruit skin in the young orchard, but it caused a reduction in the mean fruit weight and size. However, it also contributed to decreased nitrogen concentration in the leaves of the apple trees, and the tree tolerance to living mulch increased as the orchard aged. A choice of semidwarf rootstock, postponed sowing of cover crop, and high-quality nursery stock were recognized as the most important factors for fostering apple tree tolerance to living mulches in tree rows.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>The study evaluated the long-term effects of living mulches on apple tree growth, yield, and fruit quality. It found that the presence of living mulch affected young tree growth and reduced fruit yield, but improved fruit coloration. The use of semidwarf rootstock, delayed sowing of the cover crop, and high-quality nursery stock were important for apple tree tolerance to living mulch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Leaf chlorophyll contents in some European pear cultivars grafted on different rootstocks and its relation with growth and yieldAim of study: To investigate the effect of different combinations of pear rootstocks and cultivars on the contents of leaf photosynthetic pigments and their relation with some growth and yield characteristics. Area of study: Ondokuz Mayis University, Samsun, Turkiye, in two years, 2021 and 2022. Material and methods: The pear cultivars 'Santa Maria', 'Williams', and 'Deveci' were grafted on eight rootstocks: two quince clonal rootstocks (BA29 and QA), five pear clonal rootstocks (FOX9, FOX11, OHxF333, OHxF87, FAROLD40) and Pyrus communis L. seedlings. Growth and yield attributes were calculated and chlorophyll and carotenoid contents were determined by the spectrophotometric method, using 99.8% methanol solvent for chlorophyll (chl) extraction. Main results: Chl a/b in the case of rootstocks, chl a and total carotenoids in the cultivars were found statistically significant; the ratio chl a/b ranged 1.71-2.30 in the case of rootstocks; in the case of cultivars chl a ranged from 17.77 (cv. 'Santa Maria') to 19.88 (cv. 'Deveci') g mL&lt;sup&gt;-1&lt;/sup&gt;, and carotenoids ranged 0.21-0.95 g mL&lt;sup&gt;-1&lt;/sup&gt;. Under the main impact of cultivars, rootstocks and their combinations, a significant difference was seen in the growth and yield attributes. Research highlights: A negative correlation coefficient was observed between photosynthetic pigments and morphological characteristics; however, the correlation coefficient was positive for canopy volume and annual shoot growth. Canopy management, especially with the use of rootstocks and cultivars that result in weaker growth, is helpful for improving chlorophyll content and yield performances.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Study investigates how different pear rootstocks and cultivars affect leaf chlorophyll content, growth, and yield. Results show significant differences and suggest canopy management can improve chlorophyll content and yield.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Yield and quality of lettuce (Lactuca sativa L.) depending on variety and type of nitrogen fertilizerThe aim of this research was to determine the effect of the application of different types of nitrogen fertilizer in five different varieties of lettuce on yield. The experiment was performed in the open field, in the spring cycle of growing during 2018 and 2019. The size of the base plot was 3 m2, and the trial was set up in a random block system. The trial covered the application of various forms of nitrogen fertilizers: ammonium sulphate, ammonium nitrate and urea. The applied nitrogen dose is 100 kg/ha (May 10th 2018 and May 8th 2019). Samples for the analysis of vitamin C and nitrate content, as well as yield determination, were carried out at the stage of the technological maturity of lettuce (60-62 days after seedling). The average weight of lettuce, depending on the variety, varied in the range of 211.3 g to 258.7 g. The use of ammonium nitrate resulted in the highest average weight of lettuce head (246.7 g), followed by the use of urea (238.9 g) and the lowest by the use of ammonium sulphate (221.0 g). The nutritional value of lettuce (vitamin C content) shows that depending on the applied form of nitrogen in the fertilizer, the highest content of vitamin C was determined by urea (10.86 mg/100 g), then ammonium sulphate (9.61 mg/100 g), and the lowest by ammonium nitrate (7.38 mg/100 g). The lower content of vitamin C was found in varieties of lettuce with red leaves compared to varieties with green leaves. The accumulation of nitrate in lettuce leaves directly depends on the variety and the applied fertilizer. The highest nitrate content was with ammonium nitrate (2355.6 mg/kg). The accumulation of nitrate in lettuce varieties with red leaves was higher compared to varieties with green leaves.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>The study investigated the impact of different nitrogen fertilizers on lettuce yield and quality. Ammonium nitrate resulted in the highest average weight and urea had the highest vitamin C content. Red lettuce varieties had lower vitamin C content and higher nitrate accumulation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Balancing nitrogen fertilization in apples: boosting plant growth or European canker?European canker remains one of the most threatening diseases of apple in countrieswith a temperate climate. The cause of the disease, the fungal pathogen Neonectria ditissima, infects the host through several types of wounds, colonizes the bark tissues, eventually leading to tree death. Nitrogen(N)-containing products are commonly used in apple tree nurseries and orchards to boost plant growth. These products have also been related to an increased level of European canker (Campbell et al., 2018; Dryden et al., 2016; Vorster et al., 2021). This research aimed to determine if the increase of disease is caused by increased activity in N. ditissima growth and germination or by the boosted growth of the trees. Laboratory assays growing isolates on enriched PDA with 0%, 0.5%, 1%, 3% and 5% of urea demonstrated no effect on the hyphal growth or spore germination percentage. Freshly grafted cv. Gala trees were potted in soil supplemented with 0, 50, 150 and 300 kg N/ha over the growing season. The trees were inoculated in the autumn by hanging sporulating cankers above trees or by artificial inoculation of 4 wounds per tree (N = 10). Results were obtained in spring. The percentage of diseased leaf buds when hanging cankers above trees were 2 +or- 1%, 39 +or- 7%, 37 +or- 9% and 61 +or- 10% for the N concentrations of 0, 50, 150 and 300 kg N/ha, respectively. Interestingly, the average canker lesion length on the plants grown with 150 and 300 kg N/ha was 20 +or- 2 mm, about double the size on the trees grown on soil with 0 or 50 kg N/ha. The outcome of this research may help refine the use of nitrogen fertilizer for improved disease management strategies.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Nitrogen fertilization in apple trees can boost plant growth but also increase the risk of European canker disease. Research is being conducted to determine the cause and find management strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>The application of a molecular assay for early detection of European canker (Neonectria ditissima) in apple treesNeonectria ditissima causes European canker and is one of the most important fungal diseases of apple trees in countries with a temperate climate. Significant yield losses can occur through girdling of branches and stems, limiting fruit production, eventually leading to tree death. Infections in the propagation and nursery stages can remain asymptomatic for several years after planting. Early detection of these asymptomatic infections could contribute to prevent further development and spread of European canker at a later stage in the orchards. However, to date no fast methods are available. Recently, a molecular assay was developed for the quantification of N. ditissima in asymptomatic wood tissues. Therefore, the objective of this research was to develop a practical application using the molecular assay for the pre-screening of nursery plant material. Several inoculation experiments were conducted using leaf scars and different concentrations of N. ditissima to gather information necessary for protocol development. The preliminary results presented demonstrate that colonization of N. ditssima can be detected and measured over time and distance up to 30 mm in apple branches and that the measured target DNA concentrations may have predictive power for lesion establishment. The next steps and complexity for implementation of a practical application are discussed. Outcomes of this research may help future research towards detection tools and improved management of European canker.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/chatgpt_vekstmedium_2023.11.12/Data/2_processed_data/chatgpt_vksmedium_yes_no.xlsx
+++ b/chatgpt_vekstmedium_2023.11.12/Data/2_processed_data/chatgpt_vksmedium_yes_no.xlsx
@@ -385,12 +385,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leaf rust resistance genes in Aegilops genus: occurrence and efficiencyLeaf rust is a common and costly wheat disease. The introduction of resistance genes derived from wheat wild relatives is one way to improve disease control. However, due to the rapid development of virulence in the casual pathogen Puccinia triticina, the long-term effectiveness of some leaf rust resistance (Lr) genes is questionable. To assess this, we examined 130 accessions of 13 wheat wild relative species from the Aegilops genus. The presence of 9 Lr genes was determined by PCR using primers complementary to Lr gene markers. The studied individuals were exposed to artificial inoculation with P. triticina under greenhouse and field conditions, respectively. Based on infection rate, the degree of resistance for each individual was estimated. The relationship between the presence of Lr genes and the degree of manifested resistance was assessed using canonical correlation analysis (CCA) and analysis of variance (ANOVA). Our results indicate the effective participation of Lr9 in seedling resistance while Lr58 is involved in adult plant resistance.</t>
+          <t>Comparative analysis of growth and yield parameters of grape var. 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock and self-rooted cuttingsIndia ranks seventh in grape production at the global level. Tamil Nadu is one of the leading states in grape cultivation in India. The utilization of rootstock has become a priority aspect in grapes cultivation worldwide, especially in the current climatic conditions. The utilization of grape root stocks has not been completely explored yet in Tamil Nadu. In this regard, we compared the growth and yield parameters of grape (Vitis vinifera) var. ''Muscat Hamburg'' grafted on 'Dog Ridge' (Vitis champini) and self-rooted cuttings(of ''Muscat Hamburg'') under Cumbum valley condition, Theni district, Tamil Nadu, India. Randomly, fifty vines were chosen, each in grafted and self-rooted cutting category. 'Muscat Hamburg' is a wide variety in Cumbum valley of Theni district. The growth and yield characters were recorded. The petiole nutrient content for major elements during the flowering phase was analyzed. The growth characters viz., trunk diameter (42.46 mm), cane diameter (5.70 mm), number of fruitful shoots per cane (1.37), shoot length after pruning (42.52 cm), and leaf area (108.16 cm&lt;sup&gt;2&lt;/sup&gt;) were recorded maximum in 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock. The grafted 'Muscat Hamburg'on 'Dog Ridge' showed the highest berry weight (3.67 g), and the number of clusters per shoot (1.46). The yield characters, viz., the fruitfulness characters, such as the number of fruitful shoots per cane (1.37) was recorded better in 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock. The total number of berries per bunch (87.00), and yield per vine (21.87 kg/vine) were recorded as the highest in grafted vines. Obviously, when berry weight was the highest in grafted type, it reflected in bunch weight (276.74 g) with a maximum amount than self-rooted. The petiole nutrient contents were also found to be higher in grafted ones than in self-rooted cuttings. Overall, the use of 'Dog Ridge' as rootstock for grape variety 'Muscat Hamburg' was found promising to set enhanced vegetative growth, berry characters, and yield of the bunch than self-rooted cutting.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Comparison of growth and yield parameters of grape variety 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock versus self-rooted cuttings in Tamil Nadu, India. Grafted vines showed better results in terms of growth, yield, and nutrient content.</t>
         </is>
       </c>
     </row>
@@ -400,12 +405,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seedling and adult plant resistance to leaf rust in some Bulgarian common wheat linesThe response of 250 common winter wheat breeding lines was investigated for resistance to the causative agent of Puccinia triticina under conditions of an infected field on the territory of Dobrudzha Agricultural Institute - General Toshevo, Bulgaria, during three successive seasons. Twenty lines with different degrees of resistance under field conditions were selected. Multi-pathotype testing was used to study the response of these lines at seedling stage under greenhouse conditions to individual pathotypes of P. triticina. Based on the response of the lines at seedling and adult stages, we found out that 20% of them carried race-specific resistance. One of the lines (99/08-52) reacted with full resistance to the pathotypes used under greenhouse conditions. The reaction demonstrated by this line coincided with the response of isogenic lines carrying the genes Lr9, Lr19, Lr22a, Lr22b and Lr25. The other three lines (19/06- 108, 82/08-43 and 82/08-35) showed a resistant reaction to 6 or 5 of the pathotypes used in the study. Their response partially coincided with the reaction of 5 isogenic lines, and the presence of some of these genes in the above lines is quite possible. Lines carrying this type of resistance are to be subjected to further genetic and breeding investigations to prove the presence of a race-specific gene. Twenty-five percent of the lines combined partial race-specific resistance at seedling stage with the resistance of race non-specific nature at adult stage. Forty percent of all studied lines carried race non-specific resistance, and 15% of the lines possessed resistance of the ""slow rusting"" type. As a result of the study we carried out, the lines that demonstrated stable resistance to leaf rust can provide sufficient protection of the host and can be included in the breeding programs for developing varieties resistant to P. triticina.</t>
+          <t>Feasibility of using a silicon preparation to promote growth of forest seedlings: application to pine (Pinus sylvestris) and oak (Quercus robur)The present study was inspired by scientific reports describing the positive effects of silicon preparations on fruit and vegetables in horticulture. The use of silicon preparations in forest protection represents a new research application, especially in the cases of oak seedlings that are damaged by oak powdery mildew. Additionally, these preparations increase the photosynthetic efficiency of the seedlings, and thus promote increased biomass and better nutritional value of the root systems. The new idea of using silicon formulations in forestry, based on the initial test results, is particularly important for seedlings in the post-planting period in forest plantations. In particular, these preparations increase yield and plant growth, and improve plant health. So far, no comparable studies have been conducted on forest tree species. To this end, one year-old pine (Pinus sylvestris L.) and two year-old English oak (Quercus robur L.) seedlings were sprayed with silicon preparations of different concentrations, and changes in growth parameters and photosynthetic efficiency were observed. The main objective of the study was to determine the effect of the silicon preparation on the seedlings during their first life span, i.e., the first year after planting. In this study, 50 pine and 50 oak seedlings were sprayed three times with the silicon preparation, in five variants (control; concentrations of 1%, 2%, 3% and 5%), as well as the chlorophyll fluorescence, height, thickness and biomass of the roots, were measured. It was found that the treatment with a concentration of 2% was better and statistically, significantly different from the other variants, e.g., in terms of increasing photosynthetic efficiency.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This study explored the use of silicon preparations to promote growth of pine and oak seedlings by increasing photosynthetic efficiency and improving root biomass. A 2% concentration was found to be most effective.</t>
         </is>
       </c>
     </row>
@@ -415,12 +425,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5'-UTR allelic variants and expression of the lycopene-T-cyclase LCYE gene in maize (Zea mays L.) inbred lines of Russian selectionIn breeding, biofortification is aimed at enriching the edible parts of the plant with micronutrients. Within the framework of this strategy, molecular screening of collections of various crops makes it possible to determine allelic variants of genes, new alleles, and the linkage of allelic variants with morphophysiological traits. The maize (Zea mays L.) is an important cereal and silage crop, as well as a source of the main precursor of vitamin A - beta-carotene, a derivative of the beta,beta-branch of the carotenoid biosynthesis pathway. The parallel beta,T-branch is triggered by lycopene-T-cyclase LCYE, a low expression of which leads to an increase in provitamin A content and is associated with the variability of the 5'-UTR gene regulatory sequence. In this study, we screened a collection of 165 maize inbred lines of Russian selection for 5'- UTR LCYE allelic variants, as well as searched for the dependence of LCYE expression levels on the 5'-UTR allelic variant in the leaves of 14 collection lines. 165 lines analyzed were divided into three groups carrying alleles A2 (64 lines), A5 (31) and A6 (70), respectively. Compared to A2, allele A5 contained two deletions (at positions -267- 260 and -296-290 from the ATG codon) and a G251T substitution, while allele A6 contained one deletion (-290-296) and two SNPs (G251T, G265T). Analysis of LCYE expression in the leaf tissue of seedlings from accessions of 14 lines differing in allelic variants showed no associations of the 5'-UTR LCYE allele type with the level of gene expression. Four lines carrying alleles A2 (6178-1, 6709-2, 2289-3) and A5 (5677) had a significantly higher level of LCYE gene expression (~0.018-0.037) than the other 10 analyzed lines (~0.0001-0.004), among which all three allelic variants were present.</t>
+          <t>Short-term growth response of young pine (Pinus silvestris) seedlings to the different types of soil media mixture with phosphogypsum formulations under Poland forest environmental conditionsThe production of phosphoric acid produces ""waste heaps"" that have not yet been tapped, but which have the character of weak fertilizers and can perhaps be reintroduced into the elemental cycle in the forests. Two variants of mixing with organic ash and with sewage sludge were carried out. One-year-old pine seedlings (Pinus sylvestris L.) from the Trzebiez forest district (northern Poland) were planted in pots with soil that also came from the same field. Preparations containing phosphogypsum were applied topically to the soil in four doses (1, 2, 3 and 5 t/ha). The trial, which lasted one growing season, was conducted in four replicates. At the end of the trial, the height of the above-ground parts and root length, needle and root area, root neck diameter and photosynthetic performance were measured. The phosphogypsum-based preparations used showed no harmful (toxic) effects on the potted pine seedlings during the six-month trial period. The loosely prepared preparation made from a mixture of phosphogypsum and organic ash began to have a positive effect on the development of the seedlings' root system, and it was also easier to mix with the soil surface than phosphogypsum with sewage sludge, which also contained a sticky form. The photosynthetic performance of one-year-old pine seedlings decreased after one growing season following the application of phosphogypsum preparations and most of the growth parameters tested did not differ from the control, so observations over a longer period (at least two to three growing seasons) are required. However, dosages of 1 and 2 t/ha seem to be the most promising, and these lower dosages are more economical to manage in nurseries or plantations, especially on poor sites. Formulations should be tested for heavy metals and their effects on seedling development. Testing should also be continued to monitor changes in the microbiome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A study in Poland found that applying phosphogypsum-based preparations to soil had no toxic effects on pine seedlings, but longer-term studies are needed to fully understand the impact. Lower dosages of 1 and 2 t/ha seem most promising.</t>
         </is>
       </c>
     </row>
@@ -430,17 +445,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comparative analysis of growth and yield parameters of grape var. 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock and self-rooted cuttingsIndia ranks seventh in grape production at the global level. Tamil Nadu is one of the leading states in grape cultivation in India. The utilization of rootstock has become a priority aspect in grapes cultivation worldwide, especially in the current climatic conditions. The utilization of grape root stocks has not been completely explored yet in Tamil Nadu. In this regard, we compared the growth and yield parameters of grape (Vitis vinifera) var. ''Muscat Hamburg'' grafted on 'Dog Ridge' (Vitis champini) and self-rooted cuttings(of ''Muscat Hamburg'') under Cumbum valley condition, Theni district, Tamil Nadu, India. Randomly, fifty vines were chosen, each in grafted and self-rooted cutting category. 'Muscat Hamburg' is a wide variety in Cumbum valley of Theni district. The growth and yield characters were recorded. The petiole nutrient content for major elements during the flowering phase was analyzed. The growth characters viz., trunk diameter (42.46 mm), cane diameter (5.70 mm), number of fruitful shoots per cane (1.37), shoot length after pruning (42.52 cm), and leaf area (108.16 cm&lt;sup&gt;2&lt;/sup&gt;) were recorded maximum in 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock. The grafted 'Muscat Hamburg'on 'Dog Ridge' showed the highest berry weight (3.67 g), and the number of clusters per shoot (1.46). The yield characters, viz., the fruitfulness characters, such as the number of fruitful shoots per cane (1.37) was recorded better in 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock. The total number of berries per bunch (87.00), and yield per vine (21.87 kg/vine) were recorded as the highest in grafted vines. Obviously, when berry weight was the highest in grafted type, it reflected in bunch weight (276.74 g) with a maximum amount than self-rooted. The petiole nutrient contents were also found to be higher in grafted ones than in self-rooted cuttings. Overall, the use of 'Dog Ridge' as rootstock for grape variety 'Muscat Hamburg' was found promising to set enhanced vegetative growth, berry characters, and yield of the bunch than self-rooted cutting.</t>
+          <t>Effect of the varying inclusion levels of the egg yolk powder on growth, stress tolerance, and pigmentation of Guppy (Poecilia reticulata)The newly hatched nauplii of Artemia is extensively used as a live feed for ornamental fish hatchlings; however, its high cost and unbalanced nutrients necessitate exploring sustainable alternatives. An experiment was conducted to evaluate the effects of four formulated diets of 0%,5%, 10%, and 20% inclusion levels of egg yolk powder and other ingredients (fish meal, soybean meal, rice polish, corn) during the nursery stage of Guppy (Poecilia reticulata) compared to Artemia salina as a control. Results showed that survival did not differ (P &gt; 0.05) among the diets. Weight gain, daily weight gain, and specific growth rate of the fry fed with 10% egg yolk-included diet containing 49.6% fish meal and 18.8% soybean meal were significantly higher (P &lt; 0.05) than those of the other test diets and the A. salina. All the diets showed higher stress indexes (P &lt; 0.05) than the control; the test diets did not affect pigmentation.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>This study compared the growth and yield of 'Muscat Hamburg' grapes grafted on 'Dog Ridge' rootstock and self-rooted cuttings in Tamil Nadu, India. The grafted vines showed better growth, yield, and nutrient content in the petiole compared to self-rooted cuttings.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -450,17 +460,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feasibility of using a silicon preparation to promote growth of forest seedlings: application to pine (Pinus sylvestris) and oak (Quercus robur)The present study was inspired by scientific reports describing the positive effects of silicon preparations on fruit and vegetables in horticulture. The use of silicon preparations in forest protection represents a new research application, especially in the cases of oak seedlings that are damaged by oak powdery mildew. Additionally, these preparations increase the photosynthetic efficiency of the seedlings, and thus promote increased biomass and better nutritional value of the root systems. The new idea of using silicon formulations in forestry, based on the initial test results, is particularly important for seedlings in the post-planting period in forest plantations. In particular, these preparations increase yield and plant growth, and improve plant health. So far, no comparable studies have been conducted on forest tree species. To this end, one year-old pine (Pinus sylvestris L.) and two year-old English oak (Quercus robur L.) seedlings were sprayed with silicon preparations of different concentrations, and changes in growth parameters and photosynthetic efficiency were observed. The main objective of the study was to determine the effect of the silicon preparation on the seedlings during their first life span, i.e., the first year after planting. In this study, 50 pine and 50 oak seedlings were sprayed three times with the silicon preparation, in five variants (control; concentrations of 1%, 2%, 3% and 5%), as well as the chlorophyll fluorescence, height, thickness and biomass of the roots, were measured. It was found that the treatment with a concentration of 2% was better and statistically, significantly different from the other variants, e.g., in terms of increasing photosynthetic efficiency.</t>
+          <t>Rapid faunal colonization and recovery of biodiversity and functional diversity following eelgrass restorationSeagrass meadows and their associated biodiverse assemblages have declined globally due to environmental and anthropogenic stressors. Restoration of these critical habitats has the potential to reverse coastal biodiversity loss. Here, we tested the role of patch size (which can affect recruitment, food availability, and/or predation) in driving faunal colonization in an eelgrass (Zostera marina) restoration trial in Sweden. Eelgrass shoots were transplanted in plots with different configurations (continuous vs. checkerboard patterns with three patch sizes), and we followed invertebrate colonization (biodiversity and functional diversity) during the first two growing seasons. We found rapid faunal colonization following the transplantation of eelgrass shoots in all plots with invertebrate densities reaching 50-80% of the reference meadow after only one growing season (3 months). After two growing seasons (15 months), the faunal density, biodiversity, and functional diversity were similar to the reference meadow, despite eelgrass density and biomass still being lower than the reference meadow. Biodiversity, functional diversity, and community structure were similar among the different planted plots, that is, there was no indication that patch size influenced faunal colonization. We therefore consider that smaller patches embedded within larger restoration plots can be as effective for promoting biodiversity as continuous patches, with reduced costs and fewer shoots required. We also noted high natural variability between years both in the reference meadow and planted plots, showing the dynamic nature of seagrass ecosystems, and the importance of a well-planned monitoring scheme that considers the reference area and restored area within the same temporal scale.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Using silicon preparations can promote growth of forest seedlings, particularly oak seedlings affected by oak powdery mildew, and improve their photosynthetic efficiency, biomass, and root nutrition. Spraying with a 2% concentration is most effective.</t>
+          <t>Unclear</t>
         </is>
       </c>
     </row>
@@ -470,7 +475,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Short-term growth response of young pine (Pinus silvestris) seedlings to the different types of soil media mixture with phosphogypsum formulations under Poland forest environmental conditionsThe production of phosphoric acid produces ""waste heaps"" that have not yet been tapped, but which have the character of weak fertilizers and can perhaps be reintroduced into the elemental cycle in the forests. Two variants of mixing with organic ash and with sewage sludge were carried out. One-year-old pine seedlings (Pinus sylvestris L.) from the Trzebiez forest district (northern Poland) were planted in pots with soil that also came from the same field. Preparations containing phosphogypsum were applied topically to the soil in four doses (1, 2, 3 and 5 t/ha). The trial, which lasted one growing season, was conducted in four replicates. At the end of the trial, the height of the above-ground parts and root length, needle and root area, root neck diameter and photosynthetic performance were measured. The phosphogypsum-based preparations used showed no harmful (toxic) effects on the potted pine seedlings during the six-month trial period. The loosely prepared preparation made from a mixture of phosphogypsum and organic ash began to have a positive effect on the development of the seedlings' root system, and it was also easier to mix with the soil surface than phosphogypsum with sewage sludge, which also contained a sticky form. The photosynthetic performance of one-year-old pine seedlings decreased after one growing season following the application of phosphogypsum preparations and most of the growth parameters tested did not differ from the control, so observations over a longer period (at least two to three growing seasons) are required. However, dosages of 1 and 2 t/ha seem to be the most promising, and these lower dosages are more economical to manage in nurseries or plantations, especially on poor sites. Formulations should be tested for heavy metals and their effects on seedling development. Testing should also be continued to monitor changes in the microbiome.</t>
+          <t>Regeneration of Pinus sibirica Du Tour as a result of trophic relationships with the thin-billed nutcracker (Nucifraga caryocatactes macrorhynchos Brehm C L)Identifying the patterns of dynamics of natural populations of woody plants at the stage of their renewal is one of the main problems of forest ecology. The reforestation process is determined by both the dynamics of seed production and the specificity of seed dispersal of forest tree species. The five-needled pine renewal the Cembrae subsection with wingless seeds depends on birds of the genus Nucifraga sp., which store and spread their seeds. The aim of this study is to determine the relationship between seed production and regeneration of Pinus sibirica Du Tour using the thin-billed nutcracker (Nucifraga caryocatactes macrorhynchos Brehm C. L.) as a mediator. Long-term studies of these relationships have been carried out in the Siberian pine forests of the North Ural Mountains. As a result, a paradoxical conclusion is made that the number of Nucifraga birds during the period of storing and spreading of seeds in the previous year is a key factor in the abundance of Pinus sibirica seedlings. In turn, the number of seeds, both from the previous year and the current year, affects the number of Nucifraga birds.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -480,7 +485,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The study examined the effects of different soil media mixtures with phosphogypsum formulations on the growth of young pine seedlings in Polish forest conditions. The use of phosphogypsum-based preparations did not have toxic effects on the seedlings, and a mixture of phosphogypsum and organic ash showed positive effects on root development. However, longer-term observations are needed to fully understand the impact. Lower dosages of 1 and 2 t/ha appear to be the most promising. Heavy metal testing and monitoring of the microbiome are recommended.</t>
+          <t>The relationship between seed production and regeneration of Pinus sibirica is dependent on the thin-billed nutcracker, with the number of birds influencing the abundance of seedlings.</t>
         </is>
       </c>
     </row>
@@ -490,7 +495,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Effect of the varying inclusion levels of the egg yolk powder on growth, stress tolerance, and pigmentation of Guppy (Poecilia reticulata)The newly hatched nauplii of Artemia is extensively used as a live feed for ornamental fish hatchlings; however, its high cost and unbalanced nutrients necessitate exploring sustainable alternatives. An experiment was conducted to evaluate the effects of four formulated diets of 0%,5%, 10%, and 20% inclusion levels of egg yolk powder and other ingredients (fish meal, soybean meal, rice polish, corn) during the nursery stage of Guppy (Poecilia reticulata) compared to Artemia salina as a control. Results showed that survival did not differ (P &gt; 0.05) among the diets. Weight gain, daily weight gain, and specific growth rate of the fry fed with 10% egg yolk-included diet containing 49.6% fish meal and 18.8% soybean meal were significantly higher (P &lt; 0.05) than those of the other test diets and the A. salina. All the diets showed higher stress indexes (P &lt; 0.05) than the control; the test diets did not affect pigmentation.</t>
+          <t>Seasonal variation in cell wall composition and carbohydrate metabolism in the seagrass Posidonia oceanica growing at different depthsPosidonia oceanica is a common seagrass in the Mediterranean Sea that is able to sequester large amounts of carbon. The carbon assimilated during photosynthesis can be partitioned into non-structural sugars and cell-wall polymers. In this study, we investigated the distribution of carbon in starch, soluble carbohydrates and cell-wall polymers in leaves and rhizomes of P. oceanica. Analyses were performed during summer and winter in meadows located south of the Frioul archipelago near Marseille, France. The leaves and rhizomes were isolated from plants collected in shallow (2 m) and deep water (26 m). Our results showed that P. oceanica stores more carbon as starch, sucrose and cellulose in summer and that this is more pronounced in rhizomes from deep-water plants. In winter, the reduction in photoassimilates was correlated with a lower cellulose content, compensated with a greater lignin content, except in rhizomes from deep-water plants. The syringyl-to-guaiacyl (S/G) ratio in the lignin was higher in leaves than in rhizomes and decreased in rhizomes in winter, indicating a change in the distribution or structure of the lignin. These combined data show that deep-water plants store more carbon during summer, while in winter the shallow- and deep-water plants displayed a different cell wall composition reflecting their environment.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -505,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Growth-survival trade-offs and the restoration of non-forested open ecosystemsThe growth-survival trade-off has been extensively documented for phanerophyte species, whereas there is little evidence for non-phanerophyte species. However, information on the growth-survival trade-offs in non-phanerophyte species could be of great use in non-forested open ecosystem restoration by providing insights for plant production and transplantation, thus impacting the planning of cost-effective restoration actions. In this study, we explored the relationship between growth and survival of individual plants of non-phanerophyte species used in a coastal dune restoration project, and we investigated whether plant functional traits explained patterns of trade-off between growth and survival. We monitored 355 individual plants of 13 perennial non-phanerophyte species belonging to foredune and transition dune communities every 30 days after planting and calculated relative growth and survival rates. In addition, we regressed the relationship between growth and survival on values of leaf and floral traits. We found that, besides being a widely recognised axis of life history variation in phanerophyte species, the growth-survival trade-off can also be observed in perennial non-phanerophyte species. Species of different coastal dune communities (i.e., foredune vs. transition dune communities) differed with respect to the growth-survival trade-off, with plant species of foredune communities exhibiting higher growth but lower survival rates than plant species of transition dune communities. Leaf dry matter content and mean number of floral displays explained species position on the growth-survival trade-off axis; species with relatively high growth and low survival rates exhibited an acquisitive strategy, with low values of leaf dry matter content, but also a low sexual reproductive effort, as revealed by low number of floral displays. In contrast, plant species with relatively low growth and high survival rates exhibited a conservative strategy but also high sexual reproductive effort, suggesting that trade-offs occur in resource allocation among vegetative and reproductive plant structures. The trade-off we found between growth and survival in perennial non-phanerophyte species provides useful insights for planning cost-effective ecosystem restoration actions of non-forested open ecosystems, especially when the actions are nature-based and involve planting individual plants. The results of this study suggest that individual plant production for coastal dune restoration should disproportionately target plant species of foredune communities because they have low survival rates associated with low sexual reproductive effort. Planning plant production based on ecological knowledge of plant species' growth and survival after planting in the field could help achieve restoration goals while meeting project cost-effectiveness requirements.</t>
+          <t>Effect of composition and properties of soils and soil-sand substrates contaminated with copper on morphometric parameters of barley plantsIn a multifactor vegetation experiment, the effect of composition and properties of soils and soil-sand substrates contaminated with various doses of copper acetate on the morphometric parameters of spring barley seedlings was studied. It has been shown that germination and seed germination energy, as well as the length of roots, aboveground parts, and dry biomass of plants depend in a complex way on the concentration of Cu in soils and substrates, as well as on their buffering capacity to heavy metals. Two mechanisms of Cu influence on plant development have been revealed, i.e., metabolic at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg of soil and diffusional at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg. Using the methods of regression analysis of experimental data, a multiple regression equation has been obtained that combines the morphometric index of plants, the concentration of Cu in substrates, and the buffering capacity of soils to Cu. On its basis, in the soil buffering capacity-Cu concentration coordinates, a curve of values of the maximum permissible concentrations of Cu in soils was built on a plane in the range from 17 to 2047 mg/kg. It permits us to separate the zone of permissible development of barley plants (a decrease of the morphometric index by 15%) from the zone of exceeding the accepted values of the maximum permissible concentration of Cu. Thus, the maximum permissible concentration is considered to be a function of Cu concentration, the soil buffering capacity to heavy metals, and plant species rather than a fixed value.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -515,7 +520,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>This study explores the growth-survival trade-off in non-phanerophyte species used in dune restoration. Plant traits like leaf dry matter content and floral displays affect this trade-off. Foredune plant species have higher growth but lower survival rates compared to transition dune species. This trade-off can inform cost-effective ecosystem restoration actions.</t>
+          <t>The study investigated the impact of copper-contaminated soils on barley plants, finding that plant growth is influenced by copper concentration and soil buffering capacity, leading to varying maximum permissible concentrations of copper.</t>
         </is>
       </c>
     </row>
@@ -525,12 +530,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rapid faunal colonization and recovery of biodiversity and functional diversity following eelgrass restorationSeagrass meadows and their associated biodiverse assemblages have declined globally due to environmental and anthropogenic stressors. Restoration of these critical habitats has the potential to reverse coastal biodiversity loss. Here, we tested the role of patch size (which can affect recruitment, food availability, and/or predation) in driving faunal colonization in an eelgrass (Zostera marina) restoration trial in Sweden. Eelgrass shoots were transplanted in plots with different configurations (continuous vs. checkerboard patterns with three patch sizes), and we followed invertebrate colonization (biodiversity and functional diversity) during the first two growing seasons. We found rapid faunal colonization following the transplantation of eelgrass shoots in all plots with invertebrate densities reaching 50-80% of the reference meadow after only one growing season (3 months). After two growing seasons (15 months), the faunal density, biodiversity, and functional diversity were similar to the reference meadow, despite eelgrass density and biomass still being lower than the reference meadow. Biodiversity, functional diversity, and community structure were similar among the different planted plots, that is, there was no indication that patch size influenced faunal colonization. We therefore consider that smaller patches embedded within larger restoration plots can be as effective for promoting biodiversity as continuous patches, with reduced costs and fewer shoots required. We also noted high natural variability between years both in the reference meadow and planted plots, showing the dynamic nature of seagrass ecosystems, and the importance of a well-planned monitoring scheme that considers the reference area and restored area within the same temporal scale.</t>
+          <t>Effects of hazelnut husk waste on quality parameters of German primrose (Primula obconica Hance)The study was conducted to determine the feasibility of using hazelnut shell waste as a growth medium for German primroses (Primula obconica Hance) under greenhouse conditions. Five different media combinations were prepared using sphagnum moss peat (SMP) and hazelnut husk waste (HHW). Some quality and growth parameters of P. obconica appeared to be significantly different depending on the growth medium. Results showed that HHW had a statistically significant impact on two parameters, namely aesthetic appearance score and mean flower weight, but had no impact on the other qualitative traits. The highest (8.94) and lowest (4.70) esthetic appearance scores were observed at 100% HHW and control treatments, respectively. In addition, the maximum (0.15 g) and minimum (0.097 g) mean flower weights were observed in HHW2 treatment and control plants, respectively.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Using hazelnut husk waste as a growth medium for German primroses had a significant impact on aesthetic appearance and mean flower weight, but not other qualities.</t>
         </is>
       </c>
     </row>
@@ -540,7 +550,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regeneration of Pinus sibirica Du Tour as a result of trophic relationships with the thin-billed nutcracker (Nucifraga caryocatactes macrorhynchos Brehm C L)Identifying the patterns of dynamics of natural populations of woody plants at the stage of their renewal is one of the main problems of forest ecology. The reforestation process is determined by both the dynamics of seed production and the specificity of seed dispersal of forest tree species. The five-needled pine renewal the Cembrae subsection with wingless seeds depends on birds of the genus Nucifraga sp., which store and spread their seeds. The aim of this study is to determine the relationship between seed production and regeneration of Pinus sibirica Du Tour using the thin-billed nutcracker (Nucifraga caryocatactes macrorhynchos Brehm C. L.) as a mediator. Long-term studies of these relationships have been carried out in the Siberian pine forests of the North Ural Mountains. As a result, a paradoxical conclusion is made that the number of Nucifraga birds during the period of storing and spreading of seeds in the previous year is a key factor in the abundance of Pinus sibirica seedlings. In turn, the number of seeds, both from the previous year and the current year, affects the number of Nucifraga birds.</t>
+          <t>Effect of soil mixtures based on a gneiss-derived soil and two forest floor types on growth and nutritional status of Castanea sativa Mill. seedlingsAiming at the production of robust chestnut plants suitable for the establishment of plantations or for their use in afforestation of forest ecosystems, we studied the effect of soil mixtures on growth, physiological characteristics, and nutritional status of chestnut seedlings. In a complete randomized-block design pot experiment, the soil used was derived from gneiss weathering (GN) and the treatments included GN and GN with fertilization (GN-FER) as well as mixtures of GN with forest floor (FF) from chestnuts (GN-CFF) and from evergreen broad-leaved trees (GN-EFF). Both types of forest floor and fertilization had similar positive effect on seedlings growth and photosynthetic parameters. The most significant effects on soil nutrients were found in GN-CFF and GN-EFF treatments, except for extractable phosphorus (P) and exchangeable potassium (K), whose highest concentrations were observed in GN-FER. Leaf analysis showed that the concentrations of almost all nutrients in all treatments were within the adequacy limits, with the exception of nitrogen (N) in GN, copper (Cu) in GN-EFF, and K in all treatments. Both types of forest floor satisfied the nutritional needs of chestnut seedlings to a large extent and their incorporation in this type of soil combined with limited addition mainly of K and to a lesser degree of P could enhance adequacy of these nutrients in soil and plants. Thus, forest floor application may be an appropriate alternative to integrated nutrient management for robust chestnut seedlings production with significant forestry and environmental impacts.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -550,7 +560,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The study examines the relationship between seed production and the regeneration of Pinus sibirica, finding that the abundance of seedlings is influenced by the number of Nucifraga birds and vice versa.</t>
+          <t>The study looked at the effect of different soil mixtures on chestnut seedling growth and nutrition. Forest floor and fertilization had positive effects, with forest floor providing adequate nutrients.</t>
         </is>
       </c>
     </row>
@@ -560,7 +570,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Seasonal variation in cell wall composition and carbohydrate metabolism in the seagrass Posidonia oceanica growing at different depthsPosidonia oceanica is a common seagrass in the Mediterranean Sea that is able to sequester large amounts of carbon. The carbon assimilated during photosynthesis can be partitioned into non-structural sugars and cell-wall polymers. In this study, we investigated the distribution of carbon in starch, soluble carbohydrates and cell-wall polymers in leaves and rhizomes of P. oceanica. Analyses were performed during summer and winter in meadows located south of the Frioul archipelago near Marseille, France. The leaves and rhizomes were isolated from plants collected in shallow (2 m) and deep water (26 m). Our results showed that P. oceanica stores more carbon as starch, sucrose and cellulose in summer and that this is more pronounced in rhizomes from deep-water plants. In winter, the reduction in photoassimilates was correlated with a lower cellulose content, compensated with a greater lignin content, except in rhizomes from deep-water plants. The syringyl-to-guaiacyl (S/G) ratio in the lignin was higher in leaves than in rhizomes and decreased in rhizomes in winter, indicating a change in the distribution or structure of the lignin. These combined data show that deep-water plants store more carbon during summer, while in winter the shallow- and deep-water plants displayed a different cell wall composition reflecting their environment.</t>
+          <t>Cattle dung and bioturbation by dung beetles improve oak seedling establishment in Mediterranean silvopastoral ecosystemsThis study aims to determine whether the application of cattle manure and associated bioturbation by dung beetles and other invertebrates can increase oak seedling establishment in the high biodiversity Mediterranean silvopastoral systems known as ""dehesas"", which are comprised of scattered oaks and a grassland layer and are used for livestock rearing. A two-year study was conducted in a representative dehesa in southern Spain. Firstly, the effect of cattle dung pads on acorn consumption by livestock and wild predators was monitored, along with dung beetle abundance and plot bioturbation. Secondly, the indirect effects of bioturbation on acorn burial, acorn predation by rodents and oak seedling establishment were assessed under the condition of livestock exclusion. The results consistently demonstrate a high positive indirect effect of the presence of cattle manure on the persistence of acorns, as well as on seedling establishment, as a result of reduced predation by rodents and improved microhabitat conditions for the acorns and seedlings. These processes were mediated by bioturbation. Tunneler dung beetles, which move a great amount of soil material, were dominant in our records, which suggest their importance for passive acorn burial, without disregarding the influence of other edaphic invertebrates present. We conclude that the presence of cattle manure significantly improves oak seedling establishment in Mediterranean dehesas through the passive burial of acorns by bioturbation, which acts to protect them from predation by rodents, desiccation and other damage. Passive acorn burial by dung beetles and other invertebrates thus emerges as an important ecosystem service that has been little-studied to date. Appropriate rotational management of livestock could therefore contribute to addressing the bottleneck of oak regeneration in Mediterranean dehesas.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -570,7 +580,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>This study examines the distribution of carbon in a seagrass called Posidonia oceanica and how it varies during different seasons and depths in the Mediterranean Sea. The results show that deep-water plants store more carbon during summer and have a different cell wall composition in winter.</t>
+          <t>This study examines how the use of cattle manure and dung beetles can improve oak seedling establishment in Mediterranean silvopastoral systems, known as "dehesas", by protecting acorns from predation and improving microhabitat conditions.</t>
         </is>
       </c>
     </row>
@@ -580,7 +590,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nesting behaviour and description of the larva of Alysson spinosus (Panzer, 1801) (Hymenoptera: Bembicidae)The paper presents new data on the nesting habits of the digger wasp Alysson spinosus (Hymenoptera: Bembicidae). As food for larvae, the female provisioned about 7-8 hemipteran nymphs or imagines per cell. The collected prey belongs to two families of true hoppers (five species of Delphacidae and one species of Cicadellidae). Nests are built in sandy, shaded areas, and consist of a 10-12 cm long main burrow with 1-3 brood cells. Both sexes search for food (honeydew) on the leaves of lilac or small-leaved linden. The nests were infested by the dipteran kleptoparasitic Metopia argyrocephala (Diptera: Sarcophagidae). The mature larva is similar to that of the Nearctic Alysson melleus, from which it differs in having a blunt apical mandibular tooth and more prominent setae on the clypeus and labrum.</t>
+          <t>Integrated application of selected elements of sustainability, circular economy, bioeconomy, and environmental management system in guesthousesEfforts to minimize negative effects on the environment are manifested in the hospitality sector in the form of integrated application of elements of sustainable business, circular economy, bioeconomy, and environmental management. Those who run accommodation facilities are becoming environmentally aware and feel that they should be more involved in sustainable practices and thus contribute to improving the environment both locally and nationally. The main goal of this study is to identify and evaluate the application of selected elements and measures of sustainable business, circular economy, bioeconomy, and environmental management in guesthouses of the Czech Republic. A questionnaire survey (n1 = 343) was carried out together with a qualitative focus group method (n2 = 5); the data evaluation was carried out using advanced statistical methods (Tukey HSD test, Kruskal-Wallis test, correspondence analysis). The results showed that a higher classification in the guesthouse is associated with an increasing trend in the number of environmentally friendly operating methods used. Measures related to waste sorting containers (74%) and energy-saving and LED light bulbs (68%) showed the highest values. The results are useful for the practice of national professional associations that support the careful handling of resources and thereby influence the entire hospitality sector.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,17 +605,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Serological, biological and molecular characterization of viruses causing mosaic diseases on cabbage (Brassica sp L.) in Central EthiopiaThe productivity of cabbage (Brassica oleracea var. capitata) in Ethiopia has been generally low due to several biotic and abiotic constraints among which are several viral diseases. There is a recent report indicating that this economically important vegetable is seriously affected in Ethiopia by Cauliflower mosaic virus (CaMV) and Turnip mosaic virus (TuMV). However, little information exists on the incidence and distribution of these viruses as the previous report is based on samples only from Addis Ababa. In this study, a total of 370 leaf samples were collected from 75 cabbage growing fields in Central Ethiopia in two rounds of survey. Two cabbage varieties locally known as ""Habesha gomen"" and ""Tikur gomen"" with virus-like symptoms were collected and tested with Double Antibody Sandwich Enzyme-Linked Immunosorbent Assay (DAS-ELISA) using polyclonal antibodies specific to CaMV and TuMV. Results from serological diagnosis were confirmed with PCR and Sanger sequencing. The results indicated a high incidence and wide distribution of both viruses in Central Ethiopia with an average of 29.5% infection for CaMV and 40% for TuMV. Biological inoculation tests for CaMV or TuMV or both on healthy cabbage seedlings gave similar symptoms as those observed in the field. Symptom severity was higher with co-infection of CaMV and TuMV followed by TuMV single infection. BLAST analysis showed that TuMV and CaMV isolates from Ethiopia have nucleotide identity of 95-98% and 93-98%, respectively to previously reported isolates. Phylogenetic analysis revealed that CaMV isolates from Ethiopia are closely related to isolates from USA and Italy within Group II clade whereas TuMV isolates have close similarities with isolates from World B clade including isolates from Kenya, UK, Japan and the Netherlands. The identification of the causative agents of the mosaic disease observed on cabbage in Central Ethiopia may lay the foundation for future management studies.</t>
+          <t>The quality of grape and wine of Merlot and Blatina varieties in the agroecological conditions of the Trebinje vineyardThe aim of this paper is to present the quality of grape and wine of Merlot and Blatina varieties in the agro ecological conditions of the Trebinje vineyard, during the vintages of 2016 and 2017. The vineyards were established in 2004 (Merlot) and in 2013 (Blatina), at an altitude of 269 m, with the planting distance of 2.8 x 1 m for Blatina and 2.8 x 0.9 m for Merlot. The Merlot and Blatina grape varieties were grafted on Berlandieri x Riparia Kober 5BB rootstock. The research included analysis of the sugar, total acid content and pH as parameters of grape quality. The following parameters of wine quality were analyzed: alcohol content, total acid, total ash, content of extract and total phenols. The quality of the grapes, grown in the conditions of Trebinje vineyard is suitable to produce quality red wines.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>This study investigates the occurrence of mosaic diseases caused by Cauliflower mosaic virus (CaMV) and Turnip mosaic virus (TuMV) in cabbage fields in Central Ethiopia. The viruses were found to have a high incidence and wide distribution, affecting cabbage productivity.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -615,17 +620,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Effect of composition and properties of soils and soil-sand substrates contaminated with copper on morphometric parameters of barley plantsIn a multifactor vegetation experiment, the effect of composition and properties of soils and soil-sand substrates contaminated with various doses of copper acetate on the morphometric parameters of spring barley seedlings was studied. It has been shown that germination and seed germination energy, as well as the length of roots, aboveground parts, and dry biomass of plants depend in a complex way on the concentration of Cu in soils and substrates, as well as on their buffering capacity to heavy metals. Two mechanisms of Cu influence on plant development have been revealed, i.e., metabolic at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg of soil and diffusional at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg. Using the methods of regression analysis of experimental data, a multiple regression equation has been obtained that combines the morphometric index of plants, the concentration of Cu in substrates, and the buffering capacity of soils to Cu. On its basis, in the soil buffering capacity-Cu concentration coordinates, a curve of values of the maximum permissible concentrations of Cu in soils was built on a plane in the range from 17 to 2047 mg/kg. It permits us to separate the zone of permissible development of barley plants (a decrease of the morphometric index by 15%) from the zone of exceeding the accepted values of the maximum permissible concentration of Cu. Thus, the maximum permissible concentration is considered to be a function of Cu concentration, the soil buffering capacity to heavy metals, and plant species rather than a fixed value.</t>
+          <t>Bumblebees sense rootstock-mediated nutrition and fertilization regime in tomato. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Aims: Since producing more with less is required for increasing agricultural sustainability and reducing its environmental impact, breeding varieties with increased yield stability under reduced fertilizer application is an important goal, particularly in high valued horticultural crops such as tomato (Solanum lycopersicum L.). However, because of the difficulties to conciliate yield and fertilizer use efficiency through breeding, the graft-compatible genetic biodiversity existing in horticultural species offers the possibility to directly approach this objective in high-yielding elite varieties through improving nutrient capture and promoting ecosystem services such as insect pollination. We hypothesized that rootstocks affect pollinator foraging decisions through the nutritional status that impacts yield.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>The study examined the impact of copper-contaminated soil on barley plants, finding that plant growth depends on copper concentration and soil buffering capacity, with a variable maximum permissible concentration.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Effects of hazelnut husk waste on quality parameters of German primrose (Primula obconica Hance)The study was conducted to determine the feasibility of using hazelnut shell waste as a growth medium for German primroses (Primula obconica Hance) under greenhouse conditions. Five different media combinations were prepared using sphagnum moss peat (SMP) and hazelnut husk waste (HHW). Some quality and growth parameters of P. obconica appeared to be significantly different depending on the growth medium. Results showed that HHW had a statistically significant impact on two parameters, namely aesthetic appearance score and mean flower weight, but had no impact on the other qualitative traits. The highest (8.94) and lowest (4.70) esthetic appearance scores were observed at 100% HHW and control treatments, respectively. In addition, the maximum (0.15 g) and minimum (0.097 g) mean flower weights were observed in HHW2 treatment and control plants, respectively.</t>
+          <t>Green compost amendment improves potato plant performance on Mars regolith simulant as substrate for cultivation in space. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Background and aims: Higher plants represent an optimal tool to regenerate resources while producing food in Space. However, the configuration of fertile cultivation substrates based on extraterrestrial resources is still a challenge. We evaluated the adaptability of potato (Solanum tuberosum L., cv. 'Colomba') to the growth on six substrates: the MMS-1 Mars regolith simulant, alone (R100) and in mixture with 30% in vol. of green compost (R70C30), a fluvial sand, alone or mixed with 30% of compost (S100 and S70C30), a red soil from Sicily (RS), and a volcanic soil from Campania (VS).</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>This study tested using hazelnut shell waste as a growth medium for German primroses. Results showed it had a significant impact on appearance and flower weight.</t>
+          <t>Green compost amendment improves potato plant performance on Mars regolith simulant and other growing media for cultivation in space.</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Effect of soil mixtures based on a gneiss-derived soil and two forest floor types on growth and nutritional status of Castanea sativa Mill. seedlingsAiming at the production of robust chestnut plants suitable for the establishment of plantations or for their use in afforestation of forest ecosystems, we studied the effect of soil mixtures on growth, physiological characteristics, and nutritional status of chestnut seedlings. In a complete randomized-block design pot experiment, the soil used was derived from gneiss weathering (GN) and the treatments included GN and GN with fertilization (GN-FER) as well as mixtures of GN with forest floor (FF) from chestnuts (GN-CFF) and from evergreen broad-leaved trees (GN-EFF). Both types of forest floor and fertilization had similar positive effect on seedlings growth and photosynthetic parameters. The most significant effects on soil nutrients were found in GN-CFF and GN-EFF treatments, except for extractable phosphorus (P) and exchangeable potassium (K), whose highest concentrations were observed in GN-FER. Leaf analysis showed that the concentrations of almost all nutrients in all treatments were within the adequacy limits, with the exception of nitrogen (N) in GN, copper (Cu) in GN-EFF, and K in all treatments. Both types of forest floor satisfied the nutritional needs of chestnut seedlings to a large extent and their incorporation in this type of soil combined with limited addition mainly of K and to a lesser degree of P could enhance adequacy of these nutrients in soil and plants. Thus, forest floor application may be an appropriate alternative to integrated nutrient management for robust chestnut seedlings production with significant forestry and environmental impacts.</t>
+          <t>Litter leachate as a potential selector of woody species germination at alpine treelineThe advancement of upper forest limits is driven by environmental conditions, but our current understanding overlooks the attributes of habitats and germination ability of woody species. Habitats, through plant litter, impact the competitive relation of germination and seedling growth. The aims of this study were to identify the selective effect of six litter leachates on the germination of indigenous Norway spruce (Picea abies) and nonindigenous dwarf pine (Pinus mugo) and compare the germination rates of the species. We collected plant litter and seeds from the (sub)alpine belt of the Hruby Jesenik Mts. (the Eastern Sudetes Mts.; the Czech Republic). We evaluated the effect of plant litter leachates from alpine heathlands, wind-swept alpine grasslands, subalpine tall-herb plants, Pinus mugo scrub, subalpine Vaccinium vegetation, and Norway spruce clonal groups on germination process under standard light and temperature conditions. The germination of Norway spruce was inhibited by the litter leachate from subalpine tall-herb vegetation mainly dominated by Calamagrostis villosa, whereas that of dwarf pine was not. The other five litter leachates had no significant effect on the both. Under standard conditions, the germination time of dwarf pine is on average one day faster. These results suggest that most of the litter leachates examined may have small impacts on the germinability and germination time of Norway spruce and dwarf pine, but litter from the subalpine tall-herb vegetation can act as a filter that influences the seedling composition of the woody species.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Soil mixtures derived from gneiss weathering and forest floor types had positive effects on growth, photosynthesis, and nutrient status of chestnut seedlings. Forest floor application is a viable alternative for nutrient management.</t>
+          <t>Litter leachate from subalpine tall-herb vegetation affects germination of Norway spruce but not dwarf pine, indicating its role in selective seedling composition at alpine treeline.</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Distribution and resorption efficiency of macroelements (N, P, K, Ca, and Mg) in organs of Rumex alpinus L. in the Alps and the Giant (Krkonose) mountainsRumex alpinus, an alpine nitrophilous species, is a troublesome weed in pastures. Nutrient uptake and distributions in the organs of Rumex alpinus are not well-studied. We aimed to determine the distribution of macroelements in organs of Rumex alpinus together with the nitrogen-phosphorus potassium ratio (NPK) and the resorption efficiency of N, P, K, calcium (Ca), and magnesium (Mg) in the Alps of Austria, Italy, and the Krkonose (Giant) Mountains, Czech Republic. The pseudo-total and plant-available N, P, K, Ca, and Mg in soils and organs of Rumex alpinus (emerging, mature, and senescent leaves, petioles, stems, and rhizomes) were extracted with aqua regia and Mehlich-3 procedures, respectively, followed by inductively coupled plasma-optical emission spectrometry. The contents of total and available macroelements in the soils reflected high variability with localities. There was a significant effect of locality and organs on the element contents, indicating differences in nutrition. Rumex alpinus exhibited higher N and P contents in emerging and mature leaves than in the senescent compared to Ca and Mg. The N:P and N:K ratios in the mature leaves were within the normal range but were indicative of comparatively higher demand for P. The mean resorption efficiency for N, P, and K was 52, 50, and 22%, respectively, lower than values for most terrestrial plants (62, 65, and 70%). The relatively high availability of macroelements in soils and plant organs with low N, P, and K resorption efficiency indicates a high N, P, and especially K-demanding species of Rumex alpinus.</t>
+          <t>Perfect poopers; passerine birds facilitate sexual reproduction in clonal keystone plants of the boreal forest through directed endozoochory towards dead woodBerry-producing Vaccinium shrubs are keystone species in boreal forest ecosystems and their berries provide an essential food source for many vertebrates. In Fennoscandia, both the abundance and cover of Vaccinium have decreased in forests, with intensive forestry practice as a main driver. Vaccinium seedling recruitment is constricted to recruitment windows of opportunity and appears to be infrequent, mainly due to seed dispersal limitation. Passerine birds are key players in seed dispersal, which can be directed towards perching points such as coarse woody debris.In this study, we investigated the potential for directed endozoochory by passerine birds towards cut stumps and if such stumps were viable recruitment windows for Vaccinium species, in an intensively managed boreal forest landscape of central Norway. We surveyed stump and paired forest floor microsites for passerine scat (i.e. potential seed rain) and Vaccinium seedlings. We collected passerine scat and conducted germination experiments to assess if they contained viable seed. We tested the microsite effect (i.e. forest floor/stump) on scat deposition and seedling establishment and then used modified ensemble classifiers to identify important environmental factors affecting scat deposition and seedling establishment patterns.We found that passerine scat was disproportionally deposited on stumps, and that the vast majority of scat contained viable Vaccinium seed. Stumps were also suitable recruitment windows for Vaccinium species, as a higher probability of seedling establishment occurred at stumps compared with the forest floor. However, scat deposition and seedling establishment at stumps were rather contextual and determined by environmental variables. The probability of scat deposition increased with higher complexity of the vertical forest structure and lower canopy cover, whereas seedling establishment required bryophyte cover and larger stumps, or alternatively smaller stumps with competition-free spaces. Our results highlight a pathway to successful sexual reproduction for Vaccinium species in managed forests: passerine birds direct endozoochorous seed dispersal towards tree stumps, which can offer suitable conditions for seedling establishment. However, the spatiotemporal variability both in forest stand structure and in stump conditions have a strong influence on the success of sexual recruitment via this pathway.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>This research examines the distribution and resorption efficiency of macroelements in the organs of Rumex alpinus in the Alps and the Giant Mountains. The study found high variability in soil nutrient contents and determined that Rumex alpinus has a high demand for nitrogen, phosphorus, and potassium. However, the plant's resorption efficiency for these macroelements is lower compared to other plants.</t>
+          <t>Passerine birds play a crucial role in the seed dispersal and establishment of Vaccinium shrubs in boreal forests by depositing viable seeds on tree stumps, providing suitable conditions for seedling growth. Successful reproduction is dependent on environmental factors.</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cattle dung and bioturbation by dung beetles improve oak seedling establishment in Mediterranean silvopastoral ecosystemsThis study aims to determine whether the application of cattle manure and associated bioturbation by dung beetles and other invertebrates can increase oak seedling establishment in the high biodiversity Mediterranean silvopastoral systems known as ""dehesas"", which are comprised of scattered oaks and a grassland layer and are used for livestock rearing. A two-year study was conducted in a representative dehesa in southern Spain. Firstly, the effect of cattle dung pads on acorn consumption by livestock and wild predators was monitored, along with dung beetle abundance and plot bioturbation. Secondly, the indirect effects of bioturbation on acorn burial, acorn predation by rodents and oak seedling establishment were assessed under the condition of livestock exclusion. The results consistently demonstrate a high positive indirect effect of the presence of cattle manure on the persistence of acorns, as well as on seedling establishment, as a result of reduced predation by rodents and improved microhabitat conditions for the acorns and seedlings. These processes were mediated by bioturbation. Tunneler dung beetles, which move a great amount of soil material, were dominant in our records, which suggest their importance for passive acorn burial, without disregarding the influence of other edaphic invertebrates present. We conclude that the presence of cattle manure significantly improves oak seedling establishment in Mediterranean dehesas through the passive burial of acorns by bioturbation, which acts to protect them from predation by rodents, desiccation and other damage. Passive acorn burial by dung beetles and other invertebrates thus emerges as an important ecosystem service that has been little-studied to date. Appropriate rotational management of livestock could therefore contribute to addressing the bottleneck of oak regeneration in Mediterranean dehesas.</t>
+          <t>Insight into a complex of phenolic compounds in plump fruits (Prunus domestica L.) in the conditions of Tambov oblastThe fruits of Prunus domestica L. are a valuable source of phenolic compounds, in particular hydroxycinnamic acids and their esters. Hybrid origin of Prunus domestica hexaploid species, the ample number of the varieties, and expanded geograph y of the cultivation preclude scientists from arriving at a definitive conclusion on the content levels and composition of phenolic compounds in plum fruits. The goal of our study is to determine and identify the phenolic composition of fruits of Prunus domestica L. grown in Tambov oblast of the Russian Federation. The research focused on eight fresh-eating and all-purpose varieties. Experimental plantations were established in 2014 in the 6 x 3-m setup. The plum-cherry hybrid (SVG) 11-19 was used as a rootstock. The phenolic components of plum fruits were determined by reverse phase high performance liquid chromatography (RP HPLC) using a Thermo Ultimate 3000 liquid chromatography system equipped with a DAD-3000 detector. A chromatography run of the plum fruit methanol extracts was performed through a mobile phase binary gradient represented by acetonitrile and aqueous potassium dihydrogen phosphate acidified with orthophosphoric acid to pH 2.5. The hydroxycinnamic acids in the plum fruits were determined to be as follows: 5.33-181.54 mg/100 g of 4-Caffeoylquinic acid, 1.69-31.73 mg/100 g of 5-Caffeoylquinic acid, 0.54-5.77 mg/100 g of 3-p-Coumaroylquinic acid, and 0.04-0.63 mg/100 g of 3-Caffeoylquinic acid. Quercitin-3-rutinoside at 0.77-9.17 mg/100 g was dominant among flavonols. Three anthocyanins, namely, cyanidin-3-glucoside, cyanidin-3-rutinoside, and peonidin-3-glucoside, were identified in the studied plum fruits. The structural composition of plum fruit anthocyanins was dominated by cyaniding-3-glucoside, accounting for 60 to 90% of the total anthocyanin content. The obtained data on the content of phenolic components in fruits of specified plum varieties (Prunus domestica L.) point toward the potential of the use of the specified plum varieties as a source of hydroxycinnamic acids, anthocyanins, and flavonols in the population diet.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The study found that applying cattle manure and dung beetles to Mediterranean silvopastoral ecosystems increased oak seedling establishment by improving acorn survival and reducing predation.</t>
+          <t>Study determines and identifies phenolic composition of plump fruits, specifically hydroxycinnamic acids, anthocyanins, and flavonols, in Prunus domestica L. grown in Tambov oblast, Russia.</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Integrated application of selected elements of sustainability, circular economy, bioeconomy, and environmental management system in guesthousesEfforts to minimize negative effects on the environment are manifested in the hospitality sector in the form of integrated application of elements of sustainable business, circular economy, bioeconomy, and environmental management. Those who run accommodation facilities are becoming environmentally aware and feel that they should be more involved in sustainable practices and thus contribute to improving the environment both locally and nationally. The main goal of this study is to identify and evaluate the application of selected elements and measures of sustainable business, circular economy, bioeconomy, and environmental management in guesthouses of the Czech Republic. A questionnaire survey (n1 = 343) was carried out together with a qualitative focus group method (n2 = 5); the data evaluation was carried out using advanced statistical methods (Tukey HSD test, Kruskal-Wallis test, correspondence analysis). The results showed that a higher classification in the guesthouse is associated with an increasing trend in the number of environmentally friendly operating methods used. Measures related to waste sorting containers (74%) and energy-saving and LED light bulbs (68%) showed the highest values. The results are useful for the practice of national professional associations that support the careful handling of resources and thereby influence the entire hospitality sector.</t>
+          <t>Effect of rootstock selection on tree growth, yield, and fruit quality of lemon varieties cultivated in GreeceLemon is a prominent citrus fruit that supports regional economies worldwide. Several agronomic and fruit quality attributes are affected by the rootstock selection, thus its selection is essential for a successful grove. This study aims to compare the agronomic and quality attributes of four lemon cultivars ('Mikrokarpo Messaras', 'Nouvel Athos', 'Femminello Commune,' and 'Zia gara Bianca') grafted onto three rootstocks ('Sour Orange', 'Yuma Ponderosa lemon', and 'Volkameriana'). The yield and rootstock/scion ratio were estimated along with fruit morphological characteristics (size, equatorial, and polar diameter). Internal fruit quality was also estimated (total soluble solids, total acidity, juiciness, ascorbic acid, total phenols, and total antioxidant activity). 'Volkameriana' rootstock stood out among the studied rootstocks, as all grafted lemon varieties increased their productivity. Its combination with the Italian cultivar 'Femminello Commune' exhibited enhanced tree vigor and tree yield. For all studied cultivars, the use of 'Volkameriana' or 'Yuma Ponderosa lemon' rootstocks decreased the total soluble content and total acidity, increased the ascorbic acid content, and did not influence the TSS/TA ratio, total phenols or total antioxidant activity. In conclusion, the vigorous 'Volkameriana' and 'Yuma Ponderosa lemon' rootstocks are a promising replacement for 'sour orange'. This research provides valuable insights into the potential use of 'Yuma Ponderosa lemon' as a rootstock for lemons, as existing literature is rather limited.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -730,17 +730,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Synergistic effects of methyl jasmonate treatment and propagation method on Norway spruce resistance against a bark-feeding insectUtilizing plants with enhanced resistance traits is gaining interest in plant protection. Two strategies are especially promising for increasing resistance against a forest insect pest, the pine weevil (Hylobius abietis): exogenous application of the plant defense hormone methyl jasmonate (MeJA), and production of plants through the clonal propagation method somatic embryogenesis (SE). Here, we quantified and compared the separate and combined effects of SE and MeJA on Norway spruce resistance to pine weevil damage. Plants produced via SE (emblings) and nursery seedlings (containerized and bare-root), were treated (or not) with MeJA and exposed to pine weevils in the field (followed for 3 years) and in the lab (with a non-choice experiment). Firstly, we found that SE and MeJA independently decreased pine weevil damage to Norway spruce plants in the field by 32-33% and 53-59%, respectively, compared to untreated containerized and bare-root seedlings. Secondly, SE and MeJA together reduced damage to an even greater extent, with treated emblings receiving 86-87% less damage when compared to either untreated containerized or bare-root seedlings in the field, and by 48% in the lab. Moreover, MeJA-treated emblings experienced 98% lower mortality than untreated containerized seedlings, and this high level of survival was similar to that experienced by treated bare-root seedlings. These positive effects on survival remained for MeJA-treated emblings across the 3-year experimental period. We conclude that SE and MeJA have the potential to work synergistically to improve plants' ability to resist damage, and can thus confer a strong plant protection advantage. The mechanisms underlying these responses merit further examination.</t>
+          <t>The state of appleThe RHS fruit naming service addresses the global fascination with apples beyond horticulture, catering to a rising demand for identification. Receiving 1000 to 1200 cultivars annually, the RHS covers the entire UK, aiming for comprehensive coverage, notably in the South East, South West, and North of England. Samples, sourced from diverse locations, inform planting trends and historical insights. Identification involves a mix of experience, books, online tools, and comparisons. DNA testing is a last resort. The top 10 cultivars in 2022, including Bramley's Seedling, reveal popular varieties and their characteristics. The service adapts to modern interests, receiving cultivars like Falstaff, reflecting a continual quest to preserve apple diversity.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Using a plant defense hormone and a propagation method reduced damage to Norway spruce plants by a bark-feeding insect, showing potential for improved resistance.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -750,7 +745,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>First report of a 'Candidatus Phytoplasma asteris'-related strain (16Sri-B) associated with three Sempervivum cultivars in HungaryIn 2018, unusual symptoms were observed in Sempervivum plants in commercial nurseries in Hungary. Affected plants exhibited a section of the rosette emerging upwards above the foliage, with giant and often reddish leaves. These symptoms were observed in various Sempervivum species or varieties between 2019 and 2022, with approximately 1% of the plants showing these symptoms in specific cultivars. Leaves were collected from both symptomatic and symptomless plants of different taxa for DNA analysis. Nested PCR assays were performed, and amplicons were obtained from all diseased plants of Sempervivum cultivars Alpha, Purple Passion and Silberkarneol but not from asymptomatic plants of these cultivars. The DNA sequence analysis identified a 'Candidatus Phytoplasma asteris'-related strain in these symptomatic plants, which had 99.95% identity with Onion yellows phytoplasma and 'Muscari botryoides' aster yellows phytoplasma from the 'Candidatus Phytoplasma asteris' (16SrI-B) subgroup. Monitoring over a year showed a recovery from the symptoms, and phytoplasmas were no longer detected by PCR after one year. This is thought to be the first identification of a 'Ca. P. asteris'-related strain in Sempervivum worldwide.</t>
+          <t>Effects of cultivar and plant origin on the aeroponic production of potato minitubersAeroponics is eco-friendly, soilless technology for the cultivation of vegetable plants that can be used for the production of pathogen-free pre-basic seed potato, namely minitubers. In aeroponic modules, the underground parts of potato plants grow suspended in the mist of finely dispersed nutrient solution to produce tubers, while the shoots grow above the module under greenhouse conditions. This study aimed to evaluate the effects of the cultivar and origin of planting material on the minituber production in an aeroponic facility in Guca, Serbia. Two potato cultivars, Sinora and Agria, and two types of planting material, acclimated microplants and plants originating from sprouted minitubers, were used in the study. Plants were grown in the 2019 season with a planting density of 24 plants per m2 and ~14-day harvest intervals. Agria plants of both plant origins steadily tuberized during most of the cultivation period and formed a significantly larger number of minitubers (13.61) compared to cultivar Sinora (3.35), which quickly completed the growth cycle. In both investigated cultivars, the mass of formed minitubers was significantly higher in the plants originating from minitubers (18.80 g) compared to plants of in vitro origin (9.04 g). Agria plants of minituber origin produced the heaviest minitubers (19.05 g), while Sinora plants of in vitro origin formed the least heavy tubers (5.29 g). The highest yield of minitubers, 6.26 kg m-2, was recorded for Agria plants of minituber origin. The results of our study suggest that both plant origin and potato genotype significantly affect minituber production in aeroponics.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -760,7 +755,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A study in Hungary identified a strain of 'Candidatus Phytoplasma asteris' in Sempervivum plants, causing unusual symptoms, but the plants recovered after a year.</t>
+          <t>The study evaluated the effects of cultivar and plant origin on minituber production in an aeroponic facility. Agria plants produced more and heavier minitubers compared to Sinora plants.</t>
         </is>
       </c>
     </row>
@@ -770,7 +765,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>First report of Neofusicoccum parvum causing canker and dieback on Alnus glutinosa in PortugalIn March 2022, sunken cankers were observed on the stem and branches of young and mature Alnus glutinosa trees in central Portugal. Cankers were characterised by necrotic lesions on the outer and inner bark that progressively girdled the circumference of stem and branches causing extensive canopy dieback. The incidence of the disease was estimated at 70% (linear plot of 50 m long). Isolations from the diseased tissues resulted in 20 fungal colonies resembling Botryosphaeriaceae species based on colony appearance and hyaline, fusiform, aseptate, thin-walled conidia characteristics. These isolates were identified as Neofusicoccum parvum. The identification was further confirmed through sequencing of the internal transcribed spacer region and comparison with the ex-type culture of N. parvum, exhibiting 100% sequence identity. Subsequent pathogenicity tests on common alder seedlings revealed similar necrotic lesions and wilting symptoms, fulfilling Koch's postulates. This is thought to be the first report of N. parvum affecting A. glutinosa in Portugal and in Europe.</t>
+          <t>Infestation of pine (Pinus sylvestris L.) seedlings with the pinewood nematode Bursaphelenchus xylophilus Steiner and Buhrer (Nickle) through wood sawdustKey message: There are various pathways for infesting pine trees with the pinewood nematode (PWN), Bursaphelenchus xylophilus. As a result of the experiment, we determined that sawdust infested with the nematode can pose a phytosanitary risk. Nematodes actively moved from infested sawdust into root or stem damaged pine seedlings. Context: The spread of PWN, Bursaphelenchus xylophilus in pine plantations and forests is caused by beetles of the genus Monochamus, but the nematode can also be introduced via different coniferous commodities. Aims: The study objective was to assess the possibility that injured roots and stems of Pinus sylvestris seedlings could be infested with PWN through nematode-infested sawdust.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -780,7 +775,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Neofusicoccum parvum, a fungal species, caused canker and dieback on Alnus glutinosa trees in central Portugal, with a 70% incidence rate. Pathogenicity tests confirmed the first report of its impact on A. glutinosa in Portugal and Europe.</t>
+          <t>Infestation of pine seedlings with pinewood nematode can occur through nematode-infested sawdust, posing a phytosanitary risk to the root or stem of the seedlings.</t>
         </is>
       </c>
     </row>
@@ -790,12 +785,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>First report of Querciphoma minuta causing branch and stem canker in Platanus x hispanica in GermanyIn July and August 2022, numerous London plane (Platanus hispanica) trees in Cottbus, Germany, displayed large, dark-brown to red-brown lesions extending from the bark to the heartwood, affecting over 60% of the trees. Querciphoma minuta, a fungus within the Camarosporium complex, was identified in affected branches. Genomic and morphological analyses confirmed the identification. Pathogenicity tests revealed that Q. minuta caused necrosis and vascular discoloration in healthy plane tree seedlings, fulfilling Koch's postulates. Previously known to affect oak trees, this is thought to be the first report of Q. minuta as a potential canker pathogen of London plane trees. This suggests a broader host range and greater impact of the pathogen as a plant disease agent than previously recognized.</t>
+          <t>Seed treatment potential for the improvement of lucerne seed performance and early field growthSeed treatments have a potential to improve seed performance traits and consequently optimize crop establishment. However, there is a lack of systematic research for these techniques in lucerne, especially under field conditions. The goal of this study was to investigate the potential of various seed treatments on the improvement of lucerne germination and emergence under lab conditions and early seedling growth in the field. Compared treatments were heat treatment; seed priming with water, potassium permanganate, chitosan, vermitea, or bokashi juice; and seed coating with cinnamon, gypsum, wood ash, tannin quebracho, and cocoa powder. Among the seed priming methods, potassium permanganate and chitosan provided the best results in the improvement of seedling length or emergence dynamics, whilst coating with bentonite and gypsum could be recommended for having a positive impact on root development. Cinnamon powder significantly improved the emergence dynamics, seedling, and shoot length. The combination of priming and coating methods seems to be the most effective when assessed under the field conditions, where some positive response in root traits can be evaluated.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>This study investigated the potential of various seed treatments on lucerne seed performance and growth. Seed priming with potassium permanganate and chitosan showed promising results, while seed coating with bentonite and gypsum had positive effects on root development. Cinnamon powder improved emergence dynamics, seedling, and shoot length. Combinations of priming and coating methods were most effective in field conditions.</t>
         </is>
       </c>
     </row>
@@ -805,17 +805,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The quality of grape and wine of Merlot and Blatina varieties in the agroecological conditions of the Trebinje vineyardThe aim of this paper is to present the quality of grape and wine of Merlot and Blatina varieties in the agro ecological conditions of the Trebinje vineyard, during the vintages of 2016 and 2017. The vineyards were established in 2004 (Merlot) and in 2013 (Blatina), at an altitude of 269 m, with the planting distance of 2.8 x 1 m for Blatina and 2.8 x 0.9 m for Merlot. The Merlot and Blatina grape varieties were grafted on Berlandieri x Riparia Kober 5BB rootstock. The research included analysis of the sugar, total acid content and pH as parameters of grape quality. The following parameters of wine quality were analyzed: alcohol content, total acid, total ash, content of extract and total phenols. The quality of the grapes, grown in the conditions of Trebinje vineyard is suitable to produce quality red wines.</t>
+          <t>The content of Cd and Pb in herbs and single-component spices used in Polish cuisineSpices and herbs play an important role in the human diet, mostly due to the presence of essential oils and high antioxidant activity. Therefore, the toxicity of metals raises concerns about the safety of consumption of spices and herbs. This paper examines the content of Cd and Pb in fresh and dried herbs and single-component spices that are the most popular in Polish cuisine: 100 samples of nine kinds of dried herbs, 184 samples of 15 kinds of fresh herbs and 148 samples of 14 kinds of loose single-component spices. The level of Cd and Pb was determined using the GF AAS method. The safety of herbs and spices for consumption was estimated based on the percentage intake of Cd and Pb compared with the tolerable intake (% TWI, % BMDL), chronic daily intake (CDI), target hazard quotient (THQ), hazard index (HI) and comparisons of the results of chemical analyses with the maximum admissible levels of Cd and Pb in Poland and in the European Union. Calculated per fresh weight of the product, dried herbs on average contained 0.134 +or- 0.168 mg of Cd and 0.548 +or- 0.161 mg of Pb per kg&lt;sup&gt;-1&lt;/sup&gt;, fresh herbs on average contained 0.004 +or- 0.007 mg of Cd and 0.039 +or- 0.033 mg of Pb per kg&lt;sup&gt;-1&lt;/sup&gt;, and the mean content of Cd in spices was 0.017 +or- 0.019 mg per kg&lt;sup&gt;-1&lt;/sup&gt; and 0.064 +or- 0.050 mg of Pb. The % TWI, % BMDL, CDI, THQ and HI (Cd + Pb) for all the analysed products were lower than 1. The results do not imply a risk due to the supply of Cd and Pb with the diet to the human body, primarily due to the small intake of these products. However, it should be highlighted that the content of Cd in dried coriander and estragon and that of Pb in watercress, jiaogulan, celery, basil and dill exceeded the acceptable limit. Thus, their consumption for people from particularly sensitive groups such as babies, pregnant and breastfeeding women and people should be carefully limited.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>This paper investigates the quality of Merlot and Blatina grapes and wine in the Trebinje vineyard, demonstrating suitability for producing quality red wines.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -825,17 +820,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Stress induced by soil contamination with heavy metals and their effects on some biomarkers and DNA damage in maize plants at the vicinity of Ferronikel smelter in Drenas, KosovoThe Ferronikel smelter in Drenas is one of the main industrial areas in the Kosovo and pollution by heavy metals causes serious threat for all living organisms on this area. The objective of this study was to determine the concentration of some heavy metals (Fe, Cu, Mn, Cr, Cd, Ni and Pb) in agricultural soils and in maize plants, and their potential toxic effects on this plant through some sensitive biochemical and molecular markers. Maize seedlings growth in nine soil samples from different locations of this area. The highest concentrations of heavy metals in soils and maize leaves were conducted close to the Ferronikel smelter, and in some locations, the nickel and chromium concertation in soils exceeded 800 mg kg&lt;sup&gt;-1&lt;/sup&gt;. A significant effects of heavy metals induced toxicity resulted in the, build-up aminolevulinic acid and reduced activity of -aminolevulinic acid dehydratase, and chlorophyll content in the maize leaves. In general, maize seedlings growth in polluted locations showed an increase in nuclear DNA content and in G2M phase. We concluded that locations close to the smelter are affected by soil heavy metals pollution and these biochemical and molecular analysis would be a powerful ecotoxicological tool in biomonitoring of heavy metal pollution.</t>
+          <t>Impact of quince clonal rootstocks on yield and fruit quality characteristics of European pear (Pyrus communis L.) cultivarsThe study was conducted during two sequential research years of 2020 and 2021 at the fruit research station of Ondokuz Mayis University, Turkiye. The aim of the research was to assess the effect of quince clonal rootstocks (Province Quince BA29 [BA29], Quince A [QA], and Quince MC [MC]) on yield and fruit quality of pear cultivars ('Deveci', 'Williams', 'Santa Maria' and 'Abate Fetel'). Fruit weight, width, length, fruit stalk length and thickness, fruit color traits (L*, a*, b*, chroma, hue degrees ), fruit firmness, total soluble solids, acidity, pH, marketable fruit rate, black spotted fruit rate, and preharvest fruit drop rate were evaluated as quality properties. In the case of yield attributes, number of fruit per tree, yield per tree, yield per hectare, yield per trunk cross sectional area, and yield per canopy volume were taken into consideration. Results of the research revealed that all aforementioned evaluated characteristics were statistically significantly affected under three factors combination at the 5 level of significance (P &lt; 0.05) when Duncan's multiple range test was applied to the data. In brief, it was revealed that treatment combinations affected yield and quality characteristics. In general, in terms of yield per tree and yield per hectare, it was observed that the 'Santa Maria' cultivar gave better results in all rootstocks.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>This text discusses the effects of soil contamination with heavy metals from a smelter in Drenas, Kosovo, on maize plants and the potential ecological implications.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -845,7 +835,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Control of Phytonemus pallidus (Acari: Tarsonemidae) from strawberry transplants using controlled atmosphere temperature treatmentSince it inhabits young leaves and buds of strawberry (Fragaria x ananassa Duchesne) crowns, cyclamen mite (Phytonemus pallidus Banks) is a difficult pest to control with biological or chemical means once it is present in a field. Controlled atmosphere temperature treatment (CATT) is a successful technique that has been commercially used in the Netherlands for nearly 2 decades to disinfect strawberry nursery stock, including elimination of cyclamen mite. During CATT, plants are treated at 35 degrees C, 50% CO2, and 10% O2 under high relative humidity for 48 h. The objective of this study was to test CATT against P. pallidus in North America at a scale that can be easily used on-farms by strawberry growers. Two greenhouse experiments were conducted where infested trayplants were treated with CATT or the acaricide abamectin, and P. pallidus number were compared to control plants. Plants were destructively sampled after 4 weeks, and CATT reduced mobile forms of P. pallidus by 99.9% in both experiments. Abamectin used in the first experiment had an efficacy of 95.5%. Our findings suggest that CATT is effective at nearly eliminating P. pallidus from strawberry planting material, and its application could reduce risks of field infestations and the need for multiple acaricide applications. While our results are encouraging, additional research is needed to assess the effects of CATT on strawberry plant survival, growth, and fruit production.</t>
+          <t>Biodegradable mulching film vs. traditional polyethylene: effects on yield and quality of San Marzano tomato fruitsMulching is a common practice for improving crop yield and obtaining an out-of-season production, but when made using plastic materials it can bring environmental problems due to the management and the disposal of films at the end of the cropping seasons. To increase the sustainability of this practice, recently, mulching films made with biodegradable organic materials have become more widely used. Our aim was to evaluate the effect of a biodegradable mulching film on yield and qualitative traits of the San Marzano tomato fruits over two years (2014 and 2015). Two different types of mulching were tested: (i) black biodegradable film (MB12) and (ii) black low-density polyethylene (LDPE) were compared to bare soil (BS). Both mulching films elicited a 25% increase in yield, mainly due to the significantly higher number of fruits per square meter, compared to BS. Both mulching films also elicited a 9.9% increase in total soluble solids and a 57% increase in carotenoid content, while firmness showed the highest value in BS fruits. MB12 determined the highest value of the Hunter color ratio a/b of tomato fruits, followed by LDPE, while the lowest value was recorded in BS fruits. Both mulching films elicited an increase of 9.6%, 26.0%, and 11.7% for flavonoids, polyphenols, and AsA, respectively. In 2014, the MB12 degradation started at 71 days after transplant (DAT); in 2015, at 104 DAT. Therefore, replacing polyethylene with biodegradable film would seem to be an agronomically efficient and environmentally sustainable practice.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -855,7 +845,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Controlled atmosphere temperature treatment (CATT) successfully reduced the number of Phytonemus pallidus (cyclamen mite) in strawberry plants by nearly 100%, offering a potential solution for growers to prevent infestations.</t>
+          <t>Using biodegradable mulching film made with organic materials can increase yield and quality of San Marzano tomato fruits compared to traditional plastic mulching.</t>
         </is>
       </c>
     </row>
@@ -865,7 +855,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bumblebees sense rootstock-mediated nutrition and fertilization regime in tomato. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Aims: Since producing more with less is required for increasing agricultural sustainability and reducing its environmental impact, breeding varieties with increased yield stability under reduced fertilizer application is an important goal, particularly in high valued horticultural crops such as tomato (Solanum lycopersicum L.). However, because of the difficulties to conciliate yield and fertilizer use efficiency through breeding, the graft-compatible genetic biodiversity existing in horticultural species offers the possibility to directly approach this objective in high-yielding elite varieties through improving nutrient capture and promoting ecosystem services such as insect pollination. We hypothesized that rootstocks affect pollinator foraging decisions through the nutritional status that impacts yield.</t>
+          <t>Patterns of copper bioaccumulation and translocation in grapevine grafts depending on rootstocksThe long-term use of copper (Cu) fungicides in viticulture in Europe has led to Cu accumulation in vineyard top soils. However, less is known about the accumulation of Cu in grapevine grafts after the callusing process/before planting in the nursery. This paper presents the capacity of 5BB and SO4 rootstocks to accumulate Cu, as well as the patterns of translocation in the grafts. After heat forcing (callusing), the grapevine grafts of Sauvignon Blanc on 5BB and SO4 rootstocks were grown in pots for six months in a glasshouse and exposed to various Cu formulations (Cu-oxychloride, Cu-gluconate) and concentrations in peat (50, 150, 500, and 1000 mg Cu of dry weight (DW)). In addition to monitoring the shoot growth dynamics and analyzing the copper content in graft organs, bioaccumulation (BAFs) and translocation factors (TFs) of Cu were calculated. The mean Cu concentrations were ranked as follows: roots (15-164) &gt; rootstock trunks (8-38) &gt; canes (5-21) mg kg&lt;sup&gt;-1&lt;/sup&gt; DW. The Cu concentrations depended on the Cu formulation and concentration in the substrate. Higher Cu content was found in the roots of both rootstocks (5BB and SO4, 23-155 and 15-164 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW, respectively) and the lowest in the canes (less than 10 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW) of grafts grown in Cu-oxychloride-treated peat. Based on the BAFs and TFs, both rootstocks could be considered as Cu exclusive. A higher translocation rate was determined in systemic Cu-gluconate and SO4 rootstock. With shoot length measurements, the significant inhibitory effects of Cu on grapevine grafts growth could not be confirmed, despite the inhibitory effects that were clearly expressed in the first two months of growth. Soils containing more than 500 mg Cu/kg&lt;sup&gt;-1&lt;/sup&gt; are less suitable for growing vine grafts.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -875,7 +865,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>This study explores how bumblebees can sense the nutritional status of tomato plants, specifically focusing on the rootstocks and their impact on pollination and yield.</t>
+          <t>The study examines the accumulation and translocation of copper in grapevine grafts depending on rootstocks and growing media. Results suggest high Cu concentrations in roots and low inhibitory effects on growth. Soils with over 500 mg Cu/kg are not recommended for vine grafts.</t>
         </is>
       </c>
     </row>
@@ -885,7 +875,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Green compost amendment improves potato plant performance on Mars regolith simulant as substrate for cultivation in space. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Background and aims: Higher plants represent an optimal tool to regenerate resources while producing food in Space. However, the configuration of fertile cultivation substrates based on extraterrestrial resources is still a challenge. We evaluated the adaptability of potato (Solanum tuberosum L., cv. 'Colomba') to the growth on six substrates: the MMS-1 Mars regolith simulant, alone (R100) and in mixture with 30% in vol. of green compost (R70C30), a fluvial sand, alone or mixed with 30% of compost (S100 and S70C30), a red soil from Sicily (RS), and a volcanic soil from Campania (VS).</t>
+          <t>Analysis regarding the organization, establishment, maintenance and harvesting of sea bunckthorn in plantationRomania brings its contribution to the European Union through a valuable heritage, with numerous species of plants and animals, some endemic and relict, among them medicinal plants and those with high nutritional value. Romania's geographical position and climate have always offered special conditions for favourable for the culture of fruit trees and shrubs. Around towns, in familiar gardens, in small spaces around buildings, on walls and trellises, the cultivation of various species of trees and shrubs is a leisure occupation and a source of fruit supply. Fruit trees and shrubs in parks, around houses, on roads and alignments, in addition to aesthetics and fruit production, contribute to improving the climate, preventing and combating environmental pollution. Hippophae rhamnoides-Sea buckthorn is a shrub of particular importance, found both in spontaneous flora and in controlled cultures. In Romania, sea buckthorn grows spontaneously in the Subcarpathian area of Moldova and Muntenia. Depending on the place where it is planted, sea buckthorn can grow as a shrub or tree at a height of 1.5 m to 3.5 m, or even more. In arid areas it can become creeping, being an adaptation to environmental conditions. Sea buckthorn is used in food, medicine, animal feed and forestry. Used in agriculture, buckthorn has a very important role in increasing the winter resistance of bees. From a nutritional point of view, sea buckthorn has a high content of minerals, vitamins, oils, acids and unsaturated fats, present in the fruits and leaves. Sea buckthorn fruits have a high content of vitamin E, C and carotenoids with strong oxidative action, which slow down aging. Sea buckthorn oil relieves light medication, heals wounds and skin lesions, burns and speeds up the healing process Considering the special valences in maintaining health and treating some ailments, we must take care of this natural wealth of Romania - buckhorn, and we must not consider it inexhaustible, in order not to disappear especially from the spontaneous flora before our eyes.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -895,7 +885,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Green compost amendment was found to improve the performance of potato plants grown on Mars regolith simulant as a substrate for cultivation in space.</t>
+          <t>Romania's climate and geography make it ideal for growing various fruit trees and shrubs, such as sea buckthorn, which has nutritional and medicinal benefits. The plant is used in agriculture, food, medicine, and animal feed, and its high content of vitamins and minerals promotes health and slows down aging. However, it is important to protect and sustainably cultivate this natural resource to prevent its disappearance.</t>
         </is>
       </c>
     </row>
@@ -905,7 +895,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Litter leachate as a potential selector of woody species germination at alpine treelineThe advancement of upper forest limits is driven by environmental conditions, but our current understanding overlooks the attributes of habitats and germination ability of woody species. Habitats, through plant litter, impact the competitive relation of germination and seedling growth. The aims of this study were to identify the selective effect of six litter leachates on the germination of indigenous Norway spruce (Picea abies) and nonindigenous dwarf pine (Pinus mugo) and compare the germination rates of the species. We collected plant litter and seeds from the (sub)alpine belt of the Hruby Jesenik Mts. (the Eastern Sudetes Mts.; the Czech Republic). We evaluated the effect of plant litter leachates from alpine heathlands, wind-swept alpine grasslands, subalpine tall-herb plants, Pinus mugo scrub, subalpine Vaccinium vegetation, and Norway spruce clonal groups on germination process under standard light and temperature conditions. The germination of Norway spruce was inhibited by the litter leachate from subalpine tall-herb vegetation mainly dominated by Calamagrostis villosa, whereas that of dwarf pine was not. The other five litter leachates had no significant effect on the both. Under standard conditions, the germination time of dwarf pine is on average one day faster. These results suggest that most of the litter leachates examined may have small impacts on the germinability and germination time of Norway spruce and dwarf pine, but litter from the subalpine tall-herb vegetation can act as a filter that influences the seedling composition of the woody species.</t>
+          <t>Germination ecology and growth phenology of cowvine (Ipomoea lonchophylla) as influenced by environmental parametersCowvine (Ipomoea lonchophylla J.M. Black) is a native and widely spread summer broadleaf weed in Australia. It contains glycoresins, which are toxic to livestock. However, limited information is available on seed germination ecology and growth phenology of this species. A series of experiments were conducted to determine the response of I. lonchophylla to different environmental conditions. Results showed that the primary dormancy exhibited by I. lonchophylla is due to the physical impediment of the hard seed coat. The seed germination percentage was the highest at the constant temperature of 27 C and alternating temperatures of 35/25 C. Germination of I. lonchophylla was not stimulated by light, suggesting that this species is non-photoblastic. Ipomoea lonchophylla germination was intolerant of a medium to high level of salt stress, and germination was completely inhibited at 250 mM NaCl. The emergence of I. lonchophylla was not restricted by seeding depth up to 8 cm, but only 5% emergence was recorded when seeds were planted at a 16-cm depth. The germination percentage was also drastically reduced by 90% to 100% after exposure to either 3 mo in silage, 48-h digestion in steers, or silage plus digestion treatments. The growth and reproductive phenology of I. lonchophylla was affected by emergence time. Plants that emerged in late spring (November 15) were able to produce more berries per plant than those that emerged in midsummer (January 15) in southern New South Wales. Information gained in our study concerning high soil salinity, ensiling, and digestion will help to develop more sustainable and effective integrated weed management strategies for controlling and reducing the spread of this weed.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -915,7 +905,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Litter leachate affects germination of Norway spruce, but not dwarf pine. Subalpine tall-herb vegetation serves as a filter, impacting woody species seedling composition.</t>
+          <t>This study examines the germination and growth of cowvine weed in different environmental conditions, finding it is stimulated by high temperature but inhibited by salt stress and digestion.</t>
         </is>
       </c>
     </row>
@@ -925,7 +915,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Perfect poopers; passerine birds facilitate sexual reproduction in clonal keystone plants of the boreal forest through directed endozoochory towards dead woodBerry-producing Vaccinium shrubs are keystone species in boreal forest ecosystems and their berries provide an essential food source for many vertebrates. In Fennoscandia, both the abundance and cover of Vaccinium have decreased in forests, with intensive forestry practice as a main driver. Vaccinium seedling recruitment is constricted to recruitment windows of opportunity and appears to be infrequent, mainly due to seed dispersal limitation. Passerine birds are key players in seed dispersal, which can be directed towards perching points such as coarse woody debris.In this study, we investigated the potential for directed endozoochory by passerine birds towards cut stumps and if such stumps were viable recruitment windows for Vaccinium species, in an intensively managed boreal forest landscape of central Norway. We surveyed stump and paired forest floor microsites for passerine scat (i.e. potential seed rain) and Vaccinium seedlings. We collected passerine scat and conducted germination experiments to assess if they contained viable seed. We tested the microsite effect (i.e. forest floor/stump) on scat deposition and seedling establishment and then used modified ensemble classifiers to identify important environmental factors affecting scat deposition and seedling establishment patterns.We found that passerine scat was disproportionally deposited on stumps, and that the vast majority of scat contained viable Vaccinium seed. Stumps were also suitable recruitment windows for Vaccinium species, as a higher probability of seedling establishment occurred at stumps compared with the forest floor. However, scat deposition and seedling establishment at stumps were rather contextual and determined by environmental variables. The probability of scat deposition increased with higher complexity of the vertical forest structure and lower canopy cover, whereas seedling establishment required bryophyte cover and larger stumps, or alternatively smaller stumps with competition-free spaces. Our results highlight a pathway to successful sexual reproduction for Vaccinium species in managed forests: passerine birds direct endozoochorous seed dispersal towards tree stumps, which can offer suitable conditions for seedling establishment. However, the spatiotemporal variability both in forest stand structure and in stump conditions have a strong influence on the success of sexual recruitment via this pathway.</t>
+          <t>No evidence for seed transmission of tomato yellow leaf curl Sardinia virus in tomatoSeed transmission is an important factor in the epidemiology of plant pathogens. Geminiviruses are serious pests spread in tropical and subtropical regions. They are transmitted by hemipteran insects, but a few cases of transmission through seeds were recently reported. Here, we investigated the tomato seed transmissibility of the begomovirus tomato yellow leaf curl Sardinia virus (TYLCSV), one of the agents inducing the tomato yellow leaf curl disease, heavily affecting tomato crops in the Mediterranean area. None of the 180 seedlings originating from TYLCSV-infected plants showed any phenotypic alteration typical of virus infection. Moreover, whole viral genomic molecules could not be detected in their cotyledons and true leaves, neither by membrane hybridization nor by rolling-circle amplification followed by PCR, indicating that TYLCSV is not a seed-transmissible pathogen for tomato. Examining the localization of TYLCSV DNA in progenitor plants, we detected the virus genome by PCR in all vegetative and reproductive tissues, but viral genomic and replicative forms were found only in leaves, flowers and fruit flesh, not in seeds and embryos. Closer investigations allowed us to discover for the first time that these embryos were superficially contaminated by TYLCSV DNA but whole genomic molecules were not detectable. Therefore, the inability of TYLCSV genomic molecules to colonize tomato embryos during infection justifies the lack of seed transmissibility observed in this host.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +925,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Passerine birds in the boreal forest help facilitate seed dispersal and sexual reproduction for Vaccinium shrubs by depositing seeds in tree stumps, providing suitable conditions for seedling establishment.</t>
+          <t>Researchers found no evidence of tomato yellow leaf curl Sardinia virus transmission through seeds in tomato plants. The virus was present in vegetative and reproductive tissues but not in seeds or embryos.</t>
         </is>
       </c>
     </row>
@@ -945,7 +935,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Insect pests in hempIndustrial hemp plants have many unique physical, physiological and biochemical characteristics. These combine to make it among the best converters of solar energy, carbon dioxide, water and silica to plant biomass among commercialised plant species. One of the facets of this success is the ability to resist attack by potential animal pests. Most parts of the plant are resistant to physical attack by virtue of their strength and hardness and their chemical composition. The stems' fibre sheath is uniquely strong, but this physical characteristic is only half of the story in its ability to resist attack from pests. The other half lies in the multiplicity of secondary metabolites, including flavonoids, terpenoids and sterols that are similar to compounds that provide resistance to the feeding activities of arthropods and mammals in other plant species. Sadly, there is little scientific proof of this statement: It is a presumption supported by what we see in 'farmers' fields, in Australia and around the world. This does not mean industrial hemp has no insect pests but there seems to be no specific cadre of insects attached to this crop - anywhere. Note that hemp is still a 'new' crop' outside Europe and hemp fields are well dispersed across rural landscapes. All around the world we find small groups of insects that are 'general' pests of many farming systems crops. They seem to have the ability to nullify the natural resistance factors of many plant hosts. The Australian group focuses mainly on the seed heads (and sometimes the seedlings). cotton bollworm (Helicoverpa armigera) and native budworm (H. punctigera) are the most damaging. They find and colonise dispersed crops without difficulty. It is rare to visit a grain crop during the reproductive phase without finding Helicoverpa caterpillars as well as Rutherglen bug (Nysius vinitor) and green vegetable bug (Nezara viridula), which are similarly pandemic, but probably less damaging. Then there is a further group of species that is diverse, sporadic, potentially devastating and even more difficult to define in economic terms: leaf beetles (Monoleptis australis), mirids (Creontiades pallida), stem borer (cerambycid beetle), seed-collecting ants, wireworms and red-legged earth mite (Halotydeus destructor). Then there is another group of insects found on hemp plants that are 'probably just visiting' from weeds etc. They include cabbage white butterflies (Pieris rapae) and miscellaneous grass moths. Effective management interventions include organic, biological, and conventional options.</t>
+          <t>Improving field establishment and yield in seed propagated Miscanthus through manipulating plug size, sowing date and seedling ageBiomass crops provide significant potential to substitute for fossil fuels and mitigate against climate change. It is widely acknowledged that significant scale up of biomass crops is required to help reach net zero targets. Miscanthus is a leading biomass crop embodying many characteristics that make it a highly sustainable source of biomass but planted area remains low. Miscanthus is commonly propagated via rhizome, but efficient alternatives may increase uptake and help diversify the cultivated crop. Using seed-propagate plug plants of Miscanthus has several potential benefits such as improving propagation rates and scale up of plantations. Plugs also provide an opportunity to vary the time and conditions under protected growth, to achieve optimal plantlets before planting. We varied combinations of glasshouse growth period and field planting dates under UK temperate conditions, which demonstrated the special importance of planting date on yield, stem number and establishment rates of Miscanthus. We also propagated Miscanthus in four different commercial plug designs that contained different volumes of substrate, the resulting seedlings were planted at three different dates into field trials. In the glasshouse, plug design had significant effects on above and belowground biomass accumulation and at a later time point belowground growth was restricted in some plug designs. After subsequent growth in the field, plug design and planting date had a significant effect on yield. The effects of plug design on yield were no longer significant after a second growth season but planting date continued to have a significant effect. After the second growth year, it was found that planting date had a significant effect on surviving plants, with the mid-season planting producing higher survival rates over all plug types. Establishment was positively correlated with DM biomass produced in the first growth season. Sowing date had a significant effect on establishment but the impacts of plug design were more nuanced and were significant at later planting dates. We discuss the potential to use the flexibility afforded by seed propagation of plug plants to deliver significant impacts in achieving high yield and establishment of biomass crops during the critical first two years of growth.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -955,7 +945,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Industrial hemp plants have natural resistance to many insect pests due to their physical strength and chemical composition. However, there are still some pests that can cause damage, including cotton bollworm and native budworm. Other sporadic pests include leaf beetles, mirids, and seed-collecting ants. Effective management options include organic, biological, and conventional methods.</t>
+          <t>The study focuses on improving the establishment and yield of Miscanthus, a biomass crop, through manipulating plug size, sowing date, and seedling age. Different factors, such as plug design and planting date, have significant effects on biomass accumulation, yield, and establishment rates. The study suggests that seed-propagated plug plants can provide various benefits and improve the growth of biomass crops during the critical initial years.</t>
         </is>
       </c>
     </row>
@@ -965,17 +955,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Morphological definition populations of Allium ursinum L. from the western part of the republic of SerbiaIn Western Serbia, at an altitude of 80 to 1211 m, thirteen populations of wild garlic (Allium ursinum L.) were discovered at different localities in eight different soil types. Plant material was sampled from each of the thirteen localities by the method of random sampling. Morphological parameters were measured on the sampled plant material: length of aboveground and underground part of the plant, bulb thickness, weight, length, leaf width, length and thickness of the flower stalk, with the aim of assessing the locality that has the most productive morphological parameters. The populations of Allium ursinum growing on the mountains Povlen and Rudnik have the most productive morphological parameters. It can be said that wild garlic in these two localities is the most adequate plant material for harvesting fresh plant material, which will be used for other research in agronomy.</t>
+          <t>Experimental thermocline deepening highlights the resilience of the seagrass Posidonia oceanica: an opportunity to investigate shoot adaptabilityThe deepening of the thermocline, correlated to the rising temperature, can contribute affecting seagrass performance in a changing climate scenario. Here, the effect of the thermocline deepening on the seagrass Posidonia oceanica has been investigated in Cyprus through a manipulative experiment that allowed also testing the effects of the irradiance, origin depth and translocation. P. oceanica shoots were collected from 31 m of depth and transplanted at 12 m under a shading net, simulating the 31 m light conditions. Morphology (i.e. leaf area, leaf necrosis, number of leaves) and physiology (i.e. growth rate) were evaluated. Thermocline and origin depth effects were found with an increase of leaf necrosis, while a translocation effect was highlighted by a decrease in leaf area. No differences in shoot growth rate due to treatments were found. This experiment indicated an overall wide morphological and physiological acclimation of P. oceanica cuttings in coping with future thermocline conditions and it indirectly provides information for restoration efforts.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>The study measured morphological parameters of Allium ursinum populations in Western Serbia and found that the populations on mountains Povlen and Rudnik have the most productive parameters for agricultural research.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -985,7 +970,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrogen rates influence on radicchio yield and yield componentsField experiments were laid out in two consecutive seasons between 2019 and 2020 on the laboratory field of Biotechnical centre in Naklo near Kranj, Slovenia (an altitude: 420 m; = 46 degrees 16' 18""; a = 14 degrees 18' 56""). It was conducted with the objective of finding the effect of nitrogen application levels (0 - control, 50, 100, 150 and 200 kg/ha) and 6 cultivars ('Monivip', 'Castel Franco', 'Anivip', 'Foresto', 'Palla rossa' and 'Verona') on yield and yield components of headed chicory. Trial was arranged in spilt plot factorial scheme (main plot - N levels; subplots - cultivars) on randomized complete block design base with four replications for all the seasons. The N fertilizers were applied as KAN (27% calcium amonium nitrate) in two split doses (at transplanting and 40 days after transplanting). The experimental variables measured were fresh weight (g/plant) and yield attributes (dry matter, crop height, leaf number and head firmness). There was no interaction effect of cultivar and nitrogen application levels of tested parameters. Highest fresh weight (360.2 g/crop) achived when the cultivars received 150 kg N/ha. In contrast, percentage of dry matter content and firmmness of radicchio heads decreased as increased soil N supply. Crops that received 150 kg N/ha recived heighst height (34.5 cm). N levels were not significantly effect on the leaf number of the mature heads.</t>
+          <t>Multispecies crop mixtures increase insect biodiversity in an intercropping experimentRecent biodiversity declines require action across sectors such as agriculture. The situation is particularly acute for arthropods, a species-rich taxon providing important ecosystem services. To counteract the negative consequences of agricultural intensification, creating a less hostile agricultural 'matrix' through growing crop mixtures can reduce harm for arthropods without yield losses. While grassland biodiversity experiments showed positive plant biodiversity effects on arthropods, experiments manipulating crop diversity and agrochemical input used to study arthropods are lacking. Here, we experimentally manipulated crop diversity (1-3 species, fallows), crop species (wheat, faba bean, linseed and oilseed rape) and agrochemical input (high vs. low) and studied responses of arthropod biodiversity. We tested whether arthropod responses were affected by crop diversity, mixtures and management. Additionally, we measured crop biomass. Crop biomass increased with crop diversity under high-input management, while under low management intensity, biomass was highest in two-species mixtures. Increasing crop diversity positively affected arthropod abundance and diversity, under both low- and high-input management. Crop mixtures containing faba bean, linseed or oilseed rape had particularly high arthropod diversity. Mass-flowering crops attracted more arthropods than legumes or cereals. Integrating intercropping into agricultural systems could increase flower visits by insects up to 1.5 million per hectare, thus likely also supporting pollination and pest-control ecosystem services. Flower visitor network complexity increased in mixtures containing linseed and faba bean and under low-input management. Intercropping can counteract insect declines in farmland by creating beneficial matrix habitat without compromising crop yield.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -995,7 +980,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Field experiments in Slovenia found that nitrogen application levels and cultivars did not interact in their effect on radicchio yield and yield components. The highest fresh weight was achieved with 150 kg N/ha, but dry matter content and firmness of radicchio heads decreased with increased soil N supply. N levels did not significantly affect leaf number.</t>
+          <t>Growing crop mixtures and reducing agrochemical inputs can increase arthropod biodiversity and provide ecosystem services like pollination and pest control without compromising crop yield.</t>
         </is>
       </c>
     </row>
@@ -1005,12 +990,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hypoglycin A in Acer genus plantsHypoglycin A (HGA) is an amino acid occuring in the Sapindaceae family. Ingestion of certain Acer genus plants belonging to this family has been connected with atypical myopathy (AM) or seasonal pasture myopathy (SPM). To date, all cases of AM/SPM have been associated with sycamore (Acer pseudoplatanus) and boxelder maple (Acer negundo). The aim of this work was to determine and compare HGA in sycamore, boxelder and silver maple (Acer saccharinum), the trees known for HGA content, whose occurence is quite common in the Czech Republic. In sycamore and boxelder maple the effect of location, weather condition and sampling season was evaluated. The other aim was screening for presence of HGA in 12 other species of Acer genus which are grown as ornamental trees in Europe. The determination of HGA was conducted using ultra - high performance liquid chromatography - tandem mass spectrometry (LC/MS). HGA was detected in all samples of sycamore, boxelder and silver maple except for eight leave samples of boxelder maple. In the case of sycamore maple, the highest concentrations of HGA (median) were found in seedlings (770 mg/kg) followed by samaras (130 mg/kg) and by leaves (48 mg/kg) and inflorescences (24 mg/kg). In boxelder maple, significantly higher concentrations of HGA (median) were found in seedlings (550 mg/kg) compared with samaras (45 mg/kg), leaves (14 mg/kg) and inflorescences (24 mg/kg). According to the results the seedlings could pose a significant risk of poisoning, although other factors such as accessibility and palatability of other parts, especially samaras, should be considered. No significant differences of HGA concentrations in silver maple (56 mg/kg) were found between samaras, leaves and inflorescences. HGA was also identified in sugar maple (Acer saccharum), Japanese maple (Acer palmatum), trident maple (Acer buergerianum), paperbark maple (Acer griseum) and Himalayan maple (Acer oblongum). Although silver maple and other ornamental maples have not been reported to cause AM/SPM, the possibility of intoxication in animals can not be excluded.</t>
+          <t>Microbiological indication of soils in forest plantations of the Shirinskaya steppeTo control soil degradation and desertification, sustainable long-term protective forest plantations that perform water and soil protection functions are commonly used on the erosion-prone lands of steppe ecosystems. In the Shirinskaya dry lake-basin steppe (Khakassia) in the coastal zone of Lake Shira, the staff of the Sukachev Institute of Forest, Siberian Branch, Russian Academy of Sciences, has created artificial plantings of forest cultures (Pinus sylvestris L., Larix sibirica L., and Ulmus humilis L.) and provenance trials (P. sibirica Du Tour and P. sylvestris). A wildfire damaged the coastal 40-year-old forest cultures in 2015; the surface soil layer was burnt out. Agrotechnical soil cultivation for planting provenance trials (2017) and wildfire in forest cultures affected the state of soil microbiomes. The aim of the research is to assess the rate of recovery and formation of biological soil properties in forest plantations after disturbances (wildfire and agrotechnical influences) in the coastal dry-steppe zone of Lake Shira using microbiological indicators. The research objects are the Burnt Areas (postfire and postconflagration areas) and Provenance Trial Plantation sites. The use of microbial indicators shows that the soil microbiomes on the burnt sites are restored with different intensities. The recovery of soil microbiomes on the postfire sites is much faster than in the postconflagration sites, as is evidenced by the high values of the total number of microorganisms (TNM), microbial biomass (MB), enzymatic activity (EA), and humification coefficient (C&lt;sub&gt;h&lt;/sub&gt;), which are close to the control values. Specific microbial respiration (qCO&lt;sub&gt;2&lt;/sub&gt;) is within the range of natural variability. The burnt soil is characterized by an increased proportion of hydrolytic microorganisms actively participating in the decomposition of half-burnt plant residues. On the provenance trial sites under the pine seedlings, specific rhizosphere microbiomes are forming due to the influence of the root exudates of climatypes. The values of TNM, ETGM, MB, EA, and qCO&lt;sub&gt;2&lt;/sub&gt; change either upwards or downwards; the state of microbial communities has not reached its ecophysiological norm.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>The study focuses on assessing the recovery and formation of biological soil properties after disturbances (wildfire and agrotechnical influences) in forest plantations using microbiological indicators. The research finds that the soil microbiomes on burnt sites are restored with different intensities, and specific rhizosphere microbiomes are forming under pine seedlings.</t>
         </is>
       </c>
     </row>
@@ -1020,17 +1010,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Breeding assessment of leafiness for species, varieties and ecotypes of genus FestucaSpecies of the genus Festuca are valuable forage plants in natural and sown grasslands, used for hay, grazing, anti-erosion and ornamental purposes. The proportion of leaves in the biomass is an important breeding criterion, with a direct influence on the forage quality. The aim is to evaluate the leafiness of species, varieties and ecotypes of fescue and and make a selection in view of the breeding. The object of the study are accessions of local and foreign origin from genus Festuca. In the autumn of 2015 in the experimental field of the Institute of Forage Crops - Pleven was established collection nursery (KP), with individual plants, including 3 species: tall, meadow and red fescue, including 4 varieties, 3 ecotypes and 1 breeding population, or a total of 8 accessions of fescue, by origin - 5 Bulgarian (BG) and 3 Romanian (RO); by level of ploidy - 6 hexaploid (6n), 1 tetraploid (4n) and 1 diploid (2n). During the period 2016 - 2019, annually at the first forage cut samples were taken for leafiness. The reporting is, based on dry mass, as a share of leaves of total biomass, %. Mean, minimum, maximum values, standard deviations and coefficients of variation by years and average for the period are calculated. The variation of the trait, expressed by CV, averaged a strong 21.72% over the period, with differences by year - strongest in 2016, CV=30.76%, and relatively weakest in 2019. CV=13.93% middle grade. Average values for leafiness vary among specimens, years and genetic constitution (ecotype, variety). The accessions are distributed according to the degree of leafiness, as follows: low foliage: up to 25% - there are no accessions; medium leafy: from 26% to 50% - 2 accession red fescue variety Capriora and local ecotype Atoluka, and strong leafy: over 50% - 6 accessions, in ascending order - red fescue local ecotype Ravnogor, meadow fescue Transilvan and Merifest T, tall fescue IRGR Sadovo, Adela and Albena. On average for the period, tall fescue variety Albena is the leafiest 59.54%.</t>
+          <t>Functional analysis of the P-type ATPases Apt2-4 from Cryptococcus neoformans by heterologous expression in Saccharomyces cerevisiaeLipid flippases of the P4-ATPase family actively transport phospholipids across cell membranes, an activity essential for key cellular processes such as vesicle budding and membrane trafficking. Members of this transporter family have also been implicated in the development of drug resistance in fungi. The encapsulated fungal pathogen Cryptococcus neoformans contains four P4-ATPases, among which Apt2-4p are poorly characterized. Using heterologous expression in the flippase-deficient S. cerevisiae strain dnf1dnf2drs2, we tested their lipid flippase activity in comparison to Apt1p using complementation tests and fluorescent lipid uptake assays. Apt2p and Apt3p required the co-expression of the C. neoformans Cdc50 protein for activity. Apt2p/Cdc50p displayed a narrow substrate specificity, limited to phosphatidylethanolamine and -choline. Despite its inability to transport fluorescent lipids, the Apt3p/Cdc50p complex still rescued the cold-sensitive phenotype of dnf1dnf2drs2, suggesting a functional role for the flippase in the secretory pathway. Apt4p, the closest homolog to Saccharomyces Neo1p, which does not require a Cdc50 protein, was unable to complement several flippase-deficient mutant phenotypes, neither in the presence nor absence of a beta-subunit. These results identify C. neoformans Cdc50 as an essential subunit for Apt1-3p and provide a first insight into the molecular mechanisms underlying their physiological functions.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Breeding assessment of leafiness in Festuca species for forage quality. Evaluation of species, varieties, and ecotypes to select high leafy accessions. Variations in leafiness and the leafiest variety is tall fescue Albena at 59.54%.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1025,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Insight into a complex of phenolic compounds in plump fruits (Prunus domestica L.) in the conditions of Tambov oblastThe fruits of Prunus domestica L. are a valuable source of phenolic compounds, in particular hydroxycinnamic acids and their esters. Hybrid origin of Prunus domestica hexaploid species, the ample number of the varieties, and expanded geograph y of the cultivation preclude scientists from arriving at a definitive conclusion on the content levels and composition of phenolic compounds in plum fruits. The goal of our study is to determine and identify the phenolic composition of fruits of Prunus domestica L. grown in Tambov oblast of the Russian Federation. The research focused on eight fresh-eating and all-purpose varieties. Experimental plantations were established in 2014 in the 6 x 3-m setup. The plum-cherry hybrid (SVG) 11-19 was used as a rootstock. The phenolic components of plum fruits were determined by reverse phase high performance liquid chromatography (RP HPLC) using a Thermo Ultimate 3000 liquid chromatography system equipped with a DAD-3000 detector. A chromatography run of the plum fruit methanol extracts was performed through a mobile phase binary gradient represented by acetonitrile and aqueous potassium dihydrogen phosphate acidified with orthophosphoric acid to pH 2.5. The hydroxycinnamic acids in the plum fruits were determined to be as follows: 5.33-181.54 mg/100 g of 4-Caffeoylquinic acid, 1.69-31.73 mg/100 g of 5-Caffeoylquinic acid, 0.54-5.77 mg/100 g of 3-p-Coumaroylquinic acid, and 0.04-0.63 mg/100 g of 3-Caffeoylquinic acid. Quercitin-3-rutinoside at 0.77-9.17 mg/100 g was dominant among flavonols. Three anthocyanins, namely, cyanidin-3-glucoside, cyanidin-3-rutinoside, and peonidin-3-glucoside, were identified in the studied plum fruits. The structural composition of plum fruit anthocyanins was dominated by cyaniding-3-glucoside, accounting for 60 to 90% of the total anthocyanin content. The obtained data on the content of phenolic components in fruits of specified plum varieties (Prunus domestica L.) point toward the potential of the use of the specified plum varieties as a source of hydroxycinnamic acids, anthocyanins, and flavonols in the population diet.</t>
+          <t>Formation of seed potato yield depending on the elements of cultivation technologyIt is possible to realise the maximum genetic potential of modern potato varieties by improving the elements of agricultural technology, in particular, optimising plant nutrition, which determines the relevance of this study. The purpose of the study was to substantiate the specific features of potato productivity formation depending on the elements of growing technology in Forest-Steppe conditions. Field studies were conducted during 2019-2021 on chernozem soils. The features of growth and development of potato varieties of various ripeness groups Laperla, Granada, and Memphis in Forest-Steppe conditions are examined. It is established that the yield of potato seed tubers of the varieties under study varies depending on the dose and method of fertilisation, the fraction of planting tubers, and varietal characteristics. The highest indicators of individual productivity of potato plants of the Laperla, Granada, and Memphis varieties were formed when locally applied in rows N45R45K45 against the background of semi-rotted manure, phosphorus-potassium fertiliser, and the use of seed tubers with a fraction of &gt;60 mm. As a result of the action of the factors under study, the number of stems in the bush and under it increased. A strong direct correlation was established between the number of stems in the bush and the number of tubers (r=0.78), with a coefficient of determination of 61.0%. The maximum yield of potato tubers of the examined potato varieties (29.7-41.1 t/ha) was obtained by local application of N45R45K45 against the background of semi-rotted manure and phosphorus-potassium fertiliser, depending on the size of seed tubers by the largest transverse diameter. It was identified that the use of tubers with a fraction of &gt;60 mm for planting the potato varieties under study is irrational since the consumption of seed material exceeds the yield growth indicators. It was determined that Laperla, Granada, and Memphis tubers with a fraction of 28-60 mm are optimal for planting potato varieties of different ripeness groups. The research results can be used to adjust the elements of agricultural technology of seed potatoes, obtain high-quality planting material, and conduct profitable agribusiness.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1050,7 +1035,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Study focused on determining the phenolic composition of plum fruits grown in Tambov oblast, Russia using high performance liquid chromatography. Plum fruits were found to be a potential source of phenolic compounds.</t>
+          <t>This study examines the formation of potato yield depending on cultivation elements, focusing on soil, fertilizer, and seed tuber size. Optimal methods and conditions for maximum productivity are determined.</t>
         </is>
       </c>
     </row>
@@ -1060,12 +1045,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Metabolomics and DNA-based authentication of two traditional Asian medicinal and aromatic species of Salvia subg. PerovskiaSubgenus Perovskia of the extended genus of Salvia comprises several Central Asian medicinal and aromatic species, of which S. yangii and S. abrotanoides are the most widespread. These plants are cultivated in Europe as robust ornamentals, and several cultivars are available. However, their medicinal potential remains underutilized because of limited information about their phytochemical and genetic diversity. Thus, we combined an ultra-high performance liquid chromatography quadrupole time of flight mass spectrometry (UHPLC-QTOF-MS) based metabolomics with DNA barcoding approach based on trnH-psbA and ITS2 barcodes to clarify the relationships between these two taxa. Metabolomic analysis demonstrated that aerial parts are more similar than roots and none of the major compounds stand out as distinct. Sugiol in S. yangii leaves and carnosic acid quinone in S. abrotanoides were mostly responsible for their chemical differentiation, whereas in roots the distinction was supported by the presence of five norditerpenoids in S. yangii and two flavonoids and one norditerpenoid in S. abrotanoides. To verify the metabolomics-based differentiation, we performed DNA authentication that revealed S. yangii and S. abrotanoides to be very closely related but separate species. We demonstrated that DNA barcoding coupled with parallel LC-MS profiling constitutes a powerful tool in identification of taxonomically close Salvia species.</t>
+          <t>Low-density polyethylene film biodegradation potential by fungal species from ThailandAccumulated plastic waste in the environment is a serious problem that poses an ecological threat. Plastic waste has been reduced by initiating and applying different alternative methods from several perspectives, including fungal treatment. Biodegradation of 30 fungi from Thailand were screened in mineral salt medium agar containing low-density polyethylene (LDPE) films. Diaporthe italiana, Thyrostroma jaczewskii, Collectotrichum fructicola, and Stagonosporopsis citrulli were found to grow significantly by culturing with LDPE film as the only sole carbon source compared to those obtained from Aspergillus niger. These fungi were further cultured in mineral salt medium broth containing LDPE film as the sole carbon source for 90 days. The biodegradation ability of these fungi was evaluated from the amount of CO&lt;sub&gt;2&lt;/sub&gt; and enzyme production. Different amounts of CO&lt;sub&gt;2&lt;/sub&gt; were released from D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger culturing with LDPE film, ranging from 0.45 to 1.45, 0.36 to 1.22, 0.45 to 1.45, 0.33 to 1.26, and 0.37 to 1.27 g/L, respectively. These fungi were able to secrete a large amount of laccase enzyme compared to manganese peroxidase, and lignin peroxidase enzymes detected under the same conditions. The degradation of LDPE films by culturing with these fungi was further determined. LDPE films cultured with D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger showed weight loss of 43.90%, 46.34%, 48.78%, 45.12%, and 28.78%, respectively. The tensile strength of LDPE films cultured with D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger also reduced significantly by 1.56, 1.78, 0.43, 1.86, and 3.34 MPa, respectively. The results from Fourier transform infrared spectroscopy (FTIR) reveal an increasing carbonyl index in LDPE films culturing with these fungi, especially C. fructicola. Analysis of LDPE films using scanning electron microscopy (SEM) confirmed the biodegradation by the presence of morphological changes such as cracks, scions, and holes on the surface of the film. The volatile organic compounds (VOCs) emitted from LDPE films cultured with these fungi were analyzed by gas chromatography-mass spectrometry (GC-MS). VOCs such as 1,3-dimethoxy-benzene, 1,3-dimethoxy-5-(1-methylethyl)-benzene, and 1,1-dimethoxy-decane were detected among these fungi. Overall, these fungi have the ability to break down and consume the LDPE film. The fungus C. fructicola is a promising resource for the biodegradation of LDPE which may be further applied in plastic degradation systems based on fungi.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thai fungi were tested for their ability to biodegrade low-density polyethylene (LDPE) film. Four fungal species were found to grow significantly on LDPE as the sole carbon source and showed high enzyme production. These fungi were able to degrade LDPE films and produce morphological changes on the film's surface. One fungus, Collectotrichum fructicola, showed promise for LDPE biodegradation.</t>
         </is>
       </c>
     </row>
@@ -1075,12 +1065,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Effect of rootstock selection on tree growth, yield, and fruit quality of lemon varieties cultivated in GreeceLemon is a prominent citrus fruit that supports regional economies worldwide. Several agronomic and fruit quality attributes are affected by the rootstock selection, thus its selection is essential for a successful grove. This study aims to compare the agronomic and quality attributes of four lemon cultivars ('Mikrokarpo Messaras', 'Nouvel Athos', 'Femminello Commune,' and 'Zia gara Bianca') grafted onto three rootstocks ('Sour Orange', 'Yuma Ponderosa lemon', and 'Volkameriana'). The yield and rootstock/scion ratio were estimated along with fruit morphological characteristics (size, equatorial, and polar diameter). Internal fruit quality was also estimated (total soluble solids, total acidity, juiciness, ascorbic acid, total phenols, and total antioxidant activity). 'Volkameriana' rootstock stood out among the studied rootstocks, as all grafted lemon varieties increased their productivity. Its combination with the Italian cultivar 'Femminello Commune' exhibited enhanced tree vigor and tree yield. For all studied cultivars, the use of 'Volkameriana' or 'Yuma Ponderosa lemon' rootstocks decreased the total soluble content and total acidity, increased the ascorbic acid content, and did not influence the TSS/TA ratio, total phenols or total antioxidant activity. In conclusion, the vigorous 'Volkameriana' and 'Yuma Ponderosa lemon' rootstocks are a promising replacement for 'sour orange'. This research provides valuable insights into the potential use of 'Yuma Ponderosa lemon' as a rootstock for lemons, as existing literature is rather limited.</t>
+          <t>Defaunation changes leaf trait composition of recruit communities in tropical forests in French GuianaHunting impacts tropical vertebrate populations, causing declines of species that function as seed dispersers and predators, or that browse seedlings and saplings. Whether and how the resulting reductions in seed dispersal, seed predation, and browsing translate to changes in the tree composition is poorly understood. Here, we assess the effect of defaunation on the functional composition of communities of tree recruits in tropical rainforests in French Guiana. We selected eight sites along a gradient of defaunation, caused by differences in hunting pressure, in otherwise intact old-growth forests in French Guiana. We measured shifts in functional composition by comparing leaf and fruit traits and wood density between tree recruits (up to 5 cm diameter at breast height) and adults, and tested whether and how these compositional shifts related to defaunation. We found a positive relationship with defaunation for shifts in specific leaf area, a negative relationship for shifts of leaf toughness and wood density, and a weak relationship for shifts in fruit traits. Our results suggest that the loss of vertebrates affects ecological processes such as seed dispersal and browsing, of which browsing remains understudied. Even though these changes sometimes seem minor, together they result in major shifts in forest composition. These changes have long-term ramifications that may alter forest dynamics for generations.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Defaunation due to hunting in French Guiana's rainforests alters the composition of tree recruit communities, affecting leaf traits, wood density, and potentially seed dispersal and browsing.</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1085,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The state of appleThe RHS fruit naming service addresses the global fascination with apples beyond horticulture, catering to a rising demand for identification. Receiving 1000 to 1200 cultivars annually, the RHS covers the entire UK, aiming for comprehensive coverage, notably in the South East, South West, and North of England. Samples, sourced from diverse locations, inform planting trends and historical insights. Identification involves a mix of experience, books, online tools, and comparisons. DNA testing is a last resort. The top 10 cultivars in 2022, including Bramley's Seedling, reveal popular varieties and their characteristics. The service adapts to modern interests, receiving cultivars like Falstaff, reflecting a continual quest to preserve apple diversity.</t>
+          <t>Adding fish waste to the diet of Iceland scallop Chlamys islandica: effects on feeding and reproductive abilityOrganic enrichment from fish farming may impact benthic species and habitats in adjacent areas. Norwegian salmon farming is continuously growing, but, due to area conflicts and severe sea-lice problems in the western areas, growth of the industry is focused in the northern areas. Knowledge is scarce on how an increase in fish farming will impact Arctic and subarctic species and habitats. One such species is the Iceland scallop Chlamys islandica, distributed from the Lofoten Islands in Nordland County to the Varangerfjord in Troms and Finnmark County. To study the impact of fine-particle fish faeces on feeding and reproductive ability in adult Iceland scallop, particles &lt; 41 m of finfish waste were added to the diet. Effects were tested via shortterm (weeks) feeding studies using 2 diets, 100% cultured algal species and a 50% mix of algae and fish waste. In addition, a 100% fish waste diet was used to study longer-term effects on reproductive ability (months). Feeding (% particle clearance and feeding rate) on the microalgae diet tended to be higher than that on the diet containing fish waste, but the difference was significant only in 2 out of 4 cases. We did not find any effect of diets on reproductive ability (gonad development and fatty acid profiles) of scallops. Lack of knowledge on sufficient food levels for gonad maturation in this species may have affected the results. We suggest that future work includes the transplant of scallops from a reference site to fish production sites and that investigations begin immediately after spawning early in scallop gonad development.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1105,7 +1100,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Seed weight and optimal imbibition period for some herbaceous peony (Paeonia spp.) species native to SerbiaHerbaceous peonies are plant species with high ornamental and medicinal value. Due to their endangerment, wild peonies are protected by law in Serbia. Possible ways to protect them are propagation and/or cultivation. Peonies can be propagated vegetatively (by rhizome division) or generatively (with seeds). As peony seeds have a double dormancy and their germination is a long-term process, it is important to determine which seed characteristics and pre-treatments have a positive effect on germination. Since peony seed weight is an important seed characteristic, and imbibition period is an effective pre-treatment, the aim of this study was to evaluate the peony species native to Serbia, and to determine seed mass, seed imbibition capacity, the influence of seed weight on imbibition and the influence of habitat on the studied parameters, as the mentioned parameters have hardly been studied for the tested species. The research was conducted in 2021. on three peony species native to Serbia (Paeonia tenuifolia L.-fern leaf peony or steppe peony; Paeonia peregrina Mill.-Balkan peony or Kosovo peony and Paeonia daurica Andrews). According to our one-year research, there was no statistically significant difference in seed weight depending on the natural habitat within the species and also not between P. peregrina and P. daurica. A significant difference was found in seed weight between steppe peonies and the other two studied species. In agreement with our results, the optimal imbibition time is two to three days for P. peregrina and one to two days for P. tenuifolia and P. daurica. The findings can be used as preliminary research for future peony germination studies.</t>
+          <t>Chemical composition of tissues of Syringa vulgaris L. and soil features in abandoned cemeteriesAbandoned anthropogenic sites are transformed when they come into use. In the present study, such objects were abandoned Evangelical cemeteries located in the Land of the Great Mazurian Lakes (northern Poland). This study aims to compare the concentrations of selected major (Ca, Na, Mg, Al, Fe) and potentially toxic elements (Zn, Cd, Pb) in the roots, leaves, and branches of Syringa vulgaris and buried necrosols and unburied soils in which this species grows. The soils analysed differ in their profile structure; in the case of burial necrosols, anthropogenic layers are present, while Brunic Arenosol has a natural horizon arrangement. Regarding pH, the soils analysed are characterised in the weakly acidic (6.6-6.8) to alkaline (7.2-8.6) range, both in KCl and H&lt;sub&gt;2&lt;/sub&gt;O. Total phosphorus has high values in the humus and anthropogenic horizons, especially at coffin sites (Rudowka Mala: layer of Ccoffin - 759 mg.kg&lt;sup&gt;-1&lt;/sup&gt;; Szymonka - 844 mg.kg&lt;sup&gt;-1&lt;/sup&gt;). Necrosols are characterised by a slightly higher variation in major element content than soils outside the burial area. The highest elemental content in Syringa vulgaris is accumulated in leaves and roots. Potassium (K) has the highest content in the studied tissues, and cadmium (Cd) is the lowest. The study showed no significant differences in heavy metal accumulation for plants directly associated with necrosols and soils formed outside of burials, which is confirmed by analyses of environmental indicators. The study showed that plant chemistry is more influenced by the soil substrate and soil-forming process than the soil anthropogenisation associated with burials. There was no significant effect of burials on the chemical composition of individual parts of Syringa vulgaris.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1115,7 +1110,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>This study examined seed weight and imbibition period of herbaceous peony species native to Serbia, providing preliminary research for future peony germination studies.</t>
+          <t>This study examined the chemical composition of Syringa vulgaris plants and soils in abandoned cemeteries, finding no significant differences between burial and non-burial areas.</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1120,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Effects of cultivar and plant origin on the aeroponic production of potato minitubersAeroponics is eco-friendly, soilless technology for the cultivation of vegetable plants that can be used for the production of pathogen-free pre-basic seed potato, namely minitubers. In aeroponic modules, the underground parts of potato plants grow suspended in the mist of finely dispersed nutrient solution to produce tubers, while the shoots grow above the module under greenhouse conditions. This study aimed to evaluate the effects of the cultivar and origin of planting material on the minituber production in an aeroponic facility in Guca, Serbia. Two potato cultivars, Sinora and Agria, and two types of planting material, acclimated microplants and plants originating from sprouted minitubers, were used in the study. Plants were grown in the 2019 season with a planting density of 24 plants per m2 and ~14-day harvest intervals. Agria plants of both plant origins steadily tuberized during most of the cultivation period and formed a significantly larger number of minitubers (13.61) compared to cultivar Sinora (3.35), which quickly completed the growth cycle. In both investigated cultivars, the mass of formed minitubers was significantly higher in the plants originating from minitubers (18.80 g) compared to plants of in vitro origin (9.04 g). Agria plants of minituber origin produced the heaviest minitubers (19.05 g), while Sinora plants of in vitro origin formed the least heavy tubers (5.29 g). The highest yield of minitubers, 6.26 kg m-2, was recorded for Agria plants of minituber origin. The results of our study suggest that both plant origin and potato genotype significantly affect minituber production in aeroponics.</t>
+          <t>Application of real-time PCR for the detection and quantification of oomycetes in ornamental nursery stockNumerous Phytophthora and Pythium disease outbreaks have occurred in Europe following inadvertent introduction of contaminated ornamental plants. Detection and identification of pathogens are crucial to reduce risks and improve plant biosecurity in Europe and globally. Oomycete diversity present in roots and compost was determined in 99 hardy woody plants bought from nurseries, retailers and internet sellers, using both isolations and molecular analyses. Oomycete DNA was quantified using real-time PCR of environmental DNA from the plants using three loci: ITS, trnM-trnP-trnM and atp9-nad9. At least one oomycete species was isolated from 89.9% of plants using classical techniques. In total, 10 Phytophthora spp., 17 Pythium spp. and 5 Phytopythium spp. were isolated. Oomycetes were isolated from 86% of asymptomatic plants, but real-time PCR demonstrated that oomycetes were associated with all plants tested. More oomycete DNA occurred in composts in comparison with roots and filters from baiting water (a mean of 7.91 ng g&lt;sup&gt;-1&lt;/sup&gt;, 6.55 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; and 5.62 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; of oomycete DNA detected in compost with ITS, trnM and atp9 probes, respectively); the ITS probe detected the highest quantities of oomycete DNA. No significant differences were found in quantities of oomycete DNA detected using real-time PCR in plants purchased online or from traditional retailers.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1135,7 +1130,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>This study evaluated the effects of cultivar and plant origin on minituber production in an aeroponic facility. Agria plants of minituber origin had the highest yield and heaviest tubers.</t>
+          <t>Real-time PCR was used to detect and quantify oomycetes in ornamental nursery stock. Oomycete DNA was found in both roots and compost, with compost containing the highest amounts.</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1140,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Experimental investigation of the responses of meadow buttercup (Ranunculus acris L.) to sodic salinity and its implications for habitat monitoringRanunculus acris L. is a native species widely distributed throughout Europe and is invasive in nonnative areas, causing substantial economic losses in pasture productivity. The present study examined the effects of sodic salinity on the growth and functioning of this species. Salinity stresses the germination process and seedling growth, indicating that the studied species experience serious limitations at 60-90 mmol dm&lt;sup&gt;-3&lt;/sup&gt; NaCl and cannot establish in habitats where salinity is equal to or greater than 150 mmol dm&lt;sup&gt;-3&lt;/sup&gt; NaCl. R. acris is tuned to subsaline habitats characteristic of temperate meadows, as its growth and functioning were the best when the plants were treated with 30 mmol dm&lt;sup&gt;-3&lt;/sup&gt; NaCl. Increasing salinity (60 and 90 mmol dm&lt;sup&gt;-3&lt;/sup&gt; NaCl) hampered growth, leaf morphology and photosynthesis but not mineral nutrition, as Na accumulation seemed to be the most outlined effect of NaCl application. Changes in leaf morphological characteristics coordinated well with Na content in those organs, which indicates that leaf appearance can be easily catchable sign of progressing salinity. Ultimately, progressing salinity reduces the competitiveness of the studied species, shifting its strategy to ruderal behavior, but under subsaline conditions, the strategy of this species seems to be most balanced.</t>
+          <t>Changes to volatile profiles of arborvitae, Thuja occidentalis, from drought and insect infestation: olfactory cues for the cypress bark beetle, Phloeosinus aubeiThe cypress bark beetle, Phloeosinus aubei (Coleoptera, Curculionidae, Scolytinae) prefers to build breeding galleries in decaying host trees. However, volatile cues specific to decaying or actively infested trees have not yet been reported. Any such information would be useful for the management of this invasive, wood-boring species that has become established across Europe in the temperate zone and is now a key pest of ornamental Cupressaceae in nurseries and urban landscapes. Our objective was to reveal key components in host volatiles specific to stressed trees, which could be potential signals for the pest of its suitability for colonisation. Volatile profiles of arborvitae, Thuja occidentalis 'Smaragd' suffering from either dehydration or fresh infestation of P. aubei was collected and compared to that samples from healthy control trees. Analyses of volatiles by gas chromatography coupled to an electroantennographic detector revealed substantial differences between healthy, dehydrated and infested trees. Structural elucidation of the major antennally active components revealed that both a-pinene and a-thujene were prevalent in the volatiles of infested trees, whilst a-thujone was the major component in volatiles of healthy trees. In volatiles collected from trunks housing fresh P. aubei female nuptial chambers, sharp increases of beta-pinene, myrcene, limonene, and p-cymene were noticed, alongside trace amounts of camphene and fenchene. Volatiles collected from fresh frass showed a similar profile, but with a somewhat smaller amount of limonene. Fenchone was present in each type of volatiles, however, only in low amounts. Further studies should be directed to reveal the behavioural role of these components, which could be helpful in developing kairomone-based techniques for monitoring the flight of the pest in stands of scale-leafed trees.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1155,7 +1150,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>The study found that sodic salinity negatively affects the growth and functioning of the meadow buttercup. The species is best adapted to subsaline habitats and shows limitations at higher salinities. Increases in salinity hampered growth, leaf morphology, and photosynthesis, but not mineral nutrition. Leaf appearance can be a sign of progressing salinity. Ultimately, rising salinity reduces the competitiveness of the species and shifts its strategy to ruderal behavior.</t>
+          <t>Changes in the volatile profiles of arborvitae trees suffering from drought or insect infestation could provide useful cues for managing the cypress bark beetle as a pest.</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1160,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sexual reproduction in two mixed stands of coastal and interior Douglas-fir (Pseudotsuga menziesii (Mirb.) Franco) in GermanyAdult individuals and seeds of two mixed stands of coastal and interior Douglas-fir (Pseudotsuga menziesii (Mirb.) Franco) were analysed for genetic differentiation between the two varieties and evidence of intervarietal pollination. Clear genetic discrimination between the two varieties was observed based on multilocus evaluation of nine microsatellite markers using other Douglas-fir stands of known variety composition for comparison. Analysis of pollination distances showed that 80% of pollinations took place within a distance of about 44-55 m. Analysis of stand structure showed clearly separated areas of mainly coastal or interior Douglas-fir within both stands. Together with short pollination distances this led to an apparent dominance of intravarietal pollinations. However, analysis of pollination partners of trees growing near the border of the variety specific areas, does not indicate the existence of reproductive barriers between trees of the two varieties growing in mixed stands. Therefore, commercial seed harvesting in mixed stands should be avoided if the production of seed lots of pure coastal or interior Douglas-fir is intended.</t>
+          <t>Morpho-physiological effects of irrigation with saline water in Ex vitro plants of Juglans regia 'Sorrento'Soil salinization is a global problem limiting growth and economical yield in fruit species including walnut. Knowledge of the response of varieties and cultivars to salinity can represent an important contribution to future walnut plantation in areas affected by soil salinization. Juglans regia 'Sorrento' is a commercially important Italian variety. The present work aimed to explore the morpho-physiological response to NaCl-induced stress in 'Sorrento' plants using clonally propagated ex vitro plantlets to reduce the impact of genetic variation. Ex vitro acclimatized plants were exposed to salinity conditions by irrigating pot soil with half-strength Hoagland solution containing 100 mM NaCl for 20 days. Salt-induced effects on plant growth, chlorophyll and carotenoid content, osmolality, membrane injury and on activities of antioxidant enzymes catalase and guaiacol peroxidase (G-POD) in leaves were evaluated. Morphological and growth parameters were not significantly altered by salt stress with respect to the control. Slight differences in leaf necrosis and absence of injury in the membranes, stable content of photosynthetic pigments, and an increase in G-POD activity were also found in salt-treated plants. These results collectively suggest that 'Sorrento' has potential for the cultivation in salinized environments.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>The study investigated the effects of salinity on walnut plants. 'Sorrento' plants showed minimal growth and physiological changes, suggesting they can be cultivated in salted soil.</t>
         </is>
       </c>
     </row>
@@ -1180,17 +1180,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Infestation of pine (Pinus sylvestris L.) seedlings with the pinewood nematode Bursaphelenchus xylophilus Steiner and Buhrer (Nickle) through wood sawdustKey message: There are various pathways for infesting pine trees with the pinewood nematode (PWN), Bursaphelenchus xylophilus. As a result of the experiment, we determined that sawdust infested with the nematode can pose a phytosanitary risk. Nematodes actively moved from infested sawdust into root or stem damaged pine seedlings. Context: The spread of PWN, Bursaphelenchus xylophilus in pine plantations and forests is caused by beetles of the genus Monochamus, but the nematode can also be introduced via different coniferous commodities. Aims: The study objective was to assess the possibility that injured roots and stems of Pinus sylvestris seedlings could be infested with PWN through nematode-infested sawdust.</t>
+          <t>Masting increases seedling recruitment near and far: predator satiation and improved dispersal in a fleshy-fruited treeThe animal dispersal hypothesis predicts that mast seeding can increase dispersal rate of seeds by dispersers and enhance reproductive success of plants. However, in contrast to pollination efficiency and predator satiation hypothesis, the animal dispersal hypothesis has received mixed support. Using 12-year data on fruit production and seedling recruitment of a fleshy-fruited tree rowan (Sorbus aucuparia, Rosaceae), we tested if an increase in the fruit production at the population level results in higher proportion of fruits recruiting into seedlings. Recruitment was recorded near (under rowans) and far (under heterospecifics) from conspecifics. Higher recruitment rates under rowans would support predator satiation hypothesis. Higher recruitment rates under heterospecific trees, where fruits can only arrive with animal assistance, would support animal dispersal hypothesis. High population-level fruit production increased the proportion of fruits recruiting into seedlings both near and far from rowans. In contrast, high individual-level fruit production did not have a positive effect on the proportion of fruits recruiting into seedlings. Synthesis. Population-level synchronisation of fruit production is required to generate a more effective plant regeneration. Our findings show that masting enhances seedling recruitment through predator satiation and increased seed dispersal by frugivores. The results provide support for both animal dispersal and predator satiation hypotheses indicating that both mechanisms can operate simultaneously.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>The study aimed to assess if pine seedlings could be infested with pinewood nematodes through sawdust. Findings showed that nematodes can move from infested sawdust into damaged seedlings.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1195,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Seed treatment potential for the improvement of lucerne seed performance and early field growthSeed treatments have a potential to improve seed performance traits and consequently optimize crop establishment. However, there is a lack of systematic research for these techniques in lucerne, especially under field conditions. The goal of this study was to investigate the potential of various seed treatments on the improvement of lucerne germination and emergence under lab conditions and early seedling growth in the field. Compared treatments were heat treatment; seed priming with water, potassium permanganate, chitosan, vermitea, or bokashi juice; and seed coating with cinnamon, gypsum, wood ash, tannin quebracho, and cocoa powder. Among the seed priming methods, potassium permanganate and chitosan provided the best results in the improvement of seedling length or emergence dynamics, whilst coating with bentonite and gypsum could be recommended for having a positive impact on root development. Cinnamon powder significantly improved the emergence dynamics, seedling, and shoot length. The combination of priming and coating methods seems to be the most effective when assessed under the field conditions, where some positive response in root traits can be evaluated.</t>
+          <t>Bryophytes of Europe Traits (BET) data set: a fundamental tool for ecological studiesBryophytes are a diverse group of organisms with unique properties, yet they are severely underrepresented in plant trait databases. Building on the recently published European Red List of bryophytes and previous trait compilations, we present the Bryophytes of Europe Traits (BET) data set, including biological traits such as those related to life history, growth habit, sexual and vegetative reproduction; ecological traits such as indicator values, substrate and habitat; and bioclimatic variables based on the species' European range. The data set includes values for 65 traits and 25 bioclimatic variables, containing more than 135,000 trait values with a completeness of 82.7% on average. The data set will enable future studies in bryophyte biology, ecology and conservation, and may help to answer fundamental questions in bryology.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1210,7 +1205,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Various seed treatments, including heat treatment, seed priming, and seed coating, were tested for their potential to improve lucerne seed performance and early field growth. Seed priming with potassium permanganate and chitosan showed the best results for seedling length and emergence dynamics, while coating with bentonite and gypsum had a positive impact on root development. Cinnamon powder improved emergence dynamics, seedling, and shoot length. The combination of priming and coating methods was found to be the most effective in field conditions.</t>
+          <t>The BET data set provides information on biological and ecological traits of bryophytes in Europe, facilitating further studies in bryophyte biology and conservation.</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1215,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Effect of sweet pepper (Capsicum annuum L.) seedling age and cultivation method on seedling quality, photosynthetic parameters and productivityThe age of seedlings affects not only the quality of the seedlings but also the yield. The age of seedlings of sweet peppers grown in a greenhouse and their cultivation method has been little studied. Therefore, the aim of this research was to determine the effect of agrotechnological tools (direct seeding or transplanting) on sweet pepper (Capsicum annuum L.) seedling quality and crop yield. The research was carried out in a greenhouse covered with double polymeric film at the Institute of Horticulture, Lithuanian Research Centre for Agriculture and Forestry. Two factors were investigated: seedling establishment method (direct seeding and transplanting) and their different age (60, 50, and 40 days). The 60-day-old seedlings (both sown directly and grown by transplanting) were taller, and had more leaves, a larger leaf area, and a thicker stem, than the 50- and 40-day-old seedlings. The highest content of dry matter was found in the leaves of 60-day-old seedlings that were grown by transplanting. The chlorophyll index was also highest in the leaves of these seedlings. The highest photosynthetic parameters (photosynthetic rate, stomatal conductance, intercellular CO&lt;sub&gt;2&lt;/sub&gt;, transpiration rate) were found in the leaves of 40-day-old seedlings (both sown directly and grown by transplanting). Higher yields were demonstrated in sweet peppers whose seedlings were planted in the greenhouse at the age of 60 days and which were sown directly in cups.</t>
+          <t>Compatibility of interspecific hybridization between tulip cultivars and wild species native to ChinaInterspecific hybridization is an important means of breeding new cultivars with novel characteristics introduced from their parents. The interspecific hybridization was carried out between five tulip cultivars 'Heart of Poland', 'Golden Parade', 'Purple Dream', 'Crystal Star', 'Bolroyal Dream' and wild specie Tulipa altaica. In five combinations, the compatibility was observed including pollen germinability, stigma receptivity, fruit-setting, hybrid seed germination and bulblet formation in this paper. The results showed that T. altaica has the highest germination rate (69.58%) compared with any other parents. The highest stigmatic receptivity of five female cultivars was recorded on 10:00 am one day after flowering. The crosses of 'Heart of Poland' x T. altaica and 'Bolroyal Dream' x T. altaica displayed a higher percentage of fruit setting with 79.32 and 82.23%, respectively. A total of 698 hybrid seeds were obtained from interspecific hybridization combinations, including 'Heart of Poland' x T. altaica, 'Purple dream' x T. altaica and 'Bolroyal Dream' x T. altaica. In contrast, other two crosses were completely unsuccessful when 'Golden Parade' and 'Crystal Star' were used as female parents. The higher rates of seed germination and bulblet formation were recorded in two crosses with 63.45 and 55.63% in 'Heart of Poland' x T. altaica, 58.35 and 61.88% in 'Bolroyal Dream' x T. altaica. The results of this paper could provide some useful information about the interspecific cross between T. altaica and tulip cultivars.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1230,7 +1225,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The age of sweet pepper seedlings and the cultivation method have an impact on seedling quality and productivity. 60-day-old seedlings grown by transplanting had higher yield.</t>
+          <t>Interspecific hybridization between tulip cultivars and T. altaica showed compatibility in terms of germination, fruit setting, and seed and bulblet formation.</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The content of Cd and Pb in herbs and single-component spices used in Polish cuisineSpices and herbs play an important role in the human diet, mostly due to the presence of essential oils and high antioxidant activity. Therefore, the toxicity of metals raises concerns about the safety of consumption of spices and herbs. This paper examines the content of Cd and Pb in fresh and dried herbs and single-component spices that are the most popular in Polish cuisine: 100 samples of nine kinds of dried herbs, 184 samples of 15 kinds of fresh herbs and 148 samples of 14 kinds of loose single-component spices. The level of Cd and Pb was determined using the GF AAS method. The safety of herbs and spices for consumption was estimated based on the percentage intake of Cd and Pb compared with the tolerable intake (% TWI, % BMDL), chronic daily intake (CDI), target hazard quotient (THQ), hazard index (HI) and comparisons of the results of chemical analyses with the maximum admissible levels of Cd and Pb in Poland and in the European Union. Calculated per fresh weight of the product, dried herbs on average contained 0.134 +or- 0.168 mg of Cd and 0.548 +or- 0.161 mg of Pb per kg&lt;sup&gt;-1&lt;/sup&gt;, fresh herbs on average contained 0.004 +or- 0.007 mg of Cd and 0.039 +or- 0.033 mg of Pb per kg&lt;sup&gt;-1&lt;/sup&gt;, and the mean content of Cd in spices was 0.017 +or- 0.019 mg per kg&lt;sup&gt;-1&lt;/sup&gt; and 0.064 +or- 0.050 mg of Pb. The % TWI, % BMDL, CDI, THQ and HI (Cd + Pb) for all the analysed products were lower than 1. The results do not imply a risk due to the supply of Cd and Pb with the diet to the human body, primarily due to the small intake of these products. However, it should be highlighted that the content of Cd in dried coriander and estragon and that of Pb in watercress, jiaogulan, celery, basil and dill exceeded the acceptable limit. Thus, their consumption for people from particularly sensitive groups such as babies, pregnant and breastfeeding women and people should be carefully limited.</t>
+          <t>Effects of species and varietal differences on intergeneric cross-compatibility between apple and pearHybridization across species and genus has been utilized to improve agriculturally important traits in crops. These interspecific and intergeneric hybridizations are often inhibited by reproductive barriers at the prezygotic and postzygotic stages. In this study, we used intergeneric hybridization between apple and pear to investigate the effects of species and varietal differences on pollen tube growth, seed germination, and seedling survival in a wide range of germplasms . In apple pistils pollinated by pears, inferior pollen tube growth was often observed for European pear cultivars, whereas hybrid seedlings derived from a cross between apple and European pear showed higher survival rate. In contrast, Japanese pear and Chinese pear pollination resulted in higher fruit setting which likely resulted from a higher rate of compatible pistils but a lower rate of seedling survival. Our results suggest the presence of both prezygotic and postzygotic barriers that occur independently in different crossing combinations. We also developed a Cleaved Amplified Polymorphic Sequence marker for detecting intergeneric hybrids derived from a wide range of crosses between apples and pears. The results of the present study will help in the development of intergeneric hybrids between apple and pear for introducing valuable traits from a diverse gene pool.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1250,7 +1245,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cd and Pb content in herbs and spices used in Polish cuisine was examined. The results showed low risk of toxicity, but some products exceeded acceptable limits and should be consumed with caution.</t>
+          <t>This study examined the effects of species and varietal differences on the success of intergeneric hybridization between apple and pear, including factors like pollen tube growth and seedling survival. Results suggest both prezygotic and postzygotic barriers that vary depending on the crossing combination. Researchers also developed a tool for detecting these hybrids.</t>
         </is>
       </c>
     </row>
@@ -1260,12 +1255,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Phenotyping grapevine cultivars for resistance to Eutypa dieback. (Special issue on grapevine trunk diseases.)Eutypa dieback of grapevine is a trunk disease that affects vineyard productivity. Wood symptoms of this disease develop consistently in greenhouse-grown plants, after inoculation of woody stems with the causal fungus Eutypa lata. Wood symptoms are a common measure of host cultivar resistance and E. lata isolate virulence. Leaf symptoms of the disease also develop in the greenhouse, although reports of low correlations between severity of wood and leaf symptoms (for some cultivars and isolates) indicate that a definitive procedure is required for evaluating cultivar resistance. Three 'phenotyping assays', replicated with two E. lata isolates (BX1-10 and M14), were assessed for quantifying resistance of a set of Vitis vinifera cultivars ('Black Corinth', 'Carignane', 'Husseine', 'Merlot', 'Muscat Hamburg', 'Palomino', 'Peloursin', 'Primitivo', and 'Thompson Seedless'). The methods were: Assay 1 (leaf and woody-stem symptoms measured 1 year post-inoculation on plants propagated from rooted, dormant cuttings); Assay 2 (green stem symptoms measured 4 months post-inoculation on plants propagated from rooted, green cuttings); and Assay 3 (leaf symptoms measured 6 weeks post-inoculation on plants propagated from rooted, dormant cuttings). High rates of mortality among some cultivars ('Merlot') in Assay 3 confounded results based on leaf symptoms. Results from Assays 1 and 2 were more consistent with each other, especially for the most resistant cultivars ['Merlot' and 'Primitivo' (aka 'Zinfandel')]', than they were for these cultivars in Assay 3. Compared to resistant cultivars, there was more variation in the most susceptible cultivar, including 'Black Corinth', 'Carignane', 'Husseine', and 'Thompson Seedless', regardless of the assay. Assay 1 with isolate BX1-10 was the most repeatable and provided data on wood and leaf symptoms for cultivar comparisons. Assay 2 was the most rapid, and gave results similar to those from Assay 1. Assay 2 also accommodated germplasm that can only be propagated from green cuttings.</t>
+          <t>Investigating the effects of fish effluents as organic fertilisers on onion (Allium cepa) yield, soil nutrients, and soil microbiomeAlthough waste waters from aquaculture farms, known as fish effluents, have been shown to be a viable source of nutrients for crop production, their use is not permitted in organic production under the current European regulatory framework, Council Regulation (EU) 2018/848. In contrast, the use of livestock manure as fertiliser is allowed and indeed encouraged. In this work we tested the effects of two types of fish effluents - filtered and unfiltered fish waters - from an aquaponic system on the yield of onions (Allium cepa) and the soil nutrients and microbiome, compared with a fertilisation regime using composted horse manure. Soil fertility was enhanced by the addition of fish effluents, in particular in the soil treated with unfiltered fish water or sludge, which resulted in the soil with the highest nitrate content. Fertilisation with fish water and aerobically treated fish sludge resulted in higher yields than the manure, performing the best in all growth and yield measurements. The bulb weight and bulb diameter in the onions fertilised with manure were 102.43 g +or- 7.26 and 61 mm +or- 2.05 respectively, the ones fertilised with filtered fish effluents were 126 g +or- 6.64 and 66.52 mm +or- 2.17, and the ones fertilised with filtered (fish water) and unfiltered (sludge) fish effluents were 133.32 g +or- 6.86 and 67.66 mm +or- 1.81. The horse manure significantly affected the microbial community structure of the soil, resulting in a higher species diversity compared with the fish effluents, with the most predominant genus types being Flavobacterium, Pseudarthrobacter, Sphingomonas, Massilia, Nitrososphaera, Pseudomonas and Nocardioides. However, the microbial activity in the soil with fish effluents was also significant, which indicates that the soil treated in this way can be considered a 'living soil', as required for organic certification in the EU. Overall, the results confirm the findings of previous studies on the effectiveness of fish effluents as fertilisers, and highlight the superior performance of fish effluents compared with a livestock manure, thus directly questioning the prohibition on using fish effluents in organic agriculture.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Investigation shows that fish effluents can enhance soil fertility and yield of onions. Fish effluents perform better than horse manure, questioning the ban on their use in organic farming.</t>
         </is>
       </c>
     </row>
@@ -1275,12 +1275,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Impact of quince clonal rootstocks on yield and fruit quality characteristics of European pear (Pyrus communis L.) cultivarsThe study was conducted during two sequential research years of 2020 and 2021 at the fruit research station of Ondokuz Mayis University, Turkiye. The aim of the research was to assess the effect of quince clonal rootstocks (Province Quince BA29 [BA29], Quince A [QA], and Quince MC [MC]) on yield and fruit quality of pear cultivars ('Deveci', 'Williams', 'Santa Maria' and 'Abate Fetel'). Fruit weight, width, length, fruit stalk length and thickness, fruit color traits (L*, a*, b*, chroma, hue degrees ), fruit firmness, total soluble solids, acidity, pH, marketable fruit rate, black spotted fruit rate, and preharvest fruit drop rate were evaluated as quality properties. In the case of yield attributes, number of fruit per tree, yield per tree, yield per hectare, yield per trunk cross sectional area, and yield per canopy volume were taken into consideration. Results of the research revealed that all aforementioned evaluated characteristics were statistically significantly affected under three factors combination at the 5 level of significance (P &lt; 0.05) when Duncan's multiple range test was applied to the data. In brief, it was revealed that treatment combinations affected yield and quality characteristics. In general, in terms of yield per tree and yield per hectare, it was observed that the 'Santa Maria' cultivar gave better results in all rootstocks.</t>
+          <t>Comparison of the biomass and dendrometric parameters of Norway spruce with its different representations in young stands at lower altitudes in the Czech RepublicIn forestry, it is still common to plant the seedlings of and cultivate Norway spruce (Picea abies L. Karst) at lower altitudes; however, the climatic change that has been occurring increases evaporative demands in these areas. As a result, the spruce evidently suffers from drought, withers and loses its power to grow, thus, influencing stem thickness and tree-height growth, as well as biomass production. Therefore, the growth and biomass production of young (5-, 15- and 25-year-old) Norway spruce stands at these altitudes (i.e., from 200 to 500 m a.s.l.) was surveyed, as a case study, across the Training Forest Enterprise ""Masaryk Forest"" Krtiny. There, 48 stands with a varied representation of spruce (i.e., up to 30%, 31%-60%, 61%-90% and over 91%) were analyzed. In each stand, 12 trees were sampled across all social status classes (i.e., sub-dominant, co-dominant and dominant) in detail. Basic dendrometric parameters (such as the total tree height, height of the crown base and stem diameter at breast height) and the amount of the above-ground tree organ biomass (i.e., stem, branches and needles) were investigated. Based on the trends found in the biomass production here and climate change predictions, we recommend that Norway spruce be cultivated only in zones from an altitude of ca 400 m a.s.l., with an annual precipitation of 700 mm and an average annual temperature of 7 degrees C, and its percentage representation in the stand be no more than 30%.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>A study examined the growth and biomass production of young Norway spruce stands at lower altitudes in the Czech Republic. Results suggest that spruce should only be cultivated in specific zones to mitigate drought issues.</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1295,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Physiological and biochemical parameters of drought tolerance of some genotypes of garden rosesTo identify drought resistance of the studied genotypes of garden roses during the period of maximum probability of drought on the Southern Coast of the Crimea, the water regime, proline concentration, enzyme activity and chlorophyll fluorescence induction parameters under controlled dehydration were studied. Analysis of water regime parameters showed that under conditions of water stress, the best water-holding and recovery capabilities were shown by leaves of cv. 'Borisfen' and R. hugonis species. Species R. indica, R. bracteata, R. rouletti, R. foetida showed instability of water regime under conditions imitating dry weather. Studies of changes in biochemical parameters revealed that under relatively mild wilting conditions after removal of stress, metabolic processes are restored in R. hugonis, R. bracteata, R. indica and cv. 'Borisfen'. Wilting under conditions imitating dry weather does not cause irreversible metabolic disturbances in R. hugonis, R. bracteata, and cv. 'Borisfen'. Under different wilting conditions, cv. 'Borisfen'and R. foetida species had relatively stable functioning of FS II. Simulation of dry weather led to irreversible disturbances in the oxygen-releasing complex and thylakoid destruction in R. gallica during the stressor, and in R. indica and R. bracteata species - after recovery of water availability. The highest drought tolerance is in in cv. 'Borisfen' and R. hugonis sprcies.</t>
+          <t>Transgenerational effects of water limitation on reproductive mother plants in a common garden of the shrub Frangula alnusA better understanding of responses to water limitation in woody species can help us to cope with the consequences of the progressing climate change. We focused on the putative transgenerational effects of water limitation in the maternal environment during reproduction. Water was restricted for cuttings of Frangula alnus Mill. in a common garden setting, with a Belgian (local), Italian and Swedish provenance, during the growing season of 2020 and mature berries were collected during the whole reproductive phase. Stones that were extracted from the berries were given a cold stratification. In the next spring, the germination percentage of the stones from the water restricted maternal environment was significantly higher than that of the stones from the normal maternal environment, for the three provenances, notwithstanding the fact that stone weight was not different. The timing of seedling emergence was advanced for the water-limited maternal environment, but only for the stones harvested when mature berry production was the highest (9th and 16th of July 2020). Population differentiation was observed for the timing of seedling emergence, which reflected population differentiation for bud burst of the mother plants in the common garden, including a counter-gradient effect for the Swedish provenance, and corroborating the suggestion that the timing of seedling emergence and leaf phenology may have a common genetic basis. In addition, the Swedish provenance displayed a somewhat more stable germination percentage over the whole berry collection period when the stones were harvested. A partitioning of variance analysis suggested that germination percentage is more genetically determined than timing of seedling emergence, probably reflecting the more important need to sense the environment for an adequate timing of emergence.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1300,7 +1305,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Physiological and biochemical characteristics of drought tolerance in different garden rose genotypes were studied. The best water-holding capabilities were found in cv. 'Borisfen' and R. hugonis species, while R. indica, R. bracteata, R. rouletti, R. foetida showed instability. Recovery of metabolic processes was observed in R. hugonis, R. bracteata, R. indica, and cv. 'Borisfen' after mild wilting, but irreversible disturbances occurred in R. gallica, R. indica, and R. bracteata under severe wilting conditions. The highest drought tolerance was found in cv. 'Borisfen' and R. hugonis.</t>
+          <t>Water limitation during reproduction in Frangula alnus shrubs resulted in higher germination rates and earlier seedling emergence, with population differentiation and genetic factors playing a role.</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1315,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Biodegradable mulching film vs. traditional polyethylene: effects on yield and quality of San Marzano tomato fruitsMulching is a common practice for improving crop yield and obtaining an out-of-season production, but when made using plastic materials it can bring environmental problems due to the management and the disposal of films at the end of the cropping seasons. To increase the sustainability of this practice, recently, mulching films made with biodegradable organic materials have become more widely used. Our aim was to evaluate the effect of a biodegradable mulching film on yield and qualitative traits of the San Marzano tomato fruits over two years (2014 and 2015). Two different types of mulching were tested: (i) black biodegradable film (MB12) and (ii) black low-density polyethylene (LDPE) were compared to bare soil (BS). Both mulching films elicited a 25% increase in yield, mainly due to the significantly higher number of fruits per square meter, compared to BS. Both mulching films also elicited a 9.9% increase in total soluble solids and a 57% increase in carotenoid content, while firmness showed the highest value in BS fruits. MB12 determined the highest value of the Hunter color ratio a/b of tomato fruits, followed by LDPE, while the lowest value was recorded in BS fruits. Both mulching films elicited an increase of 9.6%, 26.0%, and 11.7% for flavonoids, polyphenols, and AsA, respectively. In 2014, the MB12 degradation started at 71 days after transplant (DAT); in 2015, at 104 DAT. Therefore, replacing polyethylene with biodegradable film would seem to be an agronomically efficient and environmentally sustainable practice.</t>
+          <t>Invasive plants and agri-food waste extracts as sustainable alternatives for the pre-emergence urban weed control in Portugal central regionThe continued use of synthetic herbicides to control weeds leads to environmental pollution and health issues. Consequently, chemical formulations have been increasingly banned. However, sustainable solutions are lacking in the market. Alternatively, valorisation of phytotoxic waste to reduce the herbicides use promotes sustainability, meeting circular economy. We aimed at assessing the herbicidal potential of aqueous extracts of waste from the management of invasive plants (Acacia dealbata bark, Oxalis pes-caprae biomass) and agri-food (spent coffee grounds) on common urban weeds (Achillea ageratum, Conyza canadensis and Dittrichia viscosa) in Portugal. In vitro (paper and soil) and pot assays (soil) were conducted to test the pre-emergence (germination and seedlings) and post-emergence (well-stablished plants) effect of waste extracts on these weeds. Extracts reduced pre-emergence performance of weeds, but marginally affected post-emergence parameters. Germination was inhibited up to 83% by O. pes-caprae in A. ageratum, up to 88% and 87% by A. dealbata and O. pes-caprae in C. canadensis, and up to 70% by concentration in D. viscosa. A. dealbata and O. pes-caprae extracts also drastically reduced radicle length (30% and 55% in A. ageratum, 77% and 81% in C. canadensis, 90% and 92% in D. viscosa, respectively). However, soil neutralized the inhibitory pre-emergence effect. The main findings highlight that the use of A. dealbata and O. pes-caprae extracts as bioherbicides may require an additional synthetic herbicides application, as extracts alone cannot fully control urban weeds in areas without soil. Combining bioherbicides and commercial formulations still reduces the application of toxic chemicals, promoting sustainability.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,7 +1325,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Biodegradable mulching film increases tomato yield and quality. Both types of film tested (biodegradable and polyethylene) showed positive effects, with biodegradable film being more sustainable.</t>
+          <t>A study in Portugal found that extracts from invasive plants and agri-food waste can be used as sustainable alternatives for pre-emergence weed control. While the extracts reduced weed germination, their effectiveness was limited without soil. Combining the extracts with synthetic herbicides can promote sustainability.</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1335,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Patterns of copper bioaccumulation and translocation in grapevine grafts depending on rootstocksThe long-term use of copper (Cu) fungicides in viticulture in Europe has led to Cu accumulation in vineyard top soils. However, less is known about the accumulation of Cu in grapevine grafts after the callusing process/before planting in the nursery. This paper presents the capacity of 5BB and SO4 rootstocks to accumulate Cu, as well as the patterns of translocation in the grafts. After heat forcing (callusing), the grapevine grafts of Sauvignon Blanc on 5BB and SO4 rootstocks were grown in pots for six months in a glasshouse and exposed to various Cu formulations (Cu-oxychloride, Cu-gluconate) and concentrations in peat (50, 150, 500, and 1000 mg Cu of dry weight (DW)). In addition to monitoring the shoot growth dynamics and analyzing the copper content in graft organs, bioaccumulation (BAFs) and translocation factors (TFs) of Cu were calculated. The mean Cu concentrations were ranked as follows: roots (15-164) &gt; rootstock trunks (8-38) &gt; canes (5-21) mg kg&lt;sup&gt;-1&lt;/sup&gt; DW. The Cu concentrations depended on the Cu formulation and concentration in the substrate. Higher Cu content was found in the roots of both rootstocks (5BB and SO4, 23-155 and 15-164 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW, respectively) and the lowest in the canes (less than 10 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW) of grafts grown in Cu-oxychloride-treated peat. Based on the BAFs and TFs, both rootstocks could be considered as Cu exclusive. A higher translocation rate was determined in systemic Cu-gluconate and SO4 rootstock. With shoot length measurements, the significant inhibitory effects of Cu on grapevine grafts growth could not be confirmed, despite the inhibitory effects that were clearly expressed in the first two months of growth. Soils containing more than 500 mg Cu/kg&lt;sup&gt;-1&lt;/sup&gt; are less suitable for growing vine grafts.</t>
+          <t>Effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L.)Glasshouse experiments to evaluate the effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L) were conducted in summer 2017 and winter 2018 at Dohne Agriculture Development Institute, Stutterheim, Eastern Cape, South Africa. Two cultivars of Swiss chard, Star 1801 and Fordhook giant, were planted in 200 cavity trays using a hygromix commercial growing medium incorporated with fertilizer treatments at different rates of bioslurry: no incorporation (control), 50% bioslurry, 100% bioslurry, 200% bioslurry and the recommended rate of 2:3:4 (30) NPK fertilizers. In the glasshouse the experiments were arranged in a randomized complete block design (RCBD) which was replicated three times. At four weeks after germination, ten (10) seedlings per treatment were destructively sampled randomly to determine the plant growth and biological mass parameters: (i) Seedling height, shoot and root height; (ii) Seedling mass; (iii) Fresh shoot and fresh root mass as well as their dry mass; (iv) Nutrient content of leaves. The results indicated that fertilization with 100%Bioslurry produced significantly taller seedlings and shoot height, while the shortest seedlings were obtained from the recommended inorganic fertilizer. Fertilization with 200%Bioslurry and the control treatment produced significantly higher biological yield compared to other treatments. The interaction between fertilizer treatments, cultivar and season indicated that summer season performed better compared to winter in seedling growth and development, and Fordhook giant fertilized with 100% and 200% bioslurry was superior compared to Star 1801. Fertilization with 50% bioslurry resulted in seedlings with higher sodium, while the seedlings grown in the control treatment showed higher copper content. The highest manganese was obtained from the seedlings fertilized with the inorganic fertilizer. It is therefore, concluded that fertilization with bioslurry at 100% and 200% bioslurry application rates enhanced the growth and quality of Swiss chard seedlings.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1340,7 +1345,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>This study investigated the accumulation and translocation of copper in grapevine grafts grown in different soil media. Both rootstocks showed high copper accumulation, with SO4 rootstock having a higher translocation rate. Soil with high copper content was found to inhibit graft growth.</t>
+          <t>Glasshouse experiments found that fertilization with 100% and 200% bioslurry resulted in taller and higher yielding Swiss chard seedlings compared to inorganic fertilizer or control treatments.</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1355,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Analysis regarding the organization, establishment, maintenance and harvesting of sea bunckthorn in plantationRomania brings its contribution to the European Union through a valuable heritage, with numerous species of plants and animals, some endemic and relict, among them medicinal plants and those with high nutritional value. Romania's geographical position and climate have always offered special conditions for favourable for the culture of fruit trees and shrubs. Around towns, in familiar gardens, in small spaces around buildings, on walls and trellises, the cultivation of various species of trees and shrubs is a leisure occupation and a source of fruit supply. Fruit trees and shrubs in parks, around houses, on roads and alignments, in addition to aesthetics and fruit production, contribute to improving the climate, preventing and combating environmental pollution. Hippophae rhamnoides-Sea buckthorn is a shrub of particular importance, found both in spontaneous flora and in controlled cultures. In Romania, sea buckthorn grows spontaneously in the Subcarpathian area of Moldova and Muntenia. Depending on the place where it is planted, sea buckthorn can grow as a shrub or tree at a height of 1.5 m to 3.5 m, or even more. In arid areas it can become creeping, being an adaptation to environmental conditions. Sea buckthorn is used in food, medicine, animal feed and forestry. Used in agriculture, buckthorn has a very important role in increasing the winter resistance of bees. From a nutritional point of view, sea buckthorn has a high content of minerals, vitamins, oils, acids and unsaturated fats, present in the fruits and leaves. Sea buckthorn fruits have a high content of vitamin E, C and carotenoids with strong oxidative action, which slow down aging. Sea buckthorn oil relieves light medication, heals wounds and skin lesions, burns and speeds up the healing process Considering the special valences in maintaining health and treating some ailments, we must take care of this natural wealth of Romania - buckhorn, and we must not consider it inexhaustible, in order not to disappear especially from the spontaneous flora before our eyes.</t>
+          <t>Identification and management of Tomato brown rugose fruit virus in greenhouses in MexicoTomato brown rugose fruit virus (ToBRFV) has become a cause of great concern in the global tomato agro-industry since its first report in Israel in 2014. Global tomato production is affected by ToBRFV, and management practices are being evaluated. We tested seed lots from international producers as well as greenhouse substrates and water wells as possible sources of virus contamination. We identified a second introduction of ToBRFV in Mexico by a strain closely resembling isolates from the Netherlands and the Middle East. ToBRFV was detected by RT-PCR in seed coats and epicotyls (from commercial seeds and seedlings obtained from infected tomato plants), indicating a transmission rate of 9%. Virus-like particles (VLPs) were found in wells used for irrigation in greenhouses, but these exhibited low infectivity. These findings suggest that water sources could serve as ToBRFV reservoirs. We evaluated four chemical and six thermal methods for sanitizing substrates, plasticware, and other greenhouse utensils, using detached leaf bioassays in Nicotiana rustica. The most effective chemical sanitization method was treatment with glutaraldehyde plus quaternary ammonium salts and pentapotassium salts. The most effective heat treatment was at 92 degrees C for 30 minutes, which inactivated the virus. Tomato producers could implement these sanitization methods to control ToBRFV.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1360,7 +1365,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sea buckthorn is a valuable shrub in Romania, with numerous uses including food, medicine, and forestry. It has high nutritional value and can improve the climate and prevent pollution.</t>
+          <t>Research in Mexico has identified water sources, such as wells used for greenhouse irrigation, as potential reservoirs for Tomato brown rugose fruit virus (ToBRFV). Chemical and thermal methods were evaluated to sanitize substrates and utensils and control the virus.</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1375,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Reciprocal bark exchange helps to disentangle tree species-dependent bark and wood trait effects on invertebrate diversityPrevious studies showed that bark cover at early-decay stage had profound control on the invertebrate assemblages of bark and wood, with possible consequence for the decomposition process. However, previous experimental designs could not disentangle how bark versus wood traits affect the invertebrate assemblage process in bark and/or wood separately because wood traits of different tree species may vary independently from bark traits. Furthermore, we do not know whether such tree species-specific bark trait effects are still influential at mid-decay stage. To unravel whether and how bark and wood traits influence invertebrate communities in tree logs at mid-decay stage, we introduce reciprocal bark transplantation within pairs of different tree species as a new method. We applied this method to two pairs of phylogenetically contrasting species of gymnosperms (pair I: Araucaria araucana and Cryptomeria japonica, pair II: Picea abies and Thuja plicata) and another gymnosperm (Chamaecyparis lawsoniana) set as disturbance control to test for potential bark manipulation artefacts on invertebrate community composition. Our bark exchange experiment revealed that both bark and wood host abundant and divergent subsets of invertebrates on mid-decay logs of different tree species. We further documented that the invertebrate community composition was predominantly shaped by the traits of host tissue per se, while also being significantly but less strongly affected by the traits of the other tissue, that is, the adjacent bark or wood. Our results indicated that bark trait effects faded with time and how long bark trait effects persist greatly depends on bark thickness. Synthesis. Our study suggests that maintaining deadwood heterogeneity related to variation between tree species and bark versus wood, is important for nursing a large biodiversity of invertebrates. Combined with bark removal methodology, our bark exchange method can be further extended to more decay stages and more forest biomes to track bark trait effects and bark induced priority effects on deadwood decomposition, and its associated invertebrate and microbial communities.</t>
+          <t>Canadian Plant Disease Survey 2023 volume 103: disease highlights 2022Diseases of berry, vegetable, ornamental nursery and landscape plants in south coastal British Columbia submitted to Elmhirst Diagnostics &amp; Research in 2022 and causal agents are listed. In April - May, cold, wet soils led to nutrient deficiency symptoms on foliage and cool, rainy weather through June led to high levels of botrytis in berries and many other crops. This was followed by hot, dry weather from July-September causing heat and drought stress on many crops and landscape plants. Powdery mildew was severe on many nursery and landscape plants, such as big-leaf maple (Acer macrophyllum). No significant new diseases were observed.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1380,7 +1385,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Reciprocal bark exchange between tree species reveals that both bark and wood have different effects on invertebrate communities in mid-decay logs, emphasizing the importance of maintaining deadwood heterogeneity.</t>
+          <t>In 2022, cold, wet soils caused nutrient deficiency, while cool, rainy weather led to high levels of botrytis in berries. Hot, dry weather in summer caused heat and drought stress. Powdery mildew was severe on nursery and landscape plants. No new diseases were found.</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1395,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Basic chemical composition, antioxidant activity and selected polyphenolic compounds profile in garlic leaves and bulbs collected at various stages of developmentGarlic is commonly used as vegetable or spice and as a herb in folklore as well as traditional medicine in many countries. The current study aimed to compare the chemical composition, antioxidant activity, and the content of selected polyphenolic compounds in cloves as well as leaves of winter garlic plants of the Harnas and Ornak cultivars, which are of Polish origin. Garlic was grown from cloves for three years (2018-2020) in the experimental field of the University of Agriculture in Krakow, Poland. The research material was harvested on three dates: May; June, unripe garlic plants; and in July, the plant at full maturity. The content of vitamin C in the fresh material was determined. The proximate analysis was determined in the freeze-dried plants of garlic, and the total carbohydrate content was calculated. The antioxidant activity and the content of selected polyphenolic compounds were also determined. Garlic cloves showed a higher content of dry matter, and total carbohydrates than the leaves of garlic plants. On the other hand, in the leaves, a significantly higher content of protein, total fat and ash were observed. Additionally, garlic leaves were characterised by a higher content of vitamin C, total polyphenols, and a higher antioxidant activity than garlic cloves. The leaves of young garlic plants from the May harvest were distinguished by a higher content of these compounds. The dominant phenolic compounds were catechin and epicatechin. The leaves of young plants can be a valuable source of bioactive substances, especially in early spring.</t>
+          <t>Application of living mulch in rows of the apple trees on several rootstocks - long-term evaluationThe long-term influence of several living mulches on apple tree growth, nutrient status, yield, and fruit quality concerning the year of cover crop sowing in tree rows was evaluated in the Lower Silesia region in the southwestern part of Poland. The estimation was conducted in six apple tree 'Ligol' populations differentiated by the rootstock: M.26, M.9, P 60, P 2, P 16, and P 22. In experiment no. 1, one-year-old nursery stock was planted, and perennial living mulches were sown: colonial bent grass (Agrostis vulgaris With.) and white clover (Trifolium repens L.) in the same year and blue fescue (Festuca ovina L.) in the following year. In experiment no. 2, which involved two-year-old stock, the sowing of blue fescue was delayed until the second, third, fourth, and fifth years following orchard planting. The presence of the cover crop significantly affected young tree growth when one-year-old trees were planted. The sowing of the living mulch in the first or the second year after tree planting led to a significant reduction in the cumulative yield obtained from the young trees. The living mulch improved the red coloration of the fruit skin in the young orchard, but it caused a reduction in the mean fruit weight and size. However, it also contributed to decreased nitrogen concentration in the leaves of the apple trees, and the tree tolerance to living mulch increased as the orchard aged. A choice of semidwarf rootstock, postponed sowing of cover crop, and high-quality nursery stock were recognized as the most important factors for fostering apple tree tolerance to living mulches in tree rows.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1400,7 +1405,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The study compared the chemical composition and antioxidant activity of garlic leaves and bulbs at different stages of development. Garlic leaves contained more protein, fat, ash, vitamin C, and polyphenols than bulbs. Young plants had higher levels of bioactive compounds.</t>
+          <t>Long-term evaluation of living mulches on apple tree growth, yield and fruit quality. Cover crop affects young tree growth and fruit size, but improves red coloration. Tolerance increases with orchard age.</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1415,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>No evidence for seed transmission of tomato yellow leaf curl Sardinia virus in tomatoSeed transmission is an important factor in the epidemiology of plant pathogens. Geminiviruses are serious pests spread in tropical and subtropical regions. They are transmitted by hemipteran insects, but a few cases of transmission through seeds were recently reported. Here, we investigated the tomato seed transmissibility of the begomovirus tomato yellow leaf curl Sardinia virus (TYLCSV), one of the agents inducing the tomato yellow leaf curl disease, heavily affecting tomato crops in the Mediterranean area. None of the 180 seedlings originating from TYLCSV-infected plants showed any phenotypic alteration typical of virus infection. Moreover, whole viral genomic molecules could not be detected in their cotyledons and true leaves, neither by membrane hybridization nor by rolling-circle amplification followed by PCR, indicating that TYLCSV is not a seed-transmissible pathogen for tomato. Examining the localization of TYLCSV DNA in progenitor plants, we detected the virus genome by PCR in all vegetative and reproductive tissues, but viral genomic and replicative forms were found only in leaves, flowers and fruit flesh, not in seeds and embryos. Closer investigations allowed us to discover for the first time that these embryos were superficially contaminated by TYLCSV DNA but whole genomic molecules were not detectable. Therefore, the inability of TYLCSV genomic molecules to colonize tomato embryos during infection justifies the lack of seed transmissibility observed in this host.</t>
+          <t>Adjuvant effects on pyraclostrobin and boscalid residues, systemic movement, and dietary risk in garlic under field conditionsAdjuvants are supplemental substances added to pesticide tank mixtures to enhance their efficacy by altering the dispersing, emulsifying, spreading, sticking, and wetting properties of the spray mixture. The goals of this study were an assessment of the effectiveness of pyraclostrobin and boscalid against garlic rust; the fungicide's dissipation and translocation within plant tissue in the presence of commercial adjuvants DashR HC EC; and the validation of an analytical method for concurrently determining boscalid and pyraclostrobin in green garlic and garlic bulbs. Pyraclostrobin and boscalid retention in green garlic and the dietary exposure risks were also evaluated. The adjuvant DashR HC EC is an emulsifiable concentrate containing fatty acids, methyl esters, and alkoxylated alcohol-phosphate esters. The test plots were sprayed with the maximum recommended dosage of 400.5 g a.i. ha&lt;sup&gt;-1&lt;/sup&gt; boscalid and 100.5 g a.i. ha&lt;sup&gt;-1&lt;/sup&gt; pyraclostrobin. The residues of pyraclostrobin and boscalid in garlic bulb and green garlic samples were determined using a mini-Luke multi-residue solvent extraction method paired with a high-performance liquid chromatography diode array detector (HPLC-DAD). This method is based on the extraction of a homogeneous sample with acetone, petroleum ether, and dichloromethane. Boscalid and pyraclostrobin recoveries in green garlic and garlic bulbs ranged from 71% to 107% on average, with a relative standard deviation (RSD) of 6.8% to 18.1%, and limits of quantification were 0.02 mg/kg. In green garlic and garlic bulbs, boscalid residues ranged from 0.14 to 3.51 mg/kg and pyraclostrobin from lower than LOQ to 1.43 mg/kg, during the experiment. The adjuvant increased the fungicidal efficacy of the fungicides and their retention on green garlic. Although boscalid is considered a nonsystemic fungicide, it showed higher translocation from garlic leaves to garlic bulbs than pyraclostrobin. Regarding the dietary risk assessment, the use of the adjuvant in a tank mixture with boscalid and pyraclostrobin is considered safe 14 days after application, which agrees with the recommended PHI.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1420,7 +1425,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tomato yellow leaf curl Sardinia virus (TYLCSV) does not transmit through tomato seeds, as genetic material was not detected in seedlings or embryos.</t>
+          <t>This study investigated the effects of an adjuvant on the efficacy, movement, and dietary risk of pyraclostrobin and boscalid fungicides in garlic under field conditions. The adjuvant improved effectiveness and retention, and the fungicides were found to be safe for consumption 14 days after application.</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1435,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Improving field establishment and yield in seed propagated Miscanthus through manipulating plug size, sowing date and seedling ageBiomass crops provide significant potential to substitute for fossil fuels and mitigate against climate change. It is widely acknowledged that significant scale up of biomass crops is required to help reach net zero targets. Miscanthus is a leading biomass crop embodying many characteristics that make it a highly sustainable source of biomass but planted area remains low. Miscanthus is commonly propagated via rhizome, but efficient alternatives may increase uptake and help diversify the cultivated crop. Using seed-propagate plug plants of Miscanthus has several potential benefits such as improving propagation rates and scale up of plantations. Plugs also provide an opportunity to vary the time and conditions under protected growth, to achieve optimal plantlets before planting. We varied combinations of glasshouse growth period and field planting dates under UK temperate conditions, which demonstrated the special importance of planting date on yield, stem number and establishment rates of Miscanthus. We also propagated Miscanthus in four different commercial plug designs that contained different volumes of substrate, the resulting seedlings were planted at three different dates into field trials. In the glasshouse, plug design had significant effects on above and belowground biomass accumulation and at a later time point belowground growth was restricted in some plug designs. After subsequent growth in the field, plug design and planting date had a significant effect on yield. The effects of plug design on yield were no longer significant after a second growth season but planting date continued to have a significant effect. After the second growth year, it was found that planting date had a significant effect on surviving plants, with the mid-season planting producing higher survival rates over all plug types. Establishment was positively correlated with DM biomass produced in the first growth season. Sowing date had a significant effect on establishment but the impacts of plug design were more nuanced and were significant at later planting dates. We discuss the potential to use the flexibility afforded by seed propagation of plug plants to deliver significant impacts in achieving high yield and establishment of biomass crops during the critical first two years of growth.</t>
+          <t>Sustainable control stategies of the two-spotted mite Tetranychus urticae Koch (Prostigmata: Tetranychidae) in citrusThe two spotted mite is a key pest in Mediterranean citrus crops. This citrusagrosystem harbors a rich and abundant community of native predators that feed onTetranychus urticae. The groundcover vegetations also plays an important role in thepopulation regulation. However, recurrent outbreaks during summer lead to repetitive sprays to control its populations. During two consecutive years, a T. urticae control strategy based on conservation biological control and the use of paraffin oils was implemented in a commercial grove of Citrus clementina cv., Clementina de Nules grafted on Citrange Carrizo rootstock, located in southern Catalonia (Spain). No synthetic acaricides nor insecticides were sprayed during that period. A permanent groundcover was maintained and mowed regularly. The population dynamics of T. urticae and natural enemies in the tree canopies was monitored. The number of symptomatic or spotted leaves, T. urticae individuals per leaf, and the presence of natural enemies were recorded. From August onwards T. urticae population on fruits was also monitored. When the economic threshold was reached, paraffin oil was used to keep it under control. Two sprays during the first season and three during the second were conducted. At harvest, the symptoms caused by T. urticae on fruits were assessed. During the first season, only 1% of the fruits showed severe scarring and 12% showed small scars on the fruit rind. At harvest of the second season no fruits with severe scarring were recorded, showing the efficacy of the strategy followed.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1440,7 +1445,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Using seed-propagate plug plants of Miscanthus can improve propagation rates and scale up of plantations, while plug design and planting date have significant effects on yield and establishment rates.</t>
+          <t>A sustainable control strategy for the two-spotted mite in citrus crops was implemented, focusing on conservation biological control and the use of paraffin oils. No synthetic chemicals were used, resulting in successful control of the pest.</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1455,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Experimental thermocline deepening highlights the resilience of the seagrass Posidonia oceanica: an opportunity to investigate shoot adaptabilityThe deepening of the thermocline, correlated to the rising temperature, can contribute affecting seagrass performance in a changing climate scenario. Here, the effect of the thermocline deepening on the seagrass Posidonia oceanica has been investigated in Cyprus through a manipulative experiment that allowed also testing the effects of the irradiance, origin depth and translocation. P. oceanica shoots were collected from 31 m of depth and transplanted at 12 m under a shading net, simulating the 31 m light conditions. Morphology (i.e. leaf area, leaf necrosis, number of leaves) and physiology (i.e. growth rate) were evaluated. Thermocline and origin depth effects were found with an increase of leaf necrosis, while a translocation effect was highlighted by a decrease in leaf area. No differences in shoot growth rate due to treatments were found. This experiment indicated an overall wide morphological and physiological acclimation of P. oceanica cuttings in coping with future thermocline conditions and it indirectly provides information for restoration efforts.</t>
+          <t>Scientific-based drip irrigation regime for raspberry plants cultivated in the central part of the non-black earth regionRaspberry is an important berry crop; its production volumes increase from year to year. To produce high-quality planting material and gain high and stable yields under unstable weather conditions, resource-saving technologies, including drip irrigation, are required. The purpose of this study was to develop a scientific-based drip irrigation regime for raspberry plants cultivated in the central part of the non-Black Earth Region of Russia. A two-factor field experiment was launched in autumn 2019. The first factor (factor A) was the drip irrigation regime; the moisture content in the root layer was maintained in the following ranges: 60-80, 70-90, and 80-100% of the field moisture capacity (FMC). The second factor (factor B) was the raspberry variety: Nagrada or Solnyshko. Drip watering can substantially reduce irrigation water consumption. In the variant involving drip irrigation and moisture content in the root layer maintained in the range of 80-100% of the field moisture capacity, irrigation water savings averaged 65% compared to traditional watering techniques; in the variant involving drip irrigation and moisture content in the root layer maintained in the range of 60-80% FMC, water savings averaged 78%. In addition, local irrigation creates the optimal air and water regime in the soil. In experimental variants involving irrigation, precipitation accounted for the main part of the total water consumption (71-81%); while irrigation water for only 15-22%. In variants with soil moisture maintained at levels exceeding 70% FMC, the stem diameter in seedlings was 20-40% larger compared to the control, the height of seedlings was 40-50% larger, and the yield was twice as much as in the control variant. This makes it possible to recommend such irrigation regimes as optimal ones.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A study in Russia developed a drip irrigation regime for raspberry plants, reducing water consumption by 65-78% and improving stem diameter, height, and yield.</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1475,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Three active phytotoxic compounds from the leaves of Albizia richardiana (Voigt.) king and prain for the development of bioherbicides to control weedsThe global population is increasing day by day. To meet the food demand for such a huge number of people, crop production must increase without damaging the environment, and to prevent synthetic chemical herbicides from polluting the environment, controlling weeds using bioherbicides is essential. Accordingly, using phytotoxic substances obtained from plants for biological weed management has attracted attention. The plant Albizia richardiana possesses phytotoxic compounds that have been previously recorded. Hence, we have conducted this research to characterize more phytotoxic compounds in Albizia richardiana. Aqueous methanolic extracts of Albizia richardiana plant significantly restricted the growth of the examined plants lettuce and Italian ryegrass in a species- and concentration-dependent manner. Three active phytotoxic compounds were isolated through various chromatographic methods and identified as compound 1, 2, and 3. Compound 3 exhibited stronger phytotoxic potentials than the other two compounds and significantly suppressed the growth of Lepidium sativum (cress). The concentration of the compounds required for 50% growth reduction (I&lt;sub&gt;50&lt;/sub&gt; value) of the Lepidium sativum seedlings ranged between 0.0827 to 0.4133 mg/mL. The results suggest that these three phytotoxic compounds might contribute to the allelopathic potential of Albizia richardiana.</t>
+          <t>Regulation of yield, fruit size, and leaf mineral nutrients of the 'Sumadinka' sour cherry cultivar with help of rootstocksThe impact of seven clonal rootstocks (Colt, MaxMa 14, Krymsk 6, Adara, Cigancica, Gisela 5, and Gisela 6) and one local plum (Myrobalan seedlings) on yield, fruit weight, leaf mineral content at 120 days after full bloom (DAFB), and deviation from optimum percentage (DOP) for macro- and microelements of the 'Sumadinka' sour cherry cultivar was evaluated in orchard conditions for two consecutive years. Results showed that yield was higher on Adara, Gisela 5 and MaxMa 14, intermediate on Cigancica and Krymsk 6, and lower on Colt, Gisela 6, and Myrobalan rootstocks. The average fruit weight (FW) was highest on Gisela 6 and lowest on Myrobalan seedlings, and FW was higher in the second year of the trial. Significant effect of rootstock was found on the leaf mineral analysis properties evaluated. Thus, Adara showed the best capacity to uptake and translocate to the scion leaves for most macro- and microelements, whereas the poorest nutritional status was, in general, obtained for Myrobalan, probably due to the incidence of graft incompatibility disturbances with the 'Sumadinka' cultivar. MaxMa 14 showed the best balanced nutritional values (DOP) whereas the wider imbalance among elements was induced by Myrobalan seedlings. 'Krymsk 6' had, in general, lower values for most leaf mineral elements but higher DOP macro and DOP micro-indexes, showing more unbalanced nutritional index than the rest of rootstocks, with the exception of Myrobolan, and both of them followed by Colt. This work demonstrates that the rootstock strongly influences some important sour cherry attributes such as yield, fruit size, leaf macro- and microelements. The significant positive correlations between yield and mineral elements as Mn and Ca could indicate the interest of rootstocks having higher absorption and uptake for these elements in the present growing conditions. Considering their overall performance and tolerance to heavy and acidic soils, and according to the PCA results, Adara, MaxMa 14, and Gisela 6 appear as new promising rootstocks and can be recommended for sour cherries growing under similar soil conditions. We believe that sufficient information on the influence of different rootstocks on yield, fruit size, and leaf mineral composition of sour cherry would enable less ambiguous comparisons within and among them and ensure the best choice for growing a specific cultivar in similar environmental conditions.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1475,7 +1485,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Research on Albizia richardiana plant revealed three phytotoxic compounds that can be used as bioherbicides to control weeds, potentially reducing the need for synthetic chemical herbicides.</t>
+          <t>The impact of different rootstocks on yield, fruit size, and leaf mineral content of the 'Sumadinka' sour cherry cultivar was evaluated. Adara, MaxMa 14, and Gisela 6 were recommended for similar soil conditions.</t>
         </is>
       </c>
     </row>
@@ -1485,17 +1495,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Multispecies crop mixtures increase insect biodiversity in an intercropping experimentRecent biodiversity declines require action across sectors such as agriculture. The situation is particularly acute for arthropods, a species-rich taxon providing important ecosystem services. To counteract the negative consequences of agricultural intensification, creating a less hostile agricultural 'matrix' through growing crop mixtures can reduce harm for arthropods without yield losses. While grassland biodiversity experiments showed positive plant biodiversity effects on arthropods, experiments manipulating crop diversity and agrochemical input used to study arthropods are lacking. Here, we experimentally manipulated crop diversity (1-3 species, fallows), crop species (wheat, faba bean, linseed and oilseed rape) and agrochemical input (high vs. low) and studied responses of arthropod biodiversity. We tested whether arthropod responses were affected by crop diversity, mixtures and management. Additionally, we measured crop biomass. Crop biomass increased with crop diversity under high-input management, while under low management intensity, biomass was highest in two-species mixtures. Increasing crop diversity positively affected arthropod abundance and diversity, under both low- and high-input management. Crop mixtures containing faba bean, linseed or oilseed rape had particularly high arthropod diversity. Mass-flowering crops attracted more arthropods than legumes or cereals. Integrating intercropping into agricultural systems could increase flower visits by insects up to 1.5 million per hectare, thus likely also supporting pollination and pest-control ecosystem services. Flower visitor network complexity increased in mixtures containing linseed and faba bean and under low-input management. Intercropping can counteract insect declines in farmland by creating beneficial matrix habitat without compromising crop yield.</t>
+          <t>Technological research of pneumoseparator for forest seed extractionA technological study on the operation of a pneumatic separator on a BCC Cleaner&amp;Seed Sizer (mini) machine for extraction of Scots pine (Pinus sylvestris L.) seeds has been carried out. It is part of the new technological equipment for greenhouse production of container seedlings in the Lokorsko forest nursery. Compared to the traditional production of saplings in Bulgaria for afforestation, the new production requires the extracted seeds to have higher quality indicators. In order to establish the optimal operating modes of the pneumoseparator for high quality seed production, with minimal seed losses in the waste in the aspiration system, a multifactor active experiment and optimization in the treatment of Scots pine seeds was conducted. The obtained results were used to establishment of a regression models to predict the technological parameters and the quality of the obtained seeds depending on the operating modes of the machine. The optimal parameters for setting the pneumatic separator have been established and functional modes for Scots pine seeds extraction have been determined.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Crop mixtures, specifically those containing faba bean, linseed, or oilseed rape, can increase arthropod biodiversity and abundance, supporting pollination and pest-control ecosystem services without compromising crop yield.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1505,17 +1510,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Microbiological indication of soils in forest plantations of the Shirinskaya steppeTo control soil degradation and desertification, sustainable long-term protective forest plantations that perform water and soil protection functions are commonly used on the erosion-prone lands of steppe ecosystems. In the Shirinskaya dry lake-basin steppe (Khakassia) in the coastal zone of Lake Shira, the staff of the Sukachev Institute of Forest, Siberian Branch, Russian Academy of Sciences, has created artificial plantings of forest cultures (Pinus sylvestris L., Larix sibirica L., and Ulmus humilis L.) and provenance trials (P. sibirica Du Tour and P. sylvestris). A wildfire damaged the coastal 40-year-old forest cultures in 2015; the surface soil layer was burnt out. Agrotechnical soil cultivation for planting provenance trials (2017) and wildfire in forest cultures affected the state of soil microbiomes. The aim of the research is to assess the rate of recovery and formation of biological soil properties in forest plantations after disturbances (wildfire and agrotechnical influences) in the coastal dry-steppe zone of Lake Shira using microbiological indicators. The research objects are the Burnt Areas (postfire and postconflagration areas) and Provenance Trial Plantation sites. The use of microbial indicators shows that the soil microbiomes on the burnt sites are restored with different intensities. The recovery of soil microbiomes on the postfire sites is much faster than in the postconflagration sites, as is evidenced by the high values of the total number of microorganisms (TNM), microbial biomass (MB), enzymatic activity (EA), and humification coefficient (C&lt;sub&gt;h&lt;/sub&gt;), which are close to the control values. Specific microbial respiration (qCO&lt;sub&gt;2&lt;/sub&gt;) is within the range of natural variability. The burnt soil is characterized by an increased proportion of hydrolytic microorganisms actively participating in the decomposition of half-burnt plant residues. On the provenance trial sites under the pine seedlings, specific rhizosphere microbiomes are forming due to the influence of the root exudates of climatypes. The values of TNM, ETGM, MB, EA, and qCO&lt;sub&gt;2&lt;/sub&gt; change either upwards or downwards; the state of microbial communities has not reached its ecophysiological norm.</t>
+          <t>Conservation of the bird cherry (Padus Mill.) germplasm by cold storage and cryopreservation of winter cuttingsConservation at cryogenic temperatures, usually in liquid nitrogen (LN) or in its vapor, is the only reliable method for the long-term ex situ conservation of fruit and berry crops with vegetative reproduction. In this study, five bird cherry (Padus Mill.) varieties of different genetic origin from the bird cherry genebank at the N.I. Vavilov All-Russian Institute of Plant Genetic Resources (VIR, Russia) were tested for their response to cryopreservation in LN vapor (-183--185 degrees C). The response included viability under laboratory and field conditions, morphological assessment of the developed plants and biochemical analysis of fruits produced during three consecutive years by plants developed from cryopreserved cuttings. All parameters were compared to those recorded after cold storage of cuttings (-5 degrees C), a routine mid-term conservation method currently used at the VIR genebank. The initial viability of winter cuttings varied from 86.7% to 93.3%. Six-month cold storage and cryopreservation reduced viability to 53.3-86.7% and 43.3-60.0%, respectively, which was above the 40% viability threshold in all varieties tested. Cuttings after cold storage showed better viability when recovered in the laboratory (80% mean viability) than in the field (58% mean viability); viability of cryopreserved cuttings was not affected by recovery conditions. The results of a two-way analysis of covariance suggested that storage and recovery conditions had the most significant effect on viability (p &lt; 0.0001), while the effects of genotype (p = 0.062) and factor interactions (p = 0.921) were minor. Cryopreservation had little or no influence on morphological parameters of the plants recovered in the field, including plant height, number of shoots, internodes and roots, and root length. Similarly, no effect of cryopreservation was recorded on dry matter content, total sugar content and ascorbic acid concentration in fruits produced by plants developed from the cryopreserved cuttings. These results suggest that cryopreservation in LN vapor is a reliable method for conservation of the bird cherry genetic collection and is worth testing with a broader variety of genotypes.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>The study examines the recovery and formation of biological soil properties in forest plantations after disturbances such as wildfires using microbiological indicators.</t>
+          <t>Unclear</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Functional analysis of the P-type ATPases Apt2-4 from Cryptococcus neoformans by heterologous expression in Saccharomyces cerevisiaeLipid flippases of the P4-ATPase family actively transport phospholipids across cell membranes, an activity essential for key cellular processes such as vesicle budding and membrane trafficking. Members of this transporter family have also been implicated in the development of drug resistance in fungi. The encapsulated fungal pathogen Cryptococcus neoformans contains four P4-ATPases, among which Apt2-4p are poorly characterized. Using heterologous expression in the flippase-deficient S. cerevisiae strain dnf1dnf2drs2, we tested their lipid flippase activity in comparison to Apt1p using complementation tests and fluorescent lipid uptake assays. Apt2p and Apt3p required the co-expression of the C. neoformans Cdc50 protein for activity. Apt2p/Cdc50p displayed a narrow substrate specificity, limited to phosphatidylethanolamine and -choline. Despite its inability to transport fluorescent lipids, the Apt3p/Cdc50p complex still rescued the cold-sensitive phenotype of dnf1dnf2drs2, suggesting a functional role for the flippase in the secretory pathway. Apt4p, the closest homolog to Saccharomyces Neo1p, which does not require a Cdc50 protein, was unable to complement several flippase-deficient mutant phenotypes, neither in the presence nor absence of a beta-subunit. These results identify C. neoformans Cdc50 as an essential subunit for Apt1-3p and provide a first insight into the molecular mechanisms underlying their physiological functions.</t>
+          <t>Influence of container, potting media and nutrients on production and post-production consumer acceptance of potted marigold (Tagetes patula L.)Production of potted plants is influenced by factors viz., type of container, potting medium, nutrient dose. A study was conducted to standardize these factors for potted French marigold var. Arka Pari. The treatments comprised of two type of containers (plastic and coir), three potting media [red soil + FYM + sand (1:1:1 v/v), Arka fermented cocopeat (AFC), AFC + vermicompost (1:1 v/v)] and four nutrition concentrations (160:30:180 ppm N:P: K, 128:24:144 ppm N:P: K, 96:18:108 ppm N:P:K and 3% Jeevamrutha) laid out in factorial completely randomized design replicated thrice. Plants grown in potting media combination of Arka fermented cocopeat (AFC) + vermicompost (1:1 v/v) along with weekly application of nutrient solution (128:24:144 ppm NPK) produced maximum number of flowers plant&lt;sup&gt;-1&lt;/sup&gt; (147.61) and registered highest uptake of nitrogen (2.87 g plant&lt;sup&gt;-1&lt;/sup&gt;), phosphorus (0.53 g plant&lt;sup&gt;-1&lt;/sup&gt;), potassium (3.24 g plant&lt;sup&gt;-1&lt;/sup&gt;), magnesium (0.85 g plant&lt;sup&gt;-1&lt;/sup&gt;) and sulphur (0.21 g plant&lt;sup&gt;-1&lt;/sup&gt;). Based on the attributes of the potted plants, this treatment combination also registered the highest score (81.2 on a scale of 100), willingness of the consumers to purchase (4.5 on a scale of 5), overall acceptability (2.7 on a scale of 3) and the benefit cost ratio of 1.18.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>A study looked at the impact of containers, potting media, and nutrients on potted marigold plants. The best combination was Arka fermented cocopeat + vermicompost with nutrient solution, resulting in high flower production and consumer acceptance.</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1545,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Formation of seed potato yield depending on the elements of cultivation technologyIt is possible to realise the maximum genetic potential of modern potato varieties by improving the elements of agricultural technology, in particular, optimising plant nutrition, which determines the relevance of this study. The purpose of the study was to substantiate the specific features of potato productivity formation depending on the elements of growing technology in Forest-Steppe conditions. Field studies were conducted during 2019-2021 on chernozem soils. The features of growth and development of potato varieties of various ripeness groups Laperla, Granada, and Memphis in Forest-Steppe conditions are examined. It is established that the yield of potato seed tubers of the varieties under study varies depending on the dose and method of fertilisation, the fraction of planting tubers, and varietal characteristics. The highest indicators of individual productivity of potato plants of the Laperla, Granada, and Memphis varieties were formed when locally applied in rows N45R45K45 against the background of semi-rotted manure, phosphorus-potassium fertiliser, and the use of seed tubers with a fraction of &gt;60 mm. As a result of the action of the factors under study, the number of stems in the bush and under it increased. A strong direct correlation was established between the number of stems in the bush and the number of tubers (r=0.78), with a coefficient of determination of 61.0%. The maximum yield of potato tubers of the examined potato varieties (29.7-41.1 t/ha) was obtained by local application of N45R45K45 against the background of semi-rotted manure and phosphorus-potassium fertiliser, depending on the size of seed tubers by the largest transverse diameter. It was identified that the use of tubers with a fraction of &gt;60 mm for planting the potato varieties under study is irrational since the consumption of seed material exceeds the yield growth indicators. It was determined that Laperla, Granada, and Memphis tubers with a fraction of 28-60 mm are optimal for planting potato varieties of different ripeness groups. The research results can be used to adjust the elements of agricultural technology of seed potatoes, obtain high-quality planting material, and conduct profitable agribusiness.</t>
+          <t>Impact of intron and retransformation on transgene expression in leaf and fruit tissues of field-grown pear treesStable and high expression of introduced genes is a prerequisite for using transgenic trees. Transgene stacking enables combining several valuable traits, but repeated transformation increases the risk of unintended effects. This work studied the stability and intron-mediated enhancement of uidA gene expression in leaves and different anatomical parts of pear fruits during field trials over 14 years. The stability of reporter and herbicide resistance transgenes in retransformed pear plants, as well as possible unintended effects using high-throughput phenotyping tools, were also investigated. The activity of beta-glucuronidase (GUS) varied depending on the year, but silencing did not occur. The uidA gene was expressed to a maximum in seeds, slightly less in the peel and peduncles, and much less in the pulp of pear fruits. The intron in the uidA gene stably increased expression in leaves and fruits by approximately twofold. Retransformants with the bar gene showed long-term herbicide resistance and exhibited no consistent changes in leaf size and shape. The transgenic pear was used as rootstock and scion, but grafted plants showed no transport of the GUS protein through the graft in the greenhouse and field. This longest field trial of transgenic fruit trees demonstrates stable expression under varying environmental conditions, the expression-enhancing effect of intron and the absence of unintended effects in single- and double-transformed woody plants.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1550,7 +1555,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Optimizing plant nutrition and cultivation methods can maximize potato yield. The study examines the growth and development of different potato varieties in Forest-Steppe conditions, finding that yield depends on fertilization, planting tuber fraction, and variety characteristics. Maximum yield is achieved with specific fertilization methods and using seed tubers of a certain size. The findings can be applied to improve seed potato production and agribusiness profitability.</t>
+          <t>This study examines the stability of gene expression in transgenic pear trees over 14 years, finding that introns can enhance expression and retransformation does not have unintended effects.</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1565,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Low-density polyethylene film biodegradation potential by fungal species from ThailandAccumulated plastic waste in the environment is a serious problem that poses an ecological threat. Plastic waste has been reduced by initiating and applying different alternative methods from several perspectives, including fungal treatment. Biodegradation of 30 fungi from Thailand were screened in mineral salt medium agar containing low-density polyethylene (LDPE) films. Diaporthe italiana, Thyrostroma jaczewskii, Collectotrichum fructicola, and Stagonosporopsis citrulli were found to grow significantly by culturing with LDPE film as the only sole carbon source compared to those obtained from Aspergillus niger. These fungi were further cultured in mineral salt medium broth containing LDPE film as the sole carbon source for 90 days. The biodegradation ability of these fungi was evaluated from the amount of CO&lt;sub&gt;2&lt;/sub&gt; and enzyme production. Different amounts of CO&lt;sub&gt;2&lt;/sub&gt; were released from D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger culturing with LDPE film, ranging from 0.45 to 1.45, 0.36 to 1.22, 0.45 to 1.45, 0.33 to 1.26, and 0.37 to 1.27 g/L, respectively. These fungi were able to secrete a large amount of laccase enzyme compared to manganese peroxidase, and lignin peroxidase enzymes detected under the same conditions. The degradation of LDPE films by culturing with these fungi was further determined. LDPE films cultured with D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger showed weight loss of 43.90%, 46.34%, 48.78%, 45.12%, and 28.78%, respectively. The tensile strength of LDPE films cultured with D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger also reduced significantly by 1.56, 1.78, 0.43, 1.86, and 3.34 MPa, respectively. The results from Fourier transform infrared spectroscopy (FTIR) reveal an increasing carbonyl index in LDPE films culturing with these fungi, especially C. fructicola. Analysis of LDPE films using scanning electron microscopy (SEM) confirmed the biodegradation by the presence of morphological changes such as cracks, scions, and holes on the surface of the film. The volatile organic compounds (VOCs) emitted from LDPE films cultured with these fungi were analyzed by gas chromatography-mass spectrometry (GC-MS). VOCs such as 1,3-dimethoxy-benzene, 1,3-dimethoxy-5-(1-methylethyl)-benzene, and 1,1-dimethoxy-decane were detected among these fungi. Overall, these fungi have the ability to break down and consume the LDPE film. The fungus C. fructicola is a promising resource for the biodegradation of LDPE which may be further applied in plastic degradation systems based on fungi.</t>
+          <t>Comparison of leaf litter decomposition and microbial decomposer communities in fringe and riverine mangroves in French GuianaMangroves are highly productive and changing forests located in the intertidal zone of tropical regions. Leaf litter decomposition represents a substantial part of their carbon sink abilities. Little is known about the potential effect of climate change on this key process of ecosystem functioning. This study compared leaf litter microbial decay between fringe and riverine Avicennia germinans stands. A direct and reciprocal transplant experiment using litterbags was setup in French Guiana to test 3 hypotheses: (i) the activities and abundance of microbial decomposers are lowest in the fringe mangroves due to exposure to saline water and tidal immersion; (ii) for these reasons, litter decomposes faster in riverine stands; and (iii) according to the home-field advantage hypothesis, litter decomposes more rapidly in the environment from which it originates. Remaining litter masses, abundance of litter microbial community (phospholipid fatty acid signatures (PLFA)), and their functional capability (enzyme activities and Biolog) were assessed. Litter directly transplanted in riverine stands showed higher enzymatic activity (+ 77%), catabolic diversity (+ 10%), and microbial biomass (+ 60%) than litter transplanted directly in fringe stands. In contrast, both riverine and fringe derived litter showed faster decay at the fringe (14% mass loss) than riverine site (4% mass loss) between 30 and 45 days. Here, environmental conditions associated with different distances from the sea such as salinity and inundation regimes, rather than microbial features are suggested as main factors affecting decomposition process. Expected sea level rise in the coastal Guianas may therefore modify the mangroves productivity in the coming decades.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1570,7 +1575,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Fungi from Thailand were tested for their ability to biodegrade low-density polyethylene (LDPE) films. Several fungi showed significant growth and degradation of LDPE films, indicating their potential use in plastic degradation.</t>
+          <t>This study compares leaf litter decomposition and microbial decomposer communities in different types of mangroves in French Guiana, finding that environmental conditions may affect decomposition process.</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1585,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bot gummosis of lemon (Citrus x limon) caused by Neofusicoccum parvumNeofusicoccum parvum, in the family Botryosphaeriaceae, was identified as the causal agent of bot gummosis of lemon (Citrus x limon) trees, in the two major lemon-producing regions in Italy. Gummy cankers on trunk and scaffold branches of mature trees were the most typical disease symptoms. Neofusicoccum parvum was the sole fungus constantly and consistently isolated from the canker bark of symptomatic lemon trees. It was identified on the basis of morphological characters and the phylogenetic analysis of three loci, i.e., the internal transcribed spacer of nuclear ribosomal DNA (ITS) as well as the translation elongation factor 1-alpha (TEF1) and beta-tubulin (TUB2) genes. The pathogenicity of N. parvum was demonstrated by wound inoculating two lemon cultivars, 'Femminello 2kr' and 'Monachello', as well as citrange (C. sinensis x Poncirus trifoliata) 'Carrizo' rootstock. In artificial inoculations, the fungus was very aggressive on lemons and weakly virulent on citrange, consistently with symptoms observed in the field as a consequence of natural infections. This is the first report of N. parvum, both in a wide and in a strict taxonomic sense, as a pathogen of lemon in Italy.</t>
+          <t>The post-registration monitoring of glyphosate-treated plants using anecic earthwormsGlyphosate N-(phosphonomethyl) glycine is a widely-used herbicide in agriculture. The anecic earthworm, Lumbricus terrestris feeds and forages for surface plant materials meaning that this species has a unique and direct exposure to agrichemicals. At the recommended product rates, significantly (F&lt;sub&gt;1,44&lt;/sub&gt; = 8.67, p= .005) higher numbers of L. terrestris middens were found in the glyphosate treated areas of an arable crop field. Laboratory feeding assays using field aged plant materials indicated that previous glyphosate treatment was a statistically significant factor affecting earthworm L. terrestris biomass (F&lt;sub&gt;1&lt;/sub&gt;,&lt;sub&gt;12&lt;/sub&gt; = 5.75, p= .03). Negligible glyphosate residues were detectable, and the field aged plant materials were encrusted with fungal hyphae. This suggests that glyphosate influences the colonisation of plant material by a litter-fungus complex which improves the food quality to earthworms. Concentrations of epoxiconazole, a fungicide, were detected in some plant materials and may influence overall food quality to earthworms. Glyphosate treatment on fresh volunteer plant leaves (unwanted crop seedlings) was not a statistically significant factor affecting earthworm L. terrestris biomass (F&lt;sub&gt;1&lt;/sub&gt;,&lt;sub&gt;6&lt;/sub&gt; = 0.16, p= .92). These results indicate fungal communities influence feeding behaviours, and plant materials are a direct source of agrichemicals to anecic earthworms.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>This study found that glyphosate treatment in agriculture increased the number of anecic earthworm middens and affected earthworm biomass, suggesting that agrichemicals in soil can directly impact these earthworms. Additionally, fungal communities and fungicide residues may also play a role in earthworm feeding behaviors.</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1605,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Low efficacy of Isaria fumosorosea against box tree moth Cydalima perspectalis: are host plant phytochemicals involved in herbivore defence against fungal pathogens?Buxus sp. is an important native and ornamental tree in Europe threatened by a serious invasive pest Cydalima perspectalis. The larvae of this moth are able to defoliate box trees and cause their death. The development of novel biopesticides targeting this pest might help protect Buxus trees grown wildly or in city parks. Laboratory experiments were conducted to assess the efficacy of entomopathogenic fungus Isaria fumosorosea strain CCM 8367 against C. perspectalis. The last-instar larvae of the box tree moth were treated by the suspension of fungus conidia at concentrations ranging from 1 x 10&lt;sup&gt;4&lt;/sup&gt; to 1 x 10&lt;sup&gt;8&lt;/sup&gt; spores per 1 mL. Fungus infection was observed mostly in pupae, but the maximum mortality did not exceed 60%, indicating a very low susceptibility of C. perspectalis to I. fumosorosea. Furthermore, a number of ungerminated fungal conidia were found on larval cuticles using a low-temperature scanning electron microscopy. Our data also reveal that the hydroalcoholic extract from B. sempervirens leaves significantly inhibits both the germination of I. fumosorosea conidia and fungus growth. It can be speculated that the strain CCM 8367 of I. fumosorosea is not a potent biocontrol agent against C. perspectalis and low virulence of the fungus might be due to the accumulation of host plant phytochemicals having antimicrobial activity in larval cuticle of the pest.</t>
+          <t>Production of compost from logging residues. (Special Issue: Bioprocesses and sustainable development (BSD-2023).)The implementation of forest management generates logging residue which can be used in several ways. One of the option is to use of logging residue in the composting process. Therefore, this study determined the possibility of producing compost based on logging residue and the produced fertilizer used to fertilize forest nurseries. Pine chips and sewage sludge were used for carrying out the study. The compost, as well as the leachate produced during composting, were characterized by high NPK content. The leachate collected at the end of the experiment was characterized by nitrogen content of approximately 6500 mg.dm&lt;sup&gt;-3&lt;/sup&gt;, phosphorus of approximately 450 mg.dm&lt;sup&gt;-3,&lt;/sup&gt; and potassium of approximately 500-700 mg.dm&lt;sup&gt;-3&lt;/sup&gt;. In contrast, the compost produced contained approximately 0.57 g.kg&lt;sup&gt;-1&lt;/sup&gt; nitrogen, approximately 0.39 g.kg&lt;sup&gt;-1&lt;/sup&gt; phosphorus, and approximately 0.24 g.kg&lt;sup&gt;-1&lt;/sup&gt; potassium. The disadvantage in terms of the usefulness of the resulting fertilizer in forest nurseries is its pH, which exceeded 9.0.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1605,7 +1615,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The efficacy of Isaria fumosorosea against the box tree moth is low. Host plant phytochemicals may be involved in the moth's defense against fungal pathogens.</t>
+          <t>This study explores the use of logging residue in compost production and its potential as a fertilizer for forest nurseries, despite its high pH levels.</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1625,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Defaunation changes leaf trait composition of recruit communities in tropical forests in French GuianaHunting impacts tropical vertebrate populations, causing declines of species that function as seed dispersers and predators, or that browse seedlings and saplings. Whether and how the resulting reductions in seed dispersal, seed predation, and browsing translate to changes in the tree composition is poorly understood. Here, we assess the effect of defaunation on the functional composition of communities of tree recruits in tropical rainforests in French Guiana. We selected eight sites along a gradient of defaunation, caused by differences in hunting pressure, in otherwise intact old-growth forests in French Guiana. We measured shifts in functional composition by comparing leaf and fruit traits and wood density between tree recruits (up to 5 cm diameter at breast height) and adults, and tested whether and how these compositional shifts related to defaunation. We found a positive relationship with defaunation for shifts in specific leaf area, a negative relationship for shifts of leaf toughness and wood density, and a weak relationship for shifts in fruit traits. Our results suggest that the loss of vertebrates affects ecological processes such as seed dispersal and browsing, of which browsing remains understudied. Even though these changes sometimes seem minor, together they result in major shifts in forest composition. These changes have long-term ramifications that may alter forest dynamics for generations.</t>
+          <t>Does shading and ground cover of moss and litter improve germination and establishment of Betula pendula Roth, Salix caprea L. and Populus tremula L. seedlings during drought stress in climate change? - a greenhouse studyThe climate change is leading to a significant increase in temperatures and dry periods in spring, for example in parts of middle and north Europe. Thus, the important factor for tree growth, the water availability, decreases on forest sites. It is to be expected that the successful establishment of pioneer tree species as pre-forests on large damaged areas will considerable be limited in the future. The phases of germination and establishment are the most dangerous phase in the life of trees. In this greenhouse study, we tested how different microsite conditions (open soil, moss and litter cover as well as different shading) under reduced water availability influence establishment success and growth of Betula pendula, Populus tremula and Salix caprea. The initial high germination success were reduced to 14%, 7% and 12% for Populus tremula, Salix caprea and Betula pendula, respectively, and the growth were significantly slower when the relevant soil water resource was just above the permanent wilting point. Therefore, in the first year the germination and establishment is linked to persistent moist conditions. If the soil dries out during germination, e.g. if there is no watering for more than 3 weeks, all seedlings died. Equivalent germination microsites (shading or ground cover) with comparable possible seedling densities to the moist open soil does not exist under water stress. Although moss and litter cover retain longer soil moisture under extremely dry conditions and guarantee significantly better seedling development than on open soil, initially significantly fewer seeds germinate on these substrate types. Radiation shows no influence on germination and seedling survival. The seedlings are able to survive radiation conditions of 3% and 27% of open area radiation. This makes establishment possible under (remaining) light canopy, at the edge of damaged areas or in small islands of remaining shelter trees on damaged areas. However, radiation had a significant effect on growth. With increasing radiation, shoot lengths and above ground biomasses are higher and the root collar diameter larger. Overall, Betula pendula is the most drought stress resistant of the tested tree species. While Populus tremula and Salix caprea already had problems establishing themselves on dry sites, the problem will become more serious under climate change. The lack of moist, vegetation-free open soils will result in a significant reduction of establishment success for tested pioneer tree species in climate change.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1625,7 +1635,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Defaunation caused by hunting in French Guiana's rainforests is affecting the functional composition of tree communities, resulting in shifts in leaf and fruit traits and wood density. These changes have long-term ecological consequences.</t>
+          <t>This study examines how different growing conditions and water availability impact the germination and establishment of tree seedlings during drought stress in a changing climate. Results show that open soil with moist conditions is crucial for successful establishment, and shading or ground cover does not provide suitable microsites for seedling growth. Radiation does not affect germination and survival, but it does impact growth. Betula pendula is the most drought-resistant species, while Populus tremula and Salix caprea struggle on dry sites. Overall, climate change will likely reduce establishment success for pioneer tree species due to the lack of moist open soils.</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1645,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Disentangling the effects of biomass and productivity in plant competitionThe relationship between competition and productivity in plant communities is unclear, and this is likely to be due to (1) a confusion in the literature between productivity and biomass, (2) the lack of studies assessing variation in competition in all combinations of biomass and productivity. We assessed the outcome of plant-plant interactions by removing the neighbors around five focal species in 14 herbaceous communities with contrasting biomasses and productivities: meadows with high biomass and productivity, heathlands with high biomass and low productivity, understory communities of deciduous forests with low biomass and high productivity and calcareous grasslands with low biomass and low productivity. Competition intensity was quantified with the relative interaction index (RII) calculated for both survival and growth of the transplanted targets assessed with the increase in leaf number. To examine which traits better explain variation in competition and what drives variation in diversity, we also quantified litter decomposition rate, species composition and diversity and six morphological traits related to plant size and growth rate for eight dominant species of each community. Our main questions were: (1) Is competition mostly related to biomass or productivity? (2) Which traits of the community dominants better explain variation in competition? (3) Is variation in competition and related traits correlated with variation in diversity? Competition for survival significantly increased with increasing community biomass (but not productivity). In addition, competition for survival increased with the size traits and competitive effects of the dominant species of the communities, whereas diversity decreased. Competition for growth also increased with increasing productivity, but only for high-biomass communities. Additionally, the increase in competition for growth with increasing soil fertility, as measured with litter decomposition rate, was only due to an increase in target growth in plots without neighbors and was unrelated to community competitive effects and species diversity. The results of our study illustrate how the confusion between productivity and biomass could have contributed to the long-standing debate on variation in competition along productivity gradients and its consequence for diversity.</t>
+          <t>Investigation of the effect of sowing time on one of the key crops of sustainable land use, the hairy vetch (Vicia villosa roth.): growth indicators and yield elements in Nyirseg region of east HungaryLeguminous crops, whose species characteristics and agronomic values allow their incorporation into sand farming, are of great importance for the environmentally friendly utilization of the acidic sandy soils of Nyirseg. Among the legume cultivars that can be grown on acidic sandy soils, the hairy vetch is of outstanding importance, which is also been grown as green manure, green fodder, and seed, in Hungary, for more than a hundred years. Our observation aimed to examine, in a field micro-parcel experiment, at different sowing times, in six replicates, at three different recording periods, the plant height, the root length, the number of the Rhizobium root-nodules formed on the main and lateral roots, the number of seeds, the weight of the seeds, and the thousand kernel weight of the hairy vetch. From our experimental results, we found that the average height of the plants before the onset of winter, at the sowing time in late September, was between 11 and 18 cm, while the root length ranged from 16 to 26 cm. In the same phenophase (before winter) and sowing time, the highest number of Rhizobium nodules was measured on the main root (9.4-11.5), while the most efficient nodule formation on the lateral roots was in the budding period (13.7-27.6), also in the sowing time of September 20. In the studied years, the data on the number of pods per plant of hairy vetch showed an increasing trend with sowing time (5.6-12.2 pc/plant). The same increasing trend was observed for the number of seeds per plant (13.9-34.6 pc/plant). The highest seed weight (0.57-0.79 g) was obtained at the last sowing date. The results presented above also confirm that the cultivation of hairy vetch should become more and more important for sustainable land use.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1645,7 +1655,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Research explores the relationship between competition and productivity in plant communities, highlighting the confusion between productivity and biomass and the need for further study in this area. The study also examines traits that explain competition and its correlation with diversity.</t>
+          <t>Study investigates the effect of sowing time on hairy vetch growth and yield elements in acidic sandy soils. Sowing in late September resulted in optimal plant height and root length. Increasing trends in number of pods and seeds per plant were observed with sowing time. Hairy vetch cultivation is important for sustainable land use.</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1665,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Adding fish waste to the diet of Iceland scallop Chlamys islandica: effects on feeding and reproductive abilityOrganic enrichment from fish farming may impact benthic species and habitats in adjacent areas. Norwegian salmon farming is continuously growing, but, due to area conflicts and severe sea-lice problems in the western areas, growth of the industry is focused in the northern areas. Knowledge is scarce on how an increase in fish farming will impact Arctic and subarctic species and habitats. One such species is the Iceland scallop Chlamys islandica, distributed from the Lofoten Islands in Nordland County to the Varangerfjord in Troms and Finnmark County. To study the impact of fine-particle fish faeces on feeding and reproductive ability in adult Iceland scallop, particles &lt; 41 m of finfish waste were added to the diet. Effects were tested via shortterm (weeks) feeding studies using 2 diets, 100% cultured algal species and a 50% mix of algae and fish waste. In addition, a 100% fish waste diet was used to study longer-term effects on reproductive ability (months). Feeding (% particle clearance and feeding rate) on the microalgae diet tended to be higher than that on the diet containing fish waste, but the difference was significant only in 2 out of 4 cases. We did not find any effect of diets on reproductive ability (gonad development and fatty acid profiles) of scallops. Lack of knowledge on sufficient food levels for gonad maturation in this species may have affected the results. We suggest that future work includes the transplant of scallops from a reference site to fish production sites and that investigations begin immediately after spawning early in scallop gonad development.</t>
+          <t>Evaluation of Trichoderma spp. on Fusarium oxysporum f. sp. asparagi and Fusarium wilt control in asparagus cropAmong the key diseases affecting the asparagus crop (Asparagus officinalis L.), vascular wilting of asparagus caused by Fusarium oxysporum f. sp. asparagi stands out worldwide. This disease significantly shortens the longevity of the crop and limits economic production. Traditional control measures have been largely ineffective, and chemical control methods are difficult to apply, making biological control approaches, specifically the use of Trichoderma, an economical, effective, and risk-free alternative. This study aimed to identify the main factors that affect the efficacy of biopesticides studied as Biological Control Agents (BCAs) against Fusarium wilt in asparagus and to assess the efficacy of Trichoderma-based biopesticides under greenhouse and semi-field conditions. We evaluated the response of three Trichoderma spp. (T. atroviride, T. asperellum, and T. saturnisporum) to environmental variables, such as temperature and water activity, and their antagonistic capacity against Fusarium oxysporum f. sp. asparagi. All three Trichoderma species inhibited the growth of the pathogen in vitro. A decrease in water activity led to a greater reduction in the growth rate. The efficacy of the three biological control agents decreased with higher temperatures, resulting in minimal inhibition, particularly under conditions of restricted available water in the environment. The effect of the fungal inoculum density was also analyzed at two different temperatures. A direct correlation between the amount of inoculum and the score on the Disease Severity Index (DSI) was observed. A notable reduction in DSI was evident in treatments with high inoculum density (10&lt;sup&gt;6&lt;/sup&gt; conidium/mL) for all three species of Trichoderma tested at both temperatures. In greenhouse and semi-field tests, we observed less disease control than expected, although T. asperellum and T. atroviride showed lower disease severity indices and increased the dry weight of seedlings and crowns, whereas T. saturnisporum resulted in the highest disease rate and lowest dry weight. This work highlights that the efficacy of Trichoderma as BCAs is influenced by various factors, including the quantity of soil inocula, and environmental conditions. The study findings have strong implications for selecting appropriate Trichoderma species for controlling specific pathogens under specific environmental conditions.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1665,7 +1675,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The study investigates the impact of fish waste on feeding and reproductive ability in Iceland scallops. Results show some differences in feeding but no significant effects on reproductive ability.</t>
+          <t>Trichoderma species were evaluated as biological control agents against Fusarium wilt in asparagus crops. The efficacy of Trichoderma was influenced by environmental conditions and soil inocula quantity.</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1685,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chemical composition of tissues of Syringa vulgaris L. and soil features in abandoned cemeteriesAbandoned anthropogenic sites are transformed when they come into use. In the present study, such objects were abandoned Evangelical cemeteries located in the Land of the Great Mazurian Lakes (northern Poland). This study aims to compare the concentrations of selected major (Ca, Na, Mg, Al, Fe) and potentially toxic elements (Zn, Cd, Pb) in the roots, leaves, and branches of Syringa vulgaris and buried necrosols and unburied soils in which this species grows. The soils analysed differ in their profile structure; in the case of burial necrosols, anthropogenic layers are present, while Brunic Arenosol has a natural horizon arrangement. Regarding pH, the soils analysed are characterised in the weakly acidic (6.6-6.8) to alkaline (7.2-8.6) range, both in KCl and H&lt;sub&gt;2&lt;/sub&gt;O. Total phosphorus has high values in the humus and anthropogenic horizons, especially at coffin sites (Rudowka Mala: layer of Ccoffin - 759 mg.kg&lt;sup&gt;-1&lt;/sup&gt;; Szymonka - 844 mg.kg&lt;sup&gt;-1&lt;/sup&gt;). Necrosols are characterised by a slightly higher variation in major element content than soils outside the burial area. The highest elemental content in Syringa vulgaris is accumulated in leaves and roots. Potassium (K) has the highest content in the studied tissues, and cadmium (Cd) is the lowest. The study showed no significant differences in heavy metal accumulation for plants directly associated with necrosols and soils formed outside of burials, which is confirmed by analyses of environmental indicators. The study showed that plant chemistry is more influenced by the soil substrate and soil-forming process than the soil anthropogenisation associated with burials. There was no significant effect of burials on the chemical composition of individual parts of Syringa vulgaris.</t>
+          <t>Development of a new micropropagation protocol and transfer of in vitro plants to in vivo conditions for cascade hopThe vegetative propagation of hops, despite being a reliable method, is not very common due to the unavailability of the plant material. In this study, the technique of in vitro propagation was applied to the Cascade variety of Humulus lupulus L. The plant material was collected from a private field in Sicily; the explants were subjected to sterilization before in vitro culture. Single-node explants were placed in in vitro culture in nine different culture media for multiplication. Thidiazuron (TDZ), Benzyladenine (BAP) and meta-Topoline (mT) were tested for multiplication phase. For the rooting phase, five types of different culture media were evaluated. Binodal cuttings coming from the previous multiplication test were placed in the culture. The rooting media differ from each other in the concentration and ratio of two auxin hormones: Indolo-3-acetic acid (IAA) and Indole-3-butyric acid (IBA). In vitro rooted plants obtained from the rooting phase were transferred to ex vitro conditions in a microbox with agri-perlite and a solution containing Murashige and Skoog (MS) basal medium at half concentration. With a culture medium containing the highest TDZ doses (H6) and combination with cytokinin (H8 and H9), the highest shoot percentage was obtained. After 3 months of in vitro culture, the highest shoot percentage was observed in the culture medium with 2 mL L&lt;sup&gt;-1&lt;/sup&gt; of BAP. The highest rooting percentage, roots numbers and root length were found when the culture medium was supplemented with 1 mL L&lt;sup&gt;-1&lt;/sup&gt; of IAA. The usage of agri-perlite and MS at half concentration, without PGR, allowed us to obtain a 99.1% survival rate. This micropropagation protocol is useful for obtaining virus-free plants and for the development of the brewery industry.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1685,7 +1695,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>This study compared the chemical composition of Syringa vulgaris (lilac) and soil in abandoned cemeteries. The plant's tissue composition was more influenced by soil substrate and formation process than burial sites.</t>
+          <t>The study developed a micropropagation protocol for the Cascade hop variety using in vitro culture. Different media and hormones were used to achieve successful shoot and root growth. The protocol resulted in virus-free plants.</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1705,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Application of real-time PCR for the detection and quantification of oomycetes in ornamental nursery stockNumerous Phytophthora and Pythium disease outbreaks have occurred in Europe following inadvertent introduction of contaminated ornamental plants. Detection and identification of pathogens are crucial to reduce risks and improve plant biosecurity in Europe and globally. Oomycete diversity present in roots and compost was determined in 99 hardy woody plants bought from nurseries, retailers and internet sellers, using both isolations and molecular analyses. Oomycete DNA was quantified using real-time PCR of environmental DNA from the plants using three loci: ITS, trnM-trnP-trnM and atp9-nad9. At least one oomycete species was isolated from 89.9% of plants using classical techniques. In total, 10 Phytophthora spp., 17 Pythium spp. and 5 Phytopythium spp. were isolated. Oomycetes were isolated from 86% of asymptomatic plants, but real-time PCR demonstrated that oomycetes were associated with all plants tested. More oomycete DNA occurred in composts in comparison with roots and filters from baiting water (a mean of 7.91 ng g&lt;sup&gt;-1&lt;/sup&gt;, 6.55 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; and 5.62 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; of oomycete DNA detected in compost with ITS, trnM and atp9 probes, respectively); the ITS probe detected the highest quantities of oomycete DNA. No significant differences were found in quantities of oomycete DNA detected using real-time PCR in plants purchased online or from traditional retailers.</t>
+          <t>Tuber melanosporum drives the symbiosis with Castanea sativa seedlings under greenhouse conditions and high calcium levelsThe sweet chestnut (Castanea sativa) could potentially be used as a host for the Perigord truffle (Tuber melanosporum) in multi-cropping plantations to promote rural or marginalized economies by providing farmers with a valuable source of income from both the truffle and the chestnut. Black truffles are known to associate to sweet chestnut trees in the wild. However, inoculation of chestnut seedlings with this highly appreciated edible fungus has not been attempted so far under greenhouse conditions. In this study, we tested the suitability of C. sativa as a host for T. melanosporum using a substrate containing high levels of active calcium (Ca&lt;sup&gt;2+&lt;/sup&gt;) to enhance truffle growth. We found that C. sativa seedlings can be successfully colonized by T. melanosporum in the nursery and that T. melanosporum appears to have a strong influence in its host's physiology, growth, and nutritional processes. The inoculated plants showed a greater root dry weight, water potential values and higher Ca&lt;sup&gt;2+&lt;/sup&gt; content. Under these conditions and using a substrate containing limestone seems to favour the fungus in the mutualistic symbiosis.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1705,7 +1715,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Real-time PCR was used to detect and quantify oomycetes in ornamental plants bought from various sources. Oomycete DNA was found in composts, roots, and filters, with the highest quantities detected using the ITS probe. No differences were found between plants purchased online or from traditional retailers.</t>
+          <t>This study shows that sweet chestnut seedlings can be successfully colonized by black truffles under greenhouse conditions, with high calcium levels enhancing truffle growth.</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1725,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Major transcriptomic differences are induced by warmer temperature conditions experienced during asexual and sexual reproduction in Fragaria vesca ecotypesA major challenge for plants in a rapidly changing climate is to adapt to rising temperatures. Some plants adapt to temperature conditions by generating an epigenetic memory that can be transmitted both meiotically and mitotically. Such epigenetic memories may increase phenotypic variation to global warming and provide time for adaptation to occur through classical genetic selection. The goal of this study was to understand how warmer temperature conditions experienced during sexual and asexual reproduction affect the transcriptomes of different strawberry (Fragaria vesca) ecotypes. We let four European F. vesca ecotypes reproduce at two contrasting temperatures (18 and 28 degrees C), either asexually through stolon formation for several generations, or sexually by seeds (achenes). We then analyzed the transcriptome of unfolding leaves, with emphasis on differential expression of genes belonging to the epigenetic machinery. For asexually reproduced plants we found a general transcriptomic response to temperature conditions but for sexually reproduced plants we found less significant responses. We predicted several splicing isoforms for important genes (e.g. a SOC1, LHY, and SVP homolog), and found significantly more differentially presented splicing event variants following asexual vs. sexual reproduction. This difference could be due to the stochastic character of recombination during meiosis or to differential creation or erasure of epigenetic marks during embryogenesis and seed development. Strikingly, very few differentially expressed genes were shared between ecotypes, perhaps because ecotypes differ greatly both genetically and epigenetically. Genes related to the epigenetic machinery were predominantly upregulated at 28 degrees C during asexual reproduction but downregulated after sexual reproduction, indicating that temperature-induced change affects the epigenetic machinery differently during the two types of reproduction.</t>
+          <t>The influence of some Capsicum rootstocks on bell pepper cropsBell pepper has an important content of vitamins (C, A, E and B), minerals and sugar. It ranks the fourth place in Romania, after tomatoes, onions and cabbage. Grafted bell pepper crops from Romania obtain higher productions compared to nongrafted bell pepper crops. The objective of the paper has been to establish the effect of some Capsicum rootstocks on some Romanian and Dutch bell pepper cultivars obtained in 2019 in the greenhouse from HORTING Institute. The biological material consists of cultivars of Capsicum genus: two scions (Dutch 'Menta' F1 bell pepper and Romanian 'Regal' bell pepper) and three rootstocks (Romanian 'L11A' and 'L12S' bell peppers and Dutch first-generation 'Foundation' hybrid). Dutch 'Menta' bell pepper and Romanian 'Regal' bell pepper are commonly cultivated in fields, greenhouses, and solariums. There were studies in 6 grafted plant variants and 2 non-grafted plant variants of 36000 plants/ha. Grafting has influenced the yield and quality of bell pepper fruits. Grafting has positively or negatively influenced fruit yield and the content of biochemical compounds in grafted crops. The results of this research require an extension of the intra and interspecific grafting of the bell pepper, respectively into different rootstocks for the Romanian bell pepper crops from greenhouses, solariums, and fields.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1725,7 +1735,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Study investigates the effects of warmer temperatures on the transcriptomes of different strawberry ecotypes during asexual and sexual reproduction, highlighting differences in gene expression and splicing isoforms.</t>
+          <t>The influence of Capsicum rootstocks on bell pepper crops was studied in Romania. Grafted plants showed higher yields and varying effects on fruit quality and biochemical compounds. Further research is needed for different rootstocks.</t>
         </is>
       </c>
     </row>
@@ -1735,17 +1745,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Changes to volatile profiles of arborvitae, Thuja occidentalis, from drought and insect infestation: olfactory cues for the cypress bark beetle, Phloeosinus aubeiThe cypress bark beetle, Phloeosinus aubei (Coleoptera, Curculionidae, Scolytinae) prefers to build breeding galleries in decaying host trees. However, volatile cues specific to decaying or actively infested trees have not yet been reported. Any such information would be useful for the management of this invasive, wood-boring species that has become established across Europe in the temperate zone and is now a key pest of ornamental Cupressaceae in nurseries and urban landscapes. Our objective was to reveal key components in host volatiles specific to stressed trees, which could be potential signals for the pest of its suitability for colonisation. Volatile profiles of arborvitae, Thuja occidentalis 'Smaragd' suffering from either dehydration or fresh infestation of P. aubei was collected and compared to that samples from healthy control trees. Analyses of volatiles by gas chromatography coupled to an electroantennographic detector revealed substantial differences between healthy, dehydrated and infested trees. Structural elucidation of the major antennally active components revealed that both a-pinene and a-thujene were prevalent in the volatiles of infested trees, whilst a-thujone was the major component in volatiles of healthy trees. In volatiles collected from trunks housing fresh P. aubei female nuptial chambers, sharp increases of beta-pinene, myrcene, limonene, and p-cymene were noticed, alongside trace amounts of camphene and fenchene. Volatiles collected from fresh frass showed a similar profile, but with a somewhat smaller amount of limonene. Fenchone was present in each type of volatiles, however, only in low amounts. Further studies should be directed to reveal the behavioural role of these components, which could be helpful in developing kairomone-based techniques for monitoring the flight of the pest in stands of scale-leafed trees.</t>
+          <t>Analysis of the association Galio rotundifolii-Abietetum albae Wraber (1955) 1959 on Manjaca Mt (NW Bosnia and Herzegovina)This research aimed to study phytocoenological characteristics of a fir-dominated community on silicate substrate at the locality of Sitnica on Manjaca Mt, northwestern Bosnia and Herzegovina. This community originated from artificially forested mixed stands of fir and spruce planted in the habitat of the mountain Dinaric fir-beech forest, over a hundred years ago. With regular selective cuttings and natural regeneration, the structure shifted from even-aged to uneven-aged. In total, 18 phytocoenological releves were made using the Braun-Blanquet method during the vegetation seasons of 2021 and 2022. Releves were stored in Turboveg database. Ecological factors were calculated based on Ellenberg bioindicator values. Species composition was analyzed in terms of life form, geoelements and chorotypes. Our analysis indicates that collected releves can be classified as the association Galio rotundifolii-Abietetum albae belonging to the alliance Fagion sylvaticae.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Changes in volatile profiles of arborvitae from drought and insect infestation were analyzed. Key components specific to stressed trees were identified, which could be useful for pest management.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1760,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Traditional herbal drugs against liver diseases - experimented in vitro using HepG2 cells for induced steatosisSalvia fruticosa leaves, Malva sylvestris flowers, Taraxacum officinale aerial parts, Plantago ovata seeds, Tanacetum parthenium aerial parts, and Allium sativum bulbs are documented for traditional use against hepatic disorders and different liver diseases. To evaluate herbal drug material for potential use against liver diseases, at molecular level for the efficacy linked to ethnobotanical documented data. Different herbal extracts were prepared and standardized by HPLC, according to European Pharmacopoeia. Initially 0.25 mg/mL each standardized extract was applied to oleic+palmitic acid induced fatty liver using a HepG2 cell culture model. ALT, AST, GSH, and MDA levels were comparatively analyzed, in addition to cell Nil Red staining. The highest activity for MDA reduction was observed for the A. sativum extract at 48.2% level, followed by 36.4% for M. sylvestris, and S. fruticosa extracts with 27.3% reduction, respectively. Glutathione levels increased to 59.1% when A. sativum extract was applied. M. sylvestris extract increased the glutathione levels in the medium by 49.7%; S. fruticosa extract decreased ALT levels by 53.5% and M. sylvestris extract by 38.5%, whereas the standard resveratrol reduced ALT level by 30.9%, respectively. The AST levels for M. sylvestris extract was 46.5%, compared to resveratrol by 93%. A. sativum, M. sylvestris, and S. fruticosa standard extracts showed relatively good correlation and activity where further in vivo studies should be performed.</t>
+          <t>Effect of nitrogen deposition on root systems and exudates of seedlings of beech Fagus sylvatica L. in a temperate climateThe purpose of this experiment was to determine the effect of deposition of different doses of nitrogen on the root systems of common beech Fagus sylvatica L. seedlings and their exudates. We tried to explain how different doses of nitrogen can affect the assimilation of nutrients necessary for seedling growth, as well as the morphology of fine roots. The experiment was conducted on a nursery at the Forest Experimental Station of the Agricultural University of Krakow. Three different nitrogen doses were used in the experiment: 0.75 kg.ha-1, 2.25 kg.ha-1, 4.5 kg.ha-1 and a control variant without nitrogen. The experiment was conducted from May to September 2021. Seedlings with their root systems and their secretions were taken twice, at the beginning and end of the experiment. The content of micro- and macro-nutrients was determined in the aboveand below-ground parts of the seedlings. In addition, the basic chemical properties and enzymatic activity of the substrate in which the seedlings grew were determined. In the study, we showed that a higher nitrogen dose influenced a higher amount of carbon released with exudates from fine roots, which was related to the overall root morphology. Higher specific root length (SRL) and specific root area (SRA) parameters showed a positive correlation with root exudates. In addition, a higher nitrogen dose had a positive effect on the nutritional status of the seedlings.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>This experiment investigated the effects of nitrogen deposition on the root systems and exudates of beech seedlings. Higher doses of nitrogen increased carbon release and improved seedling nutrition.</t>
         </is>
       </c>
     </row>
@@ -1770,17 +1780,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>First report of canna yellow streak virus in IranCanna indica (canna) a species in the Cannaceae family, is a perennial ornamental plant widely used in landscape designing. Different species of plant viruses have been reported which infect this plant and act as a significant threat to canna plants, leading to a range of symptoms and a decrease in their decorative values, as well as lower quality propagated materials and significant financial losses. Canna cultivars that are extensively cultivated for their ornamental values are susceptible to a recently discovered Potyvirus known as canna yellow streak virus (CaYSV). This virus has infected many canna cultivars found in gardens, leading to significant impact and concern in horticultural settings. During a survey conducted in the summer of 2022, severe veinal chlorosis and veinal streaking symptoms were observed on the leaves of canna plants in the green space of Yazd City, Iran. Total genomic RNA was extracted from symptomatic leaves of 20 canna samples and one symptomless sample (negative control), and subjected to RT-PCR using a Potyvirus degenerate primer pair (NIb3R, NIb2F). RT-PCR resulted in the amplification of a DNA fragment with the expected size of approximately 350 bp in all of the symptomatic samples, whereas no DNA fragment was obtained from a symptomless plant. The amplified DNA fragment was subjected to the Sanger sequencing method, and its size was confirmed to be exactly 350 bp. Sequence analysis of the nucleotide sequence of this amplicon with the same region of other corresponding CaYSV isolates in the GenBank revealed that the Iranian CaYSV isolate was the most similar (99.05%) to an isolate from Russia (Acc. No. MG_545919.1) and the less similar (89.59%) to a CaYSV isolate from United Kingdom (Acc. No. EF_466139.1).</t>
+          <t>Morphological, molecular, and life cycle characteristics of Phaeocystis globosa Scherffel (Prymnesiophyceae) in the Southeast China seaPhaeocystis globosa blooms frequently occur in the Southeast China Sea and cause significant negative impacts on coastal ecology and mariculture. The P. globosa blooms in southeastern China are very different compared to those of European strains, suggesting that differences may exist in their morphological, phylogenetic, and life history traits. In this study, seven strains of P. globosa isolated from Southeast China Sea that were typical strains of algal blooms in the region, in addition to one strain from the Gulf of Mexico (CCMP629), were comprehensively evaluated to better understand region-specific differences of the species. Significant differences were not observed in the internal cell structures and other characteristics compared to those of European strains, while differences in cell surface structures were apparent. For example, small and large flagellated Chinese P. globosa cells exhibited two flagella with slightly unequal lengths and a short haptonema, the surfaces of small flagellated cells were not covered by scales, and colony cell diameters were smaller. 18S rRNA sequence phylogenetic analysis also revealed that P. globosa comprised a species complex with two ecotypes (warm- and cold-water types), of which the strains from the southeastern coast of China and CCMP629 belonged to the warm-water type. In addition, the life cycles and variable modes of P. globosa colony formation were evaluated in detail. The algal bloom may be due to the rapid colonies formation by budding and colony fragments. These results provide new insights into the life cycle of P. globosa and highlight the differences in morphological and phylogenetic relationships between strains from the southeast coast of China and those from coastal European regions.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>First report of canna yellow streak virus in Iran's canna plants causing severe symptoms. The virus is similar to isolates from Russia and UK.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1795,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Same, same, but different: drought and salinity affect BVOC emission rate and alter blend composition of urban treesDrought and salt are key abiotic stressors in temperate cities. Biogenic volatile organic compound (BVOC) emissions, often dominated by trees, influence the urban troposphere and mediate plant-plant and plant-insect interactions. While knowledge on constitutive BVOC emissions is increasing, modulation of blends by stress has yet received little attention. We thus investigated BVOC blends and herbivore-related subsets ('bouquets') of Quercus robur, Fagus sylvatica, Betula pendula and Carpinus betulus seedlings under control, and after 2-weeks of drought and salt stress using PTR-Tof-MS. 22 BVOCs were related to metabolic pathways, and changes among blends and bouquets were assessed. Drought led to a slight increase of isoprene and monoterpene emissions from Q. robur and F. sylvatica, respectively, while total non-isoprene emissions generally declined under water stress. Both drought and salinity led to distinct, species-specific changes in the emission rates of single BVOCs, and resulted in markedly different herbivore-related bouquets in F. sylvatica and C. betulus. Oxygenated VOCs and green leaf volatiles in particular increased in these two salt-sensitive species, while pathway-specific effects were less clear under drought. Findings indicate significant consequences of common urban stressors on BVOC emission spectra, including tropospheric ozone formation and severely hampered plant communication cues under stress.</t>
+          <t>Ecological genetics of local adaptation in Arabidopsis: an 8-year field experimentThere is considerable evidence for local adaptation in nature, yet important questions remain regarding its genetic basis. How many loci are involved? What are their effect sizes? What is the relative importance of conditional neutrality versus genetic trade-offs? Here we address these questions in the self-pollinating, annual plant Arabidopsis thaliana. We used 400 recombinant inbred lines (RILs) derived from two locally adapted populations in Italy and Sweden, grew the RILs and parents at the parental locations, and mapped quantitative trait loci (QTL) for mean fitness (fruits/seedling planted). We previously published results from the first 3 years of the study, and here add five additional years, providing a unique opportunity to assess how temporal variation in selection might affect QTL detection and classification. We found 10 adaptive and one maladaptive QTL in Italy, and six adaptive and four maladaptive QTL in Sweden. The discovery of maladaptive QTL at both sites suggests that even locally adapted populations are not always at their genotypic optimum. Mean effect sizes for adaptive QTL, 0.97 and 0.55 fruits in Italy and Sweden, respectively, were large relative to the mean fitness of the RILs (approximately 8 fruits/seedling planted at both sites). Both genetic trade-offs (four cases) and conditional neutrality (seven cases) contribute to local adaptation in this system. The 8-year dataset provided greater power to detect QTL and to estimate their locations compared to our previous 3-year study, identifying one new genetic trade-off and resolving one genetic trade-off into two conditionally adaptive QTL.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1800,7 +1805,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Drought and salt stress affect the emission rates and composition of biogenic volatile organic compounds (BVOCs) in urban trees, with specific changes in BVOC blends and herbivore-related bouquets.</t>
+          <t>This study examines local adaptation in Arabidopsis plants, mapping quantitative trait loci involved in fitness and identifying adaptive and maladaptive loci in Italy and Sweden.</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1815,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Severe dieback and mortality of wild olive trees associated with Phytophthora species in ItalyIn March 2022, extensive dieback and mortality of wild olive trees (Olea europaea var. sylvestris) were observed in an area of approximately 200 hectares located in central Sardinia, Italy. The affected trees exhibited severe symptoms, including leaf chlorosis, wilting, defoliation of the entire crown and root rot. Many of the trees displayed necrotic lesions on their feeder roots. The estimated tree mortality in the affected area was approximately 60%, with an 80% disease incidence. To investigate the cause of this dieback and mortality, soil samples were collected from the rhizosphere of 16 unhealthy wild olive trees. A baiting technique was employed using fresh Ceratonia siliqua leaves as bait. Additionally, isolations were made by plating small fragments of root phloem tissue from lesion margins onto Phytophthora selective medium (SMA). The analysis consistently revealed the presence of a homothallic Phytophthora species in 14 of the sampled trees. An additional Phytophthora species was detected in the rhizosphere of 4 diseased trees. Further characterization of the Phytophthora species involved DNA sequencing of the ITS and cox1 genes. The obtained sequences showed a high degree of identity (99-100%) with sequences of ex-type cultures of P. bilorbang (CBS131653) and P. pseudocryptogea (CBS139749). To confirm the pathogenicity of both Phytophthora species, inoculation experiments were conducted using 6-month-old wild olive seedlings and the soil infestation method. Three weeks after inoculation with P. bilorbang and P. pseudocryptogea, all seedlings displayed symptoms of wilting and dieback. Additionally, the fine root weight of inoculated plants was significantly reduced compared to non-inoculated controls. Both Phytophthora species was subsequently re-isolated from the necrotic roots of inoculated seedlings, satisfying Koch's postulates. This is thought to be the first report of P. bilorbang on wild olive worldwide.</t>
+          <t>Development of an automated ion-specific fertigation management systemVertical farming is a revolutionary idea that would allow cities a greater self-sufficiency by growing plants locally with maximum productivity. This technique responds to the challenges posed by the projected decreasing farmland availability, growing population and increased urbanization. A strong growth of vertical farming can be expected for the next decade. A crucial advantage of vertical farming over conventional farming is the more efficient control of all cultivation parameters like climate condition or nutrient concentrations as well as the recovery of water. Hydroponic, aeroponic and aquaponic culture are important technologies involved in vertical farming to grow value plant based raw materials, vegetables, flowers, herbs, selected fruits, seedlings, and fish year-round. Currently nutrient solution management is limited to adjusting the conductivity and pH of the solution by supplying stock solutions with fixed ion ratios. Ion specific nutrient management, based on ion selective electrodes (ISE) holds the potential to increase nutrient use efficiency and yields through continuous monitoring and adjustment of ion concentrations. In an Indo-German research project an automated sensor system for a highly efficient nutrient management in vertical farms shall be developed (SensVert). The main goal of the SensVert project is to develop an automated ion-specific fertigation management (ISFM) for vertical farming systems. Based on a better understanding of the plant-environment-interactions, optimized strategies for nutrient supply can be developed.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1820,7 +1825,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Severe dieback and mortality of wild olive trees in Italy caused by Phytophthora species, including the first report of P. bilorbang on wild olive trees.</t>
+          <t>Research project aims to develop an automated sensor system for nutrient management in vertical farms, focusing on ion-specific fertigation to improve plant growth and productivity.</t>
         </is>
       </c>
     </row>
@@ -1830,17 +1835,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Morpho-physiological effects of irrigation with saline water in Ex vitro plants of Juglans regia 'Sorrento'Soil salinization is a global problem limiting growth and economical yield in fruit species including walnut. Knowledge of the response of varieties and cultivars to salinity can represent an important contribution to future walnut plantation in areas affected by soil salinization. Juglans regia 'Sorrento' is a commercially important Italian variety. The present work aimed to explore the morpho-physiological response to NaCl-induced stress in 'Sorrento' plants using clonally propagated ex vitro plantlets to reduce the impact of genetic variation. Ex vitro acclimatized plants were exposed to salinity conditions by irrigating pot soil with half-strength Hoagland solution containing 100 mM NaCl for 20 days. Salt-induced effects on plant growth, chlorophyll and carotenoid content, osmolality, membrane injury and on activities of antioxidant enzymes catalase and guaiacol peroxidase (G-POD) in leaves were evaluated. Morphological and growth parameters were not significantly altered by salt stress with respect to the control. Slight differences in leaf necrosis and absence of injury in the membranes, stable content of photosynthetic pigments, and an increase in G-POD activity were also found in salt-treated plants. These results collectively suggest that 'Sorrento' has potential for the cultivation in salinized environments.</t>
+          <t>Pest categorisation of Setoptus parvifloraeThe EFSA Plant Health Panel performed a pest categorisation of Setoptus parviflorae (Acari: Eriophyoidea: Phytoptidae) for the European Union (EU). This mite is not listed in Annex II of Commission Implementing Regulation (EU) 2019/2072. It is known to occur in the Nanjing Botanical Garden (China) on Pinus parviflora. This is its only known host plant and location. The mite occurs on the needles and in the needle sheaths. Details about its life cycle are mostly unknown. Plants for planting, including dwarfed plants, of P. parviflora are the main potential pathway for entry into the EU. However, plants of the genus Pinus other than fruit and seeds are mostly prohibited from entering the EU (Commission Implementing Regulation (EU) 2019/2072). The host, P. parviflora, can be found in temperate-zone gardens and arboreta, and is a popular tree for bonsai in the EU. Although the Koppen-Geiger climate type Cfa (humid subtropical), which occurs in Nanjing, can be found in the EU, the growing conditions of P. parviflora at the Nanjing Botanical Garden were not reported. This adds uncertainty about where in the EU this mite could establish, most probably on ornamental P. parviflora. There is no evidence of impact of S. parviflorae. Measures to prevent entry and spread are available. S. parviflorae does not satisfy all the criteria that are within the remit of EFSA to assess for it to be regarded as a potential Union quarantine pest, as there is no evidence of impact.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>The study examined the effects of saltwater irrigation on Juglans regia 'Sorrento' plants. The plants showed no significant morphological or growth changes, indicating potential for cultivation in salinized environments.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Masting increases seedling recruitment near and far: predator satiation and improved dispersal in a fleshy-fruited treeThe animal dispersal hypothesis predicts that mast seeding can increase dispersal rate of seeds by dispersers and enhance reproductive success of plants. However, in contrast to pollination efficiency and predator satiation hypothesis, the animal dispersal hypothesis has received mixed support. Using 12-year data on fruit production and seedling recruitment of a fleshy-fruited tree rowan (Sorbus aucuparia, Rosaceae), we tested if an increase in the fruit production at the population level results in higher proportion of fruits recruiting into seedlings. Recruitment was recorded near (under rowans) and far (under heterospecifics) from conspecifics. Higher recruitment rates under rowans would support predator satiation hypothesis. Higher recruitment rates under heterospecific trees, where fruits can only arrive with animal assistance, would support animal dispersal hypothesis. High population-level fruit production increased the proportion of fruits recruiting into seedlings both near and far from rowans. In contrast, high individual-level fruit production did not have a positive effect on the proportion of fruits recruiting into seedlings. Synthesis. Population-level synchronisation of fruit production is required to generate a more effective plant regeneration. Our findings show that masting enhances seedling recruitment through predator satiation and increased seed dispersal by frugivores. The results provide support for both animal dispersal and predator satiation hypotheses indicating that both mechanisms can operate simultaneously.</t>
+          <t>Breeding in European pear (Pyrus communis) for red-skinned and red-fleshed fruit - the red-skinned gene C affects tree habit and floweringThe pear breeding programme at INRAE Angers-Beaucouze is partly devoted to screen for red-skinned fruit from mutants derived from European pear cultivars. These mutants were selected around 1950 in the USA from 'Doyenne du Comice', 'Bartlett' and 'Beurre Hardy'. Several combinations involving these red mutants and also cultivars such as 'Lombacad' and 'Red Satin' were studied for the inheritance of red leaves in the greenhouse and red-skinned fruit in the field. A single dominant gene (already named C/c) codes for red leaves and fruit skin in these different progenies. In the present study, the focus was evaluating vigour, tree habit and flowering time of field planted progenies. The traits were determined and compared between the segregants (C/C, C/c, c/c). The deep-red seedlings (C/C) have a columnar habit with some weak feathers and their flowering in the field is late compared to the other segregants (C/c and c/c). Our results highlight a pleiotropic effect of gene C on tree habit and flowering time. The other part of this breeding programme is related to red-fleshed pears. Progenies from the cultivar 'Sanguine d'Italie' were evaluated for this character. A single dominant gene (called F/f), independent from C/c, was found to control this character. In the greenhouse the red colour of the hypocotyls is a very accurate marker for the red-fleshed fruit hybrids screened in the field. An improved knowledge of the genetic basis of production and accumulation of red pigments in the fruit flesh will better support the pear breeding programmes aimed to select new pear cultivars carrying this attractive trait.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Masting increases fruit production in rowan trees, leading to higher seedling recruitment both near and far from rowans, supporting predator satiation and animal dispersal hypotheses.</t>
+          <t>A breeding program in European pear focuses on red-skinned and red-fleshed fruit. Genes C/c affect tree habit and flowering, while gene F/f controls red flesh.</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Possibilities of increasing biodiversity in the genus Elaeagnus L. during reproduction by soft cuttingsIn this article, for the first time in Russia, the reproduction results of four species of the genus Elaeagnus L. by soft cuttings are presented comparatively. The promising genus of Elaeagnus L. have been identified in terms of fruiting and ornamentally. Their reproduction methods by soft cuttings with growth regulators, which make it possible to obtain high-quality seedlings for planting plantations, have been studied. Experiments on reproduction by soft cuttings were carried out in 2018 - 2020 on the territory of the Fruit Station of the RSAU-Moscow Agricultural Academy, named after K.A. Timiryazev. The cuttings were treated with three different growth regulators, stimulants of root formation (IMA-indolylbutyric acid), GHC-hydroxycinnamic acid (Zircon), and BCI + GGA (Universal rooting agent) and water was used as a control. The obtained results were processed by analysis of variance, as a result of which the morphological variability of rooted soft cuttings was revealed when treated with growth and development regulators. It was found that the genotype and stimulants significantly affect the average length and number of roots, the growth of shoots, their number, and the number of leaves on the shoot. The most effective was the growth and development regulator GKK + IMC. The results obtained make it possible to increase the biodiversity of valuable genotypes of the genus Elaeagnus L.</t>
+          <t>Study of some physiological parameters in the plum cultivars 'Jojo' and 'Topgigant Plus' (Prunus domestica L.), grafted on the clonal rootstock 'Docera 6' (P. domestica x P. cerasifera)The seed generations of the species Prunus cerasifera Ehrh., are used as a standard rootstock for plums in Bulgaria. The new clonal rootstock 'Docera 6' (P. domestica x P. cerasifera) attracts the attention of breeders and fruit growers in countries like Bulgaria, where Plum pox virus (PPV) is endemic. The current study was conducted in an experimental orchard at the Fruit Growing Institute - Plovdiv, Bulgaria planted in 2016. The study aimed to investigate some physiological parameters of the plum cultivars 'Jojo' and 'Topgigant Plus' (P. domestica) grafted on 'Docera 6'. The same cultivars grafted on the standard seedling rootstock Prunus cerasifera Ehrh. were used as control. In 2021, during two phenological stages, ""fruits about half final size"" (BBCH 75) and ""fruit ripe for picking"" (BBCH 87), the following indicators were determined: annual shoot length and thickness, number of leaves, fresh, dry mass and leaf area, content of photosynthetic pigments and total soluble proteins, as well as chlorophyll fluorescence (JIP test). For both studied cultivars, the length and diameter of the annual shoots were smaller in comparison with those grafted on 'P. cerasifera', although statistically, the difference was significant only for 'Jojo'. During both phenophases there was no significant difference in the content of photosynthetic pigments in both cultivars grafted on the two rootstocks. The results of the chlorophyll fluorescence analysis showed that the maximum quantum yield (Yield=Fv/Fm), reflecting the photochemical activity potential of Photosystem II, varied between 0.839 and 0.845 in all studied variants, which corresponds to healthy, unstressed leaves. For the parameters of the chlorophyll fluorescence (JIP test) in the cultivar 'Jojo'. differences between the two rootstocks and during the two phenophases were reported, while in the 'Topgigant Plus' cultivar they were observed only during fruit ripening.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>This article discusses the successful reproduction of four species of the Elaeagnus genus using soft cuttings and growth regulators, which could increase biodiversity in the genus.</t>
+          <t>A study compared the physiological parameters of plum cultivars 'Jojo' and 'Topgigant Plus' grafted on the new rootstock 'Docera 6' and the standard rootstock 'P. cerasifera' in Bulgaria. Results showed differences in shoot length and diameter, but no significant difference in photosynthetic pigments. Chlorophyll fluorescence analysis indicated healthy, unstressed leaves in all variants. Differences in chlorophyll fluorescence were observed in 'Jojo' during both phenophases and in 'Topgigant Plus' during fruit ripening.</t>
         </is>
       </c>
     </row>
@@ -1890,12 +1890,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Bryophytes of Europe Traits (BET) data set: a fundamental tool for ecological studiesBryophytes are a diverse group of organisms with unique properties, yet they are severely underrepresented in plant trait databases. Building on the recently published European Red List of bryophytes and previous trait compilations, we present the Bryophytes of Europe Traits (BET) data set, including biological traits such as those related to life history, growth habit, sexual and vegetative reproduction; ecological traits such as indicator values, substrate and habitat; and bioclimatic variables based on the species' European range. The data set includes values for 65 traits and 25 bioclimatic variables, containing more than 135,000 trait values with a completeness of 82.7% on average. The data set will enable future studies in bryophyte biology, ecology and conservation, and may help to answer fundamental questions in bryology.</t>
+          <t>11-year survey of yield and fruit quality of blood orange as affected by rootstockThe use of the rootstock in fruit tree crops has a pivotal role for plant performance, yield and quality traits. For decades, sour orange (Citrus aurantium L.) has been widely used in the Mediterranean citrus industry due to its high tolerance to several biotic and abiotic constraints. The spread in the 2000s of Citrus tristeza virus (CTV) in Italy, severely affecting the graft combination with sour orange, imposed the evaluation of CTV-tolerant alternative rootstocks. In particular, the aim of this study was to observe in a long-term period the influence of eight rootstocks on vegetative, yield and fruit quality of 'Tarocco Scire' pigmented sweet orange, highly valuable for the Italian citrus industry. The experimental field included different Poncirus-derived intergeneric hybrids and was established in 2010 in Catania Plain. The novel rootstocks evaluated were: Bitters, Carpenter, Furr (hybrids of Sunki mandarin and Swingle trifoliate orange), F6P12R and F6P13 (hybrids of Citrus latipes and Poncirus trifoliata) and C35 citrange, while Carrizo citrange and Swingle citrumelo were included as reference. The study allowed to decipher the effect of the different rootstocks in affecting vegetative, productive, and qualitative features of Tarocco Scire and evidenced that pedological conditions can be a limiting factor in the choice of the most suitable rootstock. Bitters showed a remarkable reduction of the canopy size, nevertheless being very productive. Overall, C35 and Furr had the highest cumulative yield in the 11-year investigation. Furthermore, anthocyanin content was different depending on the rootstock, with Bitters showing the highest pigmentation of the pulp.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>A study observed the influence of different rootstocks on the growth and quality of blood oranges. The choice of rootstock was affected by soil conditions and certain rootstocks promoted higher yield and pigmentation.</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1910,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tarenaya cultivars: genome size and genetic diversityThe spider flower, Tarenaya hassleriana (syn. Cleome spinosa), belongs to the family Cleomaceae, that originates in South America and is used as ornamental plant. Cultivar series were bred on a small scale, but showed low morphological diversity. The used gene pool and the hybridization steps carried out are largely unknown, but it is assumed that T. hassleriana was involved. Therefore, genome size as well as morphological and genetic diversity of seven generatively and ten vegetatively propagated cultivars were determined. Also T. boliviensis was included in the study. A field trial performed in 2021 at the Saxon State Office for Environment, Agriculture and Geology in Dresden, Germany, showed better flowering performance and overall impression for vegetatively propagated in comparison to the seed-propagated cultivars. To estimate the genetic distance, 168 individual bands from RAPD/dpRAPD analysis provided a clear distinction between T. boliviensis and the cultivars as well as between the groups of vegetatively and seed-propagated cultivars. Within the cultivar groups the genetic variation was found to be highly reduced. Three biological replicates of leaves and petals were measured with the flow cytometer CytoFLEX (Beckman Coulter). The 2C DNA contents were calculated using the internal standard tomato 'Stupicke' and the software CytExpert 2.3. Mean 2C values could be distinguished into two main groups. Group 1 varied from 0.64 to 0.67 pg and included all generatively and three vegetatively propagated cultivars. Group 2 varied from 0.92 to 1.01 pg and consisted of seven cultivars and T. boliviensis. These results support further breeding and the enhancement of variability of ornamental Tarenaya.</t>
+          <t>Cover crops and rootstocks interaction on vine performances of organic 'Autumn Pearl' table grape: first results of OLTRE.BIO research projectInter-row cover crops in organic viticulture are oriented to increase the biodiversity of soil and to promote healthy root status. The use of rootstocks on table grape cultivars is required due to phylloxera, nematodes, or soil difficulties, like high lime or salt content, drought and high groundwater conditions. The research was carried out in the Apulia region, in 2021 to determine the impact of two rootstocks (1103 Paulsen and 140 Ruggeri) on-field performance of organic 'Autumn Pearl' seedless vines grown on two different cover crops. The first one was a commercial mixture of grass cover and the second one a commercial grass-legume cover crop. 'Autumn Pearl' vines have shown the highest berry weight, equatorial diameter, and total soluble solid onto 140 Ruggeri and on grass cover crop. According to our data, grapevines onto 140 Ruggeri rootstock exhibited the highest photosynthetic assimilation rate and leaf transpiration. The use of inter-row cover crops (permanent or temporary) in viticulture has many advantages, of which the reduction of water runoff and soil erosion, restriction of evaporation from the soil surface, improvement of soil water holding and soil organic matter, the reduction of temperature fluctuations in the soil, as well as the regulation of the vine growth and vigor, with influence on table grape quality and quantity.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1915,7 +1920,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>A study on Tarenaya cultivars found low morphological diversity but clear genetic differentiation between seed-propagated and vegetatively propagated cultivars. Vegetatively propagated cultivars showed better performance.</t>
+          <t>This study examined the effects of rootstocks and cover crops on the performance of 'Autumn Pearl' table grape vines. The use of inter-row cover crops and specific rootstocks had positive impacts on vine growth, fruit quality, and soil health in organic viticulture.</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1930,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Compatibility of interspecific hybridization between tulip cultivars and wild species native to ChinaInterspecific hybridization is an important means of breeding new cultivars with novel characteristics introduced from their parents. The interspecific hybridization was carried out between five tulip cultivars 'Heart of Poland', 'Golden Parade', 'Purple Dream', 'Crystal Star', 'Bolroyal Dream' and wild specie Tulipa altaica. In five combinations, the compatibility was observed including pollen germinability, stigma receptivity, fruit-setting, hybrid seed germination and bulblet formation in this paper. The results showed that T. altaica has the highest germination rate (69.58%) compared with any other parents. The highest stigmatic receptivity of five female cultivars was recorded on 10:00 am one day after flowering. The crosses of 'Heart of Poland' x T. altaica and 'Bolroyal Dream' x T. altaica displayed a higher percentage of fruit setting with 79.32 and 82.23%, respectively. A total of 698 hybrid seeds were obtained from interspecific hybridization combinations, including 'Heart of Poland' x T. altaica, 'Purple dream' x T. altaica and 'Bolroyal Dream' x T. altaica. In contrast, other two crosses were completely unsuccessful when 'Golden Parade' and 'Crystal Star' were used as female parents. The higher rates of seed germination and bulblet formation were recorded in two crosses with 63.45 and 55.63% in 'Heart of Poland' x T. altaica, 58.35 and 61.88% in 'Bolroyal Dream' x T. altaica. The results of this paper could provide some useful information about the interspecific cross between T. altaica and tulip cultivars.</t>
+          <t>Drought stress affects productivity and fruit size of new apple cultivarsGrowing apples in some regions may be restricted due to drought since the apple is a crop sensitive to drought stress. It is necessary to supply enough water in orchards during the critical period, more specifically during the development of the fruit. Otherwise, the lack of water would result in a reduced yield. To ensure fruit quality and yield, it is better to prevent drought by irrigation. However, water is not an unlimited resource. Therefore, this work deals with the evaluation of the production of several apple cultivars under reduced water supply. Growth and yield parameters were evaluated in 14 apple cultivars with 'Golden Delicious' used as a control. Trees were grafted on M 9 rootstock and planted at a density of 2272 trees ha&lt;sup&gt;-1&lt;/sup&gt; in Eastern Bohemia (Czech Republic) in 2014. The trees were left without an irrigation system. The date of flowering was recorded for each single tree and the girt of trunk was measured at the end of the vegetation to determine the trunk cross-sectional area at height of 0.6 m. Fully matured fruits of each cultivar were harvested. The total yield of each tree was recorded, the specific productivity was calculated, and the fruits were divided in 4 size factions (&lt;65 mm, 65-75 mm, 75-85 mm, &gt;85 mm). Cumulative yields in apples 'Topaz', 'Artiga', 'Flordika', 'Frosta', 'Reluga', 'Gala', and 'Rucla' were significantly higher compared to LSQUOGolden DeliciousRSQUO. These cultivars appeared to be better suited for growing upon conditions of absent supplemental irrigation.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1935,7 +1940,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interspecific hybridization between tulip cultivars and T. altaica showed varying compatibility in terms of germination, fruit-setting, and seed formation. T. altaica had the highest germination rate compared to other parents. Successful crosses included 'Heart of Poland' x T. altaica and 'Bolroyal Dream' x T. altaica.</t>
+          <t>Research was conducted on apple cultivars in Eastern Bohemia, Czech Republic, to evaluate their production under reduced water supply. Several cultivars outperformed the 'Golden Delicious' variety.</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1950,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Flower morphology and biometrical aspects in rolB and ORF13a Kalanchoe blossfeldiana 'Molly' linesKalanchoe blossfeldiana and its derived hybrids comprise one of the most important potted plants in Europe and ranks first in Denmark's best-selling ornamental species. There is a strong market for Kalanchoe and consumers have an increasing demand for novelty and high quality of Kalanchoe products. At the same time, the flower morphology plays a crucial role in the breeding of new varieties. Breeding new traits using natural transformation with Rhizobium rhizogenes successfully introduced compact growth in Kalanchoe by introgression of transfer-DNA fragments of the root-inducing (Ri) plasmid into plants during bacterial infection. However, the role and function of individual root oncogenic loci (rol)-genes and open reading frames (ORFs) from R. rhizogenes basically remains unclear. This work aimed at investigating the effect of individual constructs overexpressing rolB and ORF13a in K. blossfeldiana 'Molly' by assessing biometrical and flower morphology features. Plants transformed with rolB and ORF13a had 30 and 37% lower height compared to wild type (WT), respectively 90 days after propagation. The rolB line plant diameter exhibited a reduction of 25% while ORF13a was 34% reduced in comparison to WT. Additionally, the leaf number of rolB and ORF13a was reduced to 40% less in comparison to WT. Moreover, the flower morphology of rolB and ORF13a showed markedly distinct flower shape compared to the WT. The transgenic lines exhibited lobose corollas, where the four petals were fan-shaped. In addition, the edges of petals from transgenic lines were not smooth as WT, presenting curly and irregular edges. Therefore, transformation with the single constructs of rolB and ORF13a resulted in different compactness levels between the transgenic lines of K. blossfeldiana 'Molly', demonstrating that unexplored ORFs could also present a novel genetic pool in terms of dwarfed phenotypes.</t>
+          <t>Thalia dealbata, a new host of sugarcane mosaic virusThalia dealbata is a native of the middle-southern part of the USA. It is a popular rhizomatous perennial pond plant which is available worldwide through wholesale nurseries. In 2021 at a nursery in Helvecia (Hungary) 1.5% of the 200 T. dealbata plants showed chlorotic bands on the foliage in August, which indicated a potential virus infection. By the end of the growing season, the disease incidence reached 100%. The causal pathogen was isolated and identified as Sugarcane mosaic virus (SCMV) based on serological and molecular analyses. This is thought to be the first report of SCMV infecting T. dealbata, a perennial herbaceous ornamental aquatic plant.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1960,7 +1965,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Induced drought affects morphological and eco-physiological response of Mediterranean wild rosesWater scarcity for the irrigation of ornamental crops is a typical phenomenon of nursery activities in the south Mediterranean districts and has frequently detrimental effects on plant growth, yield and quality. Wild roses are generally hardy plants with high ornamental potentialities and possible tolerance to the main abiotic stresses typical of their native environments. Therefore, a greenhouse experiment was carried out with the aim to evaluate growing and qualitative response of two Sicilian rose species to increasing deficit irrigation. Rooted-cuttings plants of Rosa canina L. and R. sempervirens L. were grown in 4-L plastic containers under drought stress induced by progressively reducing the irrigation volumes (900, 600 and 300 mL plant&lt;sup&gt;-1&lt;/sup&gt;) during each irrigation. Morphological and eco-physiological parameters were measured throughout the experiment. Increasing irrigation deficit resulted in a decrease of plant growth (at canopy and root level), ornamental effect, biomass yield and partitioning, stem water potential, leaf net photosynthesis and transpiration; this behavior was more evident in R. canina than in R. sempervirens potted plants. The identification of wild roses tolerant to moderate drought may allow to use them for ornamental nursery production and for landscaping in south Mediterranean areas often characterized by a low availability of the irrigation water.</t>
+          <t>Agronomic evaluation of eight 41 B x 110 richter grapevine genotypes as rootstock candidates for Mediterranean viticultureChoosing the most appropriate rootstock(s) is a key decision for the profitability of vineyards; therefore, there must be a sufficient range of rootstocks in the market adapted to different environmental conditions and production objectives. However, rootstock-breeding programs have been scarce in recent decades, and most of the rootstocks used today were bred a century ago, when the needs of the sector were very different from today. In this work, we aimed to evaluate new rootstock candidates before their introduction in the market. An agronomic evaluation was conducted on eight novel rootstock genotypes obtained from the first generation of the cross-pollination of 41 B Millardet et de Grasset (41 B) and 110 Richter (110 R) grafted with 'Syrah' and 'Tempranillo' and planted in a typical vineyard of the Ebro Valley in Spain. During the four consecutive growing seasons (2016-2019), growth, yield and berry composition parameters at harvest were collected. A linear mixed-effects model was constructed, considering year and block as random effects. Multiple factor analysis and hierarchical clustering on principal components were performed to establish clusters of genotypes with similar behaviour. The rootstock candidates showed a very wide performance range compared to their parents. The trial allowed us to identify two very promising candidates (RG8 and RG10), whose registration as commercial rootstocks is already in progress.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1970,7 +1975,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A greenhouse experiment found that increasing drought stress reduced plant growth, yield, and quality in two Sicilian rose species. Identifying drought-tolerant roses could benefit nursery production in water-scarce regions.</t>
+          <t>A study evaluated eight new grapevine rootstock genotypes for use in Mediterranean viticulture, identifying two promising candidates for commercial use.</t>
         </is>
       </c>
     </row>
@@ -1980,17 +1985,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>How the physical properties of the leaves of common plants affect dependent acoustic characterization in urban areas of Istanbul, TurkeyTo date, several ecological studies have addressed the influences of environmental noise. However, fundamental studies on noise reduction depending on the acoustic characterization of natural materials are still lacking. The present study quantitatively evaluates experimental data on sound absorption and attenuation of untreated plant leaves commonly found in urban areas. The leaves of English Ivy (Hedera helix L.), Horse Chestnut (Aesculus hippocastanum L.), Hortensia (Hydrangea macrophylla (Thunb.) Ser.), Japanese Privet (Ligustrum japonicum Thunb.), Laurel (Laurus nobilis L.), Linden (Tilia tomentosa Moench), Magnolia (Magnolia grandiflora L.), Osmanthus (Osmanthus heterophyllus (G. Don) P.S. Green), Plane Tree (Platanus orientalis L.), and Cherry Laurel (Prunus laurocerasus L.) were collected from branches of healthy plants grown under identical climate and soil conditions. To acoustically characterize plant leaves, impedance tube and pulse-echo techniques were used to experimentally determine the normal incidence sound absorption coefficient (SAC), speed of sound and sound attenuation coefficient (SC) values, respectively. In addition, as more effective numerical outputs, the normalized SAC (SAC') and normalized NRC (NRC') values were calculated by empirical modelling. As a statistical approach, multiple regression was also conducted to predict the dependent acoustic variables based on the independent physical parameters of the samples.</t>
+          <t>Corema album: from the wild to the fieldCorema album (L.) D. Don a long-lived, dioecious evergreen shrub is native from Atlantic dunes in the Iberian Peninsula and produces white edible berries. As a new berry there is great interest in the production and marketing of its fruits. Accompanying this growing interest in the species, INIAV initiated the development of a research program with several lines that are underway. The relationship between fruit and seed size is one of the most important selection criteria in this species. Some studies of plant morphology and anatomy, namely flower biology were performed. Being a plant that inhabits dunes with extreme temperature conditions and lack of water in the summer period, it is expected that the germination of their seeds is difficult. Thus, several germination trials have been developed with different types of scarification and stratification with uneven results obtained. In order to understand embryo maturity and seed dormancy, histological sections of embryos were done during the stages of seed and cotyledon development. A germplasm collection from ten origins was established at INIAV Experimental farm at Fataca. To evaluate the phenological behaviour of plants from different origins, a phenological BBCH scale was proposed. Vegetative propagation tests were also carried out, assessing rooting capacity between different genotypes of distinct origins. Genetic diversity assessment based on ISSR markers and agro-morphological traits was done in four different sites along the Portuguese coast. Results show that genetic diversity was higher between populations than within them. The agro-morphological traits showed high diversity, but they were not associated to geographic localization. The opportunity for development of a new berry crop presents many potential benefits as well as new challenges. Mass selection of wild plants was performed in 5 km at Meco coastal dune with special focus on fruit characteristics, mainly fruit and seed size, with the selection of 20 superior clones. Corema album has great potential as a new berry crop for.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>An ecological study in Istanbul evaluates how the physical properties of plant leaves affect sound absorption and attenuation in urban areas, using experimental data and statistical analysis.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Effects of species and varietal differences on intergeneric cross-compatibility between apple and pearHybridization across species and genus has been utilized to improve agriculturally important traits in crops. These interspecific and intergeneric hybridizations are often inhibited by reproductive barriers at the prezygotic and postzygotic stages. In this study, we used intergeneric hybridization between apple and pear to investigate the effects of species and varietal differences on pollen tube growth, seed germination, and seedling survival in a wide range of germplasms . In apple pistils pollinated by pears, inferior pollen tube growth was often observed for European pear cultivars, whereas hybrid seedlings derived from a cross between apple and European pear showed higher survival rate. In contrast, Japanese pear and Chinese pear pollination resulted in higher fruit setting which likely resulted from a higher rate of compatible pistils but a lower rate of seedling survival. Our results suggest the presence of both prezygotic and postzygotic barriers that occur independently in different crossing combinations. We also developed a Cleaved Amplified Polymorphic Sequence marker for detecting intergeneric hybrids derived from a wide range of crosses between apples and pears. The results of the present study will help in the development of intergeneric hybrids between apple and pear for introducing valuable traits from a diverse gene pool.</t>
+          <t>""Recovery"" of Vaccinium myrtillus from phytoplasma infection in vitroConsumer interest in healthy foods has increased market demand for high quality fruits such as wild and cultivated blueberries. They are used as medicinal plants, due to their high anthocyanin content and are an excellent source of antioxidants. Berries and leaves have various health effects and are used as a disinfectant, to lower cholesterol levels and as treatment for rheumatic diseases. In vitro techniques like micropropagation are increasingly being used as alternative ways of breeding, for the production of large numbers of plants on a commercial scale, for sanitation purposes and for the maintenance of obligate plant pathogens like viruses and phytoplasmas. A plant of wild European blueberry (Vaccinium myrtillus L.) exhibiting symptoms of shoot proliferation and small leaves was potted in the greenhouse and served as donor material for tissue culture establishment. Infected cultures were maintained over a period of more than 10 years and regularly screened for the presence of phytoplasmas. Interestingly over a period of several years a phenomenon of spontaneous remission of symptoms occurred, comparable to several cases of fruit trees under in vivo conditions described as ""recovery"". A thorough screening by PCR was carried out over several years and revealed that a spontaneous sanitation that occurred during the in vitro cultivation process, comparable to NDASH but with a lower extent (percentage) meristem culture and thermotherapy.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>The study explored the effects of species and varietal differences on pollination and hybrid seedling survival between apple and pear, highlighting prezygotic and postzygotic barriers, and providing potential markers for intergeneric hybrids.</t>
+          <t>In vitro techniques like micropropagation are used to grow high quality fruits like blueberries and maintain plant health by removing pathogens like phytoplasmas. Recovery from infection can occur during this process.</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Investigating the effects of fish effluents as organic fertilisers on onion (Allium cepa) yield, soil nutrients, and soil microbiomeAlthough waste waters from aquaculture farms, known as fish effluents, have been shown to be a viable source of nutrients for crop production, their use is not permitted in organic production under the current European regulatory framework, Council Regulation (EU) 2018/848. In contrast, the use of livestock manure as fertiliser is allowed and indeed encouraged. In this work we tested the effects of two types of fish effluents - filtered and unfiltered fish waters - from an aquaponic system on the yield of onions (Allium cepa) and the soil nutrients and microbiome, compared with a fertilisation regime using composted horse manure. Soil fertility was enhanced by the addition of fish effluents, in particular in the soil treated with unfiltered fish water or sludge, which resulted in the soil with the highest nitrate content. Fertilisation with fish water and aerobically treated fish sludge resulted in higher yields than the manure, performing the best in all growth and yield measurements. The bulb weight and bulb diameter in the onions fertilised with manure were 102.43 g +or- 7.26 and 61 mm +or- 2.05 respectively, the ones fertilised with filtered fish effluents were 126 g +or- 6.64 and 66.52 mm +or- 2.17, and the ones fertilised with filtered (fish water) and unfiltered (sludge) fish effluents were 133.32 g +or- 6.86 and 67.66 mm +or- 1.81. The horse manure significantly affected the microbial community structure of the soil, resulting in a higher species diversity compared with the fish effluents, with the most predominant genus types being Flavobacterium, Pseudarthrobacter, Sphingomonas, Massilia, Nitrososphaera, Pseudomonas and Nocardioides. However, the microbial activity in the soil with fish effluents was also significant, which indicates that the soil treated in this way can be considered a 'living soil', as required for organic certification in the EU. Overall, the results confirm the findings of previous studies on the effectiveness of fish effluents as fertilisers, and highlight the superior performance of fish effluents compared with a livestock manure, thus directly questioning the prohibition on using fish effluents in organic agriculture.</t>
+          <t>Adaptation to cultivation of Hypericum pubescens Boiss., an endangered species in Alentejo (Portugal)Hypericum pubescens Boiss. is a medicinal plant, classified as endangered species, in the Portuguese red list of vascular flora, mainly due to the intensification of agriculture. This species is widely used in traditional medicine, increasing genetic erosion risk. Thus, studying propagation methods for its efficient cultivation is our main goal. Three seed samples were tested: (a) cultivated in 2016; (b) from nature in 2017; (c) cultivated in 2021. Seed were incubated at 20 degrees C, 12h photoperiod, using 4 replicates. In November 2021, a propagation trial was done using 30 stem cuttings (5 cm length) of four types of cuttings: softwood terminal; softwood sub-terminal; semi-softwood and hardwood. Cuttings were placed in a 5x5 cm cells on trays, using a commercial turf grass substrate. Cuttings rooting success and height was registered after 1 and 2 months. In May 2021, rooted stem cuttings from spontaneous plants were installed in an experimental field, using weed control fabric, constituted by 3 randomized blocks (5 plants block&lt;sup&gt;-1&lt;/sup&gt;). Phenology descriptors (flowering dates: beginning, full, end) were observed. In November 2021, agronomic descriptors were observed: plot area, plot biomass production and main stem descriptors (height, length, number of internodes, number of ramifications and biomass production). The germination capacity was maintained after 5 years' storage in a refrigerator (ca. 5 degrees C). Best seed germination rate was 86%; 1000 seed weight was 0.084 g. The highest survival rate was obtained with sub-terminal cuttings (100%), but softwood terminal cuttings grew faster. On the agronomic plot, average height of plants was 21.9 cm, stem average length was 66.1 cm, thus, plants have prostrate habit; main stems had average of 67 ramifications and 45 internodes. The 4.6 m&lt;sup&gt;2&lt;/sup&gt; plot produced 862.2 g m&lt;sup&gt;-2&lt;/sup&gt; fresh herb and 1.73 t ha&lt;sup&gt;-1&lt;/sup&gt; dry herb. Plants were vigorous and cultivation installation using weed control fabric was considered a success.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Fish effluents were tested as fertilisers for onion crops and found to enhance soil fertility and yield. The use of fish effluents may challenge current regulations on organic agriculture.</t>
+          <t>The study focused on the cultivation of Hypericum pubescens, an endangered medicinal plant. Seed and stem cuttings were tested, with successful propagation and cultivation using commercial substrate and weed control fabric.</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Comparison of the biomass and dendrometric parameters of Norway spruce with its different representations in young stands at lower altitudes in the Czech RepublicIn forestry, it is still common to plant the seedlings of and cultivate Norway spruce (Picea abies L. Karst) at lower altitudes; however, the climatic change that has been occurring increases evaporative demands in these areas. As a result, the spruce evidently suffers from drought, withers and loses its power to grow, thus, influencing stem thickness and tree-height growth, as well as biomass production. Therefore, the growth and biomass production of young (5-, 15- and 25-year-old) Norway spruce stands at these altitudes (i.e., from 200 to 500 m a.s.l.) was surveyed, as a case study, across the Training Forest Enterprise ""Masaryk Forest"" Krtiny. There, 48 stands with a varied representation of spruce (i.e., up to 30%, 31%-60%, 61%-90% and over 91%) were analyzed. In each stand, 12 trees were sampled across all social status classes (i.e., sub-dominant, co-dominant and dominant) in detail. Basic dendrometric parameters (such as the total tree height, height of the crown base and stem diameter at breast height) and the amount of the above-ground tree organ biomass (i.e., stem, branches and needles) were investigated. Based on the trends found in the biomass production here and climate change predictions, we recommend that Norway spruce be cultivated only in zones from an altitude of ca 400 m a.s.l., with an annual precipitation of 700 mm and an average annual temperature of 7 degrees C, and its percentage representation in the stand be no more than 30%.</t>
+          <t>Aromatic and medicinal plants gene pool from the VIR collection: diversity and potentialThe VIR (N.I. Vavilov All-Russian Research Institute of Plant Genetic Resources, St.-Petersburg, Russian Federation) world collection of aromatic and medicinal plants includes about 4500 accessions from 90 countries of various status, which belong to 19 families, 71 genera and 170 species. The most widely represented families are Lamiaceae (27%), Asteraceae (15%), Polygonaceae (14%), Apiaceae (11%), and Brassicaceae (10%). The largest collections are collections of sorrel (485 accessions), basil (436 acc.), okra (390 acc.), endive (323 acc.), garden cress (325 acc.), fennel (245 acc.), asparagus (166 acc.), mint (128 acc.), savory (120 acc.) and salvia (107 acc.). The VIR is deeply studying such crops as basil, garden cress, arugula, artichoke, chicory, mint, vegetable chrysanthemum and Malabar spinach and analyses morphological, phenological, economically valuable and biochemical characteristics of the accessions. The main directions in which the study and breeding is carried out are earliness, including in connection with the advancement of southern crops to the north, productivity, resistance to early bolting, resistance to biotic and abiotic stressors, decorativeness, suitability for various cultivation methods, including in pot culture and intensive light culture. Studies of the biochemical composition of all crops are aimed at determining the content of dry matter, sugars, ascorbic acid, chlorophylls and carotenoids, anthocyanins, phenolic compounds and amino acids. Also, accessions of mint are studied for the content of essential oils, chicory root and artichoke for the content of inulin. The obtained phenotypic and biochemical data are used to create trait collections. The collection is screened annually to identify both new phenotypes for individual traits and for combinations of already known traits. In recent years, there has been an intensive replenishment of the collection, with special attention paid to medicinal plants. Now VIR collection includes among others the accessions of valuable plants such as althaea (Althaea officinalis L.), arnica (Arnica montana L.), elecampane (Inula helenium L.), sagebrush (Artemisia L.), tutsan (Hypericum L.), European gromwell (Lithospermum officinale L.), polemonium (Polemonium caeruleum L.) and anthyllis (Anthyllis L).</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The study examines the growth and biomass production of Norway spruce at lower altitudes in the Czech Republic, and recommends specific conditions for cultivation.</t>
+          <t>The VIR collection of aromatic and medicinal plants includes diverse species such as basil, mint, and arugula, with a focus on studying their characteristics and potential uses.</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transgenerational effects of water limitation on reproductive mother plants in a common garden of the shrub Frangula alnusA better understanding of responses to water limitation in woody species can help us to cope with the consequences of the progressing climate change. We focused on the putative transgenerational effects of water limitation in the maternal environment during reproduction. Water was restricted for cuttings of Frangula alnus Mill. in a common garden setting, with a Belgian (local), Italian and Swedish provenance, during the growing season of 2020 and mature berries were collected during the whole reproductive phase. Stones that were extracted from the berries were given a cold stratification. In the next spring, the germination percentage of the stones from the water restricted maternal environment was significantly higher than that of the stones from the normal maternal environment, for the three provenances, notwithstanding the fact that stone weight was not different. The timing of seedling emergence was advanced for the water-limited maternal environment, but only for the stones harvested when mature berry production was the highest (9th and 16th of July 2020). Population differentiation was observed for the timing of seedling emergence, which reflected population differentiation for bud burst of the mother plants in the common garden, including a counter-gradient effect for the Swedish provenance, and corroborating the suggestion that the timing of seedling emergence and leaf phenology may have a common genetic basis. In addition, the Swedish provenance displayed a somewhat more stable germination percentage over the whole berry collection period when the stones were harvested. A partitioning of variance analysis suggested that germination percentage is more genetically determined than timing of seedling emergence, probably reflecting the more important need to sense the environment for an adequate timing of emergence.</t>
+          <t>Mycobiome of post-agricultural soils 20 years after application of organic substrates and planting of pine seedlingsA 20-year study of a pine stand on post-agricultural land showed that woody debris in the form of organic matter can be successfully used to restore symbiotic mycorrhizal communities, as is the case with forest soils. Woody substrates restored organic matter in soils altered by long agricultural use and had a positive effect on the composition of mycobiota antagonistic to pathogens, especially to Heterobasidion annosum, the causal agent of the dangerous disease root and stump rot of many forest tree species, including stands of Pinus sylvestris (L.). In a study that started in 2001 in the forest district of Czarne Czluchowskie (northern Poland), the following organic materials were used: wood residues (W), sawdust (S), bark compost (B), and compost applied to the root zone during planting (G). The organic materials were spread in the form of mulch over the entire area during planting. After twenty years, it was found that the substrates used provided suitable growth conditions for mycobiome useful for pines. The addition of organic matter did not change the alpha biodiversity of the soil, but in the long term led to significant changes in the composition of mycobiota (beta biodiversity). The changes in the soil after the addition of organic material naturally accelerated the formation of the forest habitat. A number of fungi evolved that degraded added lignin and cellulose while being antagonists of H. annosum and other pine pathogens. In particular, the well-known hyperpathogens of the genus Trichoderma played an important role by promoting resistance of the soil environment to pathogens. Soil enrichment by bark compost and wood residues increased the relative abundance of Trichoderma more than fourfold. Mycorrhizal fungi became dominant in soil enriched with organic matter. After enriching the soil with bark compost, the relative abundance of Amphinema and Inocybe increased to 5%. The relative abundance of Russula in soil enriched with wood residues and sawdust increased to 9% and 5%, respectively. Mycorrhizal fungi, e.g., of the genus Amanita, Rusula, which formed root mycorrhizae, not only increased the root receiving area many times over, but also protected the roots (mechanically and chemically from pathogens). Altogether, the observed positive changes increase the chances that the first generation of pines will survive on the ground.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Water limitation during reproduction of Frangula alnus shrubs had transgenerational effects, increasing germination and advancing seedling emergence, with population differentiation in timing and germination stability.</t>
+          <t>A 20-year study found that using woody debris as organic matter can restore mycorrhizal communities in post-agricultural soils, providing suitable conditions for pine growth and protection against pathogens.</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Invasive plants and agri-food waste extracts as sustainable alternatives for the pre-emergence urban weed control in Portugal central regionThe continued use of synthetic herbicides to control weeds leads to environmental pollution and health issues. Consequently, chemical formulations have been increasingly banned. However, sustainable solutions are lacking in the market. Alternatively, valorisation of phytotoxic waste to reduce the herbicides use promotes sustainability, meeting circular economy. We aimed at assessing the herbicidal potential of aqueous extracts of waste from the management of invasive plants (Acacia dealbata bark, Oxalis pes-caprae biomass) and agri-food (spent coffee grounds) on common urban weeds (Achillea ageratum, Conyza canadensis and Dittrichia viscosa) in Portugal. In vitro (paper and soil) and pot assays (soil) were conducted to test the pre-emergence (germination and seedlings) and post-emergence (well-stablished plants) effect of waste extracts on these weeds. Extracts reduced pre-emergence performance of weeds, but marginally affected post-emergence parameters. Germination was inhibited up to 83% by O. pes-caprae in A. ageratum, up to 88% and 87% by A. dealbata and O. pes-caprae in C. canadensis, and up to 70% by concentration in D. viscosa. A. dealbata and O. pes-caprae extracts also drastically reduced radicle length (30% and 55% in A. ageratum, 77% and 81% in C. canadensis, 90% and 92% in D. viscosa, respectively). However, soil neutralized the inhibitory pre-emergence effect. The main findings highlight that the use of A. dealbata and O. pes-caprae extracts as bioherbicides may require an additional synthetic herbicides application, as extracts alone cannot fully control urban weeds in areas without soil. Combining bioherbicides and commercial formulations still reduces the application of toxic chemicals, promoting sustainability.</t>
+          <t>Future fire risk and the greenhouse gas mitigation potential of forest rehabilitation in British Columbia, CanadaIncreased forest fires in the future will create opportunities to undertake salvage logging and replanting activities with the potential to reduce greenhouse gas (GHG) emissions relative to a 'do nothing' scenario that relies on natural regeneration. Salvage logging of fire-killed wood will generate additional useful products for society while replanting will provide opportunities to establish seedlings with genetic gain and increased climate resilience. In British Columbia, Canada, our study showed that cumulative net GHG benefit from these rehabilitation activities on about 14% of the area burned ranges from -32 to -79 MtCO&lt;sub&gt;2&lt;/sub&gt;e in 2070, but cumulative net GHG reduction benefits are not realized for 23 to 31 years due to the emissions debt that is incurred from harvest wood product emissions and residue management. Scenarios were modelled using the Generic Carbon Budget Model (GCBM) that tracked carbon in the forest and a harvested wood products model that tracked the fate of C and the substitution benefits achieved through wood use, both developed by the Canadian Forest Service. Results were evaluated across 100 simulations of future fire, developed using a log-normal model fit to historic fire events and an assumption of linearly increased area annually burned by 2070 to double the average of the period 1950 to 2018. Our results suggest that mitigation efforts might be better directed at reducing wildfire risks and emissions in the first place, rather than rehabilitating post-fire outcomes.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Study in Portugal assessed the herbicidal potential of waste extracts from invasive plants (Acacia dealbata bark, Oxalis pes-caprae biomass) and agri-food (spent coffee grounds) on common urban weeds. Extracts reduced pre-emergence performance of weeds but had limited post-emergence effect. Soil neutralized pre-emergence effect, suggesting the need for additional synthetic herbicides in areas without soil. Combining bioherbicides and commercial formulations promotes sustainability.</t>
+          <t>Salvage logging and replanting after forest fires in British Columbia can reduce greenhouse gas emissions, but the benefits are not realized for 23 to 31 years due to emissions from wood products. However, efforts should focus on reducing wildfire risks and emissions.</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L.)Glasshouse experiments to evaluate the effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L) were conducted in summer 2017 and winter 2018 at Dohne Agriculture Development Institute, Stutterheim, Eastern Cape, South Africa. Two cultivars of Swiss chard, Star 1801 and Fordhook giant, were planted in 200 cavity trays using a hygromix commercial growing medium incorporated with fertilizer treatments at different rates of bioslurry: no incorporation (control), 50% bioslurry, 100% bioslurry, 200% bioslurry and the recommended rate of 2:3:4 (30) NPK fertilizers. In the glasshouse the experiments were arranged in a randomized complete block design (RCBD) which was replicated three times. At four weeks after germination, ten (10) seedlings per treatment were destructively sampled randomly to determine the plant growth and biological mass parameters: (i) Seedling height, shoot and root height; (ii) Seedling mass; (iii) Fresh shoot and fresh root mass as well as their dry mass; (iv) Nutrient content of leaves. The results indicated that fertilization with 100%Bioslurry produced significantly taller seedlings and shoot height, while the shortest seedlings were obtained from the recommended inorganic fertilizer. Fertilization with 200%Bioslurry and the control treatment produced significantly higher biological yield compared to other treatments. The interaction between fertilizer treatments, cultivar and season indicated that summer season performed better compared to winter in seedling growth and development, and Fordhook giant fertilized with 100% and 200% bioslurry was superior compared to Star 1801. Fertilization with 50% bioslurry resulted in seedlings with higher sodium, while the seedlings grown in the control treatment showed higher copper content. The highest manganese was obtained from the seedlings fertilized with the inorganic fertilizer. It is therefore, concluded that fertilization with bioslurry at 100% and 200% bioslurry application rates enhanced the growth and quality of Swiss chard seedlings.</t>
+          <t>Evaluation of the impact of Gleditsia triacanthos seed treatment methods on reproductionRepresentatives of the genus Gleditsia, valuable trees for agroforestry in the south-east of the European part of Russia, form productive forest strips. In regions with difficult soil and climatic conditions, good plant development at the initial stage is important. The introduced species Gleditsia triacanthos has characterized by a high degree of drought resistance and stable fruiting. The main source material for reproduction is seeds, but the structural features of the seed coat affect the germination and development of Gleditsia seedlings. The aim was to assess the impact of processing methods on the dormancy of seeds with a hard shell and the growth of seedlings. Under laboratory conditions at the Federal Scientific Center of Agroecology of the Russian Academy of Sciences in the period from November 17 to December 1, 2022, an experiment was conducted to study the effect of methods of treatment of seeds of Gleditsia triacantha (2022 year of fruit harvest). It has been established that the chemical method (H2SO4 concentration 95.72%, density 1.895 g/cm3, 1757 g/l) is more effective, because swelling (after 24 h-96%) and the appearance of hypocotyl (after 72 h-39.7%) in seeds and other phases of seedling formation of Gleditsia triacanthos. The recommended methods of seed pretreatment ensured mass sprouts (76-78% on day 7) and increased the yield of seedlings (55.0-61.5%). Research findings contribute to the search for techniques and methods for the development of low-carbon production technologies.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Glasshouse experiments showed that fertilization with bioslurry at 100% and 200% rates improved the growth and quality of Swiss chard seedlings compared to inorganic fertilizers.</t>
+          <t>The study evaluated different methods of seed treatment for Gleditsia triacanthos and found that a chemical method was most effective for seed germination and seedling growth.</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Identification and management of Tomato brown rugose fruit virus in greenhouses in MexicoTomato brown rugose fruit virus (ToBRFV) has become a cause of great concern in the global tomato agro-industry since its first report in Israel in 2014. Global tomato production is affected by ToBRFV, and management practices are being evaluated. We tested seed lots from international producers as well as greenhouse substrates and water wells as possible sources of virus contamination. We identified a second introduction of ToBRFV in Mexico by a strain closely resembling isolates from the Netherlands and the Middle East. ToBRFV was detected by RT-PCR in seed coats and epicotyls (from commercial seeds and seedlings obtained from infected tomato plants), indicating a transmission rate of 9%. Virus-like particles (VLPs) were found in wells used for irrigation in greenhouses, but these exhibited low infectivity. These findings suggest that water sources could serve as ToBRFV reservoirs. We evaluated four chemical and six thermal methods for sanitizing substrates, plasticware, and other greenhouse utensils, using detached leaf bioassays in Nicotiana rustica. The most effective chemical sanitization method was treatment with glutaraldehyde plus quaternary ammonium salts and pentapotassium salts. The most effective heat treatment was at 92 degrees C for 30 minutes, which inactivated the virus. Tomato producers could implement these sanitization methods to control ToBRFV.</t>
+          <t>Culture of Gracilaria gracilis and Chondracanthus teedei from vegetative fragments in the field and carpospores in laboratoryGracilarioids and Gigartinales are of great economic importance due to the phycocolloids they contain in their cell wall and are used in different industries worldwide. Field and laboratory cultures of two species of red seaweeds (Gracilaria gracilis and Chondracanthus teedei), confirmed after DNA analysis, were carried out to foster the increasing use of this species in Spain as a food source. Vegetative cultures carried out in an open-lock gate within a traditional salina in the ay of Cadiz (Southern Spain) rendered maximum growth rates in April (3.64% day&lt;sup&gt;-1&lt;/sup&gt;) for G. gracilis and in November (4.68% day&lt;sup&gt;-1&lt;/sup&gt;) for C. teedei, the latter showing significant differences between the months of the year. For laboratory cultures, samples of the two species used for sporulation were obtained from tidal creeks in several nearby locations of the Bay. In order to grow fertile carposporophytes from spores, Provasoli enriched seawater medium (ES medium), Miquel A + B and f/2 were used as culture medium at a temperature of 18 degrees C and irradiance of 30 micro mol m&lt;sup&gt;-2&lt;/sup&gt; s&lt;sup&gt;-1&lt;/sup&gt; in 12:12 h photoperiod. Both species developed a basal disc after 12-15 days in ES medium and Miquel A + B, and new microscopic seedlings were observed at 20-25 days in ES medium. With f/2 medium, no growth was observed after sporulation. The life cycle of G. gracilis was completed in ES medium over a period of 11 months with a mean growth rate of 3.28% day&lt;sup&gt;-1&lt;/sup&gt;. The present study is an important step towards the development of seaweed cultivation in the Bay of Cadiz, especially in integrated multi-trophic cultivation in salinas as part of the more sustainable use of the marine resources in coastal communities.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Research in Mexico has identified Tomato brown rugose fruit virus (ToBRFV) in greenhouses and found that it can be transmitted through seed coats, seedlings, and water sources. Chemical and heat treatments were found to be effective in sanitizing growing media and utensils.</t>
+          <t>Field and laboratory cultures of two red seaweed species were carried out to promote their use as a food source. Maximum growth rates were observed in April for Gracilaria gracilis and in November for Chondracanthus teedei. Sporulation and growth of fertile carposporophytes were achieved in laboratory cultures using different culture media. The study is a significant step towards seaweed cultivation in the Bay of Cadiz for sustainable marine resource use.</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Canadian Plant Disease Survey 2023 volume 103: disease highlights 2022Diseases of berry, vegetable, ornamental nursery and landscape plants in south coastal British Columbia submitted to Elmhirst Diagnostics &amp; Research in 2022 and causal agents are listed. In April - May, cold, wet soils led to nutrient deficiency symptoms on foliage and cool, rainy weather through June led to high levels of botrytis in berries and many other crops. This was followed by hot, dry weather from July-September causing heat and drought stress on many crops and landscape plants. Powdery mildew was severe on many nursery and landscape plants, such as big-leaf maple (Acer macrophyllum). No significant new diseases were observed.</t>
+          <t>Influence of the climatic conditions of the year 2022 on the grapevine phenology at SCDVV BlajThe present article attempts to describe how the effects of climate conditions affect the evolution of the grapevine phenological period in 2022. The cultivars used were Selena, Blasius, Rubin, Radames and two clones obtained approved in SCDVV Blaj: Sauvignon blanc 9Bl and Feteasca alba 29 Bl. The experiment was carried out at SCDVV Blaj and included field observations, monitoring weather conditions such as temperature and precipitation. For the onset of the phenological phases: budding, flowering, veraison (colour change of grape berries) and ripening-maturation. The phenological phases of the grapevines were monitored for a growing season according to the protocol established, taking into account the BBCH grade. Temperature and precipitation are the two main climatic factors that affect the growth and development of the grapevines. Due to existing thermal conditions and continued global warming, the Tarnave vineyard region is a recommended place for white grape cultivation.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>The Canadian Plant Disease Survey found that in 2022, cold, wet soils caused nutrient deficiency in plants, while cool, rainy weather led to high levels of botrytis in berries. Hot, dry weather in the following months caused heat and drought stress. Powdery mildew was also observed on many plants. No new diseases were found.</t>
+          <t>This article studies how climate conditions in 2022 affected grapevine growth and development. It focuses on the phenological phases and recommends the Tarnave vineyard region for white grape cultivation.</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>In-silico prediction and in vitro validation of antioxidant, antibacterial and antifungal potential of black turmeric (Curcuma Caesia Roxb.) essential oils and its constituentsThe growing interest in the health and pharmaceutical industries has led to a significant increase in demand for essential oils. Curcuma caesia, as a member of the Zingiberaceae family, has been used for its high-quality essential oils (EOs) with remarkable therapeutic properties. The current study aimed at predicting the in-silico interactions of C. caesia volatile constituents against the protein responsible for oxidative and microbial stress in order to investigate their potential for industrial and pharmaceutical applications. The accuracy of the in-silico predictions was confirmed by carrying out the in vitro validation of the antioxidant, antibacterial, and antifungal activity of the EOs derived from the rhizome and leaves, as well as its volatile constituents. EOs from the rhizome and leaf samples of C. caesia were extracted through the hydro distillation method and yielded a percentage (%) of 1.80 +or- 0.02 and 0.95 +or- 0.02 (fresh weight basis, v/w), respectively. A total of 38 and 29 volatile constituents were identified in the rhizome and leaf EOs by gas-chromatography mass spectrometry analysis, representing 92.55% and 90.75% of the total peak area, respectively. The rhizome and leaf EOs showed oxygenated sesquiterpene (39.91% and 27.69%) as the predominate fractions followed by sesquiterpene hydrocarbons (13.36% and 18.44%). Curzerenone (18.09%), epicurzerenone (12.47%), eucalyptol (11.57%), camphor (5.94%), and germacrone (4.47%) were the major constituents in the rhizome EO, whereas, the leaf EO was dominated by eucalyptol (12.53%), camphor (7.23%), curzerenone (5.24%), germacrone (4.81%) and curzerene (4.9%). The in vitro biological activities such as antioxidant, antibacterial, and antifungal potential of C. caesia EOs were evaluated. The antioxidant evaluation using enzymatic and non-enzymatic assays, showed excellent potential of C. caesia EOs as compared to standard drugs. Specifically, in the enzymatic assay, leaf EO of C. caesia was resulted into the reduction of ROS and an increase in the activity of superoxide dismutase (SOD), catalase (CAT), and glutathione S-transferase (GST) in OZ-stimulated PMNs. The EOs also displayed a remarkable antibacterial activity against Staphylococcus aureus, elucidating it as the most susceptible strain. Further, the in-silico prediction of the constituents was conducted using Swiss-ADME, and molecular docking analysis. Swiss-ADME revealed the drug-likeness and safety properties of constituents present in C. caesia EOs. The molecular docking study was carried out to interpret the possible interactions of phytoconstituents qualified in the Swiss-ADME study with two bacterial proteins (Tyrosyl-tRNA synthetase from Staphylococcus aureus (PDB ID: 1JIJ) and Glucosamine 6-phosphate synthase from Escherichia coli (PDB ID: 1XFF)), one fungal protein (N-myristoyl transferase from Candida albicans (PDB ID: 1IYL)) and one oxidative protein (Human peroxiredoxin 5 (PDB ID: 1HD2)). Furthermore, to validate the result of molecular docking, the biological activity of higher affinity constituents was also evaluated. As a result, the in vitro findings supported the in-silico prediction. Therefore, C. caesia or its constituents like curzerenone, camphor, eucalyptol, epicurzerenone, germacrone, viridifloral, muurola-4,10(14)-dien-1-ol, and globulol might be a valuable source for developing antioxidant and antimicrobial drugs. To the best of present author's knowledge, this is the first scientific report on the in-silico prediction of C. caesia constituents against bacterial, fungal and oxidative proteins through molecular docking, which may contribute to the development of various alternatives against multi-drug resistance.</t>
+          <t>Observations on the effects of the Hail on some apple varieties under the conditions of 2021The research was carried out on 3 apple varieties, namely Golden delicious, Jonathan and Starkrimson, grown in the N-E area of Romania, within the Research Station for fruit growing Iasi, on Falticeni development center. The plantation was established in 1990, being in 31 since planting. The trees are grafted on the MM106 rootstock, with a planting distance of 4 meters between rows and 2.5 meters between trees, with a density of 1000 trees/ha. During the agricultural year 2021, hail was observed as an extreme climatic phenomenon, recorded in June, July and August, when the trees were in the phenological stage BBCH 71-74, BBCH 75, BBCH 77 and BBCH 79. Extreme phenomena were accompanied by heavy rains and storms that affected both the quality and quantity of fruit production. The highest degree of damage was recorded in the Golden delicious variety in all four hail falls, with a percentage between 5% and 67%. Therefore, the fruit production was affected, their quality being impaired and not being commercialized as high quality fruit, for fresh consumption, but only industrialized.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Application of living mulch in rows of the apple trees on several rootstocks - long-term evaluationThe long-term influence of several living mulches on apple tree growth, nutrient status, yield, and fruit quality concerning the year of cover crop sowing in tree rows was evaluated in the Lower Silesia region in the southwestern part of Poland. The estimation was conducted in six apple tree 'Ligol' populations differentiated by the rootstock: M.26, M.9, P 60, P 2, P 16, and P 22. In experiment no. 1, one-year-old nursery stock was planted, and perennial living mulches were sown: colonial bent grass (Agrostis vulgaris With.) and white clover (Trifolium repens L.) in the same year and blue fescue (Festuca ovina L.) in the following year. In experiment no. 2, which involved two-year-old stock, the sowing of blue fescue was delayed until the second, third, fourth, and fifth years following orchard planting. The presence of the cover crop significantly affected young tree growth when one-year-old trees were planted. The sowing of the living mulch in the first or the second year after tree planting led to a significant reduction in the cumulative yield obtained from the young trees. The living mulch improved the red coloration of the fruit skin in the young orchard, but it caused a reduction in the mean fruit weight and size. However, it also contributed to decreased nitrogen concentration in the leaves of the apple trees, and the tree tolerance to living mulch increased as the orchard aged. A choice of semidwarf rootstock, postponed sowing of cover crop, and high-quality nursery stock were recognized as the most important factors for fostering apple tree tolerance to living mulches in tree rows.</t>
+          <t>Recovery and genotyping ancient Sicilian monumental olive treesThe long-lived and evergreen olive tree dominates the Mediterranean landscape, representing an agroecological and cultural symbol and a genetic heritage of inestimable value. Sicily, for historical, geographical, and cultural reasons, has a very rich and distinctive olive germplasm. In this work, a large survey was conducted to discover, collect, and characterize the genetic diversity of centennial monumental olive trees from historical sites, such as the Greek Temple Valley (Agrigento), ancient gardens, or farmland present in the western part of the island. Trees were chosen based on their height, trunk, stump size, and presumed age; particularly, only olive trees with an age estimated at more than 400 years old were taken into consideration. For the morphological characterization, the leaf, fruit, and endocarp traits were analyzed. For the molecular characterization, 11 polymorphic microsatellite markers largely used for fingerprinting analysis were used. Reference cultivars were included in the analysis for comparison. Nuclear DNA was extracted from different parts of the plant (young leaves of shoots taken from the canopy and young leaves taken from suckers, which arose from the basal part of the tree) to check if the trees were grafted and to explore their diversity. Most of the monumental trees have been grafted at least one time during their long life, and some genotypes showed unique genetic profiles combined with peculiar phenotypic traits. Suckers (rootstock of the trees) showed a strict genetic relationship with an ancient monumental oleaster tree, also included in the study. ""Patriarch"" (original mother plants) trees of local cultivars were also identified. This research revealed a high level of the still unexplored genetic diversity of the Sicilian olive germplasm and highlighted its importance as a gene reservoir, which could support new breeding programs for the evaluation and possible selection of traits linked to putative resilience to abiotic and biotic stresses (particularly &lt;i&gt;Xylella fastidiosa&lt;/i&gt; subsp. pauca ST53 or soil- borne diseases or insects). The results will be useful for improving the conservation process, enriching existing collections of olive genetic resources, and supporting on-farm conservation projects.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>The study evaluated the long-term effects of living mulches on apple tree growth, yield, and fruit quality. It found that the presence of living mulch affected young tree growth and reduced fruit yield, but improved fruit coloration. The use of semidwarf rootstock, delayed sowing of the cover crop, and high-quality nursery stock were important for apple tree tolerance to living mulch.</t>
+          <t>This study focused on the recovery and analysis of genetic diversity in ancient Sicilian olive trees, highlighting their importance for breeding programs and conservation efforts.</t>
         </is>
       </c>
     </row>
@@ -2195,17 +2195,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Leaf chlorophyll contents in some European pear cultivars grafted on different rootstocks and its relation with growth and yieldAim of study: To investigate the effect of different combinations of pear rootstocks and cultivars on the contents of leaf photosynthetic pigments and their relation with some growth and yield characteristics. Area of study: Ondokuz Mayis University, Samsun, Turkiye, in two years, 2021 and 2022. Material and methods: The pear cultivars 'Santa Maria', 'Williams', and 'Deveci' were grafted on eight rootstocks: two quince clonal rootstocks (BA29 and QA), five pear clonal rootstocks (FOX9, FOX11, OHxF333, OHxF87, FAROLD40) and Pyrus communis L. seedlings. Growth and yield attributes were calculated and chlorophyll and carotenoid contents were determined by the spectrophotometric method, using 99.8% methanol solvent for chlorophyll (chl) extraction. Main results: Chl a/b in the case of rootstocks, chl a and total carotenoids in the cultivars were found statistically significant; the ratio chl a/b ranged 1.71-2.30 in the case of rootstocks; in the case of cultivars chl a ranged from 17.77 (cv. 'Santa Maria') to 19.88 (cv. 'Deveci') g mL&lt;sup&gt;-1&lt;/sup&gt;, and carotenoids ranged 0.21-0.95 g mL&lt;sup&gt;-1&lt;/sup&gt;. Under the main impact of cultivars, rootstocks and their combinations, a significant difference was seen in the growth and yield attributes. Research highlights: A negative correlation coefficient was observed between photosynthetic pigments and morphological characteristics; however, the correlation coefficient was positive for canopy volume and annual shoot growth. Canopy management, especially with the use of rootstocks and cultivars that result in weaker growth, is helpful for improving chlorophyll content and yield performances.</t>
+          <t>Signs of qualitative variability of seeds of Lonicera gracilipes var. Glandulosa Maxim. under influence with ionizing radiationThe article deals with the study of the biological characteristics of L. gracilipes Mig var. glanduiosa Maxim as a new berry crop. Seeds were treated with ionizing radiation to obtain new forms of crop plants. The identified number of qualitative signs of variability in seedlings exposed to ionizing radiation allows us to preliminarily speak about the identified mutations in L. gracilipes. The resulting mutant forms of the species L. gracilipes with other biological indicators to varying degrees different from the original species make it possible in the future to isolate promising forms valuable from an economic point of view for domestic berry growing. The currently existing economic indicators of the species L. gracilipes in terms of frost resistance (limit -250C), fruit weight - 0.6 g, low productivity (up to 300 g from one bush), put forward specific tasks for the selection of a new rare crop, promising for its cultivation as a fastgrowing berry bush.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Study investigates how different pear rootstocks and cultivars affect leaf chlorophyll content, growth, and yield. Results show significant differences and suggest canopy management can improve chlorophyll content and yield.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2210,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Yield and quality of lettuce (Lactuca sativa L.) depending on variety and type of nitrogen fertilizerThe aim of this research was to determine the effect of the application of different types of nitrogen fertilizer in five different varieties of lettuce on yield. The experiment was performed in the open field, in the spring cycle of growing during 2018 and 2019. The size of the base plot was 3 m2, and the trial was set up in a random block system. The trial covered the application of various forms of nitrogen fertilizers: ammonium sulphate, ammonium nitrate and urea. The applied nitrogen dose is 100 kg/ha (May 10th 2018 and May 8th 2019). Samples for the analysis of vitamin C and nitrate content, as well as yield determination, were carried out at the stage of the technological maturity of lettuce (60-62 days after seedling). The average weight of lettuce, depending on the variety, varied in the range of 211.3 g to 258.7 g. The use of ammonium nitrate resulted in the highest average weight of lettuce head (246.7 g), followed by the use of urea (238.9 g) and the lowest by the use of ammonium sulphate (221.0 g). The nutritional value of lettuce (vitamin C content) shows that depending on the applied form of nitrogen in the fertilizer, the highest content of vitamin C was determined by urea (10.86 mg/100 g), then ammonium sulphate (9.61 mg/100 g), and the lowest by ammonium nitrate (7.38 mg/100 g). The lower content of vitamin C was found in varieties of lettuce with red leaves compared to varieties with green leaves. The accumulation of nitrate in lettuce leaves directly depends on the variety and the applied fertilizer. The highest nitrate content was with ammonium nitrate (2355.6 mg/kg). The accumulation of nitrate in lettuce varieties with red leaves was higher compared to varieties with green leaves.</t>
+          <t>The effect of the drug bio root plus on the yield and quality of root-related seedlings when propagated by shortened lignifiedThe materials and results of research on the use of Bio Root Plus, produced in France, the effect of which has not been studied in the cultivation of grape seedlings, are presented. For the first time, the degree of influence of the drug on the regenerative activity of shortened grape cuttings was established with the industrial technology of growing seedlings using mulching polyethylene film and drip irrigation in the school. The regulations for the use of Bio Root Plus have been developed. The main research was carried out in the conditions of LLC ""Agrovin - Sultan"" of the Shelkovsky district of the Chechen Republic. The most developed root system in seedlings is formed when the cuttings are treated with Bio Root Plus at a concentration of 0.5%. In this variant, the best results were obtained in terms of growth - 100.7 cm versus 69.7 cm in the control. The ripening of shoots at the same time was 90.3%, and in the control only 70%. The leaf surface area was noted in this variant of 1200 cm2, which is 234 cm2 more than the control and 88 cm2 more than when treated with heteroauxin. The highest yield of seedlings of 385 pieces per 1 hectare was obtained when Bio Root Plus was processed at a concentration of 0.5%, which is more than when used in the production of heteroauxin by 13,000 pieces. The highest profitability - 317.9% was obtained in the same variant, and 64.1% less when treated with heteroauxin. The conducted studies allow us to recommend the preparation of Bio Root Plus in a concentration of 0.5% in the production of root-related seedlings.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2225,7 +2220,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>The study investigated the impact of different nitrogen fertilizers on lettuce yield and quality. Ammonium nitrate resulted in the highest average weight and urea had the highest vitamin C content. Red lettuce varieties had lower vitamin C content and higher nitrate accumulation.</t>
+          <t>Research on the effectiveness of Bio Root Plus in grape seedling cultivation showed improved growth, shoot ripening, and yield compared to control and heteroauxin treatments.</t>
         </is>
       </c>
     </row>
@@ -2235,17 +2230,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Balancing nitrogen fertilization in apples: boosting plant growth or European canker?European canker remains one of the most threatening diseases of apple in countrieswith a temperate climate. The cause of the disease, the fungal pathogen Neonectria ditissima, infects the host through several types of wounds, colonizes the bark tissues, eventually leading to tree death. Nitrogen(N)-containing products are commonly used in apple tree nurseries and orchards to boost plant growth. These products have also been related to an increased level of European canker (Campbell et al., 2018; Dryden et al., 2016; Vorster et al., 2021). This research aimed to determine if the increase of disease is caused by increased activity in N. ditissima growth and germination or by the boosted growth of the trees. Laboratory assays growing isolates on enriched PDA with 0%, 0.5%, 1%, 3% and 5% of urea demonstrated no effect on the hyphal growth or spore germination percentage. Freshly grafted cv. Gala trees were potted in soil supplemented with 0, 50, 150 and 300 kg N/ha over the growing season. The trees were inoculated in the autumn by hanging sporulating cankers above trees or by artificial inoculation of 4 wounds per tree (N = 10). Results were obtained in spring. The percentage of diseased leaf buds when hanging cankers above trees were 2 +or- 1%, 39 +or- 7%, 37 +or- 9% and 61 +or- 10% for the N concentrations of 0, 50, 150 and 300 kg N/ha, respectively. Interestingly, the average canker lesion length on the plants grown with 150 and 300 kg N/ha was 20 +or- 2 mm, about double the size on the trees grown on soil with 0 or 50 kg N/ha. The outcome of this research may help refine the use of nitrogen fertilizer for improved disease management strategies.</t>
+          <t>Influence of modern technologies on the formation of cultivated cherry varieties, in temperate climatesThe present article is devoted to the study of foreign cherry varieties on different rootstocks. Of all stone fruit crops, the most common is cherry. Cherry fruits are particularly valuable products, which have not only nutritional but also medicinal properties. The diversity of cherry varieties, determined by their morphological features, used as a means of production in certain natural and economic conditions. In this connection, in the ecological zone of our region, a comprehensive assessment of the biological features of different varieties of cherry trees of world selection is given. The influence of modern technologies on the formation of the crown and fruit, as well as the condition of the seedling as a whole, has been studied. The value of the studied traits lies in the characterization of biometric indicators affecting the aboveground elements of fruit trees and the general economic evaluation of cultivated varieties of sweet cherry, in temperate climatic conditions.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Nitrogen fertilization in apple trees can boost plant growth but also increase the risk of European canker disease. Research is being conducted to determine the cause and find management strategies.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2255,12 +2245,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>The application of a molecular assay for early detection of European canker (Neonectria ditissima) in apple treesNeonectria ditissima causes European canker and is one of the most important fungal diseases of apple trees in countries with a temperate climate. Significant yield losses can occur through girdling of branches and stems, limiting fruit production, eventually leading to tree death. Infections in the propagation and nursery stages can remain asymptomatic for several years after planting. Early detection of these asymptomatic infections could contribute to prevent further development and spread of European canker at a later stage in the orchards. However, to date no fast methods are available. Recently, a molecular assay was developed for the quantification of N. ditissima in asymptomatic wood tissues. Therefore, the objective of this research was to develop a practical application using the molecular assay for the pre-screening of nursery plant material. Several inoculation experiments were conducted using leaf scars and different concentrations of N. ditissima to gather information necessary for protocol development. The preliminary results presented demonstrate that colonization of N. ditssima can be detected and measured over time and distance up to 30 mm in apple branches and that the measured target DNA concentrations may have predictive power for lesion establishment. The next steps and complexity for implementation of a practical application are discussed. Outcomes of this research may help future research towards detection tools and improved management of European canker.</t>
+          <t>Fertility and yield of introduced apple varieties on different rootstocks under conditions of chechnyaIn the present article the effect of dwarf clonal rootstock MM-106, M-9, M-26 on introduced apple-tree varieties was studied. With the identified specificity of productivity formation and quality of fruits, taking into account the methods of cultivation. Fruits of apple trees serve as a rich source of pectin substances. The unique soil and climatic conditions of many regions of our republic, contribute to the industrial and amateur cultivation of the fruit crop of the apple tree. In this connection, it became necessary to assess the economic efficiency of various apple varieties and justify their selection for further use in the technological process of intensive horticulture in conditions of Chechnya. To allocate apple-tree varieties with a complex of features having economic and production significance, which consists in determination of influence of variety and rootstock, on terms of entry of trees in the period of fruiting and formation of yield.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>This article explores the impact of different rootstocks on the growth and yield of introduced apple varieties in Chechnya's unique soil and climatic conditions. The study aims to identify economically efficient apple varieties for intensive horticulture.</t>
         </is>
       </c>
     </row>

--- a/chatgpt_vekstmedium_2023.11.12/Data/2_processed_data/chatgpt_vksmedium_yes_no.xlsx
+++ b/chatgpt_vekstmedium_2023.11.12/Data/2_processed_data/chatgpt_vksmedium_yes_no.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comparative analysis of growth and yield parameters of grape var. 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock and self-rooted cuttingsIndia ranks seventh in grape production at the global level. Tamil Nadu is one of the leading states in grape cultivation in India. The utilization of rootstock has become a priority aspect in grapes cultivation worldwide, especially in the current climatic conditions. The utilization of grape root stocks has not been completely explored yet in Tamil Nadu. In this regard, we compared the growth and yield parameters of grape (Vitis vinifera) var. ''Muscat Hamburg'' grafted on 'Dog Ridge' (Vitis champini) and self-rooted cuttings(of ''Muscat Hamburg'') under Cumbum valley condition, Theni district, Tamil Nadu, India. Randomly, fifty vines were chosen, each in grafted and self-rooted cutting category. 'Muscat Hamburg' is a wide variety in Cumbum valley of Theni district. The growth and yield characters were recorded. The petiole nutrient content for major elements during the flowering phase was analyzed. The growth characters viz., trunk diameter (42.46 mm), cane diameter (5.70 mm), number of fruitful shoots per cane (1.37), shoot length after pruning (42.52 cm), and leaf area (108.16 cm&lt;sup&gt;2&lt;/sup&gt;) were recorded maximum in 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock. The grafted 'Muscat Hamburg'on 'Dog Ridge' showed the highest berry weight (3.67 g), and the number of clusters per shoot (1.46). The yield characters, viz., the fruitfulness characters, such as the number of fruitful shoots per cane (1.37) was recorded better in 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock. The total number of berries per bunch (87.00), and yield per vine (21.87 kg/vine) were recorded as the highest in grafted vines. Obviously, when berry weight was the highest in grafted type, it reflected in bunch weight (276.74 g) with a maximum amount than self-rooted. The petiole nutrient contents were also found to be higher in grafted ones than in self-rooted cuttings. Overall, the use of 'Dog Ridge' as rootstock for grape variety 'Muscat Hamburg' was found promising to set enhanced vegetative growth, berry characters, and yield of the bunch than self-rooted cutting.</t>
+          <t xml:space="preserve">Short-term growth response of young pine (Pinus silvestris) seedlings to the different types of soil media mixture with phosphogypsum formulations under Poland forest environmental conditionsThe production of phosphoric acid produces ""waste heaps"" that have not yet been tapped, but which have the character of weak fertilizers and can perhaps be reintroduced into the elemental cycle in the forests. Two variants of mixing with organic ash and with sewage sludge were carried out. One-year-old pine seedlings (Pinus sylvestris L.) from the Trzebiez forest district (northern Poland) were planted in pots with soil that also came from the same field. Preparations containing phosphogypsum were applied topically to the soil in four doses (1, 2, 3 and 5 t/ha). The trial, which lasted one growing season, was conducted in four replicates. At the end of the trial, the height of the above-ground parts and root length, needle and root area, root neck diameter and photosynthetic performance were measured. The phosphogypsum-based preparations used showed no harmful (toxic) effects on the potted pine seedlings during the six-month trial period. The loosely prepared preparation made from a mixture of phosphogypsum and organic ash began to have a positive effect on the development of the seedlings' root system, and it was also easier to mix with the soil surface than phosphogypsum with sewage sludge, which also contained a sticky form. The photosynthetic performance of one-year-old pine seedlings decreased after one growing season following the application of phosphogypsum preparations and most of the growth parameters tested did not differ from the control, so observations over a longer period (at least two to three growing seasons) are required. However, dosages of 1 and 2 t/ha seem to be the most promising, and these lower dosages are more economical to manage in nurseries or plantations, especially on poor sites. Formulations should be tested for heavy metals and their effects on seedling development. Testing should also be continued to monitor changes in the microbiome. </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Comparison of growth and yield parameters of grape variety 'Muscat Hamburg' grafted on 'Dog Ridge' rootstock versus self-rooted cuttings in Tamil Nadu, India. Grafted vines showed better results in terms of growth, yield, and nutrient content.</t>
+          <t>The study examined the short-term growth response of young pine seedlings to different soil media mixtures containing phosphogypsum formulations in Poland. The results showed no harmful effects, but further research is needed to assess long-term effects.</t>
         </is>
       </c>
     </row>
@@ -405,17 +405,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Feasibility of using a silicon preparation to promote growth of forest seedlings: application to pine (Pinus sylvestris) and oak (Quercus robur)The present study was inspired by scientific reports describing the positive effects of silicon preparations on fruit and vegetables in horticulture. The use of silicon preparations in forest protection represents a new research application, especially in the cases of oak seedlings that are damaged by oak powdery mildew. Additionally, these preparations increase the photosynthetic efficiency of the seedlings, and thus promote increased biomass and better nutritional value of the root systems. The new idea of using silicon formulations in forestry, based on the initial test results, is particularly important for seedlings in the post-planting period in forest plantations. In particular, these preparations increase yield and plant growth, and improve plant health. So far, no comparable studies have been conducted on forest tree species. To this end, one year-old pine (Pinus sylvestris L.) and two year-old English oak (Quercus robur L.) seedlings were sprayed with silicon preparations of different concentrations, and changes in growth parameters and photosynthetic efficiency were observed. The main objective of the study was to determine the effect of the silicon preparation on the seedlings during their first life span, i.e., the first year after planting. In this study, 50 pine and 50 oak seedlings were sprayed three times with the silicon preparation, in five variants (control; concentrations of 1%, 2%, 3% and 5%), as well as the chlorophyll fluorescence, height, thickness and biomass of the roots, were measured. It was found that the treatment with a concentration of 2% was better and statistically, significantly different from the other variants, e.g., in terms of increasing photosynthetic efficiency.</t>
+          <t xml:space="preserve">Effect of the varying inclusion levels of the egg yolk powder on growth, stress tolerance, and pigmentation of Guppy (Poecilia reticulata)The newly hatched nauplii of Artemia is extensively used as a live feed for ornamental fish hatchlings; however, its high cost and unbalanced nutrients necessitate exploring sustainable alternatives. An experiment was conducted to evaluate the effects of four formulated diets of 0%,5%, 10%, and 20% inclusion levels of egg yolk powder and other ingredients (fish meal, soybean meal, rice polish, corn) during the nursery stage of Guppy (Poecilia reticulata) compared to Artemia salina as a control. Results showed that survival did not differ (P &gt; 0.05) among the diets. Weight gain, daily weight gain, and specific growth rate of the fry fed with 10% egg yolk-included diet containing 49.6% fish meal and 18.8% soybean meal were significantly higher (P &lt; 0.05) than those of the other test diets and the A. salina. All the diets showed higher stress indexes (P &lt; 0.05) than the control; the test diets did not affect pigmentation. </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>This study explored the use of silicon preparations to promote growth of pine and oak seedlings by increasing photosynthetic efficiency and improving root biomass. A 2% concentration was found to be most effective.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -425,17 +420,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Short-term growth response of young pine (Pinus silvestris) seedlings to the different types of soil media mixture with phosphogypsum formulations under Poland forest environmental conditionsThe production of phosphoric acid produces ""waste heaps"" that have not yet been tapped, but which have the character of weak fertilizers and can perhaps be reintroduced into the elemental cycle in the forests. Two variants of mixing with organic ash and with sewage sludge were carried out. One-year-old pine seedlings (Pinus sylvestris L.) from the Trzebiez forest district (northern Poland) were planted in pots with soil that also came from the same field. Preparations containing phosphogypsum were applied topically to the soil in four doses (1, 2, 3 and 5 t/ha). The trial, which lasted one growing season, was conducted in four replicates. At the end of the trial, the height of the above-ground parts and root length, needle and root area, root neck diameter and photosynthetic performance were measured. The phosphogypsum-based preparations used showed no harmful (toxic) effects on the potted pine seedlings during the six-month trial period. The loosely prepared preparation made from a mixture of phosphogypsum and organic ash began to have a positive effect on the development of the seedlings' root system, and it was also easier to mix with the soil surface than phosphogypsum with sewage sludge, which also contained a sticky form. The photosynthetic performance of one-year-old pine seedlings decreased after one growing season following the application of phosphogypsum preparations and most of the growth parameters tested did not differ from the control, so observations over a longer period (at least two to three growing seasons) are required. However, dosages of 1 and 2 t/ha seem to be the most promising, and these lower dosages are more economical to manage in nurseries or plantations, especially on poor sites. Formulations should be tested for heavy metals and their effects on seedling development. Testing should also be continued to monitor changes in the microbiome.</t>
+          <t xml:space="preserve">Rapid faunal colonization and recovery of biodiversity and functional diversity following eelgrass restorationSeagrass meadows and their associated biodiverse assemblages have declined globally due to environmental and anthropogenic stressors. Restoration of these critical habitats has the potential to reverse coastal biodiversity loss. Here, we tested the role of patch size (which can affect recruitment, food availability, and/or predation) in driving faunal colonization in an eelgrass (Zostera marina) restoration trial in Sweden. Eelgrass shoots were transplanted in plots with different configurations (continuous vs. checkerboard patterns with three patch sizes), and we followed invertebrate colonization (biodiversity and functional diversity) during the first two growing seasons. We found rapid faunal colonization following the transplantation of eelgrass shoots in all plots with invertebrate densities reaching 50-80% of the reference meadow after only one growing season (3 months). After two growing seasons (15 months), the faunal density, biodiversity, and functional diversity were similar to the reference meadow, despite eelgrass density and biomass still being lower than the reference meadow. Biodiversity, functional diversity, and community structure were similar among the different planted plots, that is, there was no indication that patch size influenced faunal colonization. We therefore consider that smaller patches embedded within larger restoration plots can be as effective for promoting biodiversity as continuous patches, with reduced costs and fewer shoots required. We also noted high natural variability between years both in the reference meadow and planted plots, showing the dynamic nature of seagrass ecosystems, and the importance of a well-planned monitoring scheme that considers the reference area and restored area within the same temporal scale. </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>A study in Poland found that applying phosphogypsum-based preparations to soil had no toxic effects on pine seedlings, but longer-term studies are needed to fully understand the impact. Lower dosages of 1 and 2 t/ha seem most promising.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -445,12 +435,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Effect of the varying inclusion levels of the egg yolk powder on growth, stress tolerance, and pigmentation of Guppy (Poecilia reticulata)The newly hatched nauplii of Artemia is extensively used as a live feed for ornamental fish hatchlings; however, its high cost and unbalanced nutrients necessitate exploring sustainable alternatives. An experiment was conducted to evaluate the effects of four formulated diets of 0%,5%, 10%, and 20% inclusion levels of egg yolk powder and other ingredients (fish meal, soybean meal, rice polish, corn) during the nursery stage of Guppy (Poecilia reticulata) compared to Artemia salina as a control. Results showed that survival did not differ (P &gt; 0.05) among the diets. Weight gain, daily weight gain, and specific growth rate of the fry fed with 10% egg yolk-included diet containing 49.6% fish meal and 18.8% soybean meal were significantly higher (P &lt; 0.05) than those of the other test diets and the A. salina. All the diets showed higher stress indexes (P &lt; 0.05) than the control; the test diets did not affect pigmentation.</t>
+          <t xml:space="preserve">Regeneration of Pinus sibirica Du Tour as a result of trophic relationships with the thin-billed nutcracker (Nucifraga caryocatactes macrorhynchos Brehm C L)Identifying the patterns of dynamics of natural populations of woody plants at the stage of their renewal is one of the main problems of forest ecology. The reforestation process is determined by both the dynamics of seed production and the specificity of seed dispersal of forest tree species. The five-needled pine renewal the Cembrae subsection with wingless seeds depends on birds of the genus Nucifraga sp., which store and spread their seeds. The aim of this study is to determine the relationship between seed production and regeneration of Pinus sibirica Du Tour using the thin-billed nutcracker (Nucifraga caryocatactes macrorhynchos Brehm C. L.) as a mediator. Long-term studies of these relationships have been carried out in the Siberian pine forests of the North Ural Mountains. As a result, a paradoxical conclusion is made that the number of Nucifraga birds during the period of storing and spreading of seeds in the previous year is a key factor in the abundance of Pinus sibirica seedlings. In turn, the number of seeds, both from the previous year and the current year, affects the number of Nucifraga birds. </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The study investigates the impact of the thin-billed nutcracker on the regeneration of Pinus sibirica, showing a mutual relationship between seed production, nutcracker abundance, and pine seedlings.</t>
         </is>
       </c>
     </row>
@@ -460,12 +455,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rapid faunal colonization and recovery of biodiversity and functional diversity following eelgrass restorationSeagrass meadows and their associated biodiverse assemblages have declined globally due to environmental and anthropogenic stressors. Restoration of these critical habitats has the potential to reverse coastal biodiversity loss. Here, we tested the role of patch size (which can affect recruitment, food availability, and/or predation) in driving faunal colonization in an eelgrass (Zostera marina) restoration trial in Sweden. Eelgrass shoots were transplanted in plots with different configurations (continuous vs. checkerboard patterns with three patch sizes), and we followed invertebrate colonization (biodiversity and functional diversity) during the first two growing seasons. We found rapid faunal colonization following the transplantation of eelgrass shoots in all plots with invertebrate densities reaching 50-80% of the reference meadow after only one growing season (3 months). After two growing seasons (15 months), the faunal density, biodiversity, and functional diversity were similar to the reference meadow, despite eelgrass density and biomass still being lower than the reference meadow. Biodiversity, functional diversity, and community structure were similar among the different planted plots, that is, there was no indication that patch size influenced faunal colonization. We therefore consider that smaller patches embedded within larger restoration plots can be as effective for promoting biodiversity as continuous patches, with reduced costs and fewer shoots required. We also noted high natural variability between years both in the reference meadow and planted plots, showing the dynamic nature of seagrass ecosystems, and the importance of a well-planned monitoring scheme that considers the reference area and restored area within the same temporal scale.</t>
+          <t xml:space="preserve">Seasonal variation in cell wall composition and carbohydrate metabolism in the seagrass Posidonia oceanica growing at different depthsPosidonia oceanica is a common seagrass in the Mediterranean Sea that is able to sequester large amounts of carbon. The carbon assimilated during photosynthesis can be partitioned into non-structural sugars and cell-wall polymers. In this study, we investigated the distribution of carbon in starch, soluble carbohydrates and cell-wall polymers in leaves and rhizomes of P. oceanica. Analyses were performed during summer and winter in meadows located south of the Frioul archipelago near Marseille, France. The leaves and rhizomes were isolated from plants collected in shallow (2 m) and deep water (26 m). Our results showed that P. oceanica stores more carbon as starch, sucrose and cellulose in summer and that this is more pronounced in rhizomes from deep-water plants. In winter, the reduction in photoassimilates was correlated with a lower cellulose content, compensated with a greater lignin content, except in rhizomes from deep-water plants. The syringyl-to-guaiacyl (S/G) ratio in the lignin was higher in leaves than in rhizomes and decreased in rhizomes in winter, indicating a change in the distribution or structure of the lignin. These combined data show that deep-water plants store more carbon during summer, while in winter the shallow- and deep-water plants displayed a different cell wall composition reflecting their environment. </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Seasonal variation in carbon distribution in the seagrass Posidonia oceanica shows that deep-water plants store more carbon in summer, while shallow- and deep-water plants have different cell wall compositions in winter.</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regeneration of Pinus sibirica Du Tour as a result of trophic relationships with the thin-billed nutcracker (Nucifraga caryocatactes macrorhynchos Brehm C L)Identifying the patterns of dynamics of natural populations of woody plants at the stage of their renewal is one of the main problems of forest ecology. The reforestation process is determined by both the dynamics of seed production and the specificity of seed dispersal of forest tree species. The five-needled pine renewal the Cembrae subsection with wingless seeds depends on birds of the genus Nucifraga sp., which store and spread their seeds. The aim of this study is to determine the relationship between seed production and regeneration of Pinus sibirica Du Tour using the thin-billed nutcracker (Nucifraga caryocatactes macrorhynchos Brehm C. L.) as a mediator. Long-term studies of these relationships have been carried out in the Siberian pine forests of the North Ural Mountains. As a result, a paradoxical conclusion is made that the number of Nucifraga birds during the period of storing and spreading of seeds in the previous year is a key factor in the abundance of Pinus sibirica seedlings. In turn, the number of seeds, both from the previous year and the current year, affects the number of Nucifraga birds.</t>
+          <t xml:space="preserve">Effect of composition and properties of soils and soil-sand substrates contaminated with copper on morphometric parameters of barley plantsIn a multifactor vegetation experiment, the effect of composition and properties of soils and soil-sand substrates contaminated with various doses of copper acetate on the morphometric parameters of spring barley seedlings was studied. It has been shown that germination and seed germination energy, as well as the length of roots, aboveground parts, and dry biomass of plants depend in a complex way on the concentration of Cu in soils and substrates, as well as on their buffering capacity to heavy metals. Two mechanisms of Cu influence on plant development have been revealed, i.e., metabolic at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg of soil and diffusional at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg. Using the methods of regression analysis of experimental data, a multiple regression equation has been obtained that combines the morphometric index of plants, the concentration of Cu in substrates, and the buffering capacity of soils to Cu. On its basis, in the soil buffering capacity-Cu concentration coordinates, a curve of values of the maximum permissible concentrations of Cu in soils was built on a plane in the range from 17 to 2047 mg/kg. It permits us to separate the zone of permissible development of barley plants (a decrease of the morphometric index by 15%) from the zone of exceeding the accepted values of the maximum permissible concentration of Cu. Thus, the maximum permissible concentration is considered to be a function of Cu concentration, the soil buffering capacity to heavy metals, and plant species rather than a fixed value. </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The relationship between seed production and regeneration of Pinus sibirica is dependent on the thin-billed nutcracker, with the number of birds influencing the abundance of seedlings.</t>
+          <t>The study investigated the impact of copper-contaminated soils on the growth of barley plants, finding that plant parameters were influenced by copper concentration and soil buffering capacity. A regression analysis was used to determine the maximum permissible concentration of copper in soils.</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Seasonal variation in cell wall composition and carbohydrate metabolism in the seagrass Posidonia oceanica growing at different depthsPosidonia oceanica is a common seagrass in the Mediterranean Sea that is able to sequester large amounts of carbon. The carbon assimilated during photosynthesis can be partitioned into non-structural sugars and cell-wall polymers. In this study, we investigated the distribution of carbon in starch, soluble carbohydrates and cell-wall polymers in leaves and rhizomes of P. oceanica. Analyses were performed during summer and winter in meadows located south of the Frioul archipelago near Marseille, France. The leaves and rhizomes were isolated from plants collected in shallow (2 m) and deep water (26 m). Our results showed that P. oceanica stores more carbon as starch, sucrose and cellulose in summer and that this is more pronounced in rhizomes from deep-water plants. In winter, the reduction in photoassimilates was correlated with a lower cellulose content, compensated with a greater lignin content, except in rhizomes from deep-water plants. The syringyl-to-guaiacyl (S/G) ratio in the lignin was higher in leaves than in rhizomes and decreased in rhizomes in winter, indicating a change in the distribution or structure of the lignin. These combined data show that deep-water plants store more carbon during summer, while in winter the shallow- and deep-water plants displayed a different cell wall composition reflecting their environment.</t>
+          <t xml:space="preserve">Effects of hazelnut husk waste on quality parameters of German primrose (Primula obconica Hance)The study was conducted to determine the feasibility of using hazelnut shell waste as a growth medium for German primroses (Primula obconica Hance) under greenhouse conditions. Five different media combinations were prepared using sphagnum moss peat (SMP) and hazelnut husk waste (HHW). Some quality and growth parameters of P. obconica appeared to be significantly different depending on the growth medium. Results showed that HHW had a statistically significant impact on two parameters, namely aesthetic appearance score and mean flower weight, but had no impact on the other qualitative traits. The highest (8.94) and lowest (4.70) esthetic appearance scores were observed at 100% HHW and control treatments, respectively. In addition, the maximum (0.15 g) and minimum (0.097 g) mean flower weights were observed in HHW2 treatment and control plants, respectively. </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Using hazelnut shell waste as a growth medium for German primroses had a significant impact on aesthetic appearance score and mean flower weight, but not on other quality traits.</t>
         </is>
       </c>
     </row>
@@ -510,7 +515,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Effect of composition and properties of soils and soil-sand substrates contaminated with copper on morphometric parameters of barley plantsIn a multifactor vegetation experiment, the effect of composition and properties of soils and soil-sand substrates contaminated with various doses of copper acetate on the morphometric parameters of spring barley seedlings was studied. It has been shown that germination and seed germination energy, as well as the length of roots, aboveground parts, and dry biomass of plants depend in a complex way on the concentration of Cu in soils and substrates, as well as on their buffering capacity to heavy metals. Two mechanisms of Cu influence on plant development have been revealed, i.e., metabolic at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg of soil and diffusional at C&lt;sub&gt;Cu&lt;/sub&gt; 500 mg/kg. Using the methods of regression analysis of experimental data, a multiple regression equation has been obtained that combines the morphometric index of plants, the concentration of Cu in substrates, and the buffering capacity of soils to Cu. On its basis, in the soil buffering capacity-Cu concentration coordinates, a curve of values of the maximum permissible concentrations of Cu in soils was built on a plane in the range from 17 to 2047 mg/kg. It permits us to separate the zone of permissible development of barley plants (a decrease of the morphometric index by 15%) from the zone of exceeding the accepted values of the maximum permissible concentration of Cu. Thus, the maximum permissible concentration is considered to be a function of Cu concentration, the soil buffering capacity to heavy metals, and plant species rather than a fixed value.</t>
+          <t xml:space="preserve">Effect of soil mixtures based on a gneiss-derived soil and two forest floor types on growth and nutritional status of Castanea sativa Mill. seedlingsAiming at the production of robust chestnut plants suitable for the establishment of plantations or for their use in afforestation of forest ecosystems, we studied the effect of soil mixtures on growth, physiological characteristics, and nutritional status of chestnut seedlings. In a complete randomized-block design pot experiment, the soil used was derived from gneiss weathering (GN) and the treatments included GN and GN with fertilization (GN-FER) as well as mixtures of GN with forest floor (FF) from chestnuts (GN-CFF) and from evergreen broad-leaved trees (GN-EFF). Both types of forest floor and fertilization had similar positive effect on seedlings growth and photosynthetic parameters. The most significant effects on soil nutrients were found in GN-CFF and GN-EFF treatments, except for extractable phosphorus (P) and exchangeable potassium (K), whose highest concentrations were observed in GN-FER. Leaf analysis showed that the concentrations of almost all nutrients in all treatments were within the adequacy limits, with the exception of nitrogen (N) in GN, copper (Cu) in GN-EFF, and K in all treatments. Both types of forest floor satisfied the nutritional needs of chestnut seedlings to a large extent and their incorporation in this type of soil combined with limited addition mainly of K and to a lesser degree of P could enhance adequacy of these nutrients in soil and plants. Thus, forest floor application may be an appropriate alternative to integrated nutrient management for robust chestnut seedlings production with significant forestry and environmental impacts. </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -520,7 +525,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The study investigated the impact of copper-contaminated soils on barley plants, finding that plant growth is influenced by copper concentration and soil buffering capacity, leading to varying maximum permissible concentrations of copper.</t>
+          <t>The study examined the impact of soil mixtures on the growth and nutritional status of chestnut seedlings. Both forest floor and fertilization had positive effects on growth, and forest floor contained adequate nutrients for seedling development.</t>
         </is>
       </c>
     </row>
@@ -530,7 +535,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Effects of hazelnut husk waste on quality parameters of German primrose (Primula obconica Hance)The study was conducted to determine the feasibility of using hazelnut shell waste as a growth medium for German primroses (Primula obconica Hance) under greenhouse conditions. Five different media combinations were prepared using sphagnum moss peat (SMP) and hazelnut husk waste (HHW). Some quality and growth parameters of P. obconica appeared to be significantly different depending on the growth medium. Results showed that HHW had a statistically significant impact on two parameters, namely aesthetic appearance score and mean flower weight, but had no impact on the other qualitative traits. The highest (8.94) and lowest (4.70) esthetic appearance scores were observed at 100% HHW and control treatments, respectively. In addition, the maximum (0.15 g) and minimum (0.097 g) mean flower weights were observed in HHW2 treatment and control plants, respectively.</t>
+          <t xml:space="preserve">Cattle dung and bioturbation by dung beetles improve oak seedling establishment in Mediterranean silvopastoral ecosystemsThis study aims to determine whether the application of cattle manure and associated bioturbation by dung beetles and other invertebrates can increase oak seedling establishment in the high biodiversity Mediterranean silvopastoral systems known as ""dehesas"", which are comprised of scattered oaks and a grassland layer and are used for livestock rearing. A two-year study was conducted in a representative dehesa in southern Spain. Firstly, the effect of cattle dung pads on acorn consumption by livestock and wild predators was monitored, along with dung beetle abundance and plot bioturbation. Secondly, the indirect effects of bioturbation on acorn burial, acorn predation by rodents and oak seedling establishment were assessed under the condition of livestock exclusion. The results consistently demonstrate a high positive indirect effect of the presence of cattle manure on the persistence of acorns, as well as on seedling establishment, as a result of reduced predation by rodents and improved microhabitat conditions for the acorns and seedlings. These processes were mediated by bioturbation. Tunneler dung beetles, which move a great amount of soil material, were dominant in our records, which suggest their importance for passive acorn burial, without disregarding the influence of other edaphic invertebrates present. We conclude that the presence of cattle manure significantly improves oak seedling establishment in Mediterranean dehesas through the passive burial of acorns by bioturbation, which acts to protect them from predation by rodents, desiccation and other damage. Passive acorn burial by dung beetles and other invertebrates thus emerges as an important ecosystem service that has been little-studied to date. Appropriate rotational management of livestock could therefore contribute to addressing the bottleneck of oak regeneration in Mediterranean dehesas. </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -540,7 +545,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Using hazelnut husk waste as a growth medium for German primroses had a significant impact on aesthetic appearance and mean flower weight, but not other qualities.</t>
+          <t>This study explores how cattle dung and bioturbation by dung beetles can improve oak seedling establishment in Mediterranean silvopastoral ecosystems. The presence of cattle manure significantly improves seedling establishment through passive acorn burial by bioturbation, protecting them from predation and damage.</t>
         </is>
       </c>
     </row>
@@ -550,7 +555,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Effect of soil mixtures based on a gneiss-derived soil and two forest floor types on growth and nutritional status of Castanea sativa Mill. seedlingsAiming at the production of robust chestnut plants suitable for the establishment of plantations or for their use in afforestation of forest ecosystems, we studied the effect of soil mixtures on growth, physiological characteristics, and nutritional status of chestnut seedlings. In a complete randomized-block design pot experiment, the soil used was derived from gneiss weathering (GN) and the treatments included GN and GN with fertilization (GN-FER) as well as mixtures of GN with forest floor (FF) from chestnuts (GN-CFF) and from evergreen broad-leaved trees (GN-EFF). Both types of forest floor and fertilization had similar positive effect on seedlings growth and photosynthetic parameters. The most significant effects on soil nutrients were found in GN-CFF and GN-EFF treatments, except for extractable phosphorus (P) and exchangeable potassium (K), whose highest concentrations were observed in GN-FER. Leaf analysis showed that the concentrations of almost all nutrients in all treatments were within the adequacy limits, with the exception of nitrogen (N) in GN, copper (Cu) in GN-EFF, and K in all treatments. Both types of forest floor satisfied the nutritional needs of chestnut seedlings to a large extent and their incorporation in this type of soil combined with limited addition mainly of K and to a lesser degree of P could enhance adequacy of these nutrients in soil and plants. Thus, forest floor application may be an appropriate alternative to integrated nutrient management for robust chestnut seedlings production with significant forestry and environmental impacts.</t>
+          <t xml:space="preserve">Green compost amendment improves potato plant performance on Mars regolith simulant as substrate for cultivation in space. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Background and aims: Higher plants represent an optimal tool to regenerate resources while producing food in Space. However, the configuration of fertile cultivation substrates based on extraterrestrial resources is still a challenge. We evaluated the adaptability of potato (Solanum tuberosum L., cv. 'Colomba') to the growth on six substrates: the MMS-1 Mars regolith simulant, alone (R100) and in mixture with 30% in vol. of green compost (R70C30), a fluvial sand, alone or mixed with 30% of compost (S100 and S70C30), a red soil from Sicily (RS), and a volcanic soil from Campania (VS). </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -560,7 +565,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The study looked at the effect of different soil mixtures on chestnut seedling growth and nutrition. Forest floor and fertilization had positive effects, with forest floor providing adequate nutrients.</t>
+          <t>Green compost amendment improved the performance of potato plants grown on Mars regolith simulant and other substrates, showing potential for cultivation in space.</t>
         </is>
       </c>
     </row>
@@ -570,7 +575,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cattle dung and bioturbation by dung beetles improve oak seedling establishment in Mediterranean silvopastoral ecosystemsThis study aims to determine whether the application of cattle manure and associated bioturbation by dung beetles and other invertebrates can increase oak seedling establishment in the high biodiversity Mediterranean silvopastoral systems known as ""dehesas"", which are comprised of scattered oaks and a grassland layer and are used for livestock rearing. A two-year study was conducted in a representative dehesa in southern Spain. Firstly, the effect of cattle dung pads on acorn consumption by livestock and wild predators was monitored, along with dung beetle abundance and plot bioturbation. Secondly, the indirect effects of bioturbation on acorn burial, acorn predation by rodents and oak seedling establishment were assessed under the condition of livestock exclusion. The results consistently demonstrate a high positive indirect effect of the presence of cattle manure on the persistence of acorns, as well as on seedling establishment, as a result of reduced predation by rodents and improved microhabitat conditions for the acorns and seedlings. These processes were mediated by bioturbation. Tunneler dung beetles, which move a great amount of soil material, were dominant in our records, which suggest their importance for passive acorn burial, without disregarding the influence of other edaphic invertebrates present. We conclude that the presence of cattle manure significantly improves oak seedling establishment in Mediterranean dehesas through the passive burial of acorns by bioturbation, which acts to protect them from predation by rodents, desiccation and other damage. Passive acorn burial by dung beetles and other invertebrates thus emerges as an important ecosystem service that has been little-studied to date. Appropriate rotational management of livestock could therefore contribute to addressing the bottleneck of oak regeneration in Mediterranean dehesas.</t>
+          <t xml:space="preserve">Litter leachate as a potential selector of woody species germination at alpine treelineThe advancement of upper forest limits is driven by environmental conditions, but our current understanding overlooks the attributes of habitats and germination ability of woody species. Habitats, through plant litter, impact the competitive relation of germination and seedling growth. The aims of this study were to identify the selective effect of six litter leachates on the germination of indigenous Norway spruce (Picea abies) and nonindigenous dwarf pine (Pinus mugo) and compare the germination rates of the species. We collected plant litter and seeds from the (sub)alpine belt of the Hruby Jesenik Mts. (the Eastern Sudetes Mts.; the Czech Republic). We evaluated the effect of plant litter leachates from alpine heathlands, wind-swept alpine grasslands, subalpine tall-herb plants, Pinus mugo scrub, subalpine Vaccinium vegetation, and Norway spruce clonal groups on germination process under standard light and temperature conditions. The germination of Norway spruce was inhibited by the litter leachate from subalpine tall-herb vegetation mainly dominated by Calamagrostis villosa, whereas that of dwarf pine was not. The other five litter leachates had no significant effect on the both. Under standard conditions, the germination time of dwarf pine is on average one day faster. These results suggest that most of the litter leachates examined may have small impacts on the germinability and germination time of Norway spruce and dwarf pine, but litter from the subalpine tall-herb vegetation can act as a filter that influences the seedling composition of the woody species. </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -580,7 +585,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>This study examines how the use of cattle manure and dung beetles can improve oak seedling establishment in Mediterranean silvopastoral systems, known as "dehesas", by protecting acorns from predation and improving microhabitat conditions.</t>
+          <t>This study examines the impact of different litter leachates on the germination of Norway spruce and dwarf pine at treeline habitats, finding that litter from subalpine tall-herb vegetation inhibits Norway spruce germination.</t>
         </is>
       </c>
     </row>
@@ -590,12 +595,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Integrated application of selected elements of sustainability, circular economy, bioeconomy, and environmental management system in guesthousesEfforts to minimize negative effects on the environment are manifested in the hospitality sector in the form of integrated application of elements of sustainable business, circular economy, bioeconomy, and environmental management. Those who run accommodation facilities are becoming environmentally aware and feel that they should be more involved in sustainable practices and thus contribute to improving the environment both locally and nationally. The main goal of this study is to identify and evaluate the application of selected elements and measures of sustainable business, circular economy, bioeconomy, and environmental management in guesthouses of the Czech Republic. A questionnaire survey (n1 = 343) was carried out together with a qualitative focus group method (n2 = 5); the data evaluation was carried out using advanced statistical methods (Tukey HSD test, Kruskal-Wallis test, correspondence analysis). The results showed that a higher classification in the guesthouse is associated with an increasing trend in the number of environmentally friendly operating methods used. Measures related to waste sorting containers (74%) and energy-saving and LED light bulbs (68%) showed the highest values. The results are useful for the practice of national professional associations that support the careful handling of resources and thereby influence the entire hospitality sector.</t>
+          <t xml:space="preserve">Perfect poopers; passerine birds facilitate sexual reproduction in clonal keystone plants of the boreal forest through directed endozoochory towards dead woodBerry-producing Vaccinium shrubs are keystone species in boreal forest ecosystems and their berries provide an essential food source for many vertebrates. In Fennoscandia, both the abundance and cover of Vaccinium have decreased in forests, with intensive forestry practice as a main driver. Vaccinium seedling recruitment is constricted to recruitment windows of opportunity and appears to be infrequent, mainly due to seed dispersal limitation. Passerine birds are key players in seed dispersal, which can be directed towards perching points such as coarse woody debris.In this study, we investigated the potential for directed endozoochory by passerine birds towards cut stumps and if such stumps were viable recruitment windows for Vaccinium species, in an intensively managed boreal forest landscape of central Norway. We surveyed stump and paired forest floor microsites for passerine scat (i.e. potential seed rain) and Vaccinium seedlings. We collected passerine scat and conducted germination experiments to assess if they contained viable seed. We tested the microsite effect (i.e. forest floor/stump) on scat deposition and seedling establishment and then used modified ensemble classifiers to identify important environmental factors affecting scat deposition and seedling establishment patterns.We found that passerine scat was disproportionally deposited on stumps, and that the vast majority of scat contained viable Vaccinium seed. Stumps were also suitable recruitment windows for Vaccinium species, as a higher probability of seedling establishment occurred at stumps compared with the forest floor. However, scat deposition and seedling establishment at stumps were rather contextual and determined by environmental variables. The probability of scat deposition increased with higher complexity of the vertical forest structure and lower canopy cover, whereas seedling establishment required bryophyte cover and larger stumps, or alternatively smaller stumps with competition-free spaces. Our results highlight a pathway to successful sexual reproduction for Vaccinium species in managed forests: passerine birds direct endozoochorous seed dispersal towards tree stumps, which can offer suitable conditions for seedling establishment. However, the spatiotemporal variability both in forest stand structure and in stump conditions have a strong influence on the success of sexual recruitment via this pathway. </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Passerine birds help Vaccinium shrubs reproduce by depositing their seeds on tree stumps, which provide suitable conditions for seedling establishment in managed forests.</t>
         </is>
       </c>
     </row>
@@ -605,12 +615,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The quality of grape and wine of Merlot and Blatina varieties in the agroecological conditions of the Trebinje vineyardThe aim of this paper is to present the quality of grape and wine of Merlot and Blatina varieties in the agro ecological conditions of the Trebinje vineyard, during the vintages of 2016 and 2017. The vineyards were established in 2004 (Merlot) and in 2013 (Blatina), at an altitude of 269 m, with the planting distance of 2.8 x 1 m for Blatina and 2.8 x 0.9 m for Merlot. The Merlot and Blatina grape varieties were grafted on Berlandieri x Riparia Kober 5BB rootstock. The research included analysis of the sugar, total acid content and pH as parameters of grape quality. The following parameters of wine quality were analyzed: alcohol content, total acid, total ash, content of extract and total phenols. The quality of the grapes, grown in the conditions of Trebinje vineyard is suitable to produce quality red wines.</t>
+          <t xml:space="preserve">Effects of cultivar and plant origin on the aeroponic production of potato minitubersAeroponics is eco-friendly, soilless technology for the cultivation of vegetable plants that can be used for the production of pathogen-free pre-basic seed potato, namely minitubers. In aeroponic modules, the underground parts of potato plants grow suspended in the mist of finely dispersed nutrient solution to produce tubers, while the shoots grow above the module under greenhouse conditions. This study aimed to evaluate the effects of the cultivar and origin of planting material on the minituber production in an aeroponic facility in Guca, Serbia. Two potato cultivars, Sinora and Agria, and two types of planting material, acclimated microplants and plants originating from sprouted minitubers, were used in the study. Plants were grown in the 2019 season with a planting density of 24 plants per m2 and ~14-day harvest intervals. Agria plants of both plant origins steadily tuberized during most of the cultivation period and formed a significantly larger number of minitubers (13.61) compared to cultivar Sinora (3.35), which quickly completed the growth cycle. In both investigated cultivars, the mass of formed minitubers was significantly higher in the plants originating from minitubers (18.80 g) compared to plants of in vitro origin (9.04 g). Agria plants of minituber origin produced the heaviest minitubers (19.05 g), while Sinora plants of in vitro origin formed the least heavy tubers (5.29 g). The highest yield of minitubers, 6.26 kg m-2, was recorded for Agria plants of minituber origin. The results of our study suggest that both plant origin and potato genotype significantly affect minituber production in aeroponics. </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>This study examines the effects of cultivar and plant origin on minituber production in an aeroponic facility, finding that potato genotype and planting material significantly impact yield.</t>
         </is>
       </c>
     </row>
@@ -620,12 +635,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bumblebees sense rootstock-mediated nutrition and fertilization regime in tomato. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Aims: Since producing more with less is required for increasing agricultural sustainability and reducing its environmental impact, breeding varieties with increased yield stability under reduced fertilizer application is an important goal, particularly in high valued horticultural crops such as tomato (Solanum lycopersicum L.). However, because of the difficulties to conciliate yield and fertilizer use efficiency through breeding, the graft-compatible genetic biodiversity existing in horticultural species offers the possibility to directly approach this objective in high-yielding elite varieties through improving nutrient capture and promoting ecosystem services such as insect pollination. We hypothesized that rootstocks affect pollinator foraging decisions through the nutritional status that impacts yield.</t>
+          <t xml:space="preserve">Infestation of pine (Pinus sylvestris L.) seedlings with the pinewood nematode Bursaphelenchus xylophilus Steiner and Buhrer (Nickle) through wood sawdustKey message: There are various pathways for infesting pine trees with the pinewood nematode (PWN), Bursaphelenchus xylophilus. As a result of the experiment, we determined that sawdust infested with the nematode can pose a phytosanitary risk. Nematodes actively moved from infested sawdust into root or stem damaged pine seedlings. Context: The spread of PWN, Bursaphelenchus xylophilus in pine plantations and forests is caused by beetles of the genus Monochamus, but the nematode can also be introduced via different coniferous commodities. Aims: The study objective was to assess the possibility that injured roots and stems of Pinus sylvestris seedlings could be infested with PWN through nematode-infested sawdust. </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Infested sawdust poses a risk of infesting pine seedlings with the pinewood nematode. Injured roots and stems can facilitate nematode entry. Spread occurs through beetles and coniferous commodities.</t>
         </is>
       </c>
     </row>
@@ -635,7 +655,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Green compost amendment improves potato plant performance on Mars regolith simulant as substrate for cultivation in space. (Special Issue: Beneficial elements in plants: developing resilience under stressful environments.)Background and aims: Higher plants represent an optimal tool to regenerate resources while producing food in Space. However, the configuration of fertile cultivation substrates based on extraterrestrial resources is still a challenge. We evaluated the adaptability of potato (Solanum tuberosum L., cv. 'Colomba') to the growth on six substrates: the MMS-1 Mars regolith simulant, alone (R100) and in mixture with 30% in vol. of green compost (R70C30), a fluvial sand, alone or mixed with 30% of compost (S100 and S70C30), a red soil from Sicily (RS), and a volcanic soil from Campania (VS).</t>
+          <t xml:space="preserve">Seed treatment potential for the improvement of lucerne seed performance and early field growthSeed treatments have a potential to improve seed performance traits and consequently optimize crop establishment. However, there is a lack of systematic research for these techniques in lucerne, especially under field conditions. The goal of this study was to investigate the potential of various seed treatments on the improvement of lucerne germination and emergence under lab conditions and early seedling growth in the field. Compared treatments were heat treatment; seed priming with water, potassium permanganate, chitosan, vermitea, or bokashi juice; and seed coating with cinnamon, gypsum, wood ash, tannin quebracho, and cocoa powder. Among the seed priming methods, potassium permanganate and chitosan provided the best results in the improvement of seedling length or emergence dynamics, whilst coating with bentonite and gypsum could be recommended for having a positive impact on root development. Cinnamon powder significantly improved the emergence dynamics, seedling, and shoot length. The combination of priming and coating methods seems to be the most effective when assessed under the field conditions, where some positive response in root traits can be evaluated. </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -645,7 +665,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Green compost amendment improves potato plant performance on Mars regolith simulant and other growing media for cultivation in space.</t>
+          <t>The study investigated different seed treatments for improving lucerne seed performance and early growth. Priming with potassium permanganate and chitosan, and coating with bentonite and gypsum showed positive results.</t>
         </is>
       </c>
     </row>
@@ -655,7 +675,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Litter leachate as a potential selector of woody species germination at alpine treelineThe advancement of upper forest limits is driven by environmental conditions, but our current understanding overlooks the attributes of habitats and germination ability of woody species. Habitats, through plant litter, impact the competitive relation of germination and seedling growth. The aims of this study were to identify the selective effect of six litter leachates on the germination of indigenous Norway spruce (Picea abies) and nonindigenous dwarf pine (Pinus mugo) and compare the germination rates of the species. We collected plant litter and seeds from the (sub)alpine belt of the Hruby Jesenik Mts. (the Eastern Sudetes Mts.; the Czech Republic). We evaluated the effect of plant litter leachates from alpine heathlands, wind-swept alpine grasslands, subalpine tall-herb plants, Pinus mugo scrub, subalpine Vaccinium vegetation, and Norway spruce clonal groups on germination process under standard light and temperature conditions. The germination of Norway spruce was inhibited by the litter leachate from subalpine tall-herb vegetation mainly dominated by Calamagrostis villosa, whereas that of dwarf pine was not. The other five litter leachates had no significant effect on the both. Under standard conditions, the germination time of dwarf pine is on average one day faster. These results suggest that most of the litter leachates examined may have small impacts on the germinability and germination time of Norway spruce and dwarf pine, but litter from the subalpine tall-herb vegetation can act as a filter that influences the seedling composition of the woody species.</t>
+          <t xml:space="preserve">Biodegradable mulching film vs. traditional polyethylene: effects on yield and quality of San Marzano tomato fruitsMulching is a common practice for improving crop yield and obtaining an out-of-season production, but when made using plastic materials it can bring environmental problems due to the management and the disposal of films at the end of the cropping seasons. To increase the sustainability of this practice, recently, mulching films made with biodegradable organic materials have become more widely used. Our aim was to evaluate the effect of a biodegradable mulching film on yield and qualitative traits of the San Marzano tomato fruits over two years (2014 and 2015). Two different types of mulching were tested: (i) black biodegradable film (MB12) and (ii) black low-density polyethylene (LDPE) were compared to bare soil (BS). Both mulching films elicited a 25% increase in yield, mainly due to the significantly higher number of fruits per square meter, compared to BS. Both mulching films also elicited a 9.9% increase in total soluble solids and a 57% increase in carotenoid content, while firmness showed the highest value in BS fruits. MB12 determined the highest value of the Hunter color ratio a/b of tomato fruits, followed by LDPE, while the lowest value was recorded in BS fruits. Both mulching films elicited an increase of 9.6%, 26.0%, and 11.7% for flavonoids, polyphenols, and AsA, respectively. In 2014, the MB12 degradation started at 71 days after transplant (DAT); in 2015, at 104 DAT. Therefore, replacing polyethylene with biodegradable film would seem to be an agronomically efficient and environmentally sustainable practice. </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -665,7 +685,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Litter leachate from subalpine tall-herb vegetation affects germination of Norway spruce but not dwarf pine, indicating its role in selective seedling composition at alpine treeline.</t>
+          <t>A study compared biodegradable mulching film to traditional plastic mulch for tomatoes. Both films increased yield and quality, with the biodegradable film being more sustainable.</t>
         </is>
       </c>
     </row>
@@ -675,7 +695,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Perfect poopers; passerine birds facilitate sexual reproduction in clonal keystone plants of the boreal forest through directed endozoochory towards dead woodBerry-producing Vaccinium shrubs are keystone species in boreal forest ecosystems and their berries provide an essential food source for many vertebrates. In Fennoscandia, both the abundance and cover of Vaccinium have decreased in forests, with intensive forestry practice as a main driver. Vaccinium seedling recruitment is constricted to recruitment windows of opportunity and appears to be infrequent, mainly due to seed dispersal limitation. Passerine birds are key players in seed dispersal, which can be directed towards perching points such as coarse woody debris.In this study, we investigated the potential for directed endozoochory by passerine birds towards cut stumps and if such stumps were viable recruitment windows for Vaccinium species, in an intensively managed boreal forest landscape of central Norway. We surveyed stump and paired forest floor microsites for passerine scat (i.e. potential seed rain) and Vaccinium seedlings. We collected passerine scat and conducted germination experiments to assess if they contained viable seed. We tested the microsite effect (i.e. forest floor/stump) on scat deposition and seedling establishment and then used modified ensemble classifiers to identify important environmental factors affecting scat deposition and seedling establishment patterns.We found that passerine scat was disproportionally deposited on stumps, and that the vast majority of scat contained viable Vaccinium seed. Stumps were also suitable recruitment windows for Vaccinium species, as a higher probability of seedling establishment occurred at stumps compared with the forest floor. However, scat deposition and seedling establishment at stumps were rather contextual and determined by environmental variables. The probability of scat deposition increased with higher complexity of the vertical forest structure and lower canopy cover, whereas seedling establishment required bryophyte cover and larger stumps, or alternatively smaller stumps with competition-free spaces. Our results highlight a pathway to successful sexual reproduction for Vaccinium species in managed forests: passerine birds direct endozoochorous seed dispersal towards tree stumps, which can offer suitable conditions for seedling establishment. However, the spatiotemporal variability both in forest stand structure and in stump conditions have a strong influence on the success of sexual recruitment via this pathway.</t>
+          <t xml:space="preserve">Patterns of copper bioaccumulation and translocation in grapevine grafts depending on rootstocksThe long-term use of copper (Cu) fungicides in viticulture in Europe has led to Cu accumulation in vineyard top soils. However, less is known about the accumulation of Cu in grapevine grafts after the callusing process/before planting in the nursery. This paper presents the capacity of 5BB and SO4 rootstocks to accumulate Cu, as well as the patterns of translocation in the grafts. After heat forcing (callusing), the grapevine grafts of Sauvignon Blanc on 5BB and SO4 rootstocks were grown in pots for six months in a glasshouse and exposed to various Cu formulations (Cu-oxychloride, Cu-gluconate) and concentrations in peat (50, 150, 500, and 1000 mg Cu of dry weight (DW)). In addition to monitoring the shoot growth dynamics and analyzing the copper content in graft organs, bioaccumulation (BAFs) and translocation factors (TFs) of Cu were calculated. The mean Cu concentrations were ranked as follows: roots (15-164) &gt; rootstock trunks (8-38) &gt; canes (5-21) mg kg&lt;sup&gt;-1&lt;/sup&gt; DW. The Cu concentrations depended on the Cu formulation and concentration in the substrate. Higher Cu content was found in the roots of both rootstocks (5BB and SO4, 23-155 and 15-164 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW, respectively) and the lowest in the canes (less than 10 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW) of grafts grown in Cu-oxychloride-treated peat. Based on the BAFs and TFs, both rootstocks could be considered as Cu exclusive. A higher translocation rate was determined in systemic Cu-gluconate and SO4 rootstock. With shoot length measurements, the significant inhibitory effects of Cu on grapevine grafts growth could not be confirmed, despite the inhibitory effects that were clearly expressed in the first two months of growth. Soils containing more than 500 mg Cu/kg&lt;sup&gt;-1&lt;/sup&gt; are less suitable for growing vine grafts. </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -685,7 +705,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Passerine birds play a crucial role in the seed dispersal and establishment of Vaccinium shrubs in boreal forests by depositing viable seeds on tree stumps, providing suitable conditions for seedling growth. Successful reproduction is dependent on environmental factors.</t>
+          <t>The study examined how copper accumulates in grapevine grafts and the patterns of translocation, finding that both rootstocks were able to accumulate copper. Soils with high copper content are not suitable for growing vine grafts.</t>
         </is>
       </c>
     </row>
@@ -695,7 +715,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Insight into a complex of phenolic compounds in plump fruits (Prunus domestica L.) in the conditions of Tambov oblastThe fruits of Prunus domestica L. are a valuable source of phenolic compounds, in particular hydroxycinnamic acids and their esters. Hybrid origin of Prunus domestica hexaploid species, the ample number of the varieties, and expanded geograph y of the cultivation preclude scientists from arriving at a definitive conclusion on the content levels and composition of phenolic compounds in plum fruits. The goal of our study is to determine and identify the phenolic composition of fruits of Prunus domestica L. grown in Tambov oblast of the Russian Federation. The research focused on eight fresh-eating and all-purpose varieties. Experimental plantations were established in 2014 in the 6 x 3-m setup. The plum-cherry hybrid (SVG) 11-19 was used as a rootstock. The phenolic components of plum fruits were determined by reverse phase high performance liquid chromatography (RP HPLC) using a Thermo Ultimate 3000 liquid chromatography system equipped with a DAD-3000 detector. A chromatography run of the plum fruit methanol extracts was performed through a mobile phase binary gradient represented by acetonitrile and aqueous potassium dihydrogen phosphate acidified with orthophosphoric acid to pH 2.5. The hydroxycinnamic acids in the plum fruits were determined to be as follows: 5.33-181.54 mg/100 g of 4-Caffeoylquinic acid, 1.69-31.73 mg/100 g of 5-Caffeoylquinic acid, 0.54-5.77 mg/100 g of 3-p-Coumaroylquinic acid, and 0.04-0.63 mg/100 g of 3-Caffeoylquinic acid. Quercitin-3-rutinoside at 0.77-9.17 mg/100 g was dominant among flavonols. Three anthocyanins, namely, cyanidin-3-glucoside, cyanidin-3-rutinoside, and peonidin-3-glucoside, were identified in the studied plum fruits. The structural composition of plum fruit anthocyanins was dominated by cyaniding-3-glucoside, accounting for 60 to 90% of the total anthocyanin content. The obtained data on the content of phenolic components in fruits of specified plum varieties (Prunus domestica L.) point toward the potential of the use of the specified plum varieties as a source of hydroxycinnamic acids, anthocyanins, and flavonols in the population diet.</t>
+          <t xml:space="preserve">Germination ecology and growth phenology of cowvine (Ipomoea lonchophylla) as influenced by environmental parametersCowvine (Ipomoea lonchophylla J.M. Black) is a native and widely spread summer broadleaf weed in Australia. It contains glycoresins, which are toxic to livestock. However, limited information is available on seed germination ecology and growth phenology of this species. A series of experiments were conducted to determine the response of I. lonchophylla to different environmental conditions. Results showed that the primary dormancy exhibited by I. lonchophylla is due to the physical impediment of the hard seed coat. The seed germination percentage was the highest at the constant temperature of 27 C and alternating temperatures of 35/25 C. Germination of I. lonchophylla was not stimulated by light, suggesting that this species is non-photoblastic. Ipomoea lonchophylla germination was intolerant of a medium to high level of salt stress, and germination was completely inhibited at 250 mM NaCl. The emergence of I. lonchophylla was not restricted by seeding depth up to 8 cm, but only 5% emergence was recorded when seeds were planted at a 16-cm depth. The germination percentage was also drastically reduced by 90% to 100% after exposure to either 3 mo in silage, 48-h digestion in steers, or silage plus digestion treatments. The growth and reproductive phenology of I. lonchophylla was affected by emergence time. Plants that emerged in late spring (November 15) were able to produce more berries per plant than those that emerged in midsummer (January 15) in southern New South Wales. Information gained in our study concerning high soil salinity, ensiling, and digestion will help to develop more sustainable and effective integrated weed management strategies for controlling and reducing the spread of this weed. </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -705,7 +725,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Study determines and identifies phenolic composition of plump fruits, specifically hydroxycinnamic acids, anthocyanins, and flavonols, in Prunus domestica L. grown in Tambov oblast, Russia.</t>
+          <t>Cowvine (Ipomoea lonchophylla) has a hard seed coat that hinders germination. It germinates best at a constant temperature of 27 C and alternating temperatures of 35/25 C. Light does not stimulate germination, and salt stress inhibits germination. Seeding depth up to 8 cm does not restrict emergence, but deeper planting reduces emergence. Silage and digestion also reduce germination. The growth and reproductive phenology of cowvine are affected by emergence time. Managing high soil salinity, ensiling, and digestion can help control the spread of this weed.</t>
         </is>
       </c>
     </row>
@@ -715,12 +735,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Effect of rootstock selection on tree growth, yield, and fruit quality of lemon varieties cultivated in GreeceLemon is a prominent citrus fruit that supports regional economies worldwide. Several agronomic and fruit quality attributes are affected by the rootstock selection, thus its selection is essential for a successful grove. This study aims to compare the agronomic and quality attributes of four lemon cultivars ('Mikrokarpo Messaras', 'Nouvel Athos', 'Femminello Commune,' and 'Zia gara Bianca') grafted onto three rootstocks ('Sour Orange', 'Yuma Ponderosa lemon', and 'Volkameriana'). The yield and rootstock/scion ratio were estimated along with fruit morphological characteristics (size, equatorial, and polar diameter). Internal fruit quality was also estimated (total soluble solids, total acidity, juiciness, ascorbic acid, total phenols, and total antioxidant activity). 'Volkameriana' rootstock stood out among the studied rootstocks, as all grafted lemon varieties increased their productivity. Its combination with the Italian cultivar 'Femminello Commune' exhibited enhanced tree vigor and tree yield. For all studied cultivars, the use of 'Volkameriana' or 'Yuma Ponderosa lemon' rootstocks decreased the total soluble content and total acidity, increased the ascorbic acid content, and did not influence the TSS/TA ratio, total phenols or total antioxidant activity. In conclusion, the vigorous 'Volkameriana' and 'Yuma Ponderosa lemon' rootstocks are a promising replacement for 'sour orange'. This research provides valuable insights into the potential use of 'Yuma Ponderosa lemon' as a rootstock for lemons, as existing literature is rather limited.</t>
+          <t xml:space="preserve">Improving field establishment and yield in seed propagated Miscanthus through manipulating plug size, sowing date and seedling ageBiomass crops provide significant potential to substitute for fossil fuels and mitigate against climate change. It is widely acknowledged that significant scale up of biomass crops is required to help reach net zero targets. Miscanthus is a leading biomass crop embodying many characteristics that make it a highly sustainable source of biomass but planted area remains low. Miscanthus is commonly propagated via rhizome, but efficient alternatives may increase uptake and help diversify the cultivated crop. Using seed-propagate plug plants of Miscanthus has several potential benefits such as improving propagation rates and scale up of plantations. Plugs also provide an opportunity to vary the time and conditions under protected growth, to achieve optimal plantlets before planting. We varied combinations of glasshouse growth period and field planting dates under UK temperate conditions, which demonstrated the special importance of planting date on yield, stem number and establishment rates of Miscanthus. We also propagated Miscanthus in four different commercial plug designs that contained different volumes of substrate, the resulting seedlings were planted at three different dates into field trials. In the glasshouse, plug design had significant effects on above and belowground biomass accumulation and at a later time point belowground growth was restricted in some plug designs. After subsequent growth in the field, plug design and planting date had a significant effect on yield. The effects of plug design on yield were no longer significant after a second growth season but planting date continued to have a significant effect. After the second growth year, it was found that planting date had a significant effect on surviving plants, with the mid-season planting producing higher survival rates over all plug types. Establishment was positively correlated with DM biomass produced in the first growth season. Sowing date had a significant effect on establishment but the impacts of plug design were more nuanced and were significant at later planting dates. We discuss the potential to use the flexibility afforded by seed propagation of plug plants to deliver significant impacts in achieving high yield and establishment of biomass crops during the critical first two years of growth. </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>This study explores the potential benefits of using seed-propagate plug plants for cultivating biomass crops like Miscanthus, focusing on factors such as plug size, sowing date, and seedling age. The results highlight the importance of planting date and plug design on yield and establishment rates.</t>
         </is>
       </c>
     </row>
@@ -730,7 +755,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The state of appleThe RHS fruit naming service addresses the global fascination with apples beyond horticulture, catering to a rising demand for identification. Receiving 1000 to 1200 cultivars annually, the RHS covers the entire UK, aiming for comprehensive coverage, notably in the South East, South West, and North of England. Samples, sourced from diverse locations, inform planting trends and historical insights. Identification involves a mix of experience, books, online tools, and comparisons. DNA testing is a last resort. The top 10 cultivars in 2022, including Bramley's Seedling, reveal popular varieties and their characteristics. The service adapts to modern interests, receiving cultivars like Falstaff, reflecting a continual quest to preserve apple diversity.</t>
+          <t xml:space="preserve">Experimental thermocline deepening highlights the resilience of the seagrass Posidonia oceanica: an opportunity to investigate shoot adaptabilityThe deepening of the thermocline, correlated to the rising temperature, can contribute affecting seagrass performance in a changing climate scenario. Here, the effect of the thermocline deepening on the seagrass Posidonia oceanica has been investigated in Cyprus through a manipulative experiment that allowed also testing the effects of the irradiance, origin depth and translocation. P. oceanica shoots were collected from 31 m of depth and transplanted at 12 m under a shading net, simulating the 31 m light conditions. Morphology (i.e. leaf area, leaf necrosis, number of leaves) and physiology (i.e. growth rate) were evaluated. Thermocline and origin depth effects were found with an increase of leaf necrosis, while a translocation effect was highlighted by a decrease in leaf area. No differences in shoot growth rate due to treatments were found. This experiment indicated an overall wide morphological and physiological acclimation of P. oceanica cuttings in coping with future thermocline conditions and it indirectly provides information for restoration efforts. </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -745,7 +770,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Effects of cultivar and plant origin on the aeroponic production of potato minitubersAeroponics is eco-friendly, soilless technology for the cultivation of vegetable plants that can be used for the production of pathogen-free pre-basic seed potato, namely minitubers. In aeroponic modules, the underground parts of potato plants grow suspended in the mist of finely dispersed nutrient solution to produce tubers, while the shoots grow above the module under greenhouse conditions. This study aimed to evaluate the effects of the cultivar and origin of planting material on the minituber production in an aeroponic facility in Guca, Serbia. Two potato cultivars, Sinora and Agria, and two types of planting material, acclimated microplants and plants originating from sprouted minitubers, were used in the study. Plants were grown in the 2019 season with a planting density of 24 plants per m2 and ~14-day harvest intervals. Agria plants of both plant origins steadily tuberized during most of the cultivation period and formed a significantly larger number of minitubers (13.61) compared to cultivar Sinora (3.35), which quickly completed the growth cycle. In both investigated cultivars, the mass of formed minitubers was significantly higher in the plants originating from minitubers (18.80 g) compared to plants of in vitro origin (9.04 g). Agria plants of minituber origin produced the heaviest minitubers (19.05 g), while Sinora plants of in vitro origin formed the least heavy tubers (5.29 g). The highest yield of minitubers, 6.26 kg m-2, was recorded for Agria plants of minituber origin. The results of our study suggest that both plant origin and potato genotype significantly affect minituber production in aeroponics.</t>
+          <t xml:space="preserve">Multispecies crop mixtures increase insect biodiversity in an intercropping experimentRecent biodiversity declines require action across sectors such as agriculture. The situation is particularly acute for arthropods, a species-rich taxon providing important ecosystem services. To counteract the negative consequences of agricultural intensification, creating a less hostile agricultural 'matrix' through growing crop mixtures can reduce harm for arthropods without yield losses. While grassland biodiversity experiments showed positive plant biodiversity effects on arthropods, experiments manipulating crop diversity and agrochemical input used to study arthropods are lacking. Here, we experimentally manipulated crop diversity (1-3 species, fallows), crop species (wheat, faba bean, linseed and oilseed rape) and agrochemical input (high vs. low) and studied responses of arthropod biodiversity. We tested whether arthropod responses were affected by crop diversity, mixtures and management. Additionally, we measured crop biomass. Crop biomass increased with crop diversity under high-input management, while under low management intensity, biomass was highest in two-species mixtures. Increasing crop diversity positively affected arthropod abundance and diversity, under both low- and high-input management. Crop mixtures containing faba bean, linseed or oilseed rape had particularly high arthropod diversity. Mass-flowering crops attracted more arthropods than legumes or cereals. Integrating intercropping into agricultural systems could increase flower visits by insects up to 1.5 million per hectare, thus likely also supporting pollination and pest-control ecosystem services. Flower visitor network complexity increased in mixtures containing linseed and faba bean and under low-input management. Intercropping can counteract insect declines in farmland by creating beneficial matrix habitat without compromising crop yield. </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -755,7 +780,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The study evaluated the effects of cultivar and plant origin on minituber production in an aeroponic facility. Agria plants produced more and heavier minitubers compared to Sinora plants.</t>
+          <t>Crop mixtures, especially those with faba bean, linseed, or oilseed rape, increase arthropod biodiversity, crop biomass, flower visits by insects, and the complexity of flower visitor networks. Intercropping can help counteract insect declines without compromising crop yield.</t>
         </is>
       </c>
     </row>
@@ -765,7 +790,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Infestation of pine (Pinus sylvestris L.) seedlings with the pinewood nematode Bursaphelenchus xylophilus Steiner and Buhrer (Nickle) through wood sawdustKey message: There are various pathways for infesting pine trees with the pinewood nematode (PWN), Bursaphelenchus xylophilus. As a result of the experiment, we determined that sawdust infested with the nematode can pose a phytosanitary risk. Nematodes actively moved from infested sawdust into root or stem damaged pine seedlings. Context: The spread of PWN, Bursaphelenchus xylophilus in pine plantations and forests is caused by beetles of the genus Monochamus, but the nematode can also be introduced via different coniferous commodities. Aims: The study objective was to assess the possibility that injured roots and stems of Pinus sylvestris seedlings could be infested with PWN through nematode-infested sawdust.</t>
+          <t xml:space="preserve">Microbiological indication of soils in forest plantations of the Shirinskaya steppeTo control soil degradation and desertification, sustainable long-term protective forest plantations that perform water and soil protection functions are commonly used on the erosion-prone lands of steppe ecosystems. In the Shirinskaya dry lake-basin steppe (Khakassia) in the coastal zone of Lake Shira, the staff of the Sukachev Institute of Forest, Siberian Branch, Russian Academy of Sciences, has created artificial plantings of forest cultures (Pinus sylvestris L., Larix sibirica L., and Ulmus humilis L.) and provenance trials (P. sibirica Du Tour and P. sylvestris). A wildfire damaged the coastal 40-year-old forest cultures in 2015; the surface soil layer was burnt out. Agrotechnical soil cultivation for planting provenance trials (2017) and wildfire in forest cultures affected the state of soil microbiomes. The aim of the research is to assess the rate of recovery and formation of biological soil properties in forest plantations after disturbances (wildfire and agrotechnical influences) in the coastal dry-steppe zone of Lake Shira using microbiological indicators. The research objects are the Burnt Areas (postfire and postconflagration areas) and Provenance Trial Plantation sites. The use of microbial indicators shows that the soil microbiomes on the burnt sites are restored with different intensities. The recovery of soil microbiomes on the postfire sites is much faster than in the postconflagration sites, as is evidenced by the high values of the total number of microorganisms (TNM), microbial biomass (MB), enzymatic activity (EA), and humification coefficient (C&lt;sub&gt;h&lt;/sub&gt;), which are close to the control values. Specific microbial respiration (qCO&lt;sub&gt;2&lt;/sub&gt;) is within the range of natural variability. The burnt soil is characterized by an increased proportion of hydrolytic microorganisms actively participating in the decomposition of half-burnt plant residues. On the provenance trial sites under the pine seedlings, specific rhizosphere microbiomes are forming due to the influence of the root exudates of climatypes. The values of TNM, ETGM, MB, EA, and qCO&lt;sub&gt;2&lt;/sub&gt; change either upwards or downwards; the state of microbial communities has not reached its ecophysiological norm. </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -775,7 +800,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Infestation of pine seedlings with pinewood nematode can occur through nematode-infested sawdust, posing a phytosanitary risk to the root or stem of the seedlings.</t>
+          <t>Research assesses soil recovery and formation in forest plantations after disturbances, using microbiological indicators. Burnt sites show faster recovery, with increased hydrolytic microorganisms and specific rhizosphere microbiomes.</t>
         </is>
       </c>
     </row>
@@ -785,17 +810,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Seed treatment potential for the improvement of lucerne seed performance and early field growthSeed treatments have a potential to improve seed performance traits and consequently optimize crop establishment. However, there is a lack of systematic research for these techniques in lucerne, especially under field conditions. The goal of this study was to investigate the potential of various seed treatments on the improvement of lucerne germination and emergence under lab conditions and early seedling growth in the field. Compared treatments were heat treatment; seed priming with water, potassium permanganate, chitosan, vermitea, or bokashi juice; and seed coating with cinnamon, gypsum, wood ash, tannin quebracho, and cocoa powder. Among the seed priming methods, potassium permanganate and chitosan provided the best results in the improvement of seedling length or emergence dynamics, whilst coating with bentonite and gypsum could be recommended for having a positive impact on root development. Cinnamon powder significantly improved the emergence dynamics, seedling, and shoot length. The combination of priming and coating methods seems to be the most effective when assessed under the field conditions, where some positive response in root traits can be evaluated.</t>
+          <t xml:space="preserve">Functional analysis of the P-type ATPases Apt2-4 from Cryptococcus neoformans by heterologous expression in Saccharomyces cerevisiaeLipid flippases of the P4-ATPase family actively transport phospholipids across cell membranes, an activity essential for key cellular processes such as vesicle budding and membrane trafficking. Members of this transporter family have also been implicated in the development of drug resistance in fungi. The encapsulated fungal pathogen Cryptococcus neoformans contains four P4-ATPases, among which Apt2-4p are poorly characterized. Using heterologous expression in the flippase-deficient S. cerevisiae strain dnf1dnf2drs2, we tested their lipid flippase activity in comparison to Apt1p using complementation tests and fluorescent lipid uptake assays. Apt2p and Apt3p required the co-expression of the C. neoformans Cdc50 protein for activity. Apt2p/Cdc50p displayed a narrow substrate specificity, limited to phosphatidylethanolamine and -choline. Despite its inability to transport fluorescent lipids, the Apt3p/Cdc50p complex still rescued the cold-sensitive phenotype of dnf1dnf2drs2, suggesting a functional role for the flippase in the secretory pathway. Apt4p, the closest homolog to Saccharomyces Neo1p, which does not require a Cdc50 protein, was unable to complement several flippase-deficient mutant phenotypes, neither in the presence nor absence of a beta-subunit. These results identify C. neoformans Cdc50 as an essential subunit for Apt1-3p and provide a first insight into the molecular mechanisms underlying their physiological functions. </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>This study investigated the potential of various seed treatments on lucerne seed performance and growth. Seed priming with potassium permanganate and chitosan showed promising results, while seed coating with bentonite and gypsum had positive effects on root development. Cinnamon powder improved emergence dynamics, seedling, and shoot length. Combinations of priming and coating methods were most effective in field conditions.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -805,12 +825,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The content of Cd and Pb in herbs and single-component spices used in Polish cuisineSpices and herbs play an important role in the human diet, mostly due to the presence of essential oils and high antioxidant activity. Therefore, the toxicity of metals raises concerns about the safety of consumption of spices and herbs. This paper examines the content of Cd and Pb in fresh and dried herbs and single-component spices that are the most popular in Polish cuisine: 100 samples of nine kinds of dried herbs, 184 samples of 15 kinds of fresh herbs and 148 samples of 14 kinds of loose single-component spices. The level of Cd and Pb was determined using the GF AAS method. The safety of herbs and spices for consumption was estimated based on the percentage intake of Cd and Pb compared with the tolerable intake (% TWI, % BMDL), chronic daily intake (CDI), target hazard quotient (THQ), hazard index (HI) and comparisons of the results of chemical analyses with the maximum admissible levels of Cd and Pb in Poland and in the European Union. Calculated per fresh weight of the product, dried herbs on average contained 0.134 +or- 0.168 mg of Cd and 0.548 +or- 0.161 mg of Pb per kg&lt;sup&gt;-1&lt;/sup&gt;, fresh herbs on average contained 0.004 +or- 0.007 mg of Cd and 0.039 +or- 0.033 mg of Pb per kg&lt;sup&gt;-1&lt;/sup&gt;, and the mean content of Cd in spices was 0.017 +or- 0.019 mg per kg&lt;sup&gt;-1&lt;/sup&gt; and 0.064 +or- 0.050 mg of Pb. The % TWI, % BMDL, CDI, THQ and HI (Cd + Pb) for all the analysed products were lower than 1. The results do not imply a risk due to the supply of Cd and Pb with the diet to the human body, primarily due to the small intake of these products. However, it should be highlighted that the content of Cd in dried coriander and estragon and that of Pb in watercress, jiaogulan, celery, basil and dill exceeded the acceptable limit. Thus, their consumption for people from particularly sensitive groups such as babies, pregnant and breastfeeding women and people should be carefully limited.</t>
+          <t xml:space="preserve">Formation of seed potato yield depending on the elements of cultivation technologyIt is possible to realise the maximum genetic potential of modern potato varieties by improving the elements of agricultural technology, in particular, optimising plant nutrition, which determines the relevance of this study. The purpose of the study was to substantiate the specific features of potato productivity formation depending on the elements of growing technology in Forest-Steppe conditions. Field studies were conducted during 2019-2021 on chernozem soils. The features of growth and development of potato varieties of various ripeness groups Laperla, Granada, and Memphis in Forest-Steppe conditions are examined. It is established that the yield of potato seed tubers of the varieties under study varies depending on the dose and method of fertilisation, the fraction of planting tubers, and varietal characteristics. The highest indicators of individual productivity of potato plants of the Laperla, Granada, and Memphis varieties were formed when locally applied in rows N45R45K45 against the background of semi-rotted manure, phosphorus-potassium fertiliser, and the use of seed tubers with a fraction of &gt;60 mm. As a result of the action of the factors under study, the number of stems in the bush and under it increased. A strong direct correlation was established between the number of stems in the bush and the number of tubers (r=0.78), with a coefficient of determination of 61.0%. The maximum yield of potato tubers of the examined potato varieties (29.7-41.1 t/ha) was obtained by local application of N45R45K45 against the background of semi-rotted manure and phosphorus-potassium fertiliser, depending on the size of seed tubers by the largest transverse diameter. It was identified that the use of tubers with a fraction of &gt;60 mm for planting the potato varieties under study is irrational since the consumption of seed material exceeds the yield growth indicators. It was determined that Laperla, Granada, and Memphis tubers with a fraction of 28-60 mm are optimal for planting potato varieties of different ripeness groups. The research results can be used to adjust the elements of agricultural technology of seed potatoes, obtain high-quality planting material, and conduct profitable agribusiness. </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Study examines the formation of potato yield based on cultivation technology elements, including soil fertilization, planting tuber fraction, and variety characteristics, to optimize plant nutrition and increase productivity.</t>
         </is>
       </c>
     </row>
@@ -820,12 +845,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Impact of quince clonal rootstocks on yield and fruit quality characteristics of European pear (Pyrus communis L.) cultivarsThe study was conducted during two sequential research years of 2020 and 2021 at the fruit research station of Ondokuz Mayis University, Turkiye. The aim of the research was to assess the effect of quince clonal rootstocks (Province Quince BA29 [BA29], Quince A [QA], and Quince MC [MC]) on yield and fruit quality of pear cultivars ('Deveci', 'Williams', 'Santa Maria' and 'Abate Fetel'). Fruit weight, width, length, fruit stalk length and thickness, fruit color traits (L*, a*, b*, chroma, hue degrees ), fruit firmness, total soluble solids, acidity, pH, marketable fruit rate, black spotted fruit rate, and preharvest fruit drop rate were evaluated as quality properties. In the case of yield attributes, number of fruit per tree, yield per tree, yield per hectare, yield per trunk cross sectional area, and yield per canopy volume were taken into consideration. Results of the research revealed that all aforementioned evaluated characteristics were statistically significantly affected under three factors combination at the 5 level of significance (P &lt; 0.05) when Duncan's multiple range test was applied to the data. In brief, it was revealed that treatment combinations affected yield and quality characteristics. In general, in terms of yield per tree and yield per hectare, it was observed that the 'Santa Maria' cultivar gave better results in all rootstocks.</t>
+          <t xml:space="preserve">Adding fish waste to the diet of Iceland scallop Chlamys islandica: effects on feeding and reproductive abilityOrganic enrichment from fish farming may impact benthic species and habitats in adjacent areas. Norwegian salmon farming is continuously growing, but, due to area conflicts and severe sea-lice problems in the western areas, growth of the industry is focused in the northern areas. Knowledge is scarce on how an increase in fish farming will impact Arctic and subarctic species and habitats. One such species is the Iceland scallop Chlamys islandica, distributed from the Lofoten Islands in Nordland County to the Varangerfjord in Troms and Finnmark County. To study the impact of fine-particle fish faeces on feeding and reproductive ability in adult Iceland scallop, particles &lt; 41 m of finfish waste were added to the diet. Effects were tested via shortterm (weeks) feeding studies using 2 diets, 100% cultured algal species and a 50% mix of algae and fish waste. In addition, a 100% fish waste diet was used to study longer-term effects on reproductive ability (months). Feeding (% particle clearance and feeding rate) on the microalgae diet tended to be higher than that on the diet containing fish waste, but the difference was significant only in 2 out of 4 cases. We did not find any effect of diets on reproductive ability (gonad development and fatty acid profiles) of scallops. Lack of knowledge on sufficient food levels for gonad maturation in this species may have affected the results. We suggest that future work includes the transplant of scallops from a reference site to fish production sites and that investigations begin immediately after spawning early in scallop gonad development. </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Study examines the effects of adding fish waste to the diet of Iceland scallop. Results show no impact on reproductive ability, but feeding was slightly lower compared to algae diet.</t>
         </is>
       </c>
     </row>
@@ -835,7 +865,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Biodegradable mulching film vs. traditional polyethylene: effects on yield and quality of San Marzano tomato fruitsMulching is a common practice for improving crop yield and obtaining an out-of-season production, but when made using plastic materials it can bring environmental problems due to the management and the disposal of films at the end of the cropping seasons. To increase the sustainability of this practice, recently, mulching films made with biodegradable organic materials have become more widely used. Our aim was to evaluate the effect of a biodegradable mulching film on yield and qualitative traits of the San Marzano tomato fruits over two years (2014 and 2015). Two different types of mulching were tested: (i) black biodegradable film (MB12) and (ii) black low-density polyethylene (LDPE) were compared to bare soil (BS). Both mulching films elicited a 25% increase in yield, mainly due to the significantly higher number of fruits per square meter, compared to BS. Both mulching films also elicited a 9.9% increase in total soluble solids and a 57% increase in carotenoid content, while firmness showed the highest value in BS fruits. MB12 determined the highest value of the Hunter color ratio a/b of tomato fruits, followed by LDPE, while the lowest value was recorded in BS fruits. Both mulching films elicited an increase of 9.6%, 26.0%, and 11.7% for flavonoids, polyphenols, and AsA, respectively. In 2014, the MB12 degradation started at 71 days after transplant (DAT); in 2015, at 104 DAT. Therefore, replacing polyethylene with biodegradable film would seem to be an agronomically efficient and environmentally sustainable practice.</t>
+          <t xml:space="preserve">Chemical composition of tissues of Syringa vulgaris L. and soil features in abandoned cemeteriesAbandoned anthropogenic sites are transformed when they come into use. In the present study, such objects were abandoned Evangelical cemeteries located in the Land of the Great Mazurian Lakes (northern Poland). This study aims to compare the concentrations of selected major (Ca, Na, Mg, Al, Fe) and potentially toxic elements (Zn, Cd, Pb) in the roots, leaves, and branches of Syringa vulgaris and buried necrosols and unburied soils in which this species grows. The soils analysed differ in their profile structure; in the case of burial necrosols, anthropogenic layers are present, while Brunic Arenosol has a natural horizon arrangement. Regarding pH, the soils analysed are characterised in the weakly acidic (6.6-6.8) to alkaline (7.2-8.6) range, both in KCl and H&lt;sub&gt;2&lt;/sub&gt;O. Total phosphorus has high values in the humus and anthropogenic horizons, especially at coffin sites (Rudowka Mala: layer of Ccoffin - 759 mg.kg&lt;sup&gt;-1&lt;/sup&gt;; Szymonka - 844 mg.kg&lt;sup&gt;-1&lt;/sup&gt;). Necrosols are characterised by a slightly higher variation in major element content than soils outside the burial area. The highest elemental content in Syringa vulgaris is accumulated in leaves and roots. Potassium (K) has the highest content in the studied tissues, and cadmium (Cd) is the lowest. The study showed no significant differences in heavy metal accumulation for plants directly associated with necrosols and soils formed outside of burials, which is confirmed by analyses of environmental indicators. The study showed that plant chemistry is more influenced by the soil substrate and soil-forming process than the soil anthropogenisation associated with burials. There was no significant effect of burials on the chemical composition of individual parts of Syringa vulgaris. </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -845,7 +875,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Using biodegradable mulching film made with organic materials can increase yield and quality of San Marzano tomato fruits compared to traditional plastic mulching.</t>
+          <t>Comparison of the chemical composition of Syringa vulgaris and soils in abandoned cemeteries in northern Poland shows that soil substrate has a greater influence on plant chemistry than burials.</t>
         </is>
       </c>
     </row>
@@ -855,7 +885,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Patterns of copper bioaccumulation and translocation in grapevine grafts depending on rootstocksThe long-term use of copper (Cu) fungicides in viticulture in Europe has led to Cu accumulation in vineyard top soils. However, less is known about the accumulation of Cu in grapevine grafts after the callusing process/before planting in the nursery. This paper presents the capacity of 5BB and SO4 rootstocks to accumulate Cu, as well as the patterns of translocation in the grafts. After heat forcing (callusing), the grapevine grafts of Sauvignon Blanc on 5BB and SO4 rootstocks were grown in pots for six months in a glasshouse and exposed to various Cu formulations (Cu-oxychloride, Cu-gluconate) and concentrations in peat (50, 150, 500, and 1000 mg Cu of dry weight (DW)). In addition to monitoring the shoot growth dynamics and analyzing the copper content in graft organs, bioaccumulation (BAFs) and translocation factors (TFs) of Cu were calculated. The mean Cu concentrations were ranked as follows: roots (15-164) &gt; rootstock trunks (8-38) &gt; canes (5-21) mg kg&lt;sup&gt;-1&lt;/sup&gt; DW. The Cu concentrations depended on the Cu formulation and concentration in the substrate. Higher Cu content was found in the roots of both rootstocks (5BB and SO4, 23-155 and 15-164 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW, respectively) and the lowest in the canes (less than 10 mg kg&lt;sup&gt;-1&lt;/sup&gt; DW) of grafts grown in Cu-oxychloride-treated peat. Based on the BAFs and TFs, both rootstocks could be considered as Cu exclusive. A higher translocation rate was determined in systemic Cu-gluconate and SO4 rootstock. With shoot length measurements, the significant inhibitory effects of Cu on grapevine grafts growth could not be confirmed, despite the inhibitory effects that were clearly expressed in the first two months of growth. Soils containing more than 500 mg Cu/kg&lt;sup&gt;-1&lt;/sup&gt; are less suitable for growing vine grafts.</t>
+          <t xml:space="preserve">Application of real-time PCR for the detection and quantification of oomycetes in ornamental nursery stockNumerous Phytophthora and Pythium disease outbreaks have occurred in Europe following inadvertent introduction of contaminated ornamental plants. Detection and identification of pathogens are crucial to reduce risks and improve plant biosecurity in Europe and globally. Oomycete diversity present in roots and compost was determined in 99 hardy woody plants bought from nurseries, retailers and internet sellers, using both isolations and molecular analyses. Oomycete DNA was quantified using real-time PCR of environmental DNA from the plants using three loci: ITS, trnM-trnP-trnM and atp9-nad9. At least one oomycete species was isolated from 89.9% of plants using classical techniques. In total, 10 Phytophthora spp., 17 Pythium spp. and 5 Phytopythium spp. were isolated. Oomycetes were isolated from 86% of asymptomatic plants, but real-time PCR demonstrated that oomycetes were associated with all plants tested. More oomycete DNA occurred in composts in comparison with roots and filters from baiting water (a mean of 7.91 ng g&lt;sup&gt;-1&lt;/sup&gt;, 6.55 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; and 5.62 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; of oomycete DNA detected in compost with ITS, trnM and atp9 probes, respectively); the ITS probe detected the highest quantities of oomycete DNA. No significant differences were found in quantities of oomycete DNA detected using real-time PCR in plants purchased online or from traditional retailers. </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -865,7 +895,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The study examines the accumulation and translocation of copper in grapevine grafts depending on rootstocks and growing media. Results suggest high Cu concentrations in roots and low inhibitory effects on growth. Soils with over 500 mg Cu/kg are not recommended for vine grafts.</t>
+          <t>Real-time PCR was used to detect and quantify oomycetes in ornamental nursery stock. Oomycetes were found in both roots and compost, with higher quantities in compost. No difference was found between plants purchased online or from traditional retailers.</t>
         </is>
       </c>
     </row>
@@ -875,7 +905,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Analysis regarding the organization, establishment, maintenance and harvesting of sea bunckthorn in plantationRomania brings its contribution to the European Union through a valuable heritage, with numerous species of plants and animals, some endemic and relict, among them medicinal plants and those with high nutritional value. Romania's geographical position and climate have always offered special conditions for favourable for the culture of fruit trees and shrubs. Around towns, in familiar gardens, in small spaces around buildings, on walls and trellises, the cultivation of various species of trees and shrubs is a leisure occupation and a source of fruit supply. Fruit trees and shrubs in parks, around houses, on roads and alignments, in addition to aesthetics and fruit production, contribute to improving the climate, preventing and combating environmental pollution. Hippophae rhamnoides-Sea buckthorn is a shrub of particular importance, found both in spontaneous flora and in controlled cultures. In Romania, sea buckthorn grows spontaneously in the Subcarpathian area of Moldova and Muntenia. Depending on the place where it is planted, sea buckthorn can grow as a shrub or tree at a height of 1.5 m to 3.5 m, or even more. In arid areas it can become creeping, being an adaptation to environmental conditions. Sea buckthorn is used in food, medicine, animal feed and forestry. Used in agriculture, buckthorn has a very important role in increasing the winter resistance of bees. From a nutritional point of view, sea buckthorn has a high content of minerals, vitamins, oils, acids and unsaturated fats, present in the fruits and leaves. Sea buckthorn fruits have a high content of vitamin E, C and carotenoids with strong oxidative action, which slow down aging. Sea buckthorn oil relieves light medication, heals wounds and skin lesions, burns and speeds up the healing process Considering the special valences in maintaining health and treating some ailments, we must take care of this natural wealth of Romania - buckhorn, and we must not consider it inexhaustible, in order not to disappear especially from the spontaneous flora before our eyes.</t>
+          <t xml:space="preserve">Changes to volatile profiles of arborvitae, Thuja occidentalis, from drought and insect infestation: olfactory cues for the cypress bark beetle, Phloeosinus aubeiThe cypress bark beetle, Phloeosinus aubei (Coleoptera, Curculionidae, Scolytinae) prefers to build breeding galleries in decaying host trees. However, volatile cues specific to decaying or actively infested trees have not yet been reported. Any such information would be useful for the management of this invasive, wood-boring species that has become established across Europe in the temperate zone and is now a key pest of ornamental Cupressaceae in nurseries and urban landscapes. Our objective was to reveal key components in host volatiles specific to stressed trees, which could be potential signals for the pest of its suitability for colonisation. Volatile profiles of arborvitae, Thuja occidentalis 'Smaragd' suffering from either dehydration or fresh infestation of P. aubei was collected and compared to that samples from healthy control trees. Analyses of volatiles by gas chromatography coupled to an electroantennographic detector revealed substantial differences between healthy, dehydrated and infested trees. Structural elucidation of the major antennally active components revealed that both a-pinene and a-thujene were prevalent in the volatiles of infested trees, whilst a-thujone was the major component in volatiles of healthy trees. In volatiles collected from trunks housing fresh P. aubei female nuptial chambers, sharp increases of beta-pinene, myrcene, limonene, and p-cymene were noticed, alongside trace amounts of camphene and fenchene. Volatiles collected from fresh frass showed a similar profile, but with a somewhat smaller amount of limonene. Fenchone was present in each type of volatiles, however, only in low amounts. Further studies should be directed to reveal the behavioural role of these components, which could be helpful in developing kairomone-based techniques for monitoring the flight of the pest in stands of scale-leafed trees. </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -885,7 +915,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Romania's climate and geography make it ideal for growing various fruit trees and shrubs, such as sea buckthorn, which has nutritional and medicinal benefits. The plant is used in agriculture, food, medicine, and animal feed, and its high content of vitamins and minerals promotes health and slows down aging. However, it is important to protect and sustainably cultivate this natural resource to prevent its disappearance.</t>
+          <t>Changes in volatile profiles of arborvitae due to drought and insect infestation can serve as olfactory cues for the cypress bark beetle, aiding in its management and control.</t>
         </is>
       </c>
     </row>
@@ -895,7 +925,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Germination ecology and growth phenology of cowvine (Ipomoea lonchophylla) as influenced by environmental parametersCowvine (Ipomoea lonchophylla J.M. Black) is a native and widely spread summer broadleaf weed in Australia. It contains glycoresins, which are toxic to livestock. However, limited information is available on seed germination ecology and growth phenology of this species. A series of experiments were conducted to determine the response of I. lonchophylla to different environmental conditions. Results showed that the primary dormancy exhibited by I. lonchophylla is due to the physical impediment of the hard seed coat. The seed germination percentage was the highest at the constant temperature of 27 C and alternating temperatures of 35/25 C. Germination of I. lonchophylla was not stimulated by light, suggesting that this species is non-photoblastic. Ipomoea lonchophylla germination was intolerant of a medium to high level of salt stress, and germination was completely inhibited at 250 mM NaCl. The emergence of I. lonchophylla was not restricted by seeding depth up to 8 cm, but only 5% emergence was recorded when seeds were planted at a 16-cm depth. The germination percentage was also drastically reduced by 90% to 100% after exposure to either 3 mo in silage, 48-h digestion in steers, or silage plus digestion treatments. The growth and reproductive phenology of I. lonchophylla was affected by emergence time. Plants that emerged in late spring (November 15) were able to produce more berries per plant than those that emerged in midsummer (January 15) in southern New South Wales. Information gained in our study concerning high soil salinity, ensiling, and digestion will help to develop more sustainable and effective integrated weed management strategies for controlling and reducing the spread of this weed.</t>
+          <t xml:space="preserve">Morpho-physiological effects of irrigation with saline water in Ex vitro plants of Juglans regia 'Sorrento'Soil salinization is a global problem limiting growth and economical yield in fruit species including walnut. Knowledge of the response of varieties and cultivars to salinity can represent an important contribution to future walnut plantation in areas affected by soil salinization. Juglans regia 'Sorrento' is a commercially important Italian variety. The present work aimed to explore the morpho-physiological response to NaCl-induced stress in 'Sorrento' plants using clonally propagated ex vitro plantlets to reduce the impact of genetic variation. Ex vitro acclimatized plants were exposed to salinity conditions by irrigating pot soil with half-strength Hoagland solution containing 100 mM NaCl for 20 days. Salt-induced effects on plant growth, chlorophyll and carotenoid content, osmolality, membrane injury and on activities of antioxidant enzymes catalase and guaiacol peroxidase (G-POD) in leaves were evaluated. Morphological and growth parameters were not significantly altered by salt stress with respect to the control. Slight differences in leaf necrosis and absence of injury in the membranes, stable content of photosynthetic pigments, and an increase in G-POD activity were also found in salt-treated plants. These results collectively suggest that 'Sorrento' has potential for the cultivation in salinized environments. </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -905,7 +935,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>This study examines the germination and growth of cowvine weed in different environmental conditions, finding it is stimulated by high temperature but inhibited by salt stress and digestion.</t>
+          <t>The study found that Juglans regia 'Sorrento' plants were not significantly affected by salt stress and showed potential for cultivation in salinized environments.</t>
         </is>
       </c>
     </row>
@@ -915,17 +945,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>No evidence for seed transmission of tomato yellow leaf curl Sardinia virus in tomatoSeed transmission is an important factor in the epidemiology of plant pathogens. Geminiviruses are serious pests spread in tropical and subtropical regions. They are transmitted by hemipteran insects, but a few cases of transmission through seeds were recently reported. Here, we investigated the tomato seed transmissibility of the begomovirus tomato yellow leaf curl Sardinia virus (TYLCSV), one of the agents inducing the tomato yellow leaf curl disease, heavily affecting tomato crops in the Mediterranean area. None of the 180 seedlings originating from TYLCSV-infected plants showed any phenotypic alteration typical of virus infection. Moreover, whole viral genomic molecules could not be detected in their cotyledons and true leaves, neither by membrane hybridization nor by rolling-circle amplification followed by PCR, indicating that TYLCSV is not a seed-transmissible pathogen for tomato. Examining the localization of TYLCSV DNA in progenitor plants, we detected the virus genome by PCR in all vegetative and reproductive tissues, but viral genomic and replicative forms were found only in leaves, flowers and fruit flesh, not in seeds and embryos. Closer investigations allowed us to discover for the first time that these embryos were superficially contaminated by TYLCSV DNA but whole genomic molecules were not detectable. Therefore, the inability of TYLCSV genomic molecules to colonize tomato embryos during infection justifies the lack of seed transmissibility observed in this host.</t>
+          <t xml:space="preserve">Bryophytes of Europe Traits (BET) data set: a fundamental tool for ecological studiesBryophytes are a diverse group of organisms with unique properties, yet they are severely underrepresented in plant trait databases. Building on the recently published European Red List of bryophytes and previous trait compilations, we present the Bryophytes of Europe Traits (BET) data set, including biological traits such as those related to life history, growth habit, sexual and vegetative reproduction; ecological traits such as indicator values, substrate and habitat; and bioclimatic variables based on the species' European range. The data set includes values for 65 traits and 25 bioclimatic variables, containing more than 135,000 trait values with a completeness of 82.7% on average. The data set will enable future studies in bryophyte biology, ecology and conservation, and may help to answer fundamental questions in bryology. </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Researchers found no evidence of tomato yellow leaf curl Sardinia virus transmission through seeds in tomato plants. The virus was present in vegetative and reproductive tissues but not in seeds or embryos.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -935,7 +960,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Improving field establishment and yield in seed propagated Miscanthus through manipulating plug size, sowing date and seedling ageBiomass crops provide significant potential to substitute for fossil fuels and mitigate against climate change. It is widely acknowledged that significant scale up of biomass crops is required to help reach net zero targets. Miscanthus is a leading biomass crop embodying many characteristics that make it a highly sustainable source of biomass but planted area remains low. Miscanthus is commonly propagated via rhizome, but efficient alternatives may increase uptake and help diversify the cultivated crop. Using seed-propagate plug plants of Miscanthus has several potential benefits such as improving propagation rates and scale up of plantations. Plugs also provide an opportunity to vary the time and conditions under protected growth, to achieve optimal plantlets before planting. We varied combinations of glasshouse growth period and field planting dates under UK temperate conditions, which demonstrated the special importance of planting date on yield, stem number and establishment rates of Miscanthus. We also propagated Miscanthus in four different commercial plug designs that contained different volumes of substrate, the resulting seedlings were planted at three different dates into field trials. In the glasshouse, plug design had significant effects on above and belowground biomass accumulation and at a later time point belowground growth was restricted in some plug designs. After subsequent growth in the field, plug design and planting date had a significant effect on yield. The effects of plug design on yield were no longer significant after a second growth season but planting date continued to have a significant effect. After the second growth year, it was found that planting date had a significant effect on surviving plants, with the mid-season planting producing higher survival rates over all plug types. Establishment was positively correlated with DM biomass produced in the first growth season. Sowing date had a significant effect on establishment but the impacts of plug design were more nuanced and were significant at later planting dates. We discuss the potential to use the flexibility afforded by seed propagation of plug plants to deliver significant impacts in achieving high yield and establishment of biomass crops during the critical first two years of growth.</t>
+          <t xml:space="preserve">Investigating the effects of fish effluents as organic fertilisers on onion (Allium cepa) yield, soil nutrients, and soil microbiomeAlthough waste waters from aquaculture farms, known as fish effluents, have been shown to be a viable source of nutrients for crop production, their use is not permitted in organic production under the current European regulatory framework, Council Regulation (EU) 2018/848. In contrast, the use of livestock manure as fertiliser is allowed and indeed encouraged. In this work we tested the effects of two types of fish effluents - filtered and unfiltered fish waters - from an aquaponic system on the yield of onions (Allium cepa) and the soil nutrients and microbiome, compared with a fertilisation regime using composted horse manure. Soil fertility was enhanced by the addition of fish effluents, in particular in the soil treated with unfiltered fish water or sludge, which resulted in the soil with the highest nitrate content. Fertilisation with fish water and aerobically treated fish sludge resulted in higher yields than the manure, performing the best in all growth and yield measurements. The bulb weight and bulb diameter in the onions fertilised with manure were 102.43 g +or- 7.26 and 61 mm +or- 2.05 respectively, the ones fertilised with filtered fish effluents were 126 g +or- 6.64 and 66.52 mm +or- 2.17, and the ones fertilised with filtered (fish water) and unfiltered (sludge) fish effluents were 133.32 g +or- 6.86 and 67.66 mm +or- 1.81. The horse manure significantly affected the microbial community structure of the soil, resulting in a higher species diversity compared with the fish effluents, with the most predominant genus types being Flavobacterium, Pseudarthrobacter, Sphingomonas, Massilia, Nitrososphaera, Pseudomonas and Nocardioides. However, the microbial activity in the soil with fish effluents was also significant, which indicates that the soil treated in this way can be considered a 'living soil', as required for organic certification in the EU. Overall, the results confirm the findings of previous studies on the effectiveness of fish effluents as fertilisers, and highlight the superior performance of fish effluents compared with a livestock manure, thus directly questioning the prohibition on using fish effluents in organic agriculture. </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -945,7 +970,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>The study focuses on improving the establishment and yield of Miscanthus, a biomass crop, through manipulating plug size, sowing date, and seedling age. Different factors, such as plug design and planting date, have significant effects on biomass accumulation, yield, and establishment rates. The study suggests that seed-propagated plug plants can provide various benefits and improve the growth of biomass crops during the critical initial years.</t>
+          <t>Fish effluents were found to enhance soil fertility and improve onion yield compared to composted horse manure, raising questions about the prohibition on using fish effluents in organic agriculture.</t>
         </is>
       </c>
     </row>
@@ -955,12 +980,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Experimental thermocline deepening highlights the resilience of the seagrass Posidonia oceanica: an opportunity to investigate shoot adaptabilityThe deepening of the thermocline, correlated to the rising temperature, can contribute affecting seagrass performance in a changing climate scenario. Here, the effect of the thermocline deepening on the seagrass Posidonia oceanica has been investigated in Cyprus through a manipulative experiment that allowed also testing the effects of the irradiance, origin depth and translocation. P. oceanica shoots were collected from 31 m of depth and transplanted at 12 m under a shading net, simulating the 31 m light conditions. Morphology (i.e. leaf area, leaf necrosis, number of leaves) and physiology (i.e. growth rate) were evaluated. Thermocline and origin depth effects were found with an increase of leaf necrosis, while a translocation effect was highlighted by a decrease in leaf area. No differences in shoot growth rate due to treatments were found. This experiment indicated an overall wide morphological and physiological acclimation of P. oceanica cuttings in coping with future thermocline conditions and it indirectly provides information for restoration efforts.</t>
+          <t xml:space="preserve">Comparison of the biomass and dendrometric parameters of Norway spruce with its different representations in young stands at lower altitudes in the Czech RepublicIn forestry, it is still common to plant the seedlings of and cultivate Norway spruce (Picea abies L. Karst) at lower altitudes; however, the climatic change that has been occurring increases evaporative demands in these areas. As a result, the spruce evidently suffers from drought, withers and loses its power to grow, thus, influencing stem thickness and tree-height growth, as well as biomass production. Therefore, the growth and biomass production of young (5-, 15- and 25-year-old) Norway spruce stands at these altitudes (i.e., from 200 to 500 m a.s.l.) was surveyed, as a case study, across the Training Forest Enterprise ""Masaryk Forest"" Krtiny. There, 48 stands with a varied representation of spruce (i.e., up to 30%, 31%-60%, 61%-90% and over 91%) were analyzed. In each stand, 12 trees were sampled across all social status classes (i.e., sub-dominant, co-dominant and dominant) in detail. Basic dendrometric parameters (such as the total tree height, height of the crown base and stem diameter at breast height) and the amount of the above-ground tree organ biomass (i.e., stem, branches and needles) were investigated. Based on the trends found in the biomass production here and climate change predictions, we recommend that Norway spruce be cultivated only in zones from an altitude of ca 400 m a.s.l., with an annual precipitation of 700 mm and an average annual temperature of 7 degrees C, and its percentage representation in the stand be no more than 30%. </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>The study compared the growth and biomass production of young Norway spruce stands at lower altitudes in the Czech Republic and recommends specific cultivation conditions.</t>
         </is>
       </c>
     </row>
@@ -970,7 +1000,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Multispecies crop mixtures increase insect biodiversity in an intercropping experimentRecent biodiversity declines require action across sectors such as agriculture. The situation is particularly acute for arthropods, a species-rich taxon providing important ecosystem services. To counteract the negative consequences of agricultural intensification, creating a less hostile agricultural 'matrix' through growing crop mixtures can reduce harm for arthropods without yield losses. While grassland biodiversity experiments showed positive plant biodiversity effects on arthropods, experiments manipulating crop diversity and agrochemical input used to study arthropods are lacking. Here, we experimentally manipulated crop diversity (1-3 species, fallows), crop species (wheat, faba bean, linseed and oilseed rape) and agrochemical input (high vs. low) and studied responses of arthropod biodiversity. We tested whether arthropod responses were affected by crop diversity, mixtures and management. Additionally, we measured crop biomass. Crop biomass increased with crop diversity under high-input management, while under low management intensity, biomass was highest in two-species mixtures. Increasing crop diversity positively affected arthropod abundance and diversity, under both low- and high-input management. Crop mixtures containing faba bean, linseed or oilseed rape had particularly high arthropod diversity. Mass-flowering crops attracted more arthropods than legumes or cereals. Integrating intercropping into agricultural systems could increase flower visits by insects up to 1.5 million per hectare, thus likely also supporting pollination and pest-control ecosystem services. Flower visitor network complexity increased in mixtures containing linseed and faba bean and under low-input management. Intercropping can counteract insect declines in farmland by creating beneficial matrix habitat without compromising crop yield.</t>
+          <t xml:space="preserve">Transgenerational effects of water limitation on reproductive mother plants in a common garden of the shrub Frangula alnusA better understanding of responses to water limitation in woody species can help us to cope with the consequences of the progressing climate change. We focused on the putative transgenerational effects of water limitation in the maternal environment during reproduction. Water was restricted for cuttings of Frangula alnus Mill. in a common garden setting, with a Belgian (local), Italian and Swedish provenance, during the growing season of 2020 and mature berries were collected during the whole reproductive phase. Stones that were extracted from the berries were given a cold stratification. In the next spring, the germination percentage of the stones from the water restricted maternal environment was significantly higher than that of the stones from the normal maternal environment, for the three provenances, notwithstanding the fact that stone weight was not different. The timing of seedling emergence was advanced for the water-limited maternal environment, but only for the stones harvested when mature berry production was the highest (9th and 16th of July 2020). Population differentiation was observed for the timing of seedling emergence, which reflected population differentiation for bud burst of the mother plants in the common garden, including a counter-gradient effect for the Swedish provenance, and corroborating the suggestion that the timing of seedling emergence and leaf phenology may have a common genetic basis. In addition, the Swedish provenance displayed a somewhat more stable germination percentage over the whole berry collection period when the stones were harvested. A partitioning of variance analysis suggested that germination percentage is more genetically determined than timing of seedling emergence, probably reflecting the more important need to sense the environment for an adequate timing of emergence. </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -980,7 +1010,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Growing crop mixtures and reducing agrochemical inputs can increase arthropod biodiversity and provide ecosystem services like pollination and pest control without compromising crop yield.</t>
+          <t>Water limitation during reproduction of Frangula alnus shrubs resulted in higher germination percentage and earlier seedling emergence in the next generation, with population differentiation observed.</t>
         </is>
       </c>
     </row>
@@ -990,7 +1020,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Microbiological indication of soils in forest plantations of the Shirinskaya steppeTo control soil degradation and desertification, sustainable long-term protective forest plantations that perform water and soil protection functions are commonly used on the erosion-prone lands of steppe ecosystems. In the Shirinskaya dry lake-basin steppe (Khakassia) in the coastal zone of Lake Shira, the staff of the Sukachev Institute of Forest, Siberian Branch, Russian Academy of Sciences, has created artificial plantings of forest cultures (Pinus sylvestris L., Larix sibirica L., and Ulmus humilis L.) and provenance trials (P. sibirica Du Tour and P. sylvestris). A wildfire damaged the coastal 40-year-old forest cultures in 2015; the surface soil layer was burnt out. Agrotechnical soil cultivation for planting provenance trials (2017) and wildfire in forest cultures affected the state of soil microbiomes. The aim of the research is to assess the rate of recovery and formation of biological soil properties in forest plantations after disturbances (wildfire and agrotechnical influences) in the coastal dry-steppe zone of Lake Shira using microbiological indicators. The research objects are the Burnt Areas (postfire and postconflagration areas) and Provenance Trial Plantation sites. The use of microbial indicators shows that the soil microbiomes on the burnt sites are restored with different intensities. The recovery of soil microbiomes on the postfire sites is much faster than in the postconflagration sites, as is evidenced by the high values of the total number of microorganisms (TNM), microbial biomass (MB), enzymatic activity (EA), and humification coefficient (C&lt;sub&gt;h&lt;/sub&gt;), which are close to the control values. Specific microbial respiration (qCO&lt;sub&gt;2&lt;/sub&gt;) is within the range of natural variability. The burnt soil is characterized by an increased proportion of hydrolytic microorganisms actively participating in the decomposition of half-burnt plant residues. On the provenance trial sites under the pine seedlings, specific rhizosphere microbiomes are forming due to the influence of the root exudates of climatypes. The values of TNM, ETGM, MB, EA, and qCO&lt;sub&gt;2&lt;/sub&gt; change either upwards or downwards; the state of microbial communities has not reached its ecophysiological norm.</t>
+          <t xml:space="preserve">Invasive plants and agri-food waste extracts as sustainable alternatives for the pre-emergence urban weed control in Portugal central regionThe continued use of synthetic herbicides to control weeds leads to environmental pollution and health issues. Consequently, chemical formulations have been increasingly banned. However, sustainable solutions are lacking in the market. Alternatively, valorisation of phytotoxic waste to reduce the herbicides use promotes sustainability, meeting circular economy. We aimed at assessing the herbicidal potential of aqueous extracts of waste from the management of invasive plants (Acacia dealbata bark, Oxalis pes-caprae biomass) and agri-food (spent coffee grounds) on common urban weeds (Achillea ageratum, Conyza canadensis and Dittrichia viscosa) in Portugal. In vitro (paper and soil) and pot assays (soil) were conducted to test the pre-emergence (germination and seedlings) and post-emergence (well-stablished plants) effect of waste extracts on these weeds. Extracts reduced pre-emergence performance of weeds, but marginally affected post-emergence parameters. Germination was inhibited up to 83% by O. pes-caprae in A. ageratum, up to 88% and 87% by A. dealbata and O. pes-caprae in C. canadensis, and up to 70% by concentration in D. viscosa. A. dealbata and O. pes-caprae extracts also drastically reduced radicle length (30% and 55% in A. ageratum, 77% and 81% in C. canadensis, 90% and 92% in D. viscosa, respectively). However, soil neutralized the inhibitory pre-emergence effect. The main findings highlight that the use of A. dealbata and O. pes-caprae extracts as bioherbicides may require an additional synthetic herbicides application, as extracts alone cannot fully control urban weeds in areas without soil. Combining bioherbicides and commercial formulations still reduces the application of toxic chemicals, promoting sustainability. </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1000,7 +1030,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The study focuses on assessing the recovery and formation of biological soil properties after disturbances (wildfire and agrotechnical influences) in forest plantations using microbiological indicators. The research finds that the soil microbiomes on burnt sites are restored with different intensities, and specific rhizosphere microbiomes are forming under pine seedlings.</t>
+          <t>Waste extracts from invasive plants and agri-food can help control urban weeds, but may not be sufficient on their own. Combining with synthetic herbicides can reduce chemical use.</t>
         </is>
       </c>
     </row>
@@ -1010,12 +1040,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Functional analysis of the P-type ATPases Apt2-4 from Cryptococcus neoformans by heterologous expression in Saccharomyces cerevisiaeLipid flippases of the P4-ATPase family actively transport phospholipids across cell membranes, an activity essential for key cellular processes such as vesicle budding and membrane trafficking. Members of this transporter family have also been implicated in the development of drug resistance in fungi. The encapsulated fungal pathogen Cryptococcus neoformans contains four P4-ATPases, among which Apt2-4p are poorly characterized. Using heterologous expression in the flippase-deficient S. cerevisiae strain dnf1dnf2drs2, we tested their lipid flippase activity in comparison to Apt1p using complementation tests and fluorescent lipid uptake assays. Apt2p and Apt3p required the co-expression of the C. neoformans Cdc50 protein for activity. Apt2p/Cdc50p displayed a narrow substrate specificity, limited to phosphatidylethanolamine and -choline. Despite its inability to transport fluorescent lipids, the Apt3p/Cdc50p complex still rescued the cold-sensitive phenotype of dnf1dnf2drs2, suggesting a functional role for the flippase in the secretory pathway. Apt4p, the closest homolog to Saccharomyces Neo1p, which does not require a Cdc50 protein, was unable to complement several flippase-deficient mutant phenotypes, neither in the presence nor absence of a beta-subunit. These results identify C. neoformans Cdc50 as an essential subunit for Apt1-3p and provide a first insight into the molecular mechanisms underlying their physiological functions.</t>
+          <t xml:space="preserve">Effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L.)Glasshouse experiments to evaluate the effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L) were conducted in summer 2017 and winter 2018 at Dohne Agriculture Development Institute, Stutterheim, Eastern Cape, South Africa. Two cultivars of Swiss chard, Star 1801 and Fordhook giant, were planted in 200 cavity trays using a hygromix commercial growing medium incorporated with fertilizer treatments at different rates of bioslurry: no incorporation (control), 50% bioslurry, 100% bioslurry, 200% bioslurry and the recommended rate of 2:3:4 (30) NPK fertilizers. In the glasshouse the experiments were arranged in a randomized complete block design (RCBD) which was replicated three times. At four weeks after germination, ten (10) seedlings per treatment were destructively sampled randomly to determine the plant growth and biological mass parameters: (i) Seedling height, shoot and root height; (ii) Seedling mass; (iii) Fresh shoot and fresh root mass as well as their dry mass; (iv) Nutrient content of leaves. The results indicated that fertilization with 100%Bioslurry produced significantly taller seedlings and shoot height, while the shortest seedlings were obtained from the recommended inorganic fertilizer. Fertilization with 200%Bioslurry and the control treatment produced significantly higher biological yield compared to other treatments. The interaction between fertilizer treatments, cultivar and season indicated that summer season performed better compared to winter in seedling growth and development, and Fordhook giant fertilized with 100% and 200% bioslurry was superior compared to Star 1801. Fertilization with 50% bioslurry resulted in seedlings with higher sodium, while the seedlings grown in the control treatment showed higher copper content. The highest manganese was obtained from the seedlings fertilized with the inorganic fertilizer. It is therefore, concluded that fertilization with bioslurry at 100% and 200% bioslurry application rates enhanced the growth and quality of Swiss chard seedlings. </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Glasshouse experiments evaluated the effect of bioslurry on Swiss chard seedling growth. Fertilization with 100% bioslurry produced taller seedlings, while 200% bioslurry and the control had higher yield.</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1060,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Formation of seed potato yield depending on the elements of cultivation technologyIt is possible to realise the maximum genetic potential of modern potato varieties by improving the elements of agricultural technology, in particular, optimising plant nutrition, which determines the relevance of this study. The purpose of the study was to substantiate the specific features of potato productivity formation depending on the elements of growing technology in Forest-Steppe conditions. Field studies were conducted during 2019-2021 on chernozem soils. The features of growth and development of potato varieties of various ripeness groups Laperla, Granada, and Memphis in Forest-Steppe conditions are examined. It is established that the yield of potato seed tubers of the varieties under study varies depending on the dose and method of fertilisation, the fraction of planting tubers, and varietal characteristics. The highest indicators of individual productivity of potato plants of the Laperla, Granada, and Memphis varieties were formed when locally applied in rows N45R45K45 against the background of semi-rotted manure, phosphorus-potassium fertiliser, and the use of seed tubers with a fraction of &gt;60 mm. As a result of the action of the factors under study, the number of stems in the bush and under it increased. A strong direct correlation was established between the number of stems in the bush and the number of tubers (r=0.78), with a coefficient of determination of 61.0%. The maximum yield of potato tubers of the examined potato varieties (29.7-41.1 t/ha) was obtained by local application of N45R45K45 against the background of semi-rotted manure and phosphorus-potassium fertiliser, depending on the size of seed tubers by the largest transverse diameter. It was identified that the use of tubers with a fraction of &gt;60 mm for planting the potato varieties under study is irrational since the consumption of seed material exceeds the yield growth indicators. It was determined that Laperla, Granada, and Memphis tubers with a fraction of 28-60 mm are optimal for planting potato varieties of different ripeness groups. The research results can be used to adjust the elements of agricultural technology of seed potatoes, obtain high-quality planting material, and conduct profitable agribusiness.</t>
+          <t xml:space="preserve">Identification and management of Tomato brown rugose fruit virus in greenhouses in MexicoTomato brown rugose fruit virus (ToBRFV) has become a cause of great concern in the global tomato agro-industry since its first report in Israel in 2014. Global tomato production is affected by ToBRFV, and management practices are being evaluated. We tested seed lots from international producers as well as greenhouse substrates and water wells as possible sources of virus contamination. We identified a second introduction of ToBRFV in Mexico by a strain closely resembling isolates from the Netherlands and the Middle East. ToBRFV was detected by RT-PCR in seed coats and epicotyls (from commercial seeds and seedlings obtained from infected tomato plants), indicating a transmission rate of 9%. Virus-like particles (VLPs) were found in wells used for irrigation in greenhouses, but these exhibited low infectivity. These findings suggest that water sources could serve as ToBRFV reservoirs. We evaluated four chemical and six thermal methods for sanitizing substrates, plasticware, and other greenhouse utensils, using detached leaf bioassays in Nicotiana rustica. The most effective chemical sanitization method was treatment with glutaraldehyde plus quaternary ammonium salts and pentapotassium salts. The most effective heat treatment was at 92 degrees C for 30 minutes, which inactivated the virus. Tomato producers could implement these sanitization methods to control ToBRFV. </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1035,7 +1070,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>This study examines the formation of potato yield depending on cultivation elements, focusing on soil, fertilizer, and seed tuber size. Optimal methods and conditions for maximum productivity are determined.</t>
+          <t>The Tomato brown rugose fruit virus (ToBRFV) has been causing issues in global tomato production. The virus can be transmitted through contaminated seeds and water sources. Sanitization methods using chemicals and heat can help control the virus.</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1080,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Low-density polyethylene film biodegradation potential by fungal species from ThailandAccumulated plastic waste in the environment is a serious problem that poses an ecological threat. Plastic waste has been reduced by initiating and applying different alternative methods from several perspectives, including fungal treatment. Biodegradation of 30 fungi from Thailand were screened in mineral salt medium agar containing low-density polyethylene (LDPE) films. Diaporthe italiana, Thyrostroma jaczewskii, Collectotrichum fructicola, and Stagonosporopsis citrulli were found to grow significantly by culturing with LDPE film as the only sole carbon source compared to those obtained from Aspergillus niger. These fungi were further cultured in mineral salt medium broth containing LDPE film as the sole carbon source for 90 days. The biodegradation ability of these fungi was evaluated from the amount of CO&lt;sub&gt;2&lt;/sub&gt; and enzyme production. Different amounts of CO&lt;sub&gt;2&lt;/sub&gt; were released from D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger culturing with LDPE film, ranging from 0.45 to 1.45, 0.36 to 1.22, 0.45 to 1.45, 0.33 to 1.26, and 0.37 to 1.27 g/L, respectively. These fungi were able to secrete a large amount of laccase enzyme compared to manganese peroxidase, and lignin peroxidase enzymes detected under the same conditions. The degradation of LDPE films by culturing with these fungi was further determined. LDPE films cultured with D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger showed weight loss of 43.90%, 46.34%, 48.78%, 45.12%, and 28.78%, respectively. The tensile strength of LDPE films cultured with D. italiana, T. jaczewskii, C. fructicola, S. citrulli, and A. niger also reduced significantly by 1.56, 1.78, 0.43, 1.86, and 3.34 MPa, respectively. The results from Fourier transform infrared spectroscopy (FTIR) reveal an increasing carbonyl index in LDPE films culturing with these fungi, especially C. fructicola. Analysis of LDPE films using scanning electron microscopy (SEM) confirmed the biodegradation by the presence of morphological changes such as cracks, scions, and holes on the surface of the film. The volatile organic compounds (VOCs) emitted from LDPE films cultured with these fungi were analyzed by gas chromatography-mass spectrometry (GC-MS). VOCs such as 1,3-dimethoxy-benzene, 1,3-dimethoxy-5-(1-methylethyl)-benzene, and 1,1-dimethoxy-decane were detected among these fungi. Overall, these fungi have the ability to break down and consume the LDPE film. The fungus C. fructicola is a promising resource for the biodegradation of LDPE which may be further applied in plastic degradation systems based on fungi.</t>
+          <t xml:space="preserve">Canadian Plant Disease Survey 2023 volume 103: disease highlights 2022Diseases of berry, vegetable, ornamental nursery and landscape plants in south coastal British Columbia submitted to Elmhirst Diagnostics &amp; Research in 2022 and causal agents are listed. In April - May, cold, wet soils led to nutrient deficiency symptoms on foliage and cool, rainy weather through June led to high levels of botrytis in berries and many other crops. This was followed by hot, dry weather from July-September causing heat and drought stress on many crops and landscape plants. Powdery mildew was severe on many nursery and landscape plants, such as big-leaf maple (Acer macrophyllum). No significant new diseases were observed. </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1055,7 +1090,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thai fungi were tested for their ability to biodegrade low-density polyethylene (LDPE) film. Four fungal species were found to grow significantly on LDPE as the sole carbon source and showed high enzyme production. These fungi were able to degrade LDPE films and produce morphological changes on the film's surface. One fungus, Collectotrichum fructicola, showed promise for LDPE biodegradation.</t>
+          <t>In 2022, cold, wet soils caused nutrient deficiency in plants in southern coastal British Columbia. Rainy weather in June led to high botrytis levels in berries and other crops. Hot, dry weather from July-September caused heat and drought stress. Powdery mildew was severe on many plants. No new diseases were observed.</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1100,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Defaunation changes leaf trait composition of recruit communities in tropical forests in French GuianaHunting impacts tropical vertebrate populations, causing declines of species that function as seed dispersers and predators, or that browse seedlings and saplings. Whether and how the resulting reductions in seed dispersal, seed predation, and browsing translate to changes in the tree composition is poorly understood. Here, we assess the effect of defaunation on the functional composition of communities of tree recruits in tropical rainforests in French Guiana. We selected eight sites along a gradient of defaunation, caused by differences in hunting pressure, in otherwise intact old-growth forests in French Guiana. We measured shifts in functional composition by comparing leaf and fruit traits and wood density between tree recruits (up to 5 cm diameter at breast height) and adults, and tested whether and how these compositional shifts related to defaunation. We found a positive relationship with defaunation for shifts in specific leaf area, a negative relationship for shifts of leaf toughness and wood density, and a weak relationship for shifts in fruit traits. Our results suggest that the loss of vertebrates affects ecological processes such as seed dispersal and browsing, of which browsing remains understudied. Even though these changes sometimes seem minor, together they result in major shifts in forest composition. These changes have long-term ramifications that may alter forest dynamics for generations.</t>
+          <t xml:space="preserve">Application of living mulch in rows of the apple trees on several rootstocks - long-term evaluationThe long-term influence of several living mulches on apple tree growth, nutrient status, yield, and fruit quality concerning the year of cover crop sowing in tree rows was evaluated in the Lower Silesia region in the southwestern part of Poland. The estimation was conducted in six apple tree 'Ligol' populations differentiated by the rootstock: M.26, M.9, P 60, P 2, P 16, and P 22. In experiment no. 1, one-year-old nursery stock was planted, and perennial living mulches were sown: colonial bent grass (Agrostis vulgaris With.) and white clover (Trifolium repens L.) in the same year and blue fescue (Festuca ovina L.) in the following year. In experiment no. 2, which involved two-year-old stock, the sowing of blue fescue was delayed until the second, third, fourth, and fifth years following orchard planting. The presence of the cover crop significantly affected young tree growth when one-year-old trees were planted. The sowing of the living mulch in the first or the second year after tree planting led to a significant reduction in the cumulative yield obtained from the young trees. The living mulch improved the red coloration of the fruit skin in the young orchard, but it caused a reduction in the mean fruit weight and size. However, it also contributed to decreased nitrogen concentration in the leaves of the apple trees, and the tree tolerance to living mulch increased as the orchard aged. A choice of semidwarf rootstock, postponed sowing of cover crop, and high-quality nursery stock were recognized as the most important factors for fostering apple tree tolerance to living mulches in tree rows. </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1075,7 +1110,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Defaunation due to hunting in French Guiana's rainforests alters the composition of tree recruit communities, affecting leaf traits, wood density, and potentially seed dispersal and browsing.</t>
+          <t>Long-term evaluation of living mulches on apple trees in Poland showed that the presence of a cover crop affected tree growth, yield, and fruit quality. The choice of rootstock and timing of cover crop sowing were important factors.</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1120,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Adding fish waste to the diet of Iceland scallop Chlamys islandica: effects on feeding and reproductive abilityOrganic enrichment from fish farming may impact benthic species and habitats in adjacent areas. Norwegian salmon farming is continuously growing, but, due to area conflicts and severe sea-lice problems in the western areas, growth of the industry is focused in the northern areas. Knowledge is scarce on how an increase in fish farming will impact Arctic and subarctic species and habitats. One such species is the Iceland scallop Chlamys islandica, distributed from the Lofoten Islands in Nordland County to the Varangerfjord in Troms and Finnmark County. To study the impact of fine-particle fish faeces on feeding and reproductive ability in adult Iceland scallop, particles &lt; 41 m of finfish waste were added to the diet. Effects were tested via shortterm (weeks) feeding studies using 2 diets, 100% cultured algal species and a 50% mix of algae and fish waste. In addition, a 100% fish waste diet was used to study longer-term effects on reproductive ability (months). Feeding (% particle clearance and feeding rate) on the microalgae diet tended to be higher than that on the diet containing fish waste, but the difference was significant only in 2 out of 4 cases. We did not find any effect of diets on reproductive ability (gonad development and fatty acid profiles) of scallops. Lack of knowledge on sufficient food levels for gonad maturation in this species may have affected the results. We suggest that future work includes the transplant of scallops from a reference site to fish production sites and that investigations begin immediately after spawning early in scallop gonad development.</t>
+          <t xml:space="preserve">Adjuvant effects on pyraclostrobin and boscalid residues, systemic movement, and dietary risk in garlic under field conditionsAdjuvants are supplemental substances added to pesticide tank mixtures to enhance their efficacy by altering the dispersing, emulsifying, spreading, sticking, and wetting properties of the spray mixture. The goals of this study were an assessment of the effectiveness of pyraclostrobin and boscalid against garlic rust; the fungicide's dissipation and translocation within plant tissue in the presence of commercial adjuvants DashR HC EC; and the validation of an analytical method for concurrently determining boscalid and pyraclostrobin in green garlic and garlic bulbs. Pyraclostrobin and boscalid retention in green garlic and the dietary exposure risks were also evaluated. The adjuvant DashR HC EC is an emulsifiable concentrate containing fatty acids, methyl esters, and alkoxylated alcohol-phosphate esters. The test plots were sprayed with the maximum recommended dosage of 400.5 g a.i. ha&lt;sup&gt;-1&lt;/sup&gt; boscalid and 100.5 g a.i. ha&lt;sup&gt;-1&lt;/sup&gt; pyraclostrobin. The residues of pyraclostrobin and boscalid in garlic bulb and green garlic samples were determined using a mini-Luke multi-residue solvent extraction method paired with a high-performance liquid chromatography diode array detector (HPLC-DAD). This method is based on the extraction of a homogeneous sample with acetone, petroleum ether, and dichloromethane. Boscalid and pyraclostrobin recoveries in green garlic and garlic bulbs ranged from 71% to 107% on average, with a relative standard deviation (RSD) of 6.8% to 18.1%, and limits of quantification were 0.02 mg/kg. In green garlic and garlic bulbs, boscalid residues ranged from 0.14 to 3.51 mg/kg and pyraclostrobin from lower than LOQ to 1.43 mg/kg, during the experiment. The adjuvant increased the fungicidal efficacy of the fungicides and their retention on green garlic. Although boscalid is considered a nonsystemic fungicide, it showed higher translocation from garlic leaves to garlic bulbs than pyraclostrobin. Regarding the dietary risk assessment, the use of the adjuvant in a tank mixture with boscalid and pyraclostrobin is considered safe 14 days after application, which agrees with the recommended PHI. </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Study evaluates the efficacy and residue levels of pyraclostrobin and boscalid in garlic, as well as the impact of adjuvants on their retention and dietary risk.</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1140,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chemical composition of tissues of Syringa vulgaris L. and soil features in abandoned cemeteriesAbandoned anthropogenic sites are transformed when they come into use. In the present study, such objects were abandoned Evangelical cemeteries located in the Land of the Great Mazurian Lakes (northern Poland). This study aims to compare the concentrations of selected major (Ca, Na, Mg, Al, Fe) and potentially toxic elements (Zn, Cd, Pb) in the roots, leaves, and branches of Syringa vulgaris and buried necrosols and unburied soils in which this species grows. The soils analysed differ in their profile structure; in the case of burial necrosols, anthropogenic layers are present, while Brunic Arenosol has a natural horizon arrangement. Regarding pH, the soils analysed are characterised in the weakly acidic (6.6-6.8) to alkaline (7.2-8.6) range, both in KCl and H&lt;sub&gt;2&lt;/sub&gt;O. Total phosphorus has high values in the humus and anthropogenic horizons, especially at coffin sites (Rudowka Mala: layer of Ccoffin - 759 mg.kg&lt;sup&gt;-1&lt;/sup&gt;; Szymonka - 844 mg.kg&lt;sup&gt;-1&lt;/sup&gt;). Necrosols are characterised by a slightly higher variation in major element content than soils outside the burial area. The highest elemental content in Syringa vulgaris is accumulated in leaves and roots. Potassium (K) has the highest content in the studied tissues, and cadmium (Cd) is the lowest. The study showed no significant differences in heavy metal accumulation for plants directly associated with necrosols and soils formed outside of burials, which is confirmed by analyses of environmental indicators. The study showed that plant chemistry is more influenced by the soil substrate and soil-forming process than the soil anthropogenisation associated with burials. There was no significant effect of burials on the chemical composition of individual parts of Syringa vulgaris.</t>
+          <t xml:space="preserve">Scientific-based drip irrigation regime for raspberry plants cultivated in the central part of the non-black earth regionRaspberry is an important berry crop; its production volumes increase from year to year. To produce high-quality planting material and gain high and stable yields under unstable weather conditions, resource-saving technologies, including drip irrigation, are required. The purpose of this study was to develop a scientific-based drip irrigation regime for raspberry plants cultivated in the central part of the non-Black Earth Region of Russia. A two-factor field experiment was launched in autumn 2019. The first factor (factor A) was the drip irrigation regime; the moisture content in the root layer was maintained in the following ranges: 60-80, 70-90, and 80-100% of the field moisture capacity (FMC). The second factor (factor B) was the raspberry variety: Nagrada or Solnyshko. Drip watering can substantially reduce irrigation water consumption. In the variant involving drip irrigation and moisture content in the root layer maintained in the range of 80-100% of the field moisture capacity, irrigation water savings averaged 65% compared to traditional watering techniques; in the variant involving drip irrigation and moisture content in the root layer maintained in the range of 60-80% FMC, water savings averaged 78%. In addition, local irrigation creates the optimal air and water regime in the soil. In experimental variants involving irrigation, precipitation accounted for the main part of the total water consumption (71-81%); while irrigation water for only 15-22%. In variants with soil moisture maintained at levels exceeding 70% FMC, the stem diameter in seedlings was 20-40% larger compared to the control, the height of seedlings was 40-50% larger, and the yield was twice as much as in the control variant. This makes it possible to recommend such irrigation regimes as optimal ones. </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1110,7 +1150,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>This study examined the chemical composition of Syringa vulgaris plants and soils in abandoned cemeteries, finding no significant differences between burial and non-burial areas.</t>
+          <t>This study developed a scientific-based drip irrigation regime for raspberry plants in the non-Black Earth Region, reducing water consumption and increasing plant growth and yield.</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1160,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Application of real-time PCR for the detection and quantification of oomycetes in ornamental nursery stockNumerous Phytophthora and Pythium disease outbreaks have occurred in Europe following inadvertent introduction of contaminated ornamental plants. Detection and identification of pathogens are crucial to reduce risks and improve plant biosecurity in Europe and globally. Oomycete diversity present in roots and compost was determined in 99 hardy woody plants bought from nurseries, retailers and internet sellers, using both isolations and molecular analyses. Oomycete DNA was quantified using real-time PCR of environmental DNA from the plants using three loci: ITS, trnM-trnP-trnM and atp9-nad9. At least one oomycete species was isolated from 89.9% of plants using classical techniques. In total, 10 Phytophthora spp., 17 Pythium spp. and 5 Phytopythium spp. were isolated. Oomycetes were isolated from 86% of asymptomatic plants, but real-time PCR demonstrated that oomycetes were associated with all plants tested. More oomycete DNA occurred in composts in comparison with roots and filters from baiting water (a mean of 7.91 ng g&lt;sup&gt;-1&lt;/sup&gt;, 6.55 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; and 5.62 x 10&lt;sup&gt;-1&lt;/sup&gt; ng g&lt;sup&gt;-1&lt;/sup&gt; of oomycete DNA detected in compost with ITS, trnM and atp9 probes, respectively); the ITS probe detected the highest quantities of oomycete DNA. No significant differences were found in quantities of oomycete DNA detected using real-time PCR in plants purchased online or from traditional retailers.</t>
+          <t xml:space="preserve">Conservation of the bird cherry (Padus Mill.) germplasm by cold storage and cryopreservation of winter cuttingsConservation at cryogenic temperatures, usually in liquid nitrogen (LN) or in its vapor, is the only reliable method for the long-term ex situ conservation of fruit and berry crops with vegetative reproduction. In this study, five bird cherry (Padus Mill.) varieties of different genetic origin from the bird cherry genebank at the N.I. Vavilov All-Russian Institute of Plant Genetic Resources (VIR, Russia) were tested for their response to cryopreservation in LN vapor (-183--185 degrees C). The response included viability under laboratory and field conditions, morphological assessment of the developed plants and biochemical analysis of fruits produced during three consecutive years by plants developed from cryopreserved cuttings. All parameters were compared to those recorded after cold storage of cuttings (-5 degrees C), a routine mid-term conservation method currently used at the VIR genebank. The initial viability of winter cuttings varied from 86.7% to 93.3%. Six-month cold storage and cryopreservation reduced viability to 53.3-86.7% and 43.3-60.0%, respectively, which was above the 40% viability threshold in all varieties tested. Cuttings after cold storage showed better viability when recovered in the laboratory (80% mean viability) than in the field (58% mean viability); viability of cryopreserved cuttings was not affected by recovery conditions. The results of a two-way analysis of covariance suggested that storage and recovery conditions had the most significant effect on viability (p &lt; 0.0001), while the effects of genotype (p = 0.062) and factor interactions (p = 0.921) were minor. Cryopreservation had little or no influence on morphological parameters of the plants recovered in the field, including plant height, number of shoots, internodes and roots, and root length. Similarly, no effect of cryopreservation was recorded on dry matter content, total sugar content and ascorbic acid concentration in fruits produced by plants developed from the cryopreserved cuttings. These results suggest that cryopreservation in LN vapor is a reliable method for conservation of the bird cherry genetic collection and is worth testing with a broader variety of genotypes. </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1130,7 +1170,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Real-time PCR was used to detect and quantify oomycetes in ornamental nursery stock. Oomycete DNA was found in both roots and compost, with compost containing the highest amounts.</t>
+          <t>Cryopreservation in liquid nitrogen vapor is effective for long-term conservation of bird cherry germplasm without affecting plant morphology or biochemical composition of fruits.</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1180,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Changes to volatile profiles of arborvitae, Thuja occidentalis, from drought and insect infestation: olfactory cues for the cypress bark beetle, Phloeosinus aubeiThe cypress bark beetle, Phloeosinus aubei (Coleoptera, Curculionidae, Scolytinae) prefers to build breeding galleries in decaying host trees. However, volatile cues specific to decaying or actively infested trees have not yet been reported. Any such information would be useful for the management of this invasive, wood-boring species that has become established across Europe in the temperate zone and is now a key pest of ornamental Cupressaceae in nurseries and urban landscapes. Our objective was to reveal key components in host volatiles specific to stressed trees, which could be potential signals for the pest of its suitability for colonisation. Volatile profiles of arborvitae, Thuja occidentalis 'Smaragd' suffering from either dehydration or fresh infestation of P. aubei was collected and compared to that samples from healthy control trees. Analyses of volatiles by gas chromatography coupled to an electroantennographic detector revealed substantial differences between healthy, dehydrated and infested trees. Structural elucidation of the major antennally active components revealed that both a-pinene and a-thujene were prevalent in the volatiles of infested trees, whilst a-thujone was the major component in volatiles of healthy trees. In volatiles collected from trunks housing fresh P. aubei female nuptial chambers, sharp increases of beta-pinene, myrcene, limonene, and p-cymene were noticed, alongside trace amounts of camphene and fenchene. Volatiles collected from fresh frass showed a similar profile, but with a somewhat smaller amount of limonene. Fenchone was present in each type of volatiles, however, only in low amounts. Further studies should be directed to reveal the behavioural role of these components, which could be helpful in developing kairomone-based techniques for monitoring the flight of the pest in stands of scale-leafed trees.</t>
+          <t xml:space="preserve">Influence of container, potting media and nutrients on production and post-production consumer acceptance of potted marigold (Tagetes patula L.)Production of potted plants is influenced by factors viz., type of container, potting medium, nutrient dose. A study was conducted to standardize these factors for potted French marigold var. Arka Pari. The treatments comprised of two type of containers (plastic and coir), three potting media [red soil + FYM + sand (1:1:1 v/v), Arka fermented cocopeat (AFC), AFC + vermicompost (1:1 v/v)] and four nutrition concentrations (160:30:180 ppm N:P: K, 128:24:144 ppm N:P: K, 96:18:108 ppm N:P:K and 3% Jeevamrutha) laid out in factorial completely randomized design replicated thrice. Plants grown in potting media combination of Arka fermented cocopeat (AFC) + vermicompost (1:1 v/v) along with weekly application of nutrient solution (128:24:144 ppm NPK) produced maximum number of flowers plant&lt;sup&gt;-1&lt;/sup&gt; (147.61) and registered highest uptake of nitrogen (2.87 g plant&lt;sup&gt;-1&lt;/sup&gt;), phosphorus (0.53 g plant&lt;sup&gt;-1&lt;/sup&gt;), potassium (3.24 g plant&lt;sup&gt;-1&lt;/sup&gt;), magnesium (0.85 g plant&lt;sup&gt;-1&lt;/sup&gt;) and sulphur (0.21 g plant&lt;sup&gt;-1&lt;/sup&gt;). Based on the attributes of the potted plants, this treatment combination also registered the highest score (81.2 on a scale of 100), willingness of the consumers to purchase (4.5 on a scale of 5), overall acceptability (2.7 on a scale of 3) and the benefit cost ratio of 1.18. </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1150,7 +1190,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Changes in the volatile profiles of arborvitae trees suffering from drought or insect infestation could provide useful cues for managing the cypress bark beetle as a pest.</t>
+          <t>The study found that using a combination of Arka fermented cocopeat and vermicompost as the potting media, along with proper nutrient application, resulted in the best production and consumer acceptance of potted marigold plants.</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1200,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Morpho-physiological effects of irrigation with saline water in Ex vitro plants of Juglans regia 'Sorrento'Soil salinization is a global problem limiting growth and economical yield in fruit species including walnut. Knowledge of the response of varieties and cultivars to salinity can represent an important contribution to future walnut plantation in areas affected by soil salinization. Juglans regia 'Sorrento' is a commercially important Italian variety. The present work aimed to explore the morpho-physiological response to NaCl-induced stress in 'Sorrento' plants using clonally propagated ex vitro plantlets to reduce the impact of genetic variation. Ex vitro acclimatized plants were exposed to salinity conditions by irrigating pot soil with half-strength Hoagland solution containing 100 mM NaCl for 20 days. Salt-induced effects on plant growth, chlorophyll and carotenoid content, osmolality, membrane injury and on activities of antioxidant enzymes catalase and guaiacol peroxidase (G-POD) in leaves were evaluated. Morphological and growth parameters were not significantly altered by salt stress with respect to the control. Slight differences in leaf necrosis and absence of injury in the membranes, stable content of photosynthetic pigments, and an increase in G-POD activity were also found in salt-treated plants. These results collectively suggest that 'Sorrento' has potential for the cultivation in salinized environments.</t>
+          <t xml:space="preserve">Comparison of leaf litter decomposition and microbial decomposer communities in fringe and riverine mangroves in French GuianaMangroves are highly productive and changing forests located in the intertidal zone of tropical regions. Leaf litter decomposition represents a substantial part of their carbon sink abilities. Little is known about the potential effect of climate change on this key process of ecosystem functioning. This study compared leaf litter microbial decay between fringe and riverine Avicennia germinans stands. A direct and reciprocal transplant experiment using litterbags was setup in French Guiana to test 3 hypotheses: (i) the activities and abundance of microbial decomposers are lowest in the fringe mangroves due to exposure to saline water and tidal immersion; (ii) for these reasons, litter decomposes faster in riverine stands; and (iii) according to the home-field advantage hypothesis, litter decomposes more rapidly in the environment from which it originates. Remaining litter masses, abundance of litter microbial community (phospholipid fatty acid signatures (PLFA)), and their functional capability (enzyme activities and Biolog) were assessed. Litter directly transplanted in riverine stands showed higher enzymatic activity (+ 77%), catabolic diversity (+ 10%), and microbial biomass (+ 60%) than litter transplanted directly in fringe stands. In contrast, both riverine and fringe derived litter showed faster decay at the fringe (14% mass loss) than riverine site (4% mass loss) between 30 and 45 days. Here, environmental conditions associated with different distances from the sea such as salinity and inundation regimes, rather than microbial features are suggested as main factors affecting decomposition process. Expected sea level rise in the coastal Guianas may therefore modify the mangroves productivity in the coming decades. </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1170,7 +1210,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The study investigated the effects of salinity on walnut plants. 'Sorrento' plants showed minimal growth and physiological changes, suggesting they can be cultivated in salted soil.</t>
+          <t>This study compares leaf litter decomposition in fringe and riverine mangroves in French Guiana, finding that environmental conditions rather than microbial features affect the decomposition process. Expected sea level rise may impact mangrove productivity.</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1220,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Masting increases seedling recruitment near and far: predator satiation and improved dispersal in a fleshy-fruited treeThe animal dispersal hypothesis predicts that mast seeding can increase dispersal rate of seeds by dispersers and enhance reproductive success of plants. However, in contrast to pollination efficiency and predator satiation hypothesis, the animal dispersal hypothesis has received mixed support. Using 12-year data on fruit production and seedling recruitment of a fleshy-fruited tree rowan (Sorbus aucuparia, Rosaceae), we tested if an increase in the fruit production at the population level results in higher proportion of fruits recruiting into seedlings. Recruitment was recorded near (under rowans) and far (under heterospecifics) from conspecifics. Higher recruitment rates under rowans would support predator satiation hypothesis. Higher recruitment rates under heterospecific trees, where fruits can only arrive with animal assistance, would support animal dispersal hypothesis. High population-level fruit production increased the proportion of fruits recruiting into seedlings both near and far from rowans. In contrast, high individual-level fruit production did not have a positive effect on the proportion of fruits recruiting into seedlings. Synthesis. Population-level synchronisation of fruit production is required to generate a more effective plant regeneration. Our findings show that masting enhances seedling recruitment through predator satiation and increased seed dispersal by frugivores. The results provide support for both animal dispersal and predator satiation hypotheses indicating that both mechanisms can operate simultaneously.</t>
+          <t xml:space="preserve">The post-registration monitoring of glyphosate-treated plants using anecic earthwormsGlyphosate N-(phosphonomethyl) glycine is a widely-used herbicide in agriculture. The anecic earthworm, Lumbricus terrestris feeds and forages for surface plant materials meaning that this species has a unique and direct exposure to agrichemicals. At the recommended product rates, significantly (F&lt;sub&gt;1,44&lt;/sub&gt; = 8.67, p= .005) higher numbers of L. terrestris middens were found in the glyphosate treated areas of an arable crop field. Laboratory feeding assays using field aged plant materials indicated that previous glyphosate treatment was a statistically significant factor affecting earthworm L. terrestris biomass (F&lt;sub&gt;1&lt;/sub&gt;,&lt;sub&gt;12&lt;/sub&gt; = 5.75, p= .03). Negligible glyphosate residues were detectable, and the field aged plant materials were encrusted with fungal hyphae. This suggests that glyphosate influences the colonisation of plant material by a litter-fungus complex which improves the food quality to earthworms. Concentrations of epoxiconazole, a fungicide, were detected in some plant materials and may influence overall food quality to earthworms. Glyphosate treatment on fresh volunteer plant leaves (unwanted crop seedlings) was not a statistically significant factor affecting earthworm L. terrestris biomass (F&lt;sub&gt;1&lt;/sub&gt;,&lt;sub&gt;6&lt;/sub&gt; = 0.16, p= .92). These results indicate fungal communities influence feeding behaviours, and plant materials are a direct source of agrichemicals to anecic earthworms. </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Glyphosate-treated plants increase the number of anecic earthworms and affect their biomass due to the influence of fungal communities and encrusted plant material.</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1240,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bryophytes of Europe Traits (BET) data set: a fundamental tool for ecological studiesBryophytes are a diverse group of organisms with unique properties, yet they are severely underrepresented in plant trait databases. Building on the recently published European Red List of bryophytes and previous trait compilations, we present the Bryophytes of Europe Traits (BET) data set, including biological traits such as those related to life history, growth habit, sexual and vegetative reproduction; ecological traits such as indicator values, substrate and habitat; and bioclimatic variables based on the species' European range. The data set includes values for 65 traits and 25 bioclimatic variables, containing more than 135,000 trait values with a completeness of 82.7% on average. The data set will enable future studies in bryophyte biology, ecology and conservation, and may help to answer fundamental questions in bryology.</t>
+          <t xml:space="preserve">Production of compost from logging residues. (Special Issue: Bioprocesses and sustainable development (BSD-2023).)The implementation of forest management generates logging residue which can be used in several ways. One of the option is to use of logging residue in the composting process. Therefore, this study determined the possibility of producing compost based on logging residue and the produced fertilizer used to fertilize forest nurseries. Pine chips and sewage sludge were used for carrying out the study. The compost, as well as the leachate produced during composting, were characterized by high NPK content. The leachate collected at the end of the experiment was characterized by nitrogen content of approximately 6500 mg.dm&lt;sup&gt;-3&lt;/sup&gt;, phosphorus of approximately 450 mg.dm&lt;sup&gt;-3,&lt;/sup&gt; and potassium of approximately 500-700 mg.dm&lt;sup&gt;-3&lt;/sup&gt;. In contrast, the compost produced contained approximately 0.57 g.kg&lt;sup&gt;-1&lt;/sup&gt; nitrogen, approximately 0.39 g.kg&lt;sup&gt;-1&lt;/sup&gt; phosphorus, and approximately 0.24 g.kg&lt;sup&gt;-1&lt;/sup&gt; potassium. The disadvantage in terms of the usefulness of the resulting fertilizer in forest nurseries is its pH, which exceeded 9.0. </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1205,7 +1250,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The BET data set provides information on biological and ecological traits of bryophytes in Europe, facilitating further studies in bryophyte biology and conservation.</t>
+          <t>Logging residue can be used to produce compost, which has high NPK content. However, the resulting fertilizer has a high pH, making it less useful for forest nurseries.</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1260,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Compatibility of interspecific hybridization between tulip cultivars and wild species native to ChinaInterspecific hybridization is an important means of breeding new cultivars with novel characteristics introduced from their parents. The interspecific hybridization was carried out between five tulip cultivars 'Heart of Poland', 'Golden Parade', 'Purple Dream', 'Crystal Star', 'Bolroyal Dream' and wild specie Tulipa altaica. In five combinations, the compatibility was observed including pollen germinability, stigma receptivity, fruit-setting, hybrid seed germination and bulblet formation in this paper. The results showed that T. altaica has the highest germination rate (69.58%) compared with any other parents. The highest stigmatic receptivity of five female cultivars was recorded on 10:00 am one day after flowering. The crosses of 'Heart of Poland' x T. altaica and 'Bolroyal Dream' x T. altaica displayed a higher percentage of fruit setting with 79.32 and 82.23%, respectively. A total of 698 hybrid seeds were obtained from interspecific hybridization combinations, including 'Heart of Poland' x T. altaica, 'Purple dream' x T. altaica and 'Bolroyal Dream' x T. altaica. In contrast, other two crosses were completely unsuccessful when 'Golden Parade' and 'Crystal Star' were used as female parents. The higher rates of seed germination and bulblet formation were recorded in two crosses with 63.45 and 55.63% in 'Heart of Poland' x T. altaica, 58.35 and 61.88% in 'Bolroyal Dream' x T. altaica. The results of this paper could provide some useful information about the interspecific cross between T. altaica and tulip cultivars.</t>
+          <t xml:space="preserve">Does shading and ground cover of moss and litter improve germination and establishment of Betula pendula Roth, Salix caprea L. and Populus tremula L. seedlings during drought stress in climate change? - a greenhouse studyThe climate change is leading to a significant increase in temperatures and dry periods in spring, for example in parts of middle and north Europe. Thus, the important factor for tree growth, the water availability, decreases on forest sites. It is to be expected that the successful establishment of pioneer tree species as pre-forests on large damaged areas will considerable be limited in the future. The phases of germination and establishment are the most dangerous phase in the life of trees. In this greenhouse study, we tested how different microsite conditions (open soil, moss and litter cover as well as different shading) under reduced water availability influence establishment success and growth of Betula pendula, Populus tremula and Salix caprea. The initial high germination success were reduced to 14%, 7% and 12% for Populus tremula, Salix caprea and Betula pendula, respectively, and the growth were significantly slower when the relevant soil water resource was just above the permanent wilting point. Therefore, in the first year the germination and establishment is linked to persistent moist conditions. If the soil dries out during germination, e.g. if there is no watering for more than 3 weeks, all seedlings died. Equivalent germination microsites (shading or ground cover) with comparable possible seedling densities to the moist open soil does not exist under water stress. Although moss and litter cover retain longer soil moisture under extremely dry conditions and guarantee significantly better seedling development than on open soil, initially significantly fewer seeds germinate on these substrate types. Radiation shows no influence on germination and seedling survival. The seedlings are able to survive radiation conditions of 3% and 27% of open area radiation. This makes establishment possible under (remaining) light canopy, at the edge of damaged areas or in small islands of remaining shelter trees on damaged areas. However, radiation had a significant effect on growth. With increasing radiation, shoot lengths and above ground biomasses are higher and the root collar diameter larger. Overall, Betula pendula is the most drought stress resistant of the tested tree species. While Populus tremula and Salix caprea already had problems establishing themselves on dry sites, the problem will become more serious under climate change. The lack of moist, vegetation-free open soils will result in a significant reduction of establishment success for tested pioneer tree species in climate change. </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1225,7 +1270,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interspecific hybridization between tulip cultivars and T. altaica showed compatibility in terms of germination, fruit setting, and seed and bulblet formation.</t>
+          <t>This greenhouse study examines how shading and ground cover impact the growth and establishment of tree seedlings during drought stress caused by climate change.</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1280,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Effects of species and varietal differences on intergeneric cross-compatibility between apple and pearHybridization across species and genus has been utilized to improve agriculturally important traits in crops. These interspecific and intergeneric hybridizations are often inhibited by reproductive barriers at the prezygotic and postzygotic stages. In this study, we used intergeneric hybridization between apple and pear to investigate the effects of species and varietal differences on pollen tube growth, seed germination, and seedling survival in a wide range of germplasms . In apple pistils pollinated by pears, inferior pollen tube growth was often observed for European pear cultivars, whereas hybrid seedlings derived from a cross between apple and European pear showed higher survival rate. In contrast, Japanese pear and Chinese pear pollination resulted in higher fruit setting which likely resulted from a higher rate of compatible pistils but a lower rate of seedling survival. Our results suggest the presence of both prezygotic and postzygotic barriers that occur independently in different crossing combinations. We also developed a Cleaved Amplified Polymorphic Sequence marker for detecting intergeneric hybrids derived from a wide range of crosses between apples and pears. The results of the present study will help in the development of intergeneric hybrids between apple and pear for introducing valuable traits from a diverse gene pool.</t>
+          <t xml:space="preserve">Investigation of the effect of sowing time on one of the key crops of sustainable land use, the hairy vetch (Vicia villosa roth.): growth indicators and yield elements in Nyirseg region of east HungaryLeguminous crops, whose species characteristics and agronomic values allow their incorporation into sand farming, are of great importance for the environmentally friendly utilization of the acidic sandy soils of Nyirseg. Among the legume cultivars that can be grown on acidic sandy soils, the hairy vetch is of outstanding importance, which is also been grown as green manure, green fodder, and seed, in Hungary, for more than a hundred years. Our observation aimed to examine, in a field micro-parcel experiment, at different sowing times, in six replicates, at three different recording periods, the plant height, the root length, the number of the Rhizobium root-nodules formed on the main and lateral roots, the number of seeds, the weight of the seeds, and the thousand kernel weight of the hairy vetch. From our experimental results, we found that the average height of the plants before the onset of winter, at the sowing time in late September, was between 11 and 18 cm, while the root length ranged from 16 to 26 cm. In the same phenophase (before winter) and sowing time, the highest number of Rhizobium nodules was measured on the main root (9.4-11.5), while the most efficient nodule formation on the lateral roots was in the budding period (13.7-27.6), also in the sowing time of September 20. In the studied years, the data on the number of pods per plant of hairy vetch showed an increasing trend with sowing time (5.6-12.2 pc/plant). The same increasing trend was observed for the number of seeds per plant (13.9-34.6 pc/plant). The highest seed weight (0.57-0.79 g) was obtained at the last sowing date. The results presented above also confirm that the cultivation of hairy vetch should become more and more important for sustainable land use. </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1245,7 +1290,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>This study examined the effects of species and varietal differences on the success of intergeneric hybridization between apple and pear, including factors like pollen tube growth and seedling survival. Results suggest both prezygotic and postzygotic barriers that vary depending on the crossing combination. Researchers also developed a tool for detecting these hybrids.</t>
+          <t>Investigation of sowing time on hairy vetch growth and yield in Nyirseg, Hungary. Sowing in late September showed promising results for plant height, root length, nodule formation, and seed yield.</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1300,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Investigating the effects of fish effluents as organic fertilisers on onion (Allium cepa) yield, soil nutrients, and soil microbiomeAlthough waste waters from aquaculture farms, known as fish effluents, have been shown to be a viable source of nutrients for crop production, their use is not permitted in organic production under the current European regulatory framework, Council Regulation (EU) 2018/848. In contrast, the use of livestock manure as fertiliser is allowed and indeed encouraged. In this work we tested the effects of two types of fish effluents - filtered and unfiltered fish waters - from an aquaponic system on the yield of onions (Allium cepa) and the soil nutrients and microbiome, compared with a fertilisation regime using composted horse manure. Soil fertility was enhanced by the addition of fish effluents, in particular in the soil treated with unfiltered fish water or sludge, which resulted in the soil with the highest nitrate content. Fertilisation with fish water and aerobically treated fish sludge resulted in higher yields than the manure, performing the best in all growth and yield measurements. The bulb weight and bulb diameter in the onions fertilised with manure were 102.43 g +or- 7.26 and 61 mm +or- 2.05 respectively, the ones fertilised with filtered fish effluents were 126 g +or- 6.64 and 66.52 mm +or- 2.17, and the ones fertilised with filtered (fish water) and unfiltered (sludge) fish effluents were 133.32 g +or- 6.86 and 67.66 mm +or- 1.81. The horse manure significantly affected the microbial community structure of the soil, resulting in a higher species diversity compared with the fish effluents, with the most predominant genus types being Flavobacterium, Pseudarthrobacter, Sphingomonas, Massilia, Nitrososphaera, Pseudomonas and Nocardioides. However, the microbial activity in the soil with fish effluents was also significant, which indicates that the soil treated in this way can be considered a 'living soil', as required for organic certification in the EU. Overall, the results confirm the findings of previous studies on the effectiveness of fish effluents as fertilisers, and highlight the superior performance of fish effluents compared with a livestock manure, thus directly questioning the prohibition on using fish effluents in organic agriculture.</t>
+          <t xml:space="preserve">Development of a new micropropagation protocol and transfer of in vitro plants to in vivo conditions for cascade hopThe vegetative propagation of hops, despite being a reliable method, is not very common due to the unavailability of the plant material. In this study, the technique of in vitro propagation was applied to the Cascade variety of Humulus lupulus L. The plant material was collected from a private field in Sicily; the explants were subjected to sterilization before in vitro culture. Single-node explants were placed in in vitro culture in nine different culture media for multiplication. Thidiazuron (TDZ), Benzyladenine (BAP) and meta-Topoline (mT) were tested for multiplication phase. For the rooting phase, five types of different culture media were evaluated. Binodal cuttings coming from the previous multiplication test were placed in the culture. The rooting media differ from each other in the concentration and ratio of two auxin hormones: Indolo-3-acetic acid (IAA) and Indole-3-butyric acid (IBA). In vitro rooted plants obtained from the rooting phase were transferred to ex vitro conditions in a microbox with agri-perlite and a solution containing Murashige and Skoog (MS) basal medium at half concentration. With a culture medium containing the highest TDZ doses (H6) and combination with cytokinin (H8 and H9), the highest shoot percentage was obtained. After 3 months of in vitro culture, the highest shoot percentage was observed in the culture medium with 2 mL L&lt;sup&gt;-1&lt;/sup&gt; of BAP. The highest rooting percentage, roots numbers and root length were found when the culture medium was supplemented with 1 mL L&lt;sup&gt;-1&lt;/sup&gt; of IAA. The usage of agri-perlite and MS at half concentration, without PGR, allowed us to obtain a 99.1% survival rate. This micropropagation protocol is useful for obtaining virus-free plants and for the development of the brewery industry. </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1265,7 +1310,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Investigation shows that fish effluents can enhance soil fertility and yield of onions. Fish effluents perform better than horse manure, questioning the ban on their use in organic farming.</t>
+          <t>A new micropropagation technique was developed for the Cascade hop plant using in vitro culture and in vivo conditions, providing virus-free plants for the brewery industry.</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1320,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comparison of the biomass and dendrometric parameters of Norway spruce with its different representations in young stands at lower altitudes in the Czech RepublicIn forestry, it is still common to plant the seedlings of and cultivate Norway spruce (Picea abies L. Karst) at lower altitudes; however, the climatic change that has been occurring increases evaporative demands in these areas. As a result, the spruce evidently suffers from drought, withers and loses its power to grow, thus, influencing stem thickness and tree-height growth, as well as biomass production. Therefore, the growth and biomass production of young (5-, 15- and 25-year-old) Norway spruce stands at these altitudes (i.e., from 200 to 500 m a.s.l.) was surveyed, as a case study, across the Training Forest Enterprise ""Masaryk Forest"" Krtiny. There, 48 stands with a varied representation of spruce (i.e., up to 30%, 31%-60%, 61%-90% and over 91%) were analyzed. In each stand, 12 trees were sampled across all social status classes (i.e., sub-dominant, co-dominant and dominant) in detail. Basic dendrometric parameters (such as the total tree height, height of the crown base and stem diameter at breast height) and the amount of the above-ground tree organ biomass (i.e., stem, branches and needles) were investigated. Based on the trends found in the biomass production here and climate change predictions, we recommend that Norway spruce be cultivated only in zones from an altitude of ca 400 m a.s.l., with an annual precipitation of 700 mm and an average annual temperature of 7 degrees C, and its percentage representation in the stand be no more than 30%.</t>
+          <t xml:space="preserve">Tuber melanosporum drives the symbiosis with Castanea sativa seedlings under greenhouse conditions and high calcium levelsThe sweet chestnut (Castanea sativa) could potentially be used as a host for the Perigord truffle (Tuber melanosporum) in multi-cropping plantations to promote rural or marginalized economies by providing farmers with a valuable source of income from both the truffle and the chestnut. Black truffles are known to associate to sweet chestnut trees in the wild. However, inoculation of chestnut seedlings with this highly appreciated edible fungus has not been attempted so far under greenhouse conditions. In this study, we tested the suitability of C. sativa as a host for T. melanosporum using a substrate containing high levels of active calcium (Ca&lt;sup&gt;2+&lt;/sup&gt;) to enhance truffle growth. We found that C. sativa seedlings can be successfully colonized by T. melanosporum in the nursery and that T. melanosporum appears to have a strong influence in its host's physiology, growth, and nutritional processes. The inoculated plants showed a greater root dry weight, water potential values and higher Ca&lt;sup&gt;2+&lt;/sup&gt; content. Under these conditions and using a substrate containing limestone seems to favour the fungus in the mutualistic symbiosis. </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1285,7 +1330,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A study examined the growth and biomass production of young Norway spruce stands at lower altitudes in the Czech Republic. Results suggest that spruce should only be cultivated in specific zones to mitigate drought issues.</t>
+          <t>The study found that sweet chestnuts can be successfully grown with black truffles using high calcium levels in a greenhouse, benefiting both farmers and the economy.</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1340,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transgenerational effects of water limitation on reproductive mother plants in a common garden of the shrub Frangula alnusA better understanding of responses to water limitation in woody species can help us to cope with the consequences of the progressing climate change. We focused on the putative transgenerational effects of water limitation in the maternal environment during reproduction. Water was restricted for cuttings of Frangula alnus Mill. in a common garden setting, with a Belgian (local), Italian and Swedish provenance, during the growing season of 2020 and mature berries were collected during the whole reproductive phase. Stones that were extracted from the berries were given a cold stratification. In the next spring, the germination percentage of the stones from the water restricted maternal environment was significantly higher than that of the stones from the normal maternal environment, for the three provenances, notwithstanding the fact that stone weight was not different. The timing of seedling emergence was advanced for the water-limited maternal environment, but only for the stones harvested when mature berry production was the highest (9th and 16th of July 2020). Population differentiation was observed for the timing of seedling emergence, which reflected population differentiation for bud burst of the mother plants in the common garden, including a counter-gradient effect for the Swedish provenance, and corroborating the suggestion that the timing of seedling emergence and leaf phenology may have a common genetic basis. In addition, the Swedish provenance displayed a somewhat more stable germination percentage over the whole berry collection period when the stones were harvested. A partitioning of variance analysis suggested that germination percentage is more genetically determined than timing of seedling emergence, probably reflecting the more important need to sense the environment for an adequate timing of emergence.</t>
+          <t xml:space="preserve">Analysis of the association Galio rotundifolii-Abietetum albae Wraber (1955) 1959 on Manjaca Mt (NW Bosnia and Herzegovina)This research aimed to study phytocoenological characteristics of a fir-dominated community on silicate substrate at the locality of Sitnica on Manjaca Mt, northwestern Bosnia and Herzegovina. This community originated from artificially forested mixed stands of fir and spruce planted in the habitat of the mountain Dinaric fir-beech forest, over a hundred years ago. With regular selective cuttings and natural regeneration, the structure shifted from even-aged to uneven-aged. In total, 18 phytocoenological releves were made using the Braun-Blanquet method during the vegetation seasons of 2021 and 2022. Releves were stored in Turboveg database. Ecological factors were calculated based on Ellenberg bioindicator values. Species composition was analyzed in terms of life form, geoelements and chorotypes. Our analysis indicates that collected releves can be classified as the association Galio rotundifolii-Abietetum albae belonging to the alliance Fagion sylvaticae. </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1305,7 +1350,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Water limitation during reproduction in Frangula alnus shrubs resulted in higher germination rates and earlier seedling emergence, with population differentiation and genetic factors playing a role.</t>
+          <t>This research analyzed a fir-dominated community on a silicate substrate in Manjaca Mt, Bosnia and Herzegovina. The community originated from artificially forested mixed stands and shifted to uneven-aged structure. The association Galio rotundifolii-Abietetum albae was identified.</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1360,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Invasive plants and agri-food waste extracts as sustainable alternatives for the pre-emergence urban weed control in Portugal central regionThe continued use of synthetic herbicides to control weeds leads to environmental pollution and health issues. Consequently, chemical formulations have been increasingly banned. However, sustainable solutions are lacking in the market. Alternatively, valorisation of phytotoxic waste to reduce the herbicides use promotes sustainability, meeting circular economy. We aimed at assessing the herbicidal potential of aqueous extracts of waste from the management of invasive plants (Acacia dealbata bark, Oxalis pes-caprae biomass) and agri-food (spent coffee grounds) on common urban weeds (Achillea ageratum, Conyza canadensis and Dittrichia viscosa) in Portugal. In vitro (paper and soil) and pot assays (soil) were conducted to test the pre-emergence (germination and seedlings) and post-emergence (well-stablished plants) effect of waste extracts on these weeds. Extracts reduced pre-emergence performance of weeds, but marginally affected post-emergence parameters. Germination was inhibited up to 83% by O. pes-caprae in A. ageratum, up to 88% and 87% by A. dealbata and O. pes-caprae in C. canadensis, and up to 70% by concentration in D. viscosa. A. dealbata and O. pes-caprae extracts also drastically reduced radicle length (30% and 55% in A. ageratum, 77% and 81% in C. canadensis, 90% and 92% in D. viscosa, respectively). However, soil neutralized the inhibitory pre-emergence effect. The main findings highlight that the use of A. dealbata and O. pes-caprae extracts as bioherbicides may require an additional synthetic herbicides application, as extracts alone cannot fully control urban weeds in areas without soil. Combining bioherbicides and commercial formulations still reduces the application of toxic chemicals, promoting sustainability.</t>
+          <t xml:space="preserve">Effect of nitrogen deposition on root systems and exudates of seedlings of beech Fagus sylvatica L. in a temperate climateThe purpose of this experiment was to determine the effect of deposition of different doses of nitrogen on the root systems of common beech Fagus sylvatica L. seedlings and their exudates. We tried to explain how different doses of nitrogen can affect the assimilation of nutrients necessary for seedling growth, as well as the morphology of fine roots. The experiment was conducted on a nursery at the Forest Experimental Station of the Agricultural University of Krakow. Three different nitrogen doses were used in the experiment: 0.75 kg.ha-1, 2.25 kg.ha-1, 4.5 kg.ha-1 and a control variant without nitrogen. The experiment was conducted from May to September 2021. Seedlings with their root systems and their secretions were taken twice, at the beginning and end of the experiment. The content of micro- and macro-nutrients was determined in the aboveand below-ground parts of the seedlings. In addition, the basic chemical properties and enzymatic activity of the substrate in which the seedlings grew were determined. In the study, we showed that a higher nitrogen dose influenced a higher amount of carbon released with exudates from fine roots, which was related to the overall root morphology. Higher specific root length (SRL) and specific root area (SRA) parameters showed a positive correlation with root exudates. In addition, a higher nitrogen dose had a positive effect on the nutritional status of the seedlings. </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1370,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A study in Portugal found that extracts from invasive plants and agri-food waste can be used as sustainable alternatives for pre-emergence weed control. While the extracts reduced weed germination, their effectiveness was limited without soil. Combining the extracts with synthetic herbicides can promote sustainability.</t>
+          <t>Effects of different nitrogen doses on beech seedlings' root systems and exudates were studied. Higher nitrogen doses resulted in increased carbon release and improved nutrient assimilation and root morphology.</t>
         </is>
       </c>
     </row>
@@ -1335,17 +1380,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L.)Glasshouse experiments to evaluate the effect of bioslurry effluent on seedling growth of Swiss chard (Beta vulgaris L) were conducted in summer 2017 and winter 2018 at Dohne Agriculture Development Institute, Stutterheim, Eastern Cape, South Africa. Two cultivars of Swiss chard, Star 1801 and Fordhook giant, were planted in 200 cavity trays using a hygromix commercial growing medium incorporated with fertilizer treatments at different rates of bioslurry: no incorporation (control), 50% bioslurry, 100% bioslurry, 200% bioslurry and the recommended rate of 2:3:4 (30) NPK fertilizers. In the glasshouse the experiments were arranged in a randomized complete block design (RCBD) which was replicated three times. At four weeks after germination, ten (10) seedlings per treatment were destructively sampled randomly to determine the plant growth and biological mass parameters: (i) Seedling height, shoot and root height; (ii) Seedling mass; (iii) Fresh shoot and fresh root mass as well as their dry mass; (iv) Nutrient content of leaves. The results indicated that fertilization with 100%Bioslurry produced significantly taller seedlings and shoot height, while the shortest seedlings were obtained from the recommended inorganic fertilizer. Fertilization with 200%Bioslurry and the control treatment produced significantly higher biological yield compared to other treatments. The interaction between fertilizer treatments, cultivar and season indicated that summer season performed better compared to winter in seedling growth and development, and Fordhook giant fertilized with 100% and 200% bioslurry was superior compared to Star 1801. Fertilization with 50% bioslurry resulted in seedlings with higher sodium, while the seedlings grown in the control treatment showed higher copper content. The highest manganese was obtained from the seedlings fertilized with the inorganic fertilizer. It is therefore, concluded that fertilization with bioslurry at 100% and 200% bioslurry application rates enhanced the growth and quality of Swiss chard seedlings.</t>
+          <t xml:space="preserve">Morphological, molecular, and life cycle characteristics of Phaeocystis globosa Scherffel (Prymnesiophyceae) in the Southeast China seaPhaeocystis globosa blooms frequently occur in the Southeast China Sea and cause significant negative impacts on coastal ecology and mariculture. The P. globosa blooms in southeastern China are very different compared to those of European strains, suggesting that differences may exist in their morphological, phylogenetic, and life history traits. In this study, seven strains of P. globosa isolated from Southeast China Sea that were typical strains of algal blooms in the region, in addition to one strain from the Gulf of Mexico (CCMP629), were comprehensively evaluated to better understand region-specific differences of the species. Significant differences were not observed in the internal cell structures and other characteristics compared to those of European strains, while differences in cell surface structures were apparent. For example, small and large flagellated Chinese P. globosa cells exhibited two flagella with slightly unequal lengths and a short haptonema, the surfaces of small flagellated cells were not covered by scales, and colony cell diameters were smaller. 18S rRNA sequence phylogenetic analysis also revealed that P. globosa comprised a species complex with two ecotypes (warm- and cold-water types), of which the strains from the southeastern coast of China and CCMP629 belonged to the warm-water type. In addition, the life cycles and variable modes of P. globosa colony formation were evaluated in detail. The algal bloom may be due to the rapid colonies formation by budding and colony fragments. These results provide new insights into the life cycle of P. globosa and highlight the differences in morphological and phylogenetic relationships between strains from the southeast coast of China and those from coastal European regions. </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Glasshouse experiments found that fertilization with 100% and 200% bioslurry resulted in taller and higher yielding Swiss chard seedlings compared to inorganic fertilizer or control treatments.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1395,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Identification and management of Tomato brown rugose fruit virus in greenhouses in MexicoTomato brown rugose fruit virus (ToBRFV) has become a cause of great concern in the global tomato agro-industry since its first report in Israel in 2014. Global tomato production is affected by ToBRFV, and management practices are being evaluated. We tested seed lots from international producers as well as greenhouse substrates and water wells as possible sources of virus contamination. We identified a second introduction of ToBRFV in Mexico by a strain closely resembling isolates from the Netherlands and the Middle East. ToBRFV was detected by RT-PCR in seed coats and epicotyls (from commercial seeds and seedlings obtained from infected tomato plants), indicating a transmission rate of 9%. Virus-like particles (VLPs) were found in wells used for irrigation in greenhouses, but these exhibited low infectivity. These findings suggest that water sources could serve as ToBRFV reservoirs. We evaluated four chemical and six thermal methods for sanitizing substrates, plasticware, and other greenhouse utensils, using detached leaf bioassays in Nicotiana rustica. The most effective chemical sanitization method was treatment with glutaraldehyde plus quaternary ammonium salts and pentapotassium salts. The most effective heat treatment was at 92 degrees C for 30 minutes, which inactivated the virus. Tomato producers could implement these sanitization methods to control ToBRFV.</t>
+          <t xml:space="preserve">Development of an automated ion-specific fertigation management systemVertical farming is a revolutionary idea that would allow cities a greater self-sufficiency by growing plants locally with maximum productivity. This technique responds to the challenges posed by the projected decreasing farmland availability, growing population and increased urbanization. A strong growth of vertical farming can be expected for the next decade. A crucial advantage of vertical farming over conventional farming is the more efficient control of all cultivation parameters like climate condition or nutrient concentrations as well as the recovery of water. Hydroponic, aeroponic and aquaponic culture are important technologies involved in vertical farming to grow value plant based raw materials, vegetables, flowers, herbs, selected fruits, seedlings, and fish year-round. Currently nutrient solution management is limited to adjusting the conductivity and pH of the solution by supplying stock solutions with fixed ion ratios. Ion specific nutrient management, based on ion selective electrodes (ISE) holds the potential to increase nutrient use efficiency and yields through continuous monitoring and adjustment of ion concentrations. In an Indo-German research project an automated sensor system for a highly efficient nutrient management in vertical farms shall be developed (SensVert). The main goal of the SensVert project is to develop an automated ion-specific fertigation management (ISFM) for vertical farming systems. Based on a better understanding of the plant-environment-interactions, optimized strategies for nutrient supply can be developed. </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1365,7 +1405,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Research in Mexico has identified water sources, such as wells used for greenhouse irrigation, as potential reservoirs for Tomato brown rugose fruit virus (ToBRFV). Chemical and thermal methods were evaluated to sanitize substrates and utensils and control the virus.</t>
+          <t>The development of an automated ion-specific fertigation management system aims to improve nutrient efficiency and yields in vertical farming systems.</t>
         </is>
       </c>
     </row>
@@ -1375,17 +1415,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Canadian Plant Disease Survey 2023 volume 103: disease highlights 2022Diseases of berry, vegetable, ornamental nursery and landscape plants in south coastal British Columbia submitted to Elmhirst Diagnostics &amp; Research in 2022 and causal agents are listed. In April - May, cold, wet soils led to nutrient deficiency symptoms on foliage and cool, rainy weather through June led to high levels of botrytis in berries and many other crops. This was followed by hot, dry weather from July-September causing heat and drought stress on many crops and landscape plants. Powdery mildew was severe on many nursery and landscape plants, such as big-leaf maple (Acer macrophyllum). No significant new diseases were observed.</t>
+          <t xml:space="preserve">Pest categorisation of Setoptus parvifloraeThe EFSA Plant Health Panel performed a pest categorisation of Setoptus parviflorae (Acari: Eriophyoidea: Phytoptidae) for the European Union (EU). This mite is not listed in Annex II of Commission Implementing Regulation (EU) 2019/2072. It is known to occur in the Nanjing Botanical Garden (China) on Pinus parviflora. This is its only known host plant and location. The mite occurs on the needles and in the needle sheaths. Details about its life cycle are mostly unknown. Plants for planting, including dwarfed plants, of P. parviflora are the main potential pathway for entry into the EU. However, plants of the genus Pinus other than fruit and seeds are mostly prohibited from entering the EU (Commission Implementing Regulation (EU) 2019/2072). The host, P. parviflora, can be found in temperate-zone gardens and arboreta, and is a popular tree for bonsai in the EU. Although the Koppen-Geiger climate type Cfa (humid subtropical), which occurs in Nanjing, can be found in the EU, the growing conditions of P. parviflora at the Nanjing Botanical Garden were not reported. This adds uncertainty about where in the EU this mite could establish, most probably on ornamental P. parviflora. There is no evidence of impact of S. parviflorae. Measures to prevent entry and spread are available. S. parviflorae does not satisfy all the criteria that are within the remit of EFSA to assess for it to be regarded as a potential Union quarantine pest, as there is no evidence of impact. </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>In 2022, cold, wet soils caused nutrient deficiency, while cool, rainy weather led to high levels of botrytis in berries. Hot, dry weather in summer caused heat and drought stress. Powdery mildew was severe on nursery and landscape plants. No new diseases were found.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1430,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Application of living mulch in rows of the apple trees on several rootstocks - long-term evaluationThe long-term influence of several living mulches on apple tree growth, nutrient status, yield, and fruit quality concerning the year of cover crop sowing in tree rows was evaluated in the Lower Silesia region in the southwestern part of Poland. The estimation was conducted in six apple tree 'Ligol' populations differentiated by the rootstock: M.26, M.9, P 60, P 2, P 16, and P 22. In experiment no. 1, one-year-old nursery stock was planted, and perennial living mulches were sown: colonial bent grass (Agrostis vulgaris With.) and white clover (Trifolium repens L.) in the same year and blue fescue (Festuca ovina L.) in the following year. In experiment no. 2, which involved two-year-old stock, the sowing of blue fescue was delayed until the second, third, fourth, and fifth years following orchard planting. The presence of the cover crop significantly affected young tree growth when one-year-old trees were planted. The sowing of the living mulch in the first or the second year after tree planting led to a significant reduction in the cumulative yield obtained from the young trees. The living mulch improved the red coloration of the fruit skin in the young orchard, but it caused a reduction in the mean fruit weight and size. However, it also contributed to decreased nitrogen concentration in the leaves of the apple trees, and the tree tolerance to living mulch increased as the orchard aged. A choice of semidwarf rootstock, postponed sowing of cover crop, and high-quality nursery stock were recognized as the most important factors for fostering apple tree tolerance to living mulches in tree rows.</t>
+          <t xml:space="preserve">Cover crops and rootstocks interaction on vine performances of organic 'Autumn Pearl' table grape: first results of OLTRE.BIO research projectInter-row cover crops in organic viticulture are oriented to increase the biodiversity of soil and to promote healthy root status. The use of rootstocks on table grape cultivars is required due to phylloxera, nematodes, or soil difficulties, like high lime or salt content, drought and high groundwater conditions. The research was carried out in the Apulia region, in 2021 to determine the impact of two rootstocks (1103 Paulsen and 140 Ruggeri) on-field performance of organic 'Autumn Pearl' seedless vines grown on two different cover crops. The first one was a commercial mixture of grass cover and the second one a commercial grass-legume cover crop. 'Autumn Pearl' vines have shown the highest berry weight, equatorial diameter, and total soluble solid onto 140 Ruggeri and on grass cover crop. According to our data, grapevines onto 140 Ruggeri rootstock exhibited the highest photosynthetic assimilation rate and leaf transpiration. The use of inter-row cover crops (permanent or temporary) in viticulture has many advantages, of which the reduction of water runoff and soil erosion, restriction of evaporation from the soil surface, improvement of soil water holding and soil organic matter, the reduction of temperature fluctuations in the soil, as well as the regulation of the vine growth and vigor, with influence on table grape quality and quantity. </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1405,7 +1440,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Long-term evaluation of living mulches on apple tree growth, yield and fruit quality. Cover crop affects young tree growth and fruit size, but improves red coloration. Tolerance increases with orchard age.</t>
+          <t>Research conducted in Apulia in 2021 examined the impact of two rootstocks on the performance of organic 'Autumn Pearl' table grape vines grown on different cover crops. Vines grown on the 140 Ruggeri rootstock and grass cover crop showed the highest berry weight and quality. Inter-row cover crops have various benefits in viticulture.</t>
         </is>
       </c>
     </row>
@@ -1415,17 +1450,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Adjuvant effects on pyraclostrobin and boscalid residues, systemic movement, and dietary risk in garlic under field conditionsAdjuvants are supplemental substances added to pesticide tank mixtures to enhance their efficacy by altering the dispersing, emulsifying, spreading, sticking, and wetting properties of the spray mixture. The goals of this study were an assessment of the effectiveness of pyraclostrobin and boscalid against garlic rust; the fungicide's dissipation and translocation within plant tissue in the presence of commercial adjuvants DashR HC EC; and the validation of an analytical method for concurrently determining boscalid and pyraclostrobin in green garlic and garlic bulbs. Pyraclostrobin and boscalid retention in green garlic and the dietary exposure risks were also evaluated. The adjuvant DashR HC EC is an emulsifiable concentrate containing fatty acids, methyl esters, and alkoxylated alcohol-phosphate esters. The test plots were sprayed with the maximum recommended dosage of 400.5 g a.i. ha&lt;sup&gt;-1&lt;/sup&gt; boscalid and 100.5 g a.i. ha&lt;sup&gt;-1&lt;/sup&gt; pyraclostrobin. The residues of pyraclostrobin and boscalid in garlic bulb and green garlic samples were determined using a mini-Luke multi-residue solvent extraction method paired with a high-performance liquid chromatography diode array detector (HPLC-DAD). This method is based on the extraction of a homogeneous sample with acetone, petroleum ether, and dichloromethane. Boscalid and pyraclostrobin recoveries in green garlic and garlic bulbs ranged from 71% to 107% on average, with a relative standard deviation (RSD) of 6.8% to 18.1%, and limits of quantification were 0.02 mg/kg. In green garlic and garlic bulbs, boscalid residues ranged from 0.14 to 3.51 mg/kg and pyraclostrobin from lower than LOQ to 1.43 mg/kg, during the experiment. The adjuvant increased the fungicidal efficacy of the fungicides and their retention on green garlic. Although boscalid is considered a nonsystemic fungicide, it showed higher translocation from garlic leaves to garlic bulbs than pyraclostrobin. Regarding the dietary risk assessment, the use of the adjuvant in a tank mixture with boscalid and pyraclostrobin is considered safe 14 days after application, which agrees with the recommended PHI.</t>
+          <t xml:space="preserve">Thalia dealbata, a new host of sugarcane mosaic virusThalia dealbata is a native of the middle-southern part of the USA. It is a popular rhizomatous perennial pond plant which is available worldwide through wholesale nurseries. In 2021 at a nursery in Helvecia (Hungary) 1.5% of the 200 T. dealbata plants showed chlorotic bands on the foliage in August, which indicated a potential virus infection. By the end of the growing season, the disease incidence reached 100%. The causal pathogen was isolated and identified as Sugarcane mosaic virus (SCMV) based on serological and molecular analyses. This is thought to be the first report of SCMV infecting T. dealbata, a perennial herbaceous ornamental aquatic plant. </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>This study investigated the effects of an adjuvant on the efficacy, movement, and dietary risk of pyraclostrobin and boscalid fungicides in garlic under field conditions. The adjuvant improved effectiveness and retention, and the fungicides were found to be safe for consumption 14 days after application.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1465,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sustainable control stategies of the two-spotted mite Tetranychus urticae Koch (Prostigmata: Tetranychidae) in citrusThe two spotted mite is a key pest in Mediterranean citrus crops. This citrusagrosystem harbors a rich and abundant community of native predators that feed onTetranychus urticae. The groundcover vegetations also plays an important role in thepopulation regulation. However, recurrent outbreaks during summer lead to repetitive sprays to control its populations. During two consecutive years, a T. urticae control strategy based on conservation biological control and the use of paraffin oils was implemented in a commercial grove of Citrus clementina cv., Clementina de Nules grafted on Citrange Carrizo rootstock, located in southern Catalonia (Spain). No synthetic acaricides nor insecticides were sprayed during that period. A permanent groundcover was maintained and mowed regularly. The population dynamics of T. urticae and natural enemies in the tree canopies was monitored. The number of symptomatic or spotted leaves, T. urticae individuals per leaf, and the presence of natural enemies were recorded. From August onwards T. urticae population on fruits was also monitored. When the economic threshold was reached, paraffin oil was used to keep it under control. Two sprays during the first season and three during the second were conducted. At harvest, the symptoms caused by T. urticae on fruits were assessed. During the first season, only 1% of the fruits showed severe scarring and 12% showed small scars on the fruit rind. At harvest of the second season no fruits with severe scarring were recorded, showing the efficacy of the strategy followed.</t>
+          <t xml:space="preserve">Agronomic evaluation of eight 41 B x 110 richter grapevine genotypes as rootstock candidates for Mediterranean viticultureChoosing the most appropriate rootstock(s) is a key decision for the profitability of vineyards; therefore, there must be a sufficient range of rootstocks in the market adapted to different environmental conditions and production objectives. However, rootstock-breeding programs have been scarce in recent decades, and most of the rootstocks used today were bred a century ago, when the needs of the sector were very different from today. In this work, we aimed to evaluate new rootstock candidates before their introduction in the market. An agronomic evaluation was conducted on eight novel rootstock genotypes obtained from the first generation of the cross-pollination of 41 B Millardet et de Grasset (41 B) and 110 Richter (110 R) grafted with 'Syrah' and 'Tempranillo' and planted in a typical vineyard of the Ebro Valley in Spain. During the four consecutive growing seasons (2016-2019), growth, yield and berry composition parameters at harvest were collected. A linear mixed-effects model was constructed, considering year and block as random effects. Multiple factor analysis and hierarchical clustering on principal components were performed to establish clusters of genotypes with similar behaviour. The rootstock candidates showed a very wide performance range compared to their parents. The trial allowed us to identify two very promising candidates (RG8 and RG10), whose registration as commercial rootstocks is already in progress. </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1445,7 +1475,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A sustainable control strategy for the two-spotted mite in citrus crops was implemented, focusing on conservation biological control and the use of paraffin oils. No synthetic chemicals were used, resulting in successful control of the pest.</t>
+          <t>Agronomic evaluation of grapevine rootstock candidates found two promising options (RG8 and RG10) with wide performance ranges compared to their parents.</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1485,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Scientific-based drip irrigation regime for raspberry plants cultivated in the central part of the non-black earth regionRaspberry is an important berry crop; its production volumes increase from year to year. To produce high-quality planting material and gain high and stable yields under unstable weather conditions, resource-saving technologies, including drip irrigation, are required. The purpose of this study was to develop a scientific-based drip irrigation regime for raspberry plants cultivated in the central part of the non-Black Earth Region of Russia. A two-factor field experiment was launched in autumn 2019. The first factor (factor A) was the drip irrigation regime; the moisture content in the root layer was maintained in the following ranges: 60-80, 70-90, and 80-100% of the field moisture capacity (FMC). The second factor (factor B) was the raspberry variety: Nagrada or Solnyshko. Drip watering can substantially reduce irrigation water consumption. In the variant involving drip irrigation and moisture content in the root layer maintained in the range of 80-100% of the field moisture capacity, irrigation water savings averaged 65% compared to traditional watering techniques; in the variant involving drip irrigation and moisture content in the root layer maintained in the range of 60-80% FMC, water savings averaged 78%. In addition, local irrigation creates the optimal air and water regime in the soil. In experimental variants involving irrigation, precipitation accounted for the main part of the total water consumption (71-81%); while irrigation water for only 15-22%. In variants with soil moisture maintained at levels exceeding 70% FMC, the stem diameter in seedlings was 20-40% larger compared to the control, the height of seedlings was 40-50% larger, and the yield was twice as much as in the control variant. This makes it possible to recommend such irrigation regimes as optimal ones.</t>
+          <t xml:space="preserve">Corema album: from the wild to the fieldCorema album (L.) D. Don a long-lived, dioecious evergreen shrub is native from Atlantic dunes in the Iberian Peninsula and produces white edible berries. As a new berry there is great interest in the production and marketing of its fruits. Accompanying this growing interest in the species, INIAV initiated the development of a research program with several lines that are underway. The relationship between fruit and seed size is one of the most important selection criteria in this species. Some studies of plant morphology and anatomy, namely flower biology were performed. Being a plant that inhabits dunes with extreme temperature conditions and lack of water in the summer period, it is expected that the germination of their seeds is difficult. Thus, several germination trials have been developed with different types of scarification and stratification with uneven results obtained. In order to understand embryo maturity and seed dormancy, histological sections of embryos were done during the stages of seed and cotyledon development. A germplasm collection from ten origins was established at INIAV Experimental farm at Fataca. To evaluate the phenological behaviour of plants from different origins, a phenological BBCH scale was proposed. Vegetative propagation tests were also carried out, assessing rooting capacity between different genotypes of distinct origins. Genetic diversity assessment based on ISSR markers and agro-morphological traits was done in four different sites along the Portuguese coast. Results show that genetic diversity was higher between populations than within them. The agro-morphological traits showed high diversity, but they were not associated to geographic localization. The opportunity for development of a new berry crop presents many potential benefits as well as new challenges. Mass selection of wild plants was performed in 5 km at Meco coastal dune with special focus on fruit characteristics, mainly fruit and seed size, with the selection of 20 superior clones. Corema album has great potential as a new berry crop for. </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1465,7 +1495,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A study in Russia developed a drip irrigation regime for raspberry plants, reducing water consumption by 65-78% and improving stem diameter, height, and yield.</t>
+          <t>Corema album, a native shrub in the Iberian Peninsula, is being researched for its potential as a new berry crop. Studies on seed germination, plant morphology, and genetic diversity have been conducted. The species shows promise for cultivation.</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1505,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Regulation of yield, fruit size, and leaf mineral nutrients of the 'Sumadinka' sour cherry cultivar with help of rootstocksThe impact of seven clonal rootstocks (Colt, MaxMa 14, Krymsk 6, Adara, Cigancica, Gisela 5, and Gisela 6) and one local plum (Myrobalan seedlings) on yield, fruit weight, leaf mineral content at 120 days after full bloom (DAFB), and deviation from optimum percentage (DOP) for macro- and microelements of the 'Sumadinka' sour cherry cultivar was evaluated in orchard conditions for two consecutive years. Results showed that yield was higher on Adara, Gisela 5 and MaxMa 14, intermediate on Cigancica and Krymsk 6, and lower on Colt, Gisela 6, and Myrobalan rootstocks. The average fruit weight (FW) was highest on Gisela 6 and lowest on Myrobalan seedlings, and FW was higher in the second year of the trial. Significant effect of rootstock was found on the leaf mineral analysis properties evaluated. Thus, Adara showed the best capacity to uptake and translocate to the scion leaves for most macro- and microelements, whereas the poorest nutritional status was, in general, obtained for Myrobalan, probably due to the incidence of graft incompatibility disturbances with the 'Sumadinka' cultivar. MaxMa 14 showed the best balanced nutritional values (DOP) whereas the wider imbalance among elements was induced by Myrobalan seedlings. 'Krymsk 6' had, in general, lower values for most leaf mineral elements but higher DOP macro and DOP micro-indexes, showing more unbalanced nutritional index than the rest of rootstocks, with the exception of Myrobolan, and both of them followed by Colt. This work demonstrates that the rootstock strongly influences some important sour cherry attributes such as yield, fruit size, leaf macro- and microelements. The significant positive correlations between yield and mineral elements as Mn and Ca could indicate the interest of rootstocks having higher absorption and uptake for these elements in the present growing conditions. Considering their overall performance and tolerance to heavy and acidic soils, and according to the PCA results, Adara, MaxMa 14, and Gisela 6 appear as new promising rootstocks and can be recommended for sour cherries growing under similar soil conditions. We believe that sufficient information on the influence of different rootstocks on yield, fruit size, and leaf mineral composition of sour cherry would enable less ambiguous comparisons within and among them and ensure the best choice for growing a specific cultivar in similar environmental conditions.</t>
+          <t xml:space="preserve">""Recovery"" of Vaccinium myrtillus from phytoplasma infection in vitroConsumer interest in healthy foods has increased market demand for high quality fruits such as wild and cultivated blueberries. They are used as medicinal plants, due to their high anthocyanin content and are an excellent source of antioxidants. Berries and leaves have various health effects and are used as a disinfectant, to lower cholesterol levels and as treatment for rheumatic diseases. In vitro techniques like micropropagation are increasingly being used as alternative ways of breeding, for the production of large numbers of plants on a commercial scale, for sanitation purposes and for the maintenance of obligate plant pathogens like viruses and phytoplasmas. A plant of wild European blueberry (Vaccinium myrtillus L.) exhibiting symptoms of shoot proliferation and small leaves was potted in the greenhouse and served as donor material for tissue culture establishment. Infected cultures were maintained over a period of more than 10 years and regularly screened for the presence of phytoplasmas. Interestingly over a period of several years a phenomenon of spontaneous remission of symptoms occurred, comparable to several cases of fruit trees under in vivo conditions described as ""recovery"". A thorough screening by PCR was carried out over several years and revealed that a spontaneous sanitation that occurred during the in vitro cultivation process, comparable to NDASH but with a lower extent (percentage) meristem culture and thermotherapy. </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1485,7 +1515,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>The impact of different rootstocks on yield, fruit size, and leaf mineral content of the 'Sumadinka' sour cherry cultivar was evaluated. Adara, MaxMa 14, and Gisela 6 were recommended for similar soil conditions.</t>
+          <t>In vitro techniques are used to produce a large number of high-quality blueberry plants. An interesting phenomenon of spontaneous recovery from phytoplasma infection was observed during the cultivation process.</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1525,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Technological research of pneumoseparator for forest seed extractionA technological study on the operation of a pneumatic separator on a BCC Cleaner&amp;Seed Sizer (mini) machine for extraction of Scots pine (Pinus sylvestris L.) seeds has been carried out. It is part of the new technological equipment for greenhouse production of container seedlings in the Lokorsko forest nursery. Compared to the traditional production of saplings in Bulgaria for afforestation, the new production requires the extracted seeds to have higher quality indicators. In order to establish the optimal operating modes of the pneumoseparator for high quality seed production, with minimal seed losses in the waste in the aspiration system, a multifactor active experiment and optimization in the treatment of Scots pine seeds was conducted. The obtained results were used to establishment of a regression models to predict the technological parameters and the quality of the obtained seeds depending on the operating modes of the machine. The optimal parameters for setting the pneumatic separator have been established and functional modes for Scots pine seeds extraction have been determined.</t>
+          <t xml:space="preserve">Adaptation to cultivation of Hypericum pubescens Boiss., an endangered species in Alentejo (Portugal)Hypericum pubescens Boiss. is a medicinal plant, classified as endangered species, in the Portuguese red list of vascular flora, mainly due to the intensification of agriculture. This species is widely used in traditional medicine, increasing genetic erosion risk. Thus, studying propagation methods for its efficient cultivation is our main goal. Three seed samples were tested: (a) cultivated in 2016; (b) from nature in 2017; (c) cultivated in 2021. Seed were incubated at 20 degrees C, 12h photoperiod, using 4 replicates. In November 2021, a propagation trial was done using 30 stem cuttings (5 cm length) of four types of cuttings: softwood terminal; softwood sub-terminal; semi-softwood and hardwood. Cuttings were placed in a 5x5 cm cells on trays, using a commercial turf grass substrate. Cuttings rooting success and height was registered after 1 and 2 months. In May 2021, rooted stem cuttings from spontaneous plants were installed in an experimental field, using weed control fabric, constituted by 3 randomized blocks (5 plants block&lt;sup&gt;-1&lt;/sup&gt;). Phenology descriptors (flowering dates: beginning, full, end) were observed. In November 2021, agronomic descriptors were observed: plot area, plot biomass production and main stem descriptors (height, length, number of internodes, number of ramifications and biomass production). The germination capacity was maintained after 5 years' storage in a refrigerator (ca. 5 degrees C). Best seed germination rate was 86%; 1000 seed weight was 0.084 g. The highest survival rate was obtained with sub-terminal cuttings (100%), but softwood terminal cuttings grew faster. On the agronomic plot, average height of plants was 21.9 cm, stem average length was 66.1 cm, thus, plants have prostrate habit; main stems had average of 67 ramifications and 45 internodes. The 4.6 m&lt;sup&gt;2&lt;/sup&gt; plot produced 862.2 g m&lt;sup&gt;-2&lt;/sup&gt; fresh herb and 1.73 t ha&lt;sup&gt;-1&lt;/sup&gt; dry herb. Plants were vigorous and cultivation installation using weed control fabric was considered a success. </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Efficient cultivation methods were studied for the endangered medicinal plant Hypericum pubescens Boiss., with successful results in germination, rooting, and biomass production using different growing media.</t>
         </is>
       </c>
     </row>
@@ -1510,12 +1545,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Conservation of the bird cherry (Padus Mill.) germplasm by cold storage and cryopreservation of winter cuttingsConservation at cryogenic temperatures, usually in liquid nitrogen (LN) or in its vapor, is the only reliable method for the long-term ex situ conservation of fruit and berry crops with vegetative reproduction. In this study, five bird cherry (Padus Mill.) varieties of different genetic origin from the bird cherry genebank at the N.I. Vavilov All-Russian Institute of Plant Genetic Resources (VIR, Russia) were tested for their response to cryopreservation in LN vapor (-183--185 degrees C). The response included viability under laboratory and field conditions, morphological assessment of the developed plants and biochemical analysis of fruits produced during three consecutive years by plants developed from cryopreserved cuttings. All parameters were compared to those recorded after cold storage of cuttings (-5 degrees C), a routine mid-term conservation method currently used at the VIR genebank. The initial viability of winter cuttings varied from 86.7% to 93.3%. Six-month cold storage and cryopreservation reduced viability to 53.3-86.7% and 43.3-60.0%, respectively, which was above the 40% viability threshold in all varieties tested. Cuttings after cold storage showed better viability when recovered in the laboratory (80% mean viability) than in the field (58% mean viability); viability of cryopreserved cuttings was not affected by recovery conditions. The results of a two-way analysis of covariance suggested that storage and recovery conditions had the most significant effect on viability (p &lt; 0.0001), while the effects of genotype (p = 0.062) and factor interactions (p = 0.921) were minor. Cryopreservation had little or no influence on morphological parameters of the plants recovered in the field, including plant height, number of shoots, internodes and roots, and root length. Similarly, no effect of cryopreservation was recorded on dry matter content, total sugar content and ascorbic acid concentration in fruits produced by plants developed from the cryopreserved cuttings. These results suggest that cryopreservation in LN vapor is a reliable method for conservation of the bird cherry genetic collection and is worth testing with a broader variety of genotypes.</t>
+          <t xml:space="preserve">Mycobiome of post-agricultural soils 20 years after application of organic substrates and planting of pine seedlingsA 20-year study of a pine stand on post-agricultural land showed that woody debris in the form of organic matter can be successfully used to restore symbiotic mycorrhizal communities, as is the case with forest soils. Woody substrates restored organic matter in soils altered by long agricultural use and had a positive effect on the composition of mycobiota antagonistic to pathogens, especially to Heterobasidion annosum, the causal agent of the dangerous disease root and stump rot of many forest tree species, including stands of Pinus sylvestris (L.). In a study that started in 2001 in the forest district of Czarne Czluchowskie (northern Poland), the following organic materials were used: wood residues (W), sawdust (S), bark compost (B), and compost applied to the root zone during planting (G). The organic materials were spread in the form of mulch over the entire area during planting. After twenty years, it was found that the substrates used provided suitable growth conditions for mycobiome useful for pines. The addition of organic matter did not change the alpha biodiversity of the soil, but in the long term led to significant changes in the composition of mycobiota (beta biodiversity). The changes in the soil after the addition of organic material naturally accelerated the formation of the forest habitat. A number of fungi evolved that degraded added lignin and cellulose while being antagonists of H. annosum and other pine pathogens. In particular, the well-known hyperpathogens of the genus Trichoderma played an important role by promoting resistance of the soil environment to pathogens. Soil enrichment by bark compost and wood residues increased the relative abundance of Trichoderma more than fourfold. Mycorrhizal fungi became dominant in soil enriched with organic matter. After enriching the soil with bark compost, the relative abundance of Amphinema and Inocybe increased to 5%. The relative abundance of Russula in soil enriched with wood residues and sawdust increased to 9% and 5%, respectively. Mycorrhizal fungi, e.g., of the genus Amanita, Rusula, which formed root mycorrhizae, not only increased the root receiving area many times over, but also protected the roots (mechanically and chemically from pathogens). Altogether, the observed positive changes increase the chances that the first generation of pines will survive on the ground. </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Organic substrates like wood residues and bark compost can restore mycorrhizal communities in post-agricultural soils, leading to a positive effect on the composition of beneficial fungi and protection against pathogenic agents.</t>
         </is>
       </c>
     </row>
@@ -1525,17 +1565,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Influence of container, potting media and nutrients on production and post-production consumer acceptance of potted marigold (Tagetes patula L.)Production of potted plants is influenced by factors viz., type of container, potting medium, nutrient dose. A study was conducted to standardize these factors for potted French marigold var. Arka Pari. The treatments comprised of two type of containers (plastic and coir), three potting media [red soil + FYM + sand (1:1:1 v/v), Arka fermented cocopeat (AFC), AFC + vermicompost (1:1 v/v)] and four nutrition concentrations (160:30:180 ppm N:P: K, 128:24:144 ppm N:P: K, 96:18:108 ppm N:P:K and 3% Jeevamrutha) laid out in factorial completely randomized design replicated thrice. Plants grown in potting media combination of Arka fermented cocopeat (AFC) + vermicompost (1:1 v/v) along with weekly application of nutrient solution (128:24:144 ppm NPK) produced maximum number of flowers plant&lt;sup&gt;-1&lt;/sup&gt; (147.61) and registered highest uptake of nitrogen (2.87 g plant&lt;sup&gt;-1&lt;/sup&gt;), phosphorus (0.53 g plant&lt;sup&gt;-1&lt;/sup&gt;), potassium (3.24 g plant&lt;sup&gt;-1&lt;/sup&gt;), magnesium (0.85 g plant&lt;sup&gt;-1&lt;/sup&gt;) and sulphur (0.21 g plant&lt;sup&gt;-1&lt;/sup&gt;). Based on the attributes of the potted plants, this treatment combination also registered the highest score (81.2 on a scale of 100), willingness of the consumers to purchase (4.5 on a scale of 5), overall acceptability (2.7 on a scale of 3) and the benefit cost ratio of 1.18.</t>
+          <t xml:space="preserve">Future fire risk and the greenhouse gas mitigation potential of forest rehabilitation in British Columbia, CanadaIncreased forest fires in the future will create opportunities to undertake salvage logging and replanting activities with the potential to reduce greenhouse gas (GHG) emissions relative to a 'do nothing' scenario that relies on natural regeneration. Salvage logging of fire-killed wood will generate additional useful products for society while replanting will provide opportunities to establish seedlings with genetic gain and increased climate resilience. In British Columbia, Canada, our study showed that cumulative net GHG benefit from these rehabilitation activities on about 14% of the area burned ranges from -32 to -79 MtCO&lt;sub&gt;2&lt;/sub&gt;e in 2070, but cumulative net GHG reduction benefits are not realized for 23 to 31 years due to the emissions debt that is incurred from harvest wood product emissions and residue management. Scenarios were modelled using the Generic Carbon Budget Model (GCBM) that tracked carbon in the forest and a harvested wood products model that tracked the fate of C and the substitution benefits achieved through wood use, both developed by the Canadian Forest Service. Results were evaluated across 100 simulations of future fire, developed using a log-normal model fit to historic fire events and an assumption of linearly increased area annually burned by 2070 to double the average of the period 1950 to 2018. Our results suggest that mitigation efforts might be better directed at reducing wildfire risks and emissions in the first place, rather than rehabilitating post-fire outcomes. </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>A study looked at the impact of containers, potting media, and nutrients on potted marigold plants. The best combination was Arka fermented cocopeat + vermicompost with nutrient solution, resulting in high flower production and consumer acceptance.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1580,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Impact of intron and retransformation on transgene expression in leaf and fruit tissues of field-grown pear treesStable and high expression of introduced genes is a prerequisite for using transgenic trees. Transgene stacking enables combining several valuable traits, but repeated transformation increases the risk of unintended effects. This work studied the stability and intron-mediated enhancement of uidA gene expression in leaves and different anatomical parts of pear fruits during field trials over 14 years. The stability of reporter and herbicide resistance transgenes in retransformed pear plants, as well as possible unintended effects using high-throughput phenotyping tools, were also investigated. The activity of beta-glucuronidase (GUS) varied depending on the year, but silencing did not occur. The uidA gene was expressed to a maximum in seeds, slightly less in the peel and peduncles, and much less in the pulp of pear fruits. The intron in the uidA gene stably increased expression in leaves and fruits by approximately twofold. Retransformants with the bar gene showed long-term herbicide resistance and exhibited no consistent changes in leaf size and shape. The transgenic pear was used as rootstock and scion, but grafted plants showed no transport of the GUS protein through the graft in the greenhouse and field. This longest field trial of transgenic fruit trees demonstrates stable expression under varying environmental conditions, the expression-enhancing effect of intron and the absence of unintended effects in single- and double-transformed woody plants.</t>
+          <t xml:space="preserve">Culture of Gracilaria gracilis and Chondracanthus teedei from vegetative fragments in the field and carpospores in laboratoryGracilarioids and Gigartinales are of great economic importance due to the phycocolloids they contain in their cell wall and are used in different industries worldwide. Field and laboratory cultures of two species of red seaweeds (Gracilaria gracilis and Chondracanthus teedei), confirmed after DNA analysis, were carried out to foster the increasing use of this species in Spain as a food source. Vegetative cultures carried out in an open-lock gate within a traditional salina in the ay of Cadiz (Southern Spain) rendered maximum growth rates in April (3.64% day&lt;sup&gt;-1&lt;/sup&gt;) for G. gracilis and in November (4.68% day&lt;sup&gt;-1&lt;/sup&gt;) for C. teedei, the latter showing significant differences between the months of the year. For laboratory cultures, samples of the two species used for sporulation were obtained from tidal creeks in several nearby locations of the Bay. In order to grow fertile carposporophytes from spores, Provasoli enriched seawater medium (ES medium), Miquel A + B and f/2 were used as culture medium at a temperature of 18 degrees C and irradiance of 30 micro mol m&lt;sup&gt;-2&lt;/sup&gt; s&lt;sup&gt;-1&lt;/sup&gt; in 12:12 h photoperiod. Both species developed a basal disc after 12-15 days in ES medium and Miquel A + B, and new microscopic seedlings were observed at 20-25 days in ES medium. With f/2 medium, no growth was observed after sporulation. The life cycle of G. gracilis was completed in ES medium over a period of 11 months with a mean growth rate of 3.28% day&lt;sup&gt;-1&lt;/sup&gt;. The present study is an important step towards the development of seaweed cultivation in the Bay of Cadiz, especially in integrated multi-trophic cultivation in salinas as part of the more sustainable use of the marine resources in coastal communities. </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1555,7 +1590,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>This study examines the stability of gene expression in transgenic pear trees over 14 years, finding that introns can enhance expression and retransformation does not have unintended effects.</t>
+          <t>Field and laboratory cultures of two red seaweed species were conducted to promote their use as a food source. Maximum growth rates were observed in April and November.</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1600,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Comparison of leaf litter decomposition and microbial decomposer communities in fringe and riverine mangroves in French GuianaMangroves are highly productive and changing forests located in the intertidal zone of tropical regions. Leaf litter decomposition represents a substantial part of their carbon sink abilities. Little is known about the potential effect of climate change on this key process of ecosystem functioning. This study compared leaf litter microbial decay between fringe and riverine Avicennia germinans stands. A direct and reciprocal transplant experiment using litterbags was setup in French Guiana to test 3 hypotheses: (i) the activities and abundance of microbial decomposers are lowest in the fringe mangroves due to exposure to saline water and tidal immersion; (ii) for these reasons, litter decomposes faster in riverine stands; and (iii) according to the home-field advantage hypothesis, litter decomposes more rapidly in the environment from which it originates. Remaining litter masses, abundance of litter microbial community (phospholipid fatty acid signatures (PLFA)), and their functional capability (enzyme activities and Biolog) were assessed. Litter directly transplanted in riverine stands showed higher enzymatic activity (+ 77%), catabolic diversity (+ 10%), and microbial biomass (+ 60%) than litter transplanted directly in fringe stands. In contrast, both riverine and fringe derived litter showed faster decay at the fringe (14% mass loss) than riverine site (4% mass loss) between 30 and 45 days. Here, environmental conditions associated with different distances from the sea such as salinity and inundation regimes, rather than microbial features are suggested as main factors affecting decomposition process. Expected sea level rise in the coastal Guianas may therefore modify the mangroves productivity in the coming decades.</t>
+          <t xml:space="preserve">Influence of the climatic conditions of the year 2022 on the grapevine phenology at SCDVV BlajThe present article attempts to describe how the effects of climate conditions affect the evolution of the grapevine phenological period in 2022. The cultivars used were Selena, Blasius, Rubin, Radames and two clones obtained approved in SCDVV Blaj: Sauvignon blanc 9Bl and Feteasca alba 29 Bl. The experiment was carried out at SCDVV Blaj and included field observations, monitoring weather conditions such as temperature and precipitation. For the onset of the phenological phases: budding, flowering, veraison (colour change of grape berries) and ripening-maturation. The phenological phases of the grapevines were monitored for a growing season according to the protocol established, taking into account the BBCH grade. Temperature and precipitation are the two main climatic factors that affect the growth and development of the grapevines. Due to existing thermal conditions and continued global warming, the Tarnave vineyard region is a recommended place for white grape cultivation. </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1575,7 +1610,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>This study compares leaf litter decomposition and microbial decomposer communities in different types of mangroves in French Guiana, finding that environmental conditions may affect decomposition process.</t>
+          <t>This article examines how climate conditions in 2022 affected the growth of grapevines at SCDVV Blaj, considering factors such as temperature and precipitation. It suggests that the Tarnave vineyard region is ideal for white grape cultivation.</t>
         </is>
       </c>
     </row>
@@ -1585,17 +1620,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The post-registration monitoring of glyphosate-treated plants using anecic earthwormsGlyphosate N-(phosphonomethyl) glycine is a widely-used herbicide in agriculture. The anecic earthworm, Lumbricus terrestris feeds and forages for surface plant materials meaning that this species has a unique and direct exposure to agrichemicals. At the recommended product rates, significantly (F&lt;sub&gt;1,44&lt;/sub&gt; = 8.67, p= .005) higher numbers of L. terrestris middens were found in the glyphosate treated areas of an arable crop field. Laboratory feeding assays using field aged plant materials indicated that previous glyphosate treatment was a statistically significant factor affecting earthworm L. terrestris biomass (F&lt;sub&gt;1&lt;/sub&gt;,&lt;sub&gt;12&lt;/sub&gt; = 5.75, p= .03). Negligible glyphosate residues were detectable, and the field aged plant materials were encrusted with fungal hyphae. This suggests that glyphosate influences the colonisation of plant material by a litter-fungus complex which improves the food quality to earthworms. Concentrations of epoxiconazole, a fungicide, were detected in some plant materials and may influence overall food quality to earthworms. Glyphosate treatment on fresh volunteer plant leaves (unwanted crop seedlings) was not a statistically significant factor affecting earthworm L. terrestris biomass (F&lt;sub&gt;1&lt;/sub&gt;,&lt;sub&gt;6&lt;/sub&gt; = 0.16, p= .92). These results indicate fungal communities influence feeding behaviours, and plant materials are a direct source of agrichemicals to anecic earthworms.</t>
+          <t xml:space="preserve">Signs of qualitative variability of seeds of Lonicera gracilipes var. Glandulosa Maxim. under influence with ionizing radiationThe article deals with the study of the biological characteristics of L. gracilipes Mig var. glanduiosa Maxim as a new berry crop. Seeds were treated with ionizing radiation to obtain new forms of crop plants. The identified number of qualitative signs of variability in seedlings exposed to ionizing radiation allows us to preliminarily speak about the identified mutations in L. gracilipes. The resulting mutant forms of the species L. gracilipes with other biological indicators to varying degrees different from the original species make it possible in the future to isolate promising forms valuable from an economic point of view for domestic berry growing. The currently existing economic indicators of the species L. gracilipes in terms of frost resistance (limit -250C), fruit weight - 0.6 g, low productivity (up to 300 g from one bush), put forward specific tasks for the selection of a new rare crop, promising for its cultivation as a fastgrowing berry bush. </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>This study found that glyphosate treatment in agriculture increased the number of anecic earthworm middens and affected earthworm biomass, suggesting that agrichemicals in soil can directly impact these earthworms. Additionally, fungal communities and fungicide residues may also play a role in earthworm feeding behaviors.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1635,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Production of compost from logging residues. (Special Issue: Bioprocesses and sustainable development (BSD-2023).)The implementation of forest management generates logging residue which can be used in several ways. One of the option is to use of logging residue in the composting process. Therefore, this study determined the possibility of producing compost based on logging residue and the produced fertilizer used to fertilize forest nurseries. Pine chips and sewage sludge were used for carrying out the study. The compost, as well as the leachate produced during composting, were characterized by high NPK content. The leachate collected at the end of the experiment was characterized by nitrogen content of approximately 6500 mg.dm&lt;sup&gt;-3&lt;/sup&gt;, phosphorus of approximately 450 mg.dm&lt;sup&gt;-3,&lt;/sup&gt; and potassium of approximately 500-700 mg.dm&lt;sup&gt;-3&lt;/sup&gt;. In contrast, the compost produced contained approximately 0.57 g.kg&lt;sup&gt;-1&lt;/sup&gt; nitrogen, approximately 0.39 g.kg&lt;sup&gt;-1&lt;/sup&gt; phosphorus, and approximately 0.24 g.kg&lt;sup&gt;-1&lt;/sup&gt; potassium. The disadvantage in terms of the usefulness of the resulting fertilizer in forest nurseries is its pH, which exceeded 9.0.</t>
+          <t xml:space="preserve">The effect of the drug bio root plus on the yield and quality of root-related seedlings when propagated by shortened lignifiedThe materials and results of research on the use of Bio Root Plus, produced in France, the effect of which has not been studied in the cultivation of grape seedlings, are presented. For the first time, the degree of influence of the drug on the regenerative activity of shortened grape cuttings was established with the industrial technology of growing seedlings using mulching polyethylene film and drip irrigation in the school. The regulations for the use of Bio Root Plus have been developed. The main research was carried out in the conditions of LLC ""Agrovin - Sultan"" of the Shelkovsky district of the Chechen Republic. The most developed root system in seedlings is formed when the cuttings are treated with Bio Root Plus at a concentration of 0.5%. In this variant, the best results were obtained in terms of growth - 100.7 cm versus 69.7 cm in the control. The ripening of shoots at the same time was 90.3%, and in the control only 70%. The leaf surface area was noted in this variant of 1200 cm2, which is 234 cm2 more than the control and 88 cm2 more than when treated with heteroauxin. The highest yield of seedlings of 385 pieces per 1 hectare was obtained when Bio Root Plus was processed at a concentration of 0.5%, which is more than when used in the production of heteroauxin by 13,000 pieces. The highest profitability - 317.9% was obtained in the same variant, and 64.1% less when treated with heteroauxin. The conducted studies allow us to recommend the preparation of Bio Root Plus in a concentration of 0.5% in the production of root-related seedlings. </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1615,7 +1645,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>This study explores the use of logging residue in compost production and its potential as a fertilizer for forest nurseries, despite its high pH levels.</t>
+          <t>Bio Root Plus, a French product, significantly improves the growth, yield, and quality of grape seedlings when used at a concentration of 0.5%, outperforming the control and heteroauxin treatments.</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1655,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Does shading and ground cover of moss and litter improve germination and establishment of Betula pendula Roth, Salix caprea L. and Populus tremula L. seedlings during drought stress in climate change? - a greenhouse studyThe climate change is leading to a significant increase in temperatures and dry periods in spring, for example in parts of middle and north Europe. Thus, the important factor for tree growth, the water availability, decreases on forest sites. It is to be expected that the successful establishment of pioneer tree species as pre-forests on large damaged areas will considerable be limited in the future. The phases of germination and establishment are the most dangerous phase in the life of trees. In this greenhouse study, we tested how different microsite conditions (open soil, moss and litter cover as well as different shading) under reduced water availability influence establishment success and growth of Betula pendula, Populus tremula and Salix caprea. The initial high germination success were reduced to 14%, 7% and 12% for Populus tremula, Salix caprea and Betula pendula, respectively, and the growth were significantly slower when the relevant soil water resource was just above the permanent wilting point. Therefore, in the first year the germination and establishment is linked to persistent moist conditions. If the soil dries out during germination, e.g. if there is no watering for more than 3 weeks, all seedlings died. Equivalent germination microsites (shading or ground cover) with comparable possible seedling densities to the moist open soil does not exist under water stress. Although moss and litter cover retain longer soil moisture under extremely dry conditions and guarantee significantly better seedling development than on open soil, initially significantly fewer seeds germinate on these substrate types. Radiation shows no influence on germination and seedling survival. The seedlings are able to survive radiation conditions of 3% and 27% of open area radiation. This makes establishment possible under (remaining) light canopy, at the edge of damaged areas or in small islands of remaining shelter trees on damaged areas. However, radiation had a significant effect on growth. With increasing radiation, shoot lengths and above ground biomasses are higher and the root collar diameter larger. Overall, Betula pendula is the most drought stress resistant of the tested tree species. While Populus tremula and Salix caprea already had problems establishing themselves on dry sites, the problem will become more serious under climate change. The lack of moist, vegetation-free open soils will result in a significant reduction of establishment success for tested pioneer tree species in climate change.</t>
+          <t xml:space="preserve">Effects of conservation agriculture practices on tomato yield and economic performanceConservation agriculture practices, such as reduced tillage and the incorporation of cover crops, play a crucial role in improving the sustainability of organic farming systems. The aim of this two-year field trial was to evaluate five different organic technical itineraries (ST, IN1, IN2, M1, and M2) which differed on soil management practices adopted before processing tomato transplantation and regarding weed control strategies performed. Soil management practices in comparison consisted of conventional deep tillage (ST and M1) or reduced tillage together with the use of a cover crop mixture composed of common vetch and barley (IN1, IN2, and M2). Weed control strategies involved the use of biodegradable mulch together with mechanical weeding (ST and M2), or false seedbed technique and mechanical weeding (IN1, IN2, and M1). Weed biomass at harvest, tomato yield, and the operational and economic performance of each of the technical itineraries was evaluated. No significant differences emerged in terms of weed biomass at harvest between itineraries. Best yield results were obtained tendentially by ST and M2 when biodegradable mulch was used, with values equal to 42.14 and 41.47 Mg ha&lt;sup&gt;-1&lt;/sup&gt; in 2020 and 30.68 and 31.19 Mg ha&lt;sup&gt;-1&lt;/sup&gt; in 2021, respectively. Even though the itineraries where mulch film was used (ST and M2) resulted in significantly onerous processes, they also obtained the highest gross income compared to the other itineraries, with values of 30,998 and 29,900 ha&lt;sup&gt;-1&lt;/sup&gt; in 2020, and of 16,060 and 15,186 ha&lt;sup&gt;-1&lt;/sup&gt; in 2021, respectively. These results revealed the importance of using mulching to help cope with critical climatic conditions, such as drought seasons. Further studies are needed to evaluate the yield and economic advantages of both the effect of shallower soil tillage over a longer period in this specific context and the creation of ground cover with cover crops managed as dead mulch. </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1635,7 +1665,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>This study examines how different growing conditions and water availability impact the germination and establishment of tree seedlings during drought stress in a changing climate. Results show that open soil with moist conditions is crucial for successful establishment, and shading or ground cover does not provide suitable microsites for seedling growth. Radiation does not affect germination and survival, but it does impact growth. Betula pendula is the most drought-resistant species, while Populus tremula and Salix caprea struggle on dry sites. Overall, climate change will likely reduce establishment success for pioneer tree species due to the lack of moist open soils.</t>
+          <t>Conservation agriculture practices, including reduced tillage and cover crops, improve organic farming. In a field trial, different soil management and weed control methods were evaluated for tomato yield and economic performance. No significant difference in weed biomass was found, but the best yields were obtained using biodegradable mulch. Despite being more expensive, the mulch film methods resulted in higher gross income and proved beneficial in coping with drought conditions. Further research is needed to explore the advantages of shallower soil tillage and cover crops as ground cover.</t>
         </is>
       </c>
     </row>
@@ -1645,17 +1675,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Investigation of the effect of sowing time on one of the key crops of sustainable land use, the hairy vetch (Vicia villosa roth.): growth indicators and yield elements in Nyirseg region of east HungaryLeguminous crops, whose species characteristics and agronomic values allow their incorporation into sand farming, are of great importance for the environmentally friendly utilization of the acidic sandy soils of Nyirseg. Among the legume cultivars that can be grown on acidic sandy soils, the hairy vetch is of outstanding importance, which is also been grown as green manure, green fodder, and seed, in Hungary, for more than a hundred years. Our observation aimed to examine, in a field micro-parcel experiment, at different sowing times, in six replicates, at three different recording periods, the plant height, the root length, the number of the Rhizobium root-nodules formed on the main and lateral roots, the number of seeds, the weight of the seeds, and the thousand kernel weight of the hairy vetch. From our experimental results, we found that the average height of the plants before the onset of winter, at the sowing time in late September, was between 11 and 18 cm, while the root length ranged from 16 to 26 cm. In the same phenophase (before winter) and sowing time, the highest number of Rhizobium nodules was measured on the main root (9.4-11.5), while the most efficient nodule formation on the lateral roots was in the budding period (13.7-27.6), also in the sowing time of September 20. In the studied years, the data on the number of pods per plant of hairy vetch showed an increasing trend with sowing time (5.6-12.2 pc/plant). The same increasing trend was observed for the number of seeds per plant (13.9-34.6 pc/plant). The highest seed weight (0.57-0.79 g) was obtained at the last sowing date. The results presented above also confirm that the cultivation of hairy vetch should become more and more important for sustainable land use.</t>
+          <t xml:space="preserve">Morphological and biochemical characterization of late-season varieties of mandarin growing in Spain under homogeneous growing conditionsMandarins are one of the most important citrus fruits in the world in terms of tons produced. The late-season varieties of mandarin have a great economic value due to their high production in a season with few mandarin varieties. The objective is to carry out a preliminary study of characterization and comparison of the morphological and biochemical properties of the late varieties 'Afourer', 'Tango', and 'Orri'. The characterization consisted of physicochemical parameters related to the quality of the fruits, highlighting the total antioxidant activity using ABTS and DPPH, the organic acids and sugars using HPLC and the metabolomics of the juice by &lt;sup&gt;1&lt;/sup&gt;H-NMR. Afourer' mandarins were heavier and larger (120.75 g, 67.60 mm) than the other two varieties studied. Mandarins of the 'Orri' variety showed a different organic acid profile compared to the other varieties studied, and a higher amount of sugars (13.49 g/100 mL). 'Tango' variety mandarins grown on the Forner-Alcaide rootstock stood out for having a larger weight (113.52 g), a more intense color, and a greater amount of phenolic compounds (966.85 mg AGE/L Forner) than the fruits grown on Citrus macrophylla. The metabolomics analysis showed that these mandarin varieties had mainly non-essential amino acids. </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Study investigates the effect of sowing time on hairy vetch growth and yield elements in acidic sandy soils. Sowing in late September resulted in optimal plant height and root length. Increasing trends in number of pods and seeds per plant were observed with sowing time. Hairy vetch cultivation is important for sustainable land use.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1690,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Evaluation of Trichoderma spp. on Fusarium oxysporum f. sp. asparagi and Fusarium wilt control in asparagus cropAmong the key diseases affecting the asparagus crop (Asparagus officinalis L.), vascular wilting of asparagus caused by Fusarium oxysporum f. sp. asparagi stands out worldwide. This disease significantly shortens the longevity of the crop and limits economic production. Traditional control measures have been largely ineffective, and chemical control methods are difficult to apply, making biological control approaches, specifically the use of Trichoderma, an economical, effective, and risk-free alternative. This study aimed to identify the main factors that affect the efficacy of biopesticides studied as Biological Control Agents (BCAs) against Fusarium wilt in asparagus and to assess the efficacy of Trichoderma-based biopesticides under greenhouse and semi-field conditions. We evaluated the response of three Trichoderma spp. (T. atroviride, T. asperellum, and T. saturnisporum) to environmental variables, such as temperature and water activity, and their antagonistic capacity against Fusarium oxysporum f. sp. asparagi. All three Trichoderma species inhibited the growth of the pathogen in vitro. A decrease in water activity led to a greater reduction in the growth rate. The efficacy of the three biological control agents decreased with higher temperatures, resulting in minimal inhibition, particularly under conditions of restricted available water in the environment. The effect of the fungal inoculum density was also analyzed at two different temperatures. A direct correlation between the amount of inoculum and the score on the Disease Severity Index (DSI) was observed. A notable reduction in DSI was evident in treatments with high inoculum density (10&lt;sup&gt;6&lt;/sup&gt; conidium/mL) for all three species of Trichoderma tested at both temperatures. In greenhouse and semi-field tests, we observed less disease control than expected, although T. asperellum and T. atroviride showed lower disease severity indices and increased the dry weight of seedlings and crowns, whereas T. saturnisporum resulted in the highest disease rate and lowest dry weight. This work highlights that the efficacy of Trichoderma as BCAs is influenced by various factors, including the quantity of soil inocula, and environmental conditions. The study findings have strong implications for selecting appropriate Trichoderma species for controlling specific pathogens under specific environmental conditions.</t>
+          <t xml:space="preserve">Wood fiber from Norway spruce - a stand-alone growing medium for hydroponic strawberry productionThere is an increased interest in the hydroponic production of strawberries in protected cultivation systems, and it is, therefore, urgent to develop new, more sustainable growing media alternatives. This study investigated the physical properties of wood fiber produced from Norway spruce (Picea abies (L.) H. Karst.) and peat:wood fiber substrate blends as well as the performance of the wood fiber in comparison to the industry standards, i.e., peat and coconut coir in the cultivation of hydroponic strawberry. Tray plants of the June-bearing strawberry (Fragaria x ananassa Duch.) cultivar 'Malling Centenary' were transplanted into five different growing media: a peat (80%) and perlite (20%) mixture, stand-alone (100%) coconut coir and three stand-alone (100%) Norway spruce wood fiber substrates (including coarse textured fibers with compact and loose packing density and compacted fine-textured fibers). Ripe strawberries were harvested and registered throughout the production season. The overall marketable yield was comparable across all the tested growing media; however, after 4 weeks of harvest, both coarse wood fiber and fine wood fiber showed better fruiting performance than the peat-perlite mixture. A trend for earlier berry maturation was observed for all wood fiber-based substrates. Plant parameters recorded after the end of production showed that plant height, number of leaves, and biomass production were higher in coarse wood fiber than in the peat-perlite mixture. Moreover, plants grown in wood fiber-based substrates had less unripe berries and flowers not harvested in comparison to both the peat and coir treatments. </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1675,7 +1700,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Trichoderma species were evaluated as biological control agents against Fusarium wilt in asparagus crops. The efficacy of Trichoderma was influenced by environmental conditions and soil inocula quantity.</t>
+          <t>Wood fiber from Norway spruce was found to be a viable alternative to peat and coconut coir as a growing medium for hydroponic strawberry production, showing better fruiting performance and plant growth.</t>
         </is>
       </c>
     </row>
@@ -1685,17 +1710,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Development of a new micropropagation protocol and transfer of in vitro plants to in vivo conditions for cascade hopThe vegetative propagation of hops, despite being a reliable method, is not very common due to the unavailability of the plant material. In this study, the technique of in vitro propagation was applied to the Cascade variety of Humulus lupulus L. The plant material was collected from a private field in Sicily; the explants were subjected to sterilization before in vitro culture. Single-node explants were placed in in vitro culture in nine different culture media for multiplication. Thidiazuron (TDZ), Benzyladenine (BAP) and meta-Topoline (mT) were tested for multiplication phase. For the rooting phase, five types of different culture media were evaluated. Binodal cuttings coming from the previous multiplication test were placed in the culture. The rooting media differ from each other in the concentration and ratio of two auxin hormones: Indolo-3-acetic acid (IAA) and Indole-3-butyric acid (IBA). In vitro rooted plants obtained from the rooting phase were transferred to ex vitro conditions in a microbox with agri-perlite and a solution containing Murashige and Skoog (MS) basal medium at half concentration. With a culture medium containing the highest TDZ doses (H6) and combination with cytokinin (H8 and H9), the highest shoot percentage was obtained. After 3 months of in vitro culture, the highest shoot percentage was observed in the culture medium with 2 mL L&lt;sup&gt;-1&lt;/sup&gt; of BAP. The highest rooting percentage, roots numbers and root length were found when the culture medium was supplemented with 1 mL L&lt;sup&gt;-1&lt;/sup&gt; of IAA. The usage of agri-perlite and MS at half concentration, without PGR, allowed us to obtain a 99.1% survival rate. This micropropagation protocol is useful for obtaining virus-free plants and for the development of the brewery industry.</t>
+          <t xml:space="preserve">The contribution of epiphytic microbiota in oat and Italian ryegrass to silage fermentation products and bacterial community structure of whole-crop maizeBackground: The purpose of this research is to study the contribution of epiphytic microbiota in fresh oat (OT), Italian ryegrass (IR) and whole-crop maize (MZ) to silage fermentation products and bacterial community structure of MZ. After P-ray irradiation, the sterile MZ was treated via microbiota transplantation method: (1) sterile deionized water (STMZ); (2) microbiota epiphytic on MZ (MZMZ); (3) microbiota epiphytic on OT (MZOT); (4) microbiota epiphytic on IR (MZIR). Triplicate silos of each treatment were tested after 1, 3, 7, 15, 30 and 60 days of ensiling. </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>The study developed a micropropagation protocol for the Cascade hop variety using in vitro culture. Different media and hormones were used to achieve successful shoot and root growth. The protocol resulted in virus-free plants.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1725,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tuber melanosporum drives the symbiosis with Castanea sativa seedlings under greenhouse conditions and high calcium levelsThe sweet chestnut (Castanea sativa) could potentially be used as a host for the Perigord truffle (Tuber melanosporum) in multi-cropping plantations to promote rural or marginalized economies by providing farmers with a valuable source of income from both the truffle and the chestnut. Black truffles are known to associate to sweet chestnut trees in the wild. However, inoculation of chestnut seedlings with this highly appreciated edible fungus has not been attempted so far under greenhouse conditions. In this study, we tested the suitability of C. sativa as a host for T. melanosporum using a substrate containing high levels of active calcium (Ca&lt;sup&gt;2+&lt;/sup&gt;) to enhance truffle growth. We found that C. sativa seedlings can be successfully colonized by T. melanosporum in the nursery and that T. melanosporum appears to have a strong influence in its host's physiology, growth, and nutritional processes. The inoculated plants showed a greater root dry weight, water potential values and higher Ca&lt;sup&gt;2+&lt;/sup&gt; content. Under these conditions and using a substrate containing limestone seems to favour the fungus in the mutualistic symbiosis.</t>
+          <t xml:space="preserve">Flowering diagram of Yellow crocus in relation to the growing conditionsThe study evaluated the variation of the flowering period (Fp) in crocus, the ""Yellow"" variety, in relation to the moment of bulbs planting and the time from planting to the beginning of flowering (t1) and the end of flowering (t2). Planting was done in autumn, at three different times (planting time - Pt); Pt1 (October, 20), Pt2 (November, 3), Pt3 (November, 17). For the cultivation of crocus plants, three different substrates were considered: Gs-I (sand); Gs-II (mixture of compost and sand); Gs-III (garden soil). Nine experimental variants (T1 to T9) resulted. The beginning of flowering (Bf) was considered at the first open flowers, and the end of flowering (Ef) was considered at the last flowers, on each experimental variant. The time from the planting moments (Pt1, Pt2, Pt3) to the Bf and Ef moments respectively was calculated, and the flowering period diagram was generated. Very strong correlations were recorded between the diameter of the flowers (Fd) and the height of the plants at the end of flowering (Ph-Ef) r=0.906***, and respectively between the flowering period (Fp) and the height of the plants before flowering (Ph-bf), r=0.901***. Strong correlation was recorded between Ph-Bf and Ph-Ef, r=0.852***. Moderate correlation was recorded between flower diameter (Fd) and plant height before flowering (Ph-Bf), r=0.738*. According to the PCA analysis, in conditions of 95% confidence, PC1 explained 83.06% variance, and PC2 explained 13.28% variance. The cluster analysis facilitated the grouping of the variants in relation to the considered experimental parameters, under conditions of Coph.corr=0.713, and only on the basis of Fp under conditions of Coph.corr=0.814. Ranking-Scaling analysis facilitated ranking of the variants, and based on the interevent distance values, the closest were the variants T3 and T5 (0.08093), followed by the variants T2 and T5 (0.6238). In relation to the average values of the Fp period, for each factor category (Pt, Gs), the difference was found for each experimental variant. The variation of the flowering period (Fp) in relation to time t1 and t2 was described by an equation, with the generation of 3D models and in the form of isoquants, under conditions of R&lt;sup&gt;2&lt;/sup&gt;=0.999, p&lt;0.001. </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1715,7 +1735,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>This study shows that sweet chestnut seedlings can be successfully colonized by black truffles under greenhouse conditions, with high calcium levels enhancing truffle growth.</t>
+          <t>The study examined the flowering period of Yellow crocus, based on planting time and different growing media. Flower diameter and plant height were found to have strong correlations with flowering period. Cluster analysis grouped the variants based on flowering period. Variants T3 and T5 were closest in distance. There were differences in flowering period based on planting time and growing media. The flowering period was described by an equation and 3D models were generated.</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The influence of some Capsicum rootstocks on bell pepper cropsBell pepper has an important content of vitamins (C, A, E and B), minerals and sugar. It ranks the fourth place in Romania, after tomatoes, onions and cabbage. Grafted bell pepper crops from Romania obtain higher productions compared to nongrafted bell pepper crops. The objective of the paper has been to establish the effect of some Capsicum rootstocks on some Romanian and Dutch bell pepper cultivars obtained in 2019 in the greenhouse from HORTING Institute. The biological material consists of cultivars of Capsicum genus: two scions (Dutch 'Menta' F1 bell pepper and Romanian 'Regal' bell pepper) and three rootstocks (Romanian 'L11A' and 'L12S' bell peppers and Dutch first-generation 'Foundation' hybrid). Dutch 'Menta' bell pepper and Romanian 'Regal' bell pepper are commonly cultivated in fields, greenhouses, and solariums. There were studies in 6 grafted plant variants and 2 non-grafted plant variants of 36000 plants/ha. Grafting has influenced the yield and quality of bell pepper fruits. Grafting has positively or negatively influenced fruit yield and the content of biochemical compounds in grafted crops. The results of this research require an extension of the intra and interspecific grafting of the bell pepper, respectively into different rootstocks for the Romanian bell pepper crops from greenhouses, solariums, and fields.</t>
+          <t xml:space="preserve">Effect of peat-perlite substrate compaction in Hiko V265 trays on the growth of Fagus sylvatica L. seedlingsThe growth of seedlings depends on many factors: the availability of light, water, and minerals, as well as the type and physical properties of the substrate, including its density. The effect of different levels of compaction of the peat-perlite substrate on the growth of European beech (Fagus sylvatica L.) seedlings in container nursery has not been investigated so far. In presented research, nine variants of peat-perlite substrate compaction (in three replications), with the actual bulk density ranging between 0.196 and 0.317 g.cm&lt;sup&gt;-3&lt;/sup&gt;, were prepared in Hiko V265 nursery trays. European beech seeds were sown in the trays, and a seedling was grown in the production field. After the cultivation period, selected parameters were measured. The results reveal that substrate in a wide range of compaction (dry bulk density: 0.078-0.127 g.cm&lt;sup&gt;-3&lt;/sup&gt;) had an impact on the height of seedlings, root dry matter, and the mean length of coarse roots and fine roots. The best shoot-to-root ratio and sturdiness quotient were observed in the seedlings growing on the substrate with the lowest compaction. Based on the results, compaction at the level of 0.196 g.cm&lt;sup&gt;-3&lt;/sup&gt; is recommended for the cultivation of European beech in Hiko V265 nursery trays. </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1735,7 +1755,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The influence of Capsicum rootstocks on bell pepper crops was studied in Romania. Grafted plants showed higher yields and varying effects on fruit quality and biochemical compounds. Further research is needed for different rootstocks.</t>
+          <t>The compaction level of the peat-perlite substrate affects the growth of European beech seedlings, with lower compaction resulting in better height, root growth, and shoot-to-root ratio.</t>
         </is>
       </c>
     </row>
@@ -1745,12 +1765,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Analysis of the association Galio rotundifolii-Abietetum albae Wraber (1955) 1959 on Manjaca Mt (NW Bosnia and Herzegovina)This research aimed to study phytocoenological characteristics of a fir-dominated community on silicate substrate at the locality of Sitnica on Manjaca Mt, northwestern Bosnia and Herzegovina. This community originated from artificially forested mixed stands of fir and spruce planted in the habitat of the mountain Dinaric fir-beech forest, over a hundred years ago. With regular selective cuttings and natural regeneration, the structure shifted from even-aged to uneven-aged. In total, 18 phytocoenological releves were made using the Braun-Blanquet method during the vegetation seasons of 2021 and 2022. Releves were stored in Turboveg database. Ecological factors were calculated based on Ellenberg bioindicator values. Species composition was analyzed in terms of life form, geoelements and chorotypes. Our analysis indicates that collected releves can be classified as the association Galio rotundifolii-Abietetum albae belonging to the alliance Fagion sylvaticae.</t>
+          <t xml:space="preserve">He gradation of macrovegetation in the area of the somova-parches aquaticThe macrovegetation is a permanent, but not exclusive, component of the waterside area, fixed on the substrate by strong roots or rhizomes that, in most cases, cross the water column coming into contact with the atmosphere. For all categories of aquatic vegetation, the development in an excessive way leads to a deficit of oxygen in the warm months, at dawn. Oxygen varied between 8.32 mg/l end 8.68 mg/l. Our study was carried out in Tulcea County in July-August 2020 and July-August 2021. In this case study, the gradation of macrovegetation in space according to water depth is presented. The plant species were identified in the area of the Somova-Parches Aquatic Complex. In the SomovaParches Aquatic Complex, the reed covers large areas and plays an important role as a biological filter as well as protecting the banks. </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>The macrovegetation in the Somova-Parches aquatic area includes species with strong roots that fix on the substrate, providing oxygen and serving as a biological filter.</t>
         </is>
       </c>
     </row>
@@ -1760,17 +1785,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Effect of nitrogen deposition on root systems and exudates of seedlings of beech Fagus sylvatica L. in a temperate climateThe purpose of this experiment was to determine the effect of deposition of different doses of nitrogen on the root systems of common beech Fagus sylvatica L. seedlings and their exudates. We tried to explain how different doses of nitrogen can affect the assimilation of nutrients necessary for seedling growth, as well as the morphology of fine roots. The experiment was conducted on a nursery at the Forest Experimental Station of the Agricultural University of Krakow. Three different nitrogen doses were used in the experiment: 0.75 kg.ha-1, 2.25 kg.ha-1, 4.5 kg.ha-1 and a control variant without nitrogen. The experiment was conducted from May to September 2021. Seedlings with their root systems and their secretions were taken twice, at the beginning and end of the experiment. The content of micro- and macro-nutrients was determined in the aboveand below-ground parts of the seedlings. In addition, the basic chemical properties and enzymatic activity of the substrate in which the seedlings grew were determined. In the study, we showed that a higher nitrogen dose influenced a higher amount of carbon released with exudates from fine roots, which was related to the overall root morphology. Higher specific root length (SRL) and specific root area (SRA) parameters showed a positive correlation with root exudates. In addition, a higher nitrogen dose had a positive effect on the nutritional status of the seedlings.</t>
+          <t xml:space="preserve">Comparative mathematical analysis of economically important ampelographic indicators in white wine vine varieties (Vitis vinifera L.)A comparative mathematical analysis of economically important ampelographic indicators was performed in 32 local, introduced and newly bred white wine vine varieties. It was found that depending on the similarity and remoteness of the values of the studied indicators, the varieties are grouped into three generalized clusters. In the first, the varieties are characterized by a longer budding period and relatively lower productivity. In the second, they have similarities in the length of the budding period, long period of budding - technological maturity, moderate productivity, and close content of volatile acids in the wine. In the third, the newly bred two varieties Gergana and Misket Markovski, which are the most fertile and productive and with the smallest number of seeds in the berries. There is a high variability of the individual white wine varieties according to the studied economically valuable indicators. The indicators of bunch length and average weight per 100 berries have a stronger direct effect on the formation of the yield in individual varieties, and the average bunch weight, bunch width, percentage of mesocarp in berries, berry length and width, as well as the theoretical yield significantly affect indirectly the productivity of vines. </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>This experiment investigated the effects of nitrogen deposition on the root systems and exudates of beech seedlings. Higher doses of nitrogen increased carbon release and improved seedling nutrition.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1780,12 +1800,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Morphological, molecular, and life cycle characteristics of Phaeocystis globosa Scherffel (Prymnesiophyceae) in the Southeast China seaPhaeocystis globosa blooms frequently occur in the Southeast China Sea and cause significant negative impacts on coastal ecology and mariculture. The P. globosa blooms in southeastern China are very different compared to those of European strains, suggesting that differences may exist in their morphological, phylogenetic, and life history traits. In this study, seven strains of P. globosa isolated from Southeast China Sea that were typical strains of algal blooms in the region, in addition to one strain from the Gulf of Mexico (CCMP629), were comprehensively evaluated to better understand region-specific differences of the species. Significant differences were not observed in the internal cell structures and other characteristics compared to those of European strains, while differences in cell surface structures were apparent. For example, small and large flagellated Chinese P. globosa cells exhibited two flagella with slightly unequal lengths and a short haptonema, the surfaces of small flagellated cells were not covered by scales, and colony cell diameters were smaller. 18S rRNA sequence phylogenetic analysis also revealed that P. globosa comprised a species complex with two ecotypes (warm- and cold-water types), of which the strains from the southeastern coast of China and CCMP629 belonged to the warm-water type. In addition, the life cycles and variable modes of P. globosa colony formation were evaluated in detail. The algal bloom may be due to the rapid colonies formation by budding and colony fragments. These results provide new insights into the life cycle of P. globosa and highlight the differences in morphological and phylogenetic relationships between strains from the southeast coast of China and those from coastal European regions.</t>
+          <t xml:space="preserve">Best practices for understory management of live oaksIn this articles, LSU AgCenter specialists recommend better options for managing the understory of live oaks. The safest for the tree is light mulching, such as applying pine straw or allowing the fallen leaves to collect and naturally provide an organic mulch. Other than this, certain plants can be safely planted in the understory. Those include Asian jasmine, English ivy and other matting groundcovers with low sun requirements. Some bunching plants, such as cast iron plants or inland sea oats, also create an aesthetic grouping around the base of the tree. Turfgrasses are not recommended below the canopy of live oaks because a healthy tree will not allow enough light for the grass below to thrive. More importantly, installation of grasses is usually done via sod, which introduces more soil than is preferred to cover the root system. Regardless of what understory management plan is selected, the ultimate goal is to create a low maintenance and healthy environment for live oaks. A good understory management plan is predicated on protecting the roots from foot traffic and other human interference, such as the use of string trimmers, allowing the roots to thrive. A healthy root system will allow live oaks to respire more efficiently and remain anchored in the landscape, keeping this iconic tree in its place for decades to come. </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>LSU AgCenter experts recommend light mulching or natural leaf collection for the understory of live oaks, and suggest safe plants like jasmine and ivy. Turfgrasses and excessive soil should be avoided. Protecting the roots is crucial for a healthy environment and longevity of live oaks.</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1820,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ecological genetics of local adaptation in Arabidopsis: an 8-year field experimentThere is considerable evidence for local adaptation in nature, yet important questions remain regarding its genetic basis. How many loci are involved? What are their effect sizes? What is the relative importance of conditional neutrality versus genetic trade-offs? Here we address these questions in the self-pollinating, annual plant Arabidopsis thaliana. We used 400 recombinant inbred lines (RILs) derived from two locally adapted populations in Italy and Sweden, grew the RILs and parents at the parental locations, and mapped quantitative trait loci (QTL) for mean fitness (fruits/seedling planted). We previously published results from the first 3 years of the study, and here add five additional years, providing a unique opportunity to assess how temporal variation in selection might affect QTL detection and classification. We found 10 adaptive and one maladaptive QTL in Italy, and six adaptive and four maladaptive QTL in Sweden. The discovery of maladaptive QTL at both sites suggests that even locally adapted populations are not always at their genotypic optimum. Mean effect sizes for adaptive QTL, 0.97 and 0.55 fruits in Italy and Sweden, respectively, were large relative to the mean fitness of the RILs (approximately 8 fruits/seedling planted at both sites). Both genetic trade-offs (four cases) and conditional neutrality (seven cases) contribute to local adaptation in this system. The 8-year dataset provided greater power to detect QTL and to estimate their locations compared to our previous 3-year study, identifying one new genetic trade-off and resolving one genetic trade-off into two conditionally adaptive QTL.</t>
+          <t xml:space="preserve">The use of biostimulants containing Ascophyllum nodosum (L.) le jolis algal extract in the cultivation and protection of English oak Quercus robur L. seedlings in forest nurseriesForests in Europe cover an area of 158 million hectares. To preserve them permanently, it is necessary to provide high-quality planting material for renewal and reforestation. With the ever-decreasing number of plant protection products approved in the European Union, searching for alternative methods to improve the condition and development of seedlings in forest nurseries is becoming increasingly popular. One such alternative may be preparations called plant growth and development regulators, or biostimulants. The aim of this study was to evaluate the effect of two biostimulants containing Ascophyllum nodosum L. algal extract on the growth and development of pedunculate oak Quercus robur L. seedlings. Another goal was to test the preparations in terms of improving resistance to oak powdery mildew Erysiphe alphitoides (Griffon &amp; Maubl.) U. Braun &amp; S. Takam infection. These preparations were used in situations where the plants were subjected to severe stress - undercutting of the root systems, a procedure frequently used in forest nurseries. The research was conducted, in parallel, in two forest nurseries in east-central Poland. Both forest nurseries were sprayed twice, fourteen days apart. After two months, 50 seedlings from each variant were collected and the biometric parameters were evaluated: the length of the aerial part, the length of the root systems and the diameter of the root collar. The degree of oak leaf powdery mildew infestation was also compared. The results showed statistically significant differences in the length of the root systems. The seedlings in treatment plots had better developed root system than those in control plots. The other parameters also differed from the control variant, but these differences were not statistically significant. Despite the positive response of the plant to growth, the influence of the biostimulants used on the degree of infection of the oak seedlings by the fungus E. alphitoides could not be confirmed. </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1805,7 +1830,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>This study examines local adaptation in Arabidopsis plants, mapping quantitative trait loci involved in fitness and identifying adaptive and maladaptive loci in Italy and Sweden.</t>
+          <t>Biostimulants containing Ascophyllum nodosum algal extract were tested on Quercus robur seedlings in forest nurseries. They improved root system development but did not affect fungal infection.</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1840,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Development of an automated ion-specific fertigation management systemVertical farming is a revolutionary idea that would allow cities a greater self-sufficiency by growing plants locally with maximum productivity. This technique responds to the challenges posed by the projected decreasing farmland availability, growing population and increased urbanization. A strong growth of vertical farming can be expected for the next decade. A crucial advantage of vertical farming over conventional farming is the more efficient control of all cultivation parameters like climate condition or nutrient concentrations as well as the recovery of water. Hydroponic, aeroponic and aquaponic culture are important technologies involved in vertical farming to grow value plant based raw materials, vegetables, flowers, herbs, selected fruits, seedlings, and fish year-round. Currently nutrient solution management is limited to adjusting the conductivity and pH of the solution by supplying stock solutions with fixed ion ratios. Ion specific nutrient management, based on ion selective electrodes (ISE) holds the potential to increase nutrient use efficiency and yields through continuous monitoring and adjustment of ion concentrations. In an Indo-German research project an automated sensor system for a highly efficient nutrient management in vertical farms shall be developed (SensVert). The main goal of the SensVert project is to develop an automated ion-specific fertigation management (ISFM) for vertical farming systems. Based on a better understanding of the plant-environment-interactions, optimized strategies for nutrient supply can be developed.</t>
+          <t xml:space="preserve">Pine or spruce? Comparison of stump suitability for the large pine weevil Hylobius abietis (L.) developmentThe Norway spruce Picea abies (L.) H. Karst. and Scots pine Pinus sylvestris L. are both species with high economic potential; as a result, they are widely cultivated on plantations. Replanted coniferous seedlings in clearings are threatened by the large pine weevil Hylobius abietis (L.), one of the most prevalent pests in European forests. This weevil develops in fresh conifer stumps, which can be exploited to suppress its population. This study asks whether tree species and stump diameter influence the number of hatched adults, their sex, and their body size. During the two years after the forest was logged, we captured beetles using emergence traps installed on 18 Scots pine and 18 Norway spruce stumps. Generalised linear models used for the data analysis showed that the tree species (pine or spruce) significantly affects the number of beetles and their body mass. The vast majority of beetles left the stumps in the first year after felling. Beetles hatched in spruce stumps were less abundant and had a higher mass and longer devel- opment time. The sex of the beetles did not depend on either tree species or stump diameter. These results can be explained by the greater attractiveness and higher substrate suitability of pine wood. The increased weevil larvae mortality, as well as the higher body mass and longer devel- opment of the beetles, could be attributed to the less suitable properties of spruce wood, which is of lower nutritional quality. The lower mass of beetles in pine stumps may also be ascribed to their higher abundance and greater competition for resources. The results of this study did not provide a clear view of the comparative risks of spruce and pine stumps. While more beetles hatch from pine stumps, beetles from spruce stumps are larger, contributing to their higher fitness. Moreover, larger beetles with greater food consumption will likely cause more damage. </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1825,7 +1850,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Research project aims to develop an automated sensor system for nutrient management in vertical farms, focusing on ion-specific fertigation to improve plant growth and productivity.</t>
+          <t>This study compares the suitability of pine and spruce stumps for the large pine weevil's development. Results show that pine stumps have more beetles but spruce stumps produce larger beetles.</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1860,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pest categorisation of Setoptus parvifloraeThe EFSA Plant Health Panel performed a pest categorisation of Setoptus parviflorae (Acari: Eriophyoidea: Phytoptidae) for the European Union (EU). This mite is not listed in Annex II of Commission Implementing Regulation (EU) 2019/2072. It is known to occur in the Nanjing Botanical Garden (China) on Pinus parviflora. This is its only known host plant and location. The mite occurs on the needles and in the needle sheaths. Details about its life cycle are mostly unknown. Plants for planting, including dwarfed plants, of P. parviflora are the main potential pathway for entry into the EU. However, plants of the genus Pinus other than fruit and seeds are mostly prohibited from entering the EU (Commission Implementing Regulation (EU) 2019/2072). The host, P. parviflora, can be found in temperate-zone gardens and arboreta, and is a popular tree for bonsai in the EU. Although the Koppen-Geiger climate type Cfa (humid subtropical), which occurs in Nanjing, can be found in the EU, the growing conditions of P. parviflora at the Nanjing Botanical Garden were not reported. This adds uncertainty about where in the EU this mite could establish, most probably on ornamental P. parviflora. There is no evidence of impact of S. parviflorae. Measures to prevent entry and spread are available. S. parviflorae does not satisfy all the criteria that are within the remit of EFSA to assess for it to be regarded as a potential Union quarantine pest, as there is no evidence of impact.</t>
+          <t xml:space="preserve">Contrasting effects of climate change on the invasion risk and biocontrol potential of the invasive Iris pseudacorus L. between northern and Southern Hemisphere. (Special Issue: XVI International symposium on biological control of weeds.)Iris pseudacorus is both a prized ornamental and an invasive aquatic plant that tends to grow dense monospecific stands, displacing the local vegetation and altering the hydrology of freshwater ecosystems. Originally from Europe, this species has historically invaded North America, China and Japan, and more recently spread through Argentina, South Africa and Australasia, where it is now a target for biological control. Field surveys within its native range have led to the selection of three candidate biocontrol agents. Prioritizing the best candidates for different regions constitutes a critical step, which could save significant time and resources before further cost-intensive experimental studies are conducted. Climate change is seldom taken into consideration in the prioritization process. In this regard, climatic suitability can be used to model the potential distributions of weeds and their candidate agents, both in space and time, thus allowing to identify areas at risk of invasion and predict where agents will be able to establish long-term. Accordingly, the objectives of this work were (i) to predict I. pseudacorus invasions and range shifts in the context of climate change; (ii) to identify wetland areas most at risk of invasion under present and future climatic conditions; and (iii) to prioritize the best suite of candidate biocontrol agents for different invaded ranges, worldwide. To do so, we modelled the present and future (2040-2060) climatic suitability of I. pseudacorus and its candidate agents using the software MaxEnt. Our results highlight a clear distinction between predictions for the Northern and Southern Hemispheres. In North America and eastern Asia, the area climatically suitable for I. pseudacorus is expected to increase and shift northwards. As for its biocontrol agents, very low suitability is predicted across these regions, further decreasing under future climatic conditions. On the other hand, climatically suitable areas for the plant in South America, southern Africa and Australasia are predicted, on average, to reduce in response to climate change. A decrease in climatic suitability is also expected for its candidate biocontrol agents which, however, would still maintain a significant range overlap with their host. These results can be used to prioritize areas most at risk of invasion and identify which combination of candidates could potentially provide the best level of control across different invaded ranges. </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>This text discusses the impact of climate change on the invasiveness and biocontrol potential of the Iris pseudacorus plant in different hemispheres, emphasizing the need to prioritize biocontrol agents.</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1880,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Breeding in European pear (Pyrus communis) for red-skinned and red-fleshed fruit - the red-skinned gene C affects tree habit and floweringThe pear breeding programme at INRAE Angers-Beaucouze is partly devoted to screen for red-skinned fruit from mutants derived from European pear cultivars. These mutants were selected around 1950 in the USA from 'Doyenne du Comice', 'Bartlett' and 'Beurre Hardy'. Several combinations involving these red mutants and also cultivars such as 'Lombacad' and 'Red Satin' were studied for the inheritance of red leaves in the greenhouse and red-skinned fruit in the field. A single dominant gene (already named C/c) codes for red leaves and fruit skin in these different progenies. In the present study, the focus was evaluating vigour, tree habit and flowering time of field planted progenies. The traits were determined and compared between the segregants (C/C, C/c, c/c). The deep-red seedlings (C/C) have a columnar habit with some weak feathers and their flowering in the field is late compared to the other segregants (C/c and c/c). Our results highlight a pleiotropic effect of gene C on tree habit and flowering time. The other part of this breeding programme is related to red-fleshed pears. Progenies from the cultivar 'Sanguine d'Italie' were evaluated for this character. A single dominant gene (called F/f), independent from C/c, was found to control this character. In the greenhouse the red colour of the hypocotyls is a very accurate marker for the red-fleshed fruit hybrids screened in the field. An improved knowledge of the genetic basis of production and accumulation of red pigments in the fruit flesh will better support the pear breeding programmes aimed to select new pear cultivars carrying this attractive trait.</t>
+          <t xml:space="preserve">Clinical features and outcomes of invasive fusariosis: a case series in a single center with literature reviewFusarium species, which are commonly found in soil, water, and organic substrates, can cause serious infections especially in immunocompromised patients. Fusarium infection is notoriously difficult to treat, because of their inherently high minimum inhibitory concentrations (MICs) to most antifungal agents. There have been limited data on invasive fusariosis in Korea. We identified 57 patients with culture-proven fusariosis at Samsung Medical Center, Seoul, Korea, from September 2003 through January 2017. Invasive fusariosis was defined as any case with at least one positive blood culture or with concurrent involvement of 2 or more non-contiguous sites. Superficial infections such as keratitis and onychomycosis were excluded. We reported 14 cases of invasive fusariosis categorized according to the European Organization for Research and Treatment of Cancer/Mycoses Study Group criteria, of which 6 cases were fusarium fungemia. Hematologic malignancies (7/14, 50%), solid organ transplantation (2/14, 14.2%), or immunosuppressive therapy (2/14, 14.2%), were the predominant underlying conditions. The overall mortality rate was 37%, however, that of disseminated fusariosis was up to 83%. Antifungal treatment with voriconazole or liposomal amphotericin B was commonly administered. In this report, we described the clinical characteristics and treatment outcomes of invasive fusariosis in Korea. Given the high mortality in disseminated cases, invasive fusariosis is becoming a therapeutic challenge to clinicians treating immunocompromised patients. </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1860,7 +1890,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>A breeding program in European pear focuses on red-skinned and red-fleshed fruit. Genes C/c affect tree habit and flowering, while gene F/f controls red flesh.</t>
+          <t>Invasive fusariosis, caused by Fusarium species found in soil and organic substrates, is difficult to treat and has a high mortality rate in immunocompromised patients. Antifungal treatment is challenging.</t>
         </is>
       </c>
     </row>
@@ -1870,17 +1900,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Study of some physiological parameters in the plum cultivars 'Jojo' and 'Topgigant Plus' (Prunus domestica L.), grafted on the clonal rootstock 'Docera 6' (P. domestica x P. cerasifera)The seed generations of the species Prunus cerasifera Ehrh., are used as a standard rootstock for plums in Bulgaria. The new clonal rootstock 'Docera 6' (P. domestica x P. cerasifera) attracts the attention of breeders and fruit growers in countries like Bulgaria, where Plum pox virus (PPV) is endemic. The current study was conducted in an experimental orchard at the Fruit Growing Institute - Plovdiv, Bulgaria planted in 2016. The study aimed to investigate some physiological parameters of the plum cultivars 'Jojo' and 'Topgigant Plus' (P. domestica) grafted on 'Docera 6'. The same cultivars grafted on the standard seedling rootstock Prunus cerasifera Ehrh. were used as control. In 2021, during two phenological stages, ""fruits about half final size"" (BBCH 75) and ""fruit ripe for picking"" (BBCH 87), the following indicators were determined: annual shoot length and thickness, number of leaves, fresh, dry mass and leaf area, content of photosynthetic pigments and total soluble proteins, as well as chlorophyll fluorescence (JIP test). For both studied cultivars, the length and diameter of the annual shoots were smaller in comparison with those grafted on 'P. cerasifera', although statistically, the difference was significant only for 'Jojo'. During both phenophases there was no significant difference in the content of photosynthetic pigments in both cultivars grafted on the two rootstocks. The results of the chlorophyll fluorescence analysis showed that the maximum quantum yield (Yield=Fv/Fm), reflecting the photochemical activity potential of Photosystem II, varied between 0.839 and 0.845 in all studied variants, which corresponds to healthy, unstressed leaves. For the parameters of the chlorophyll fluorescence (JIP test) in the cultivar 'Jojo'. differences between the two rootstocks and during the two phenophases were reported, while in the 'Topgigant Plus' cultivar they were observed only during fruit ripening.</t>
+          <t xml:space="preserve">Fish farm effluents cause metabolic depression, reducing energy stores and growth in the reef-forming coral Lophelia pertusaCold-water corals (CWCs) have come under increasing pressure from human activities over the last decades. Of particular concern in Norway is the potential impact of open net pen aquaculture on CWC reefs formed by Lophelia pertusa, a threatened and declining habitat. We conducted a 1 yr in situ transplantation experiment and corresponding field measurements of 2 reefs located close to fish farms to elucidate the impacts of particulate organic waste released from the farms on coral colonies. Our study provided new evidence of negative impacts of organic effluents on L. pertusa ecophysiology. After 1 yr, both naturally occurring and transplanted corals, at distances ranging from 250 m to 1 km downstream of what would be regarded as an average-sized Norwegian fish farm, exhibited depressed metabolic rates compared to corals outside the main depositional footprint of the farms. The metabolic depression impeded energy acquisition, reducing growth and energy reserves by up to 70 and 50%, respectively. No clear threshold for significant biological impact could be detected along a distance gradient. Instead, a gradual decrease in metabolic rates, growth and lipid reserves occurred with increasing modelled sedimentation rate of organic waste from the farm. The strong statistical correlation between oxygen consumption, growth, energy stores and sedimentation rates implies that predictions of the short-term impact of aquaculture effluents on L. pertusa ecophysiology and CWC reef development may be achievable in the future. This would significantly improve the ability of management to make informed decisions on the licensing of new farms near CWC reefs. </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>A study compared the physiological parameters of plum cultivars 'Jojo' and 'Topgigant Plus' grafted on the new rootstock 'Docera 6' and the standard rootstock 'P. cerasifera' in Bulgaria. Results showed differences in shoot length and diameter, but no significant difference in photosynthetic pigments. Chlorophyll fluorescence analysis indicated healthy, unstressed leaves in all variants. Differences in chlorophyll fluorescence were observed in 'Jojo' during both phenophases and in 'Topgigant Plus' during fruit ripening.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1915,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>11-year survey of yield and fruit quality of blood orange as affected by rootstockThe use of the rootstock in fruit tree crops has a pivotal role for plant performance, yield and quality traits. For decades, sour orange (Citrus aurantium L.) has been widely used in the Mediterranean citrus industry due to its high tolerance to several biotic and abiotic constraints. The spread in the 2000s of Citrus tristeza virus (CTV) in Italy, severely affecting the graft combination with sour orange, imposed the evaluation of CTV-tolerant alternative rootstocks. In particular, the aim of this study was to observe in a long-term period the influence of eight rootstocks on vegetative, yield and fruit quality of 'Tarocco Scire' pigmented sweet orange, highly valuable for the Italian citrus industry. The experimental field included different Poncirus-derived intergeneric hybrids and was established in 2010 in Catania Plain. The novel rootstocks evaluated were: Bitters, Carpenter, Furr (hybrids of Sunki mandarin and Swingle trifoliate orange), F6P12R and F6P13 (hybrids of Citrus latipes and Poncirus trifoliata) and C35 citrange, while Carrizo citrange and Swingle citrumelo were included as reference. The study allowed to decipher the effect of the different rootstocks in affecting vegetative, productive, and qualitative features of Tarocco Scire and evidenced that pedological conditions can be a limiting factor in the choice of the most suitable rootstock. Bitters showed a remarkable reduction of the canopy size, nevertheless being very productive. Overall, C35 and Furr had the highest cumulative yield in the 11-year investigation. Furthermore, anthocyanin content was different depending on the rootstock, with Bitters showing the highest pigmentation of the pulp.</t>
+          <t xml:space="preserve">The impact of selected agrotechnical treatments on the growth of wild garlic (Allium ursinum L.) leaves in field cultivationWild garlic (Allium ursinum L.) is a typical spring geophyte whose natural habitat is beech forests. The research aimed to assess the possibility of cultivating wild garlic in field conditions significantly different from those required by this plant, using environmentally friendly and unconventional treatments. This study aimed to evaluate the effect of selected agricultural practices (catch crop, shading plant, biopreparations) on the growth of wild garlic leaves grown in the field. The results show that the biomass of catch crops and shade plants and biopreparations from marine algae are justified in cultivating wild garlic in field conditions regarding the leaf yield. Ploughing of phacelia biomass on a catchment soil with an unstable structure positively affected the growth of wild garlic, increasing the length of leaves, their number, and the length and width of the leaf blade. Winter turnip rape used as a shade plant caused an increase in the length of the leaves and the value of the F&lt;sub&gt;V&lt;/sub&gt;/F&lt;sub&gt;M&lt;/sub&gt; index (the quotient of the variable fluorescence to the maximum fluorescence), and also, depending on the year of the study, the length and width of the garlic leaf blade. Soaking the bulbs before planting in the 'Kelpak SL' solution increased the number of garlic leaves growing without turnip rape cover in the second and third years of cultivation. In the first year of vegetation, longer leaves with a larger leaf blade ensured the preparation was sprayed three times without pre-soaking the bulbs. Considering the biopreparations' positive effect on the growth of garlic leaves and the F&lt;sub&gt;V&lt;/sub&gt;/F&lt;sub&gt;M&lt;/sub&gt; ratio values, their use is prospective regarding the increasing occurrence of dry years and is an alternative to plant irrigation. </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1900,7 +1925,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A study observed the influence of different rootstocks on the growth and quality of blood oranges. The choice of rootstock was affected by soil conditions and certain rootstocks promoted higher yield and pigmentation.</t>
+          <t>Agrotechnical treatments such as catch crops, shading plants, and biopreparations contribute to the growth of wild garlic leaves in field conditions. These practices include ploughing phacelia biomass, using winter turnip rape as a shade plant, and soaking bulbs in 'Kelpak SL' solution. The use of biopreparations is a potential alternative to plant irrigation in dry years.</t>
         </is>
       </c>
     </row>
@@ -1910,17 +1935,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cover crops and rootstocks interaction on vine performances of organic 'Autumn Pearl' table grape: first results of OLTRE.BIO research projectInter-row cover crops in organic viticulture are oriented to increase the biodiversity of soil and to promote healthy root status. The use of rootstocks on table grape cultivars is required due to phylloxera, nematodes, or soil difficulties, like high lime or salt content, drought and high groundwater conditions. The research was carried out in the Apulia region, in 2021 to determine the impact of two rootstocks (1103 Paulsen and 140 Ruggeri) on-field performance of organic 'Autumn Pearl' seedless vines grown on two different cover crops. The first one was a commercial mixture of grass cover and the second one a commercial grass-legume cover crop. 'Autumn Pearl' vines have shown the highest berry weight, equatorial diameter, and total soluble solid onto 140 Ruggeri and on grass cover crop. According to our data, grapevines onto 140 Ruggeri rootstock exhibited the highest photosynthetic assimilation rate and leaf transpiration. The use of inter-row cover crops (permanent or temporary) in viticulture has many advantages, of which the reduction of water runoff and soil erosion, restriction of evaporation from the soil surface, improvement of soil water holding and soil organic matter, the reduction of temperature fluctuations in the soil, as well as the regulation of the vine growth and vigor, with influence on table grape quality and quantity.</t>
+          <t xml:space="preserve">Considerations upon the morphoanatomical features of decorative aquatic plants Hydrocharis laevigata and Lagenandra meeboldiiTwo aquatic plant species were subjected to this study: Hydrocharis laevigata synonym Limnobium laevigatum (Alismatales: Hydrocharitaceae) and Lagenandra meeboldii (Alismatales: Araceae). The paper presents first insight into the microscopic aspects of cross-sections made through root, petiole and leaves of in-vitro plant L. laevigatum and Lagenandra meeboldii 'Red' form, biological material purchased from the Romanian market of ornamental aquarium plants. Considering the invasive potential of South American spongeplant, already well documented for other European countries, this short survey draws attention to the danger represented by releasing decorative aquatic plants from aquarium as a factor involved in a possible future spreading of this species into natural environments. </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>This study examined the effects of rootstocks and cover crops on the performance of 'Autumn Pearl' table grape vines. The use of inter-row cover crops and specific rootstocks had positive impacts on vine growth, fruit quality, and soil health in organic viticulture.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1930,17 +1950,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Drought stress affects productivity and fruit size of new apple cultivarsGrowing apples in some regions may be restricted due to drought since the apple is a crop sensitive to drought stress. It is necessary to supply enough water in orchards during the critical period, more specifically during the development of the fruit. Otherwise, the lack of water would result in a reduced yield. To ensure fruit quality and yield, it is better to prevent drought by irrigation. However, water is not an unlimited resource. Therefore, this work deals with the evaluation of the production of several apple cultivars under reduced water supply. Growth and yield parameters were evaluated in 14 apple cultivars with 'Golden Delicious' used as a control. Trees were grafted on M 9 rootstock and planted at a density of 2272 trees ha&lt;sup&gt;-1&lt;/sup&gt; in Eastern Bohemia (Czech Republic) in 2014. The trees were left without an irrigation system. The date of flowering was recorded for each single tree and the girt of trunk was measured at the end of the vegetation to determine the trunk cross-sectional area at height of 0.6 m. Fully matured fruits of each cultivar were harvested. The total yield of each tree was recorded, the specific productivity was calculated, and the fruits were divided in 4 size factions (&lt;65 mm, 65-75 mm, 75-85 mm, &gt;85 mm). Cumulative yields in apples 'Topaz', 'Artiga', 'Flordika', 'Frosta', 'Reluga', 'Gala', and 'Rucla' were significantly higher compared to LSQUOGolden DeliciousRSQUO. These cultivars appeared to be better suited for growing upon conditions of absent supplemental irrigation.</t>
+          <t xml:space="preserve">Peer review of the pesticide risk assessment of the active substance flutolanilThe conclusions of the European Food Safety Authority (EFSA) following the peer review of the initial risk assessments carried out by the competent authorities of the rapporteur Member State, the Netherlands, and co-rapporteur Member State, the United Kingdom, for the pesticide active substance flutolanil, and the assessment of applications for maximum residue levels (MRLs) are reported. The context of the peer review was that required by Commission Implementing Regulation (EU) No 844/2012, as amended by Commission Implementing Regulation (EU) No 2018/1659. The conclusions were reached on the basis of the evaluation of the representative uses of flutolanil as a fungicide on potatoes, tulips and iris (field uses). MRLs were assessed for a potato in-furrow treatment. The reliable end points, appropriate for use in regulatory risk assessment are presented. Missing information identified as being required by the regulatory framework is listed. Concerns are reported where identified. </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Research was conducted on apple cultivars in Eastern Bohemia, Czech Republic, to evaluate their production under reduced water supply. Several cultivars outperformed the 'Golden Delicious' variety.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1950,12 +1965,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Thalia dealbata, a new host of sugarcane mosaic virusThalia dealbata is a native of the middle-southern part of the USA. It is a popular rhizomatous perennial pond plant which is available worldwide through wholesale nurseries. In 2021 at a nursery in Helvecia (Hungary) 1.5% of the 200 T. dealbata plants showed chlorotic bands on the foliage in August, which indicated a potential virus infection. By the end of the growing season, the disease incidence reached 100%. The causal pathogen was isolated and identified as Sugarcane mosaic virus (SCMV) based on serological and molecular analyses. This is thought to be the first report of SCMV infecting T. dealbata, a perennial herbaceous ornamental aquatic plant.</t>
+          <t xml:space="preserve">Pest categorisation of Diplodia bulgaricaThe EFSA Plant Health Panel performed a pest categorisation of Diplodia bulgarica, a clearly defined plant pathogenic fungus of the family Botryosphaeriaceae. The pathogen affects Malus domestica, M. sylvestris and Pyrus communis causing various symptoms such as canker, twig blight, gummosis, pre- and post-harvest fruit rot, dieback and tree decline. The pathogen is present in Asia (India, Iran, Turkiye) and in non-EU Europe (Serbia). Concerning the EU, the pathogen is present in Bulgaria and widespread in Germany. There is a key uncertainty on the geographical distribution of D. bulgarica worldwide and in the EU, because in the past, when molecular tools were not available, the pathogen might have been misidentified as other Diplodia species (e.g. D. intermedia, D. malorum, D. mutila, D. seriata) or other members of the Botryosphaeriaceae family affecting apple and pear based only on morphology and pathogenicity tests. Diplodia bulgarica is not included in Commission Implementing Regulation (EU) 2019/2072. Plants for planting, other than seeds, fresh fruits, and bark and wood of host plants as well as soil and other plant-growing media carrying plant debris are the main pathways for the further entry of the pathogen into the EU. Host availability and climate suitability factors are favourable for the further establishment of the pathogen in the EU. In the areas of its present distribution, including Germany, the pathogen has a direct impact on cultivated hosts. Phytosanitary measures are available to prevent the further introduction and spread of the pathogen into the EU. Diplodia bulgarica satisfies the criteria that are within the remit of EFSA to assess for this species to be regarded as potential Union quarantine pest. </t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Diplodia bulgarica is a plant pathogenic fungus that affects apple and pear trees, causing various symptoms. It is present in Asia and non-EU Europe and has the potential to spread in the EU. Measures are available to prevent its entry into the EU.</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1985,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Agronomic evaluation of eight 41 B x 110 richter grapevine genotypes as rootstock candidates for Mediterranean viticultureChoosing the most appropriate rootstock(s) is a key decision for the profitability of vineyards; therefore, there must be a sufficient range of rootstocks in the market adapted to different environmental conditions and production objectives. However, rootstock-breeding programs have been scarce in recent decades, and most of the rootstocks used today were bred a century ago, when the needs of the sector were very different from today. In this work, we aimed to evaluate new rootstock candidates before their introduction in the market. An agronomic evaluation was conducted on eight novel rootstock genotypes obtained from the first generation of the cross-pollination of 41 B Millardet et de Grasset (41 B) and 110 Richter (110 R) grafted with 'Syrah' and 'Tempranillo' and planted in a typical vineyard of the Ebro Valley in Spain. During the four consecutive growing seasons (2016-2019), growth, yield and berry composition parameters at harvest were collected. A linear mixed-effects model was constructed, considering year and block as random effects. Multiple factor analysis and hierarchical clustering on principal components were performed to establish clusters of genotypes with similar behaviour. The rootstock candidates showed a very wide performance range compared to their parents. The trial allowed us to identify two very promising candidates (RG8 and RG10), whose registration as commercial rootstocks is already in progress.</t>
+          <t xml:space="preserve">Competitive relations between young vines and weed species for mineral nutrients uptake in the nurseryDuring the period 2017 - 2020, a study was carried out on the weed - vine competitive relations in the nursery and the opportunities for control through herbicide treatment. Grafted cuttings of the Cabernet Sauvignon variety to Berlandieri X Riparia SO4 rootstock, rooted without mulching the beds with polyethylene foil, were used. The soil type was leached chernozem formed on clay loess. The treatment with Gardoprim plus Gold (312.5 g/l s-metolachlor + 187.5 g/l terbuthylazine) at a dose of 0.4 l/da was performed by micro-spraying immediately after the cuttings were planted in the nursery. The content of N (%), P (%), K (%), Ca (%), Mg (%) and Fe (mg/kg) in the vine leaves and the weeds' vegetative mass was recorded at the end of the vine growth. The weed species C. arvensis, A. blitoides and P. oleraceae appeared to be highly aggressive competitors of young Cabernet Sauvignon vines in nutrient uptake in the area of the nursery. C. arvensis plants from the herbicide-free plots accumulated larger amounts of P, K and Fe; A. blitoides - K, Ca, Mg and Fe; P. oleraceae - K, Mg and Fe. Despite the insufficient sensitivity of the three weed species to the herbicide; their response included statistically significant changes in nutrients export. The minimal changes found in the amounts of N, P, K, Ca, Mg and Fe in the leaves of Cabernet Sauvignon young vines after treatment with Gardoprim plus Gold did not affect their growth and development and did not create preconditions for latent or overt phytotoxic reaction. </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1975,7 +1995,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A study evaluated eight new grapevine rootstock genotypes for use in Mediterranean viticulture, identifying two promising candidates for commercial use.</t>
+          <t>Weeds were found to be aggressive competitors for nutrients against young Cabernet Sauvignon vines in a nursery, but herbicide treatment did not significantly affect their growth.</t>
         </is>
       </c>
     </row>
@@ -1985,12 +2005,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Corema album: from the wild to the fieldCorema album (L.) D. Don a long-lived, dioecious evergreen shrub is native from Atlantic dunes in the Iberian Peninsula and produces white edible berries. As a new berry there is great interest in the production and marketing of its fruits. Accompanying this growing interest in the species, INIAV initiated the development of a research program with several lines that are underway. The relationship between fruit and seed size is one of the most important selection criteria in this species. Some studies of plant morphology and anatomy, namely flower biology were performed. Being a plant that inhabits dunes with extreme temperature conditions and lack of water in the summer period, it is expected that the germination of their seeds is difficult. Thus, several germination trials have been developed with different types of scarification and stratification with uneven results obtained. In order to understand embryo maturity and seed dormancy, histological sections of embryos were done during the stages of seed and cotyledon development. A germplasm collection from ten origins was established at INIAV Experimental farm at Fataca. To evaluate the phenological behaviour of plants from different origins, a phenological BBCH scale was proposed. Vegetative propagation tests were also carried out, assessing rooting capacity between different genotypes of distinct origins. Genetic diversity assessment based on ISSR markers and agro-morphological traits was done in four different sites along the Portuguese coast. Results show that genetic diversity was higher between populations than within them. The agro-morphological traits showed high diversity, but they were not associated to geographic localization. The opportunity for development of a new berry crop presents many potential benefits as well as new challenges. Mass selection of wild plants was performed in 5 km at Meco coastal dune with special focus on fruit characteristics, mainly fruit and seed size, with the selection of 20 superior clones. Corema album has great potential as a new berry crop for.</t>
+          <t xml:space="preserve">Seed- versus transplant-based eelgrass (Zostera marina L.) restoration success in a temperate marine lakeDespite active seagrass restoration gaining traction as a tool to halt and reverse worldwide seagrass losses, overall success remains limited. Restoration strategies, through seeding or transplantation, face different environmental bottlenecks that limit success. Choosing the most appropriate strategy of the two for a specific location, however, is hampered by lack of direct practical comparisons between strategies within a single system. To investigate potential life stage dependent bottlenecks, we compared seed-based and transplant-based restoration of Zostera marina in the subtidal saltwater Lake Grevelingen. Our results demonstrate that seedling recruitment was negatively impacted by bioturbation from the lugworm Arenicola marina and sediment movement due to hydrodynamic exposure. Transplant-based restoration was clearly more successful but surprisingly best predicted by leaf gluing by the ragworm Platynereis dumerilii. This previously undescribed interaction caused seagrass leaves to clump and reduce effective photosynthetic surface and leaf movement. We suggest that the observed behavior of these worms may result from a lack of foodweb interactions, illustrating the importance of trophic control for seagrass restoration. Thus, in addition to recognizing life stage dependent environmental bottlenecks for restoration strategy selection, seagrass restoration may also require the active recovery of their associated food webs. </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Seed-based and transplant-based restoration of Zostera marina in Lake Grevelingen showed that transplanting was more successful, due to leaf gluing by the ragworm, highlighting the importance of trophic control for seagrass restoration.</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2025,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>""Recovery"" of Vaccinium myrtillus from phytoplasma infection in vitroConsumer interest in healthy foods has increased market demand for high quality fruits such as wild and cultivated blueberries. They are used as medicinal plants, due to their high anthocyanin content and are an excellent source of antioxidants. Berries and leaves have various health effects and are used as a disinfectant, to lower cholesterol levels and as treatment for rheumatic diseases. In vitro techniques like micropropagation are increasingly being used as alternative ways of breeding, for the production of large numbers of plants on a commercial scale, for sanitation purposes and for the maintenance of obligate plant pathogens like viruses and phytoplasmas. A plant of wild European blueberry (Vaccinium myrtillus L.) exhibiting symptoms of shoot proliferation and small leaves was potted in the greenhouse and served as donor material for tissue culture establishment. Infected cultures were maintained over a period of more than 10 years and regularly screened for the presence of phytoplasmas. Interestingly over a period of several years a phenomenon of spontaneous remission of symptoms occurred, comparable to several cases of fruit trees under in vivo conditions described as ""recovery"". A thorough screening by PCR was carried out over several years and revealed that a spontaneous sanitation that occurred during the in vitro cultivation process, comparable to NDASH but with a lower extent (percentage) meristem culture and thermotherapy.</t>
+          <t xml:space="preserve">Peat extraction, trade and use in Europe: a material flow analysisPeat is a fossil material used as a component of horticultural growing media as well as fuel. In a context of climate debates, several European countries have decided to address greenhouse gas emissions from peat extraction and use. In this situation, reliable data on peat amounts are needed as a basis for public discussion and policy-making. However, the quantity and quality of the available data is generally considered insufficient. In this context, this article provides a reliable overview of the peat market in Europe for the period 2013-2017 based on the systematic collection, selection and combination of available data. The results show that around 20 million tons of peat are extracted yearly in Europe, including 62% for energy and 38% for non-energy purposes. Energy peat is consumed where it is produced, whereas non-energy peat is exported from Northern Europe to Western Europe on a massive scale. In some countries, the data combination reveals incompatibilities between extraction and trade data, with an evident case for Germany. The accuracy and the timeliness of the results could be improved with more up-to-date information on the composition of peat and growing media as well as an adaptation of the definition used in trade statistics. </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2010,7 +2035,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>In vitro techniques like micropropagation are used to grow high quality fruits like blueberries and maintain plant health by removing pathogens like phytoplasmas. Recovery from infection can occur during this process.</t>
+          <t>This article provides reliable data on the peat market in Europe, showing that 20 million tons are extracted yearly, with 62% used for energy and 38% for non-energy purposes.</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2045,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Adaptation to cultivation of Hypericum pubescens Boiss., an endangered species in Alentejo (Portugal)Hypericum pubescens Boiss. is a medicinal plant, classified as endangered species, in the Portuguese red list of vascular flora, mainly due to the intensification of agriculture. This species is widely used in traditional medicine, increasing genetic erosion risk. Thus, studying propagation methods for its efficient cultivation is our main goal. Three seed samples were tested: (a) cultivated in 2016; (b) from nature in 2017; (c) cultivated in 2021. Seed were incubated at 20 degrees C, 12h photoperiod, using 4 replicates. In November 2021, a propagation trial was done using 30 stem cuttings (5 cm length) of four types of cuttings: softwood terminal; softwood sub-terminal; semi-softwood and hardwood. Cuttings were placed in a 5x5 cm cells on trays, using a commercial turf grass substrate. Cuttings rooting success and height was registered after 1 and 2 months. In May 2021, rooted stem cuttings from spontaneous plants were installed in an experimental field, using weed control fabric, constituted by 3 randomized blocks (5 plants block&lt;sup&gt;-1&lt;/sup&gt;). Phenology descriptors (flowering dates: beginning, full, end) were observed. In November 2021, agronomic descriptors were observed: plot area, plot biomass production and main stem descriptors (height, length, number of internodes, number of ramifications and biomass production). The germination capacity was maintained after 5 years' storage in a refrigerator (ca. 5 degrees C). Best seed germination rate was 86%; 1000 seed weight was 0.084 g. The highest survival rate was obtained with sub-terminal cuttings (100%), but softwood terminal cuttings grew faster. On the agronomic plot, average height of plants was 21.9 cm, stem average length was 66.1 cm, thus, plants have prostrate habit; main stems had average of 67 ramifications and 45 internodes. The 4.6 m&lt;sup&gt;2&lt;/sup&gt; plot produced 862.2 g m&lt;sup&gt;-2&lt;/sup&gt; fresh herb and 1.73 t ha&lt;sup&gt;-1&lt;/sup&gt; dry herb. Plants were vigorous and cultivation installation using weed control fabric was considered a success.</t>
+          <t xml:space="preserve">Assessing the role of acc deaminase-producing bacteria in alleviating salinity stress and enhancing zinc uptake in plants by altering the root architecture of French bean (Phaseolus vulgaris) plantsMain Conclusion: The consortium inoculation with strains R1 and R4 modified the root system to boost seedling growth, increase the zinc content of French bean pods, and reduce salinity stress. Abstract: The present study demonstrated the effect of two 1-aminocyclopropane-1-carboxylic acid (ACC) deaminase-producing plant growth-promoting rhizobacteria (Pantoea agglomerans R1 and Pseudomonas fragi R4) alone and consortia on the root system development, French bean growth, and zinc content as well as salinity stress tolerance. Both the strains were characterized for ACC utilization activity (426.23 and 380.54 nmol a-ketobutyrate mg protein&lt;sup&gt;-1&lt;/sup&gt; h&lt;sup&gt;-1&lt;/sup&gt;), indole acetic acid (IAA) production, phosphate solubilization, ammonia, hydrogen cyanide (HCN), and siderophore production. The strains exhibited zinc solubilization in both plate and broth assays with zinc oxide and zinc carbonate as zinc sources as validated by atomic absorption spectroscopy (AAS). Single or combined inoculations with the selected strains significantly modulated the architectural and morphological traits of the root system of French bean plants. Furthermore, the application of R1and R4 consortia has enhanced zinc content in roots (60.83 mg kg&lt;sup&gt;-1&lt;/sup&gt;), shoots (15.41 mg kg&lt;sup&gt;-1&lt;/sup&gt;), and pods (30.04 mg kg&lt;sup&gt;-1&lt;/sup&gt;) of French bean plants grown in ZnCO&lt;sub&gt;3&lt;/sub&gt; amended soil. In another set of pot experiments, the consortium bacterization has significantly enhanced length as well as fresh and dry biomass of roots and shoots of the French bean plant under saline stress conditions. Additionally, inoculation with ACC-degrading rhizobacterial strains has increased chlorophyll and carotenoid contents, osmoprotectant content, and antioxidative enzyme (catalase and peroxidase) activity in comparison to their counterparts exposed to salt treatments only. Current findings suggested ACC deaminase-producing rhizobacterial strains hold the potential to improve root architecture which in turn promotes plant growth under salt-stressed conditions as well as enhances micronutrient concentration in host plants. </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2030,7 +2055,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>The study focused on the cultivation of Hypericum pubescens, an endangered medicinal plant. Seed and stem cuttings were tested, with successful propagation and cultivation using commercial substrate and weed control fabric.</t>
+          <t>Acc-deaminase producing bacteria (R1 and R4) modified the root system of French bean plants, promoting seedling growth, increasing zinc content, and reducing salinity stress.</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2065,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Aromatic and medicinal plants gene pool from the VIR collection: diversity and potentialThe VIR (N.I. Vavilov All-Russian Research Institute of Plant Genetic Resources, St.-Petersburg, Russian Federation) world collection of aromatic and medicinal plants includes about 4500 accessions from 90 countries of various status, which belong to 19 families, 71 genera and 170 species. The most widely represented families are Lamiaceae (27%), Asteraceae (15%), Polygonaceae (14%), Apiaceae (11%), and Brassicaceae (10%). The largest collections are collections of sorrel (485 accessions), basil (436 acc.), okra (390 acc.), endive (323 acc.), garden cress (325 acc.), fennel (245 acc.), asparagus (166 acc.), mint (128 acc.), savory (120 acc.) and salvia (107 acc.). The VIR is deeply studying such crops as basil, garden cress, arugula, artichoke, chicory, mint, vegetable chrysanthemum and Malabar spinach and analyses morphological, phenological, economically valuable and biochemical characteristics of the accessions. The main directions in which the study and breeding is carried out are earliness, including in connection with the advancement of southern crops to the north, productivity, resistance to early bolting, resistance to biotic and abiotic stressors, decorativeness, suitability for various cultivation methods, including in pot culture and intensive light culture. Studies of the biochemical composition of all crops are aimed at determining the content of dry matter, sugars, ascorbic acid, chlorophylls and carotenoids, anthocyanins, phenolic compounds and amino acids. Also, accessions of mint are studied for the content of essential oils, chicory root and artichoke for the content of inulin. The obtained phenotypic and biochemical data are used to create trait collections. The collection is screened annually to identify both new phenotypes for individual traits and for combinations of already known traits. In recent years, there has been an intensive replenishment of the collection, with special attention paid to medicinal plants. Now VIR collection includes among others the accessions of valuable plants such as althaea (Althaea officinalis L.), arnica (Arnica montana L.), elecampane (Inula helenium L.), sagebrush (Artemisia L.), tutsan (Hypericum L.), European gromwell (Lithospermum officinale L.), polemonium (Polemonium caeruleum L.) and anthyllis (Anthyllis L).</t>
+          <t xml:space="preserve">Phytophthora in horticultural nursery greenwaste - a risk to plant healthPhytophthora is a genus of destructive plant pathogens. Certain species are damaging to native ecosystems, forestry, and the horticultural sector, and there is evidence of their dissemination in plant imports. Horticultural nurseries are central nodes of the plant trade and previous studies have found a high diversity of Phytophthora associated with plant nursery stock. It was subsequently hypothesized that green waste disposal sites in nurseries could harbour diverse Phytophthora communities and act as a pathogen reservoir and conduit, facilitating further Phytophthora infection of nursery stock and its spread into the wider environment. This project identified Phytophthora species associated with green waste at three Scottish nurseries by sampling material from waste piles, water run-off from piles, and roots from discarded plants. Species were identified using a baiting method and sequencing of environmental DNA. Plant nursery green waste was shown to harbour diverse and varied Phytophthora species assemblages, with differences among nurseries reflecting biosecurity management practices. Eighteen Phytophthora species were detected in the samples, including the highly destructive pathogens P. ramorum and P. austrocedri. Results suggest that the improved management of waste, for example through effective on-site composting, is essential to reduce the risk of Phytophthora pathogens spreading from nurseries into the wider environment. </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2050,7 +2075,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The VIR collection of aromatic and medicinal plants includes diverse species such as basil, mint, and arugula, with a focus on studying their characteristics and potential uses.</t>
+          <t>Phytophthora, a destructive plant pathogen, can be found in horticultural nursery green waste. Effective waste management is crucial to prevent its spread into the environment.</t>
         </is>
       </c>
     </row>
@@ -2060,17 +2085,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mycobiome of post-agricultural soils 20 years after application of organic substrates and planting of pine seedlingsA 20-year study of a pine stand on post-agricultural land showed that woody debris in the form of organic matter can be successfully used to restore symbiotic mycorrhizal communities, as is the case with forest soils. Woody substrates restored organic matter in soils altered by long agricultural use and had a positive effect on the composition of mycobiota antagonistic to pathogens, especially to Heterobasidion annosum, the causal agent of the dangerous disease root and stump rot of many forest tree species, including stands of Pinus sylvestris (L.). In a study that started in 2001 in the forest district of Czarne Czluchowskie (northern Poland), the following organic materials were used: wood residues (W), sawdust (S), bark compost (B), and compost applied to the root zone during planting (G). The organic materials were spread in the form of mulch over the entire area during planting. After twenty years, it was found that the substrates used provided suitable growth conditions for mycobiome useful for pines. The addition of organic matter did not change the alpha biodiversity of the soil, but in the long term led to significant changes in the composition of mycobiota (beta biodiversity). The changes in the soil after the addition of organic material naturally accelerated the formation of the forest habitat. A number of fungi evolved that degraded added lignin and cellulose while being antagonists of H. annosum and other pine pathogens. In particular, the well-known hyperpathogens of the genus Trichoderma played an important role by promoting resistance of the soil environment to pathogens. Soil enrichment by bark compost and wood residues increased the relative abundance of Trichoderma more than fourfold. Mycorrhizal fungi became dominant in soil enriched with organic matter. After enriching the soil with bark compost, the relative abundance of Amphinema and Inocybe increased to 5%. The relative abundance of Russula in soil enriched with wood residues and sawdust increased to 9% and 5%, respectively. Mycorrhizal fungi, e.g., of the genus Amanita, Rusula, which formed root mycorrhizae, not only increased the root receiving area many times over, but also protected the roots (mechanically and chemically from pathogens). Altogether, the observed positive changes increase the chances that the first generation of pines will survive on the ground.</t>
+          <t xml:space="preserve">Monitoring residue levels of multiple types pesticides in Chrysanthemum (Chrysanthemum morifolium Ramat) and its residue pattern in diet consumptionIn this study, a modified preparation method named ""Quick, Easy, Cheap, Effective, Rugged and Safe"" (QuEChERS) was designed to detect six pesticide residues (fenthion, pendimethalin, trifloxystrobin, bifenazate, pyridaben, and pyraclostrobin) in 25 chrysanthemum (Chrysanthemum morifolium Ramat) samples by the gas chromatography-mass spectrometry (GC-MS) analysis. Prior to GC-MS analysis, extraction was performed using acetonitrile-2.5% formic acid with European standard (EN) QuEChERS method extraction salts, and the matrix was purified with a combination of sorbent primary secondary amine/graphitized carbon black/octadecylsilane (PSA/GCB/C18). The limits of detection and quantification were then measured by applying matrix-matched calibration curves (R&lt;sup&gt;2&lt;/sup&gt; 0.999) in the ranges of 0.35-3.25 and 1.04-9.76 g.kg&lt;sup&gt;-1&lt;/sup&gt;, respectively. By quantitative analysis, the recoveries of pesticides ranged from 80.14% to 98.57% with the relative standard deviations &lt; 10% at the spiked levels of 0.01, 0.05 and 0.10 mg.kg&lt;sup&gt;-1&lt;/sup&gt;. The transfer rates of pyraclostrobin in chrysanthemum to its infusion ranged from 11.38% to 25.75%. According to the favorable results, the method may be suitable for the quantitative detection of six chemical pesticides in chrysanthemums. Additionally, with a hazard quotient of 1.43%, pyraclostrobin posed a negligible risk to human health. </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>A 20-year study found that using woody debris as organic matter can restore mycorrhizal communities in post-agricultural soils, providing suitable conditions for pine growth and protection against pathogens.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2100,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Future fire risk and the greenhouse gas mitigation potential of forest rehabilitation in British Columbia, CanadaIncreased forest fires in the future will create opportunities to undertake salvage logging and replanting activities with the potential to reduce greenhouse gas (GHG) emissions relative to a 'do nothing' scenario that relies on natural regeneration. Salvage logging of fire-killed wood will generate additional useful products for society while replanting will provide opportunities to establish seedlings with genetic gain and increased climate resilience. In British Columbia, Canada, our study showed that cumulative net GHG benefit from these rehabilitation activities on about 14% of the area burned ranges from -32 to -79 MtCO&lt;sub&gt;2&lt;/sub&gt;e in 2070, but cumulative net GHG reduction benefits are not realized for 23 to 31 years due to the emissions debt that is incurred from harvest wood product emissions and residue management. Scenarios were modelled using the Generic Carbon Budget Model (GCBM) that tracked carbon in the forest and a harvested wood products model that tracked the fate of C and the substitution benefits achieved through wood use, both developed by the Canadian Forest Service. Results were evaluated across 100 simulations of future fire, developed using a log-normal model fit to historic fire events and an assumption of linearly increased area annually burned by 2070 to double the average of the period 1950 to 2018. Our results suggest that mitigation efforts might be better directed at reducing wildfire risks and emissions in the first place, rather than rehabilitating post-fire outcomes.</t>
+          <t xml:space="preserve">Evaluation of the fertilizer potential of Chlorella vulgaris and Scenedesmus obliquus grown in agricultural drainage water from maize fieldsProducing microalgae with agricultural drainage water (ADW) allows recycling water and nutrients, with the production of a biofertilizer, avoiding receiving waters' contamination. Chlorella vulgaris and Scenedesmus obliquus were cultivated using ADW and standard media supplementation and presented higher productivities, relatively to the control industrial growth medium (using freshwater). Selected strains were grown outdoors in pilot flat panel photobioreactors, reaching 2.20 g L&lt;sup&gt;-1&lt;/sup&gt; for S. obliquus and 1.15 g L&lt;sup&gt;-1&lt;/sup&gt; for C. vulgaris, and degrading herbicides in the ADW to non-quantifiable concentrations. The potential of the C. vulgaris and S. obliquus suspensions to replace 50% of nitrogen (N) mineral fertilization of lettuce (0.5 g pot&lt;sup&gt;-1&lt;/sup&gt;) was evaluated through a pot trial, also using a 2-times (1.0 g pot&lt;sup&gt;-1&lt;/sup&gt;) and 5-times (2.5 g pot&lt;sup&gt;-1&lt;/sup&gt;) higher dose, applied 31 days before lettuce transplanting. Even the lower dose of N, applied via C. vulgaris or S. obliquus suspensions, was able to provide significantly higher lettuce fresh matter yield, relatively to the mineral fertilized control. Soil enzymatic activities were improved, with significantly higher dehydrogenase, beta-glucosidase, and acid phosphatase activities for the 2.5 g pot&lt;sup&gt;-1&lt;/sup&gt; dose, more marked for S. obliquus, which was also able to increase soil organic matter content. Both the non-fertilized control and microalgae fertilized pots led to similar soil electrical conductivities, 3-fold lower than in the N-mineral fertilized pots, evidencing the capacity of microalgae fertilizers to avoid soil secondary salinization. Results suggest benefits from using ADW from maize cultivation to produce C. vulgaris or S. obliquus suspensions, that can be further used as liquid organic slow-release fertilizer. </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2090,7 +2110,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Salvage logging and replanting after forest fires in British Columbia can reduce greenhouse gas emissions, but the benefits are not realized for 23 to 31 years due to emissions from wood products. However, efforts should focus on reducing wildfire risks and emissions.</t>
+          <t>Cultivating microalgae with agricultural drainage water can produce biofertilizers that help recycle water and nutrients, improving soil enzymatic activities and increasing crop yield.</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2120,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Evaluation of the impact of Gleditsia triacanthos seed treatment methods on reproductionRepresentatives of the genus Gleditsia, valuable trees for agroforestry in the south-east of the European part of Russia, form productive forest strips. In regions with difficult soil and climatic conditions, good plant development at the initial stage is important. The introduced species Gleditsia triacanthos has characterized by a high degree of drought resistance and stable fruiting. The main source material for reproduction is seeds, but the structural features of the seed coat affect the germination and development of Gleditsia seedlings. The aim was to assess the impact of processing methods on the dormancy of seeds with a hard shell and the growth of seedlings. Under laboratory conditions at the Federal Scientific Center of Agroecology of the Russian Academy of Sciences in the period from November 17 to December 1, 2022, an experiment was conducted to study the effect of methods of treatment of seeds of Gleditsia triacantha (2022 year of fruit harvest). It has been established that the chemical method (H2SO4 concentration 95.72%, density 1.895 g/cm3, 1757 g/l) is more effective, because swelling (after 24 h-96%) and the appearance of hypocotyl (after 72 h-39.7%) in seeds and other phases of seedling formation of Gleditsia triacanthos. The recommended methods of seed pretreatment ensured mass sprouts (76-78% on day 7) and increased the yield of seedlings (55.0-61.5%). Research findings contribute to the search for techniques and methods for the development of low-carbon production technologies.</t>
+          <t xml:space="preserve">FeCl&lt;sub&gt;3&lt;/sub&gt; and Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt; differentially reduce Cd uptake and accumulation in Polish wheat (Triticum polonicum L.) seedlings by exporting Cd from roots and limiting Cd binding in the root cell wallsWheat grown in cadmium (Cd)-contaminated soils easily accumulates more Cd in edible parts than the Chinese safety limit (0.1 mg/kg). FeCl&lt;sub&gt;3&lt;/sub&gt; and Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt; have been used to extract Cd from Cd-contaminated soils. Thus, we hypothesized that FeCl&lt;sub&gt;3&lt;/sub&gt; and Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt;, used as iron (Fe) fertilizers, can reduce Cd uptake and accumulation in wheat. Here, a hydroponic experiment was performed with three FeCl&lt;sub&gt;3&lt;/sub&gt; and Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt; concentrations under 80 M CdCl&lt;sub&gt;2&lt;/sub&gt; stress on dwarf Polish wheat (Triticum polonicum L., 2n = 4x = 28, AABB) seedlings. Compared with Fe deficiency, FeCl&lt;sub&gt;3&lt;/sub&gt; and Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt; additions competitively reduced Cd concentrations. The reductions were not associated with changes in dry weight and root morphological parameters. FeCl&lt;sub&gt;3&lt;/sub&gt; and Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt; additions reduced Cd concentrations in the following order from smallest to largest reduction: 25 M Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt; &lt; 200 M FeCl&lt;sub&gt;3&lt;/sub&gt; &lt; 50 M FeCl&lt;sub&gt;3&lt;/sub&gt; &lt; 100 M Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt;. Investigation of subcellular distributions showed that the four Fe fertilizers differentially reduced Cd binding in the root cell walls and enhanced root sucrose and trehalose. Cd chemical form analysis revealed that Fe fertilizer addition also differentially reduced root F&lt;sub&gt;E&lt;/sub&gt;, F&lt;sub&gt;W&lt;/sub&gt;, and F&lt;sub&gt;NaCl&lt;/sub&gt;. Transcriptomic analysis revealed that addition of FeCl&lt;sub&gt;3&lt;/sub&gt; and Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt; differentially up-regulated several genes that hydrolyze cell wall polysaccharides and metal transporter genes for Cd uptake (IRT1 and CAX19) and export (ZIP1, ABCG11, ABCG14, ABCG28, ABCG37, ABCG44, and ABCG48) reducing Cd uptake and accumulation. Our results demonstrated that FeCl&lt;sub&gt;3&lt;/sub&gt; and Fe&lt;sub&gt;2&lt;/sub&gt;(SO&lt;sub&gt;4&lt;/sub&gt;)&lt;sub&gt;3&lt;/sub&gt; can reduce Cd accumulation in wheat, and 50 M FeCl&lt;sub&gt;3&lt;/sub&gt; is the most effective treatment. </t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2110,7 +2130,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>The study evaluated different methods of seed treatment for Gleditsia triacanthos and found that a chemical method was most effective for seed germination and seedling growth.</t>
+          <t>FeCl3 and Fe2(SO4)3 fertilizers reduce Cd uptake in wheat seedlings by exporting Cd from roots and limiting Cd binding in root cell walls, reducing Cd accumulation in the plant.</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2140,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Culture of Gracilaria gracilis and Chondracanthus teedei from vegetative fragments in the field and carpospores in laboratoryGracilarioids and Gigartinales are of great economic importance due to the phycocolloids they contain in their cell wall and are used in different industries worldwide. Field and laboratory cultures of two species of red seaweeds (Gracilaria gracilis and Chondracanthus teedei), confirmed after DNA analysis, were carried out to foster the increasing use of this species in Spain as a food source. Vegetative cultures carried out in an open-lock gate within a traditional salina in the ay of Cadiz (Southern Spain) rendered maximum growth rates in April (3.64% day&lt;sup&gt;-1&lt;/sup&gt;) for G. gracilis and in November (4.68% day&lt;sup&gt;-1&lt;/sup&gt;) for C. teedei, the latter showing significant differences between the months of the year. For laboratory cultures, samples of the two species used for sporulation were obtained from tidal creeks in several nearby locations of the Bay. In order to grow fertile carposporophytes from spores, Provasoli enriched seawater medium (ES medium), Miquel A + B and f/2 were used as culture medium at a temperature of 18 degrees C and irradiance of 30 micro mol m&lt;sup&gt;-2&lt;/sup&gt; s&lt;sup&gt;-1&lt;/sup&gt; in 12:12 h photoperiod. Both species developed a basal disc after 12-15 days in ES medium and Miquel A + B, and new microscopic seedlings were observed at 20-25 days in ES medium. With f/2 medium, no growth was observed after sporulation. The life cycle of G. gracilis was completed in ES medium over a period of 11 months with a mean growth rate of 3.28% day&lt;sup&gt;-1&lt;/sup&gt;. The present study is an important step towards the development of seaweed cultivation in the Bay of Cadiz, especially in integrated multi-trophic cultivation in salinas as part of the more sustainable use of the marine resources in coastal communities.</t>
+          <t xml:space="preserve">Phenolic-rich extracts from circular economy: chemical profile and activity against filamentous fungi and dermatophytesFungal infections represent a relevant issue in agri-food and biomedical fields because they could compromise quality of food and humans' health. Natural extracts represent a safe alternative to synthetic fungicides and in the green chemistry and circular economy scenario, agro-industrial wastes and by-products offer an eco-friendly source of bioactive natural compounds. In this paper, phenolic-rich extracts from Olea europaea L. de-oiled pomace, Castanea sativa Mill. wood, Punica granatum L. peel, and Vitis vinifera L. pomace and seeds were characterized by HPLC-MS-DAD analysis. Finally, these extracts were tested as antimicrobial agents against pathogenic filamentous fungi and dermatophytes such as Aspergillus brasiliensis, Alternaria sp., Rhizopus stolonifer, and Trichophyton interdigitale. The experimental results evidenced that all extracts exhibited a significant growth inhibition for Trichophyton interdigitale. Punica granatum L., Castanea sativa Mill., and Vitis vinifera L. extracts showed a high activity against Alternaria sp. and Rhizopus stolonifer. These data are promising for the potential applications of some of these extracts as antifungal agents in the food and biomedical fields. </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2130,7 +2150,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Field and laboratory cultures of two red seaweed species were carried out to promote their use as a food source. Maximum growth rates were observed in April for Gracilaria gracilis and in November for Chondracanthus teedei. Sporulation and growth of fertile carposporophytes were achieved in laboratory cultures using different culture media. The study is a significant step towards seaweed cultivation in the Bay of Cadiz for sustainable marine resource use.</t>
+          <t>Circular economy offers phenolic-rich extracts from agro-industrial wastes as eco-friendly, natural compounds for fungal infections. Various extracts show significant antifungal activity, especially against Trichophyton interdigitale.</t>
         </is>
       </c>
     </row>
@@ -2140,17 +2160,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Influence of the climatic conditions of the year 2022 on the grapevine phenology at SCDVV BlajThe present article attempts to describe how the effects of climate conditions affect the evolution of the grapevine phenological period in 2022. The cultivars used were Selena, Blasius, Rubin, Radames and two clones obtained approved in SCDVV Blaj: Sauvignon blanc 9Bl and Feteasca alba 29 Bl. The experiment was carried out at SCDVV Blaj and included field observations, monitoring weather conditions such as temperature and precipitation. For the onset of the phenological phases: budding, flowering, veraison (colour change of grape berries) and ripening-maturation. The phenological phases of the grapevines were monitored for a growing season according to the protocol established, taking into account the BBCH grade. Temperature and precipitation are the two main climatic factors that affect the growth and development of the grapevines. Due to existing thermal conditions and continued global warming, the Tarnave vineyard region is a recommended place for white grape cultivation.</t>
+          <t xml:space="preserve">Influence of different rootstocks on fruit quality and primary and secondary metabolites content of blood oranges cultivarsBlood oranges have high concentrations of bioactive compounds that are beneficial to health. In Europe, the cultivation of blood oranges is increasing due to their excellent nutritional properties. In Citrus crops, rootstocks play an important role in juice and can increase the content of bioactive compounds. The morphological, qualitative and nutritional parameters were analyzed in cultivars 'Tarocco Ippolito', 'Tarocco Lempso', 'Tarocco Tapi' and 'Tarocco Fondaconuovo' grafted onto Citrus macrophylla and Citrus reshni. 'Tarocco Lempso' grafted onto Citrus macrophylla obtained the highest values of weight (275.78 g), caliber (81.37 mm and 76.79 mm) and juice content (162.11 g). 'Tarocco Tapi' grafted onto Citrus reshni obtained the most interesting qualitative parameters (15.40 degrees Brix; 12.0 MI). 'Tarocco Lempso' grafted onto Citrus reshni obtained the most intense red juice (a* = 9.61). Overall, the highest concentrations of primary metabolites were in proline, aspartate, citric acid, and sucrose. The results showed that 'Tarocco Ippolito' juice grafted onto Citrus reshni had the highest levels of total hydroxycinnamic acids (263.33 mg L&lt;sup&gt;-1&lt;/sup&gt;), total flavones (449.74 mg L&lt;sup&gt;-1&lt;/sup&gt;) and total anthocyanins (650.42 mg L&lt;sup&gt;-1&lt;/sup&gt;). To conclude, 'Tarocco Lempso' grafted onto Citrus macrophylla obtained the best values of agronomic parameters, and the cultivars grafted onto Citrus reshni obtained significantly higher concentrations in primary and secondary metabolites. </t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>This article studies how climate conditions in 2022 affected grapevine growth and development. It focuses on the phenological phases and recommends the Tarnave vineyard region for white grape cultivation.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2160,12 +2175,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Observations on the effects of the Hail on some apple varieties under the conditions of 2021The research was carried out on 3 apple varieties, namely Golden delicious, Jonathan and Starkrimson, grown in the N-E area of Romania, within the Research Station for fruit growing Iasi, on Falticeni development center. The plantation was established in 1990, being in 31 since planting. The trees are grafted on the MM106 rootstock, with a planting distance of 4 meters between rows and 2.5 meters between trees, with a density of 1000 trees/ha. During the agricultural year 2021, hail was observed as an extreme climatic phenomenon, recorded in June, July and August, when the trees were in the phenological stage BBCH 71-74, BBCH 75, BBCH 77 and BBCH 79. Extreme phenomena were accompanied by heavy rains and storms that affected both the quality and quantity of fruit production. The highest degree of damage was recorded in the Golden delicious variety in all four hail falls, with a percentage between 5% and 67%. Therefore, the fruit production was affected, their quality being impaired and not being commercialized as high quality fruit, for fresh consumption, but only industrialized.</t>
+          <t xml:space="preserve">A callus-derived regeneration and Agrobacterium-mediated gene transformation developed for bilberry, Vaccinium myrtillusVaccinium myrtillus, known as bilberry or European blueberry, is highly valued by consumers for its berries that are rich in health-promoting compounds. However, bilberry production remains largely wild, as the low fruit yield and soft berry characteristics impede its domestication and commercialization. A robust gene transformation system, which is currently lacking in bilberry, can be used to verify gene functions, as well as to accelerate the breeding process. In this study, we propagated bilberries in laboratory conditions and established a callus-derived regeneration method. We further performed Agrobacterium-mediated gene transformation on bilberry. With step-wise optimization, the transformation efficiency reached 4% using newly developed ternary vector systems in conjunction with sonication treatment and vacuum infiltration. We successfully transformed the MYBA1 transcription factor, which promotes anthocyanin synthesis, into the bilberry genome. Consistent expression of MYBA1 resulted in observable anthocyanin accumulation in bilberry callus. Overall, a highly efficient gene transformation method was established in bilberry, which will benefit future gene function studies and bioreactor research on bilberry. </t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>The study developed a gene transformation system for bilberry plants, increasing their yield and commercial potential by improving their fruit characteristics and gene functions.</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2195,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Recovery and genotyping ancient Sicilian monumental olive treesThe long-lived and evergreen olive tree dominates the Mediterranean landscape, representing an agroecological and cultural symbol and a genetic heritage of inestimable value. Sicily, for historical, geographical, and cultural reasons, has a very rich and distinctive olive germplasm. In this work, a large survey was conducted to discover, collect, and characterize the genetic diversity of centennial monumental olive trees from historical sites, such as the Greek Temple Valley (Agrigento), ancient gardens, or farmland present in the western part of the island. Trees were chosen based on their height, trunk, stump size, and presumed age; particularly, only olive trees with an age estimated at more than 400 years old were taken into consideration. For the morphological characterization, the leaf, fruit, and endocarp traits were analyzed. For the molecular characterization, 11 polymorphic microsatellite markers largely used for fingerprinting analysis were used. Reference cultivars were included in the analysis for comparison. Nuclear DNA was extracted from different parts of the plant (young leaves of shoots taken from the canopy and young leaves taken from suckers, which arose from the basal part of the tree) to check if the trees were grafted and to explore their diversity. Most of the monumental trees have been grafted at least one time during their long life, and some genotypes showed unique genetic profiles combined with peculiar phenotypic traits. Suckers (rootstock of the trees) showed a strict genetic relationship with an ancient monumental oleaster tree, also included in the study. ""Patriarch"" (original mother plants) trees of local cultivars were also identified. This research revealed a high level of the still unexplored genetic diversity of the Sicilian olive germplasm and highlighted its importance as a gene reservoir, which could support new breeding programs for the evaluation and possible selection of traits linked to putative resilience to abiotic and biotic stresses (particularly &lt;i&gt;Xylella fastidiosa&lt;/i&gt; subsp. pauca ST53 or soil- borne diseases or insects). The results will be useful for improving the conservation process, enriching existing collections of olive genetic resources, and supporting on-farm conservation projects.</t>
+          <t xml:space="preserve">Synergistic soil-less medium for enhanced yield of crops: a step towards incorporating genomic tools for attaining net zero hungerGlobally, industrial farming endangers crucial ecological mechanisms upon which food production relies, while 815 million people are undernourished and a significant number are malnourished. Zero Hunger aims to concurrently solve global ecological sustainability and food security concerns. Recent breakthroughs in molecular tools and approaches have allowed scientists to detect and comprehend the nature and structure of agro-biodiversity at the molecular and genetic levels, providing us an advantage over traditional methods of crop breeding. These bioinformatics techniques let us optimize our target plants for our soil-less medium and vice versa. Most of the soil-borne and seed-borne diseases are the outcomes of non-treated seed and growth media, which are important factors in low productivity. The farmers do not consider these issues, thereby facing problems growing healthy crops and suffering economic losses. This study is going to help the farmers increase their eco-friendly, chemical residue-free, quality yield of crops and their economic returns. The present invention discloses a synergistic soil-less medium that consists of only four ingredients mixed in optimal ratios by weight: vermicompost (70-80%), vermiculite (10-15%), coco peat (10-15%), and Rhizobium (0-1%). The medium exhibits better physical and chemical characteristics than existing conventional media. The vermiculite to coco peat ratio is reduced, while the vermicompost ratio is increased, with the goals of lowering toxicity, increasing plant and water holding capacity, avoiding drying of the media, and conserving water. The medium provides balanced nutrition and proper ventilation for seed germination and the growth of seedlings. Rhizobium is also used to treat the plastic bags and seeds. The results clearly show that the current synergistic soil-less environment is best for complete plant growth. Securing genetic advantages via sexual recombination, induced random mutations, and transgenic techniques have been essential for the development of improved agricultural varieties. The recent availability of targeted genome-editing technology provides a new path for integrating beneficial genetic modifications into the most significant agricultural species on the planet. Clustered regularly interspaced short palindromic repeats and associated protein 9 (CRISPR/Cas9) has evolved into a potent genome-editing tool for imparting genetic modifications to crop species. In addition, the integration of analytical methods like population genomics, phylogenomics, and metagenomics addresses conservation problems, while whole genome sequencing has opened up a new dimension for explaining the genome architecture and its interactions with other species. The in silico genomic and proteomic investigation was also conducted to forecast future investigations for the growth of French beans on a synergistic soil-less medium with the purpose of studying how a blend of vermicompost, vermiculite, cocopeat, and Rhizobium secrete metal ions, and other chemical compounds into the soil-less medium and affect the development of our target plant as well as several other plants. This interaction was studied using functional and conserved region analysis, phylogenetic analysis, and docking tools. </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2185,7 +2205,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>This study focused on the recovery and analysis of genetic diversity in ancient Sicilian olive trees, highlighting their importance for breeding programs and conservation efforts.</t>
+          <t>A study proposes a synergistic soil-less medium for crop growth, using molecular tools to optimize plants for the medium. The medium improves physical and chemical characteristics and increases plant yield. Genomic tools also play a role in improving agricultural varieties. In silico investigation was conducted to study the effects of the medium on French bean growth.</t>
         </is>
       </c>
     </row>
@@ -2195,12 +2215,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Signs of qualitative variability of seeds of Lonicera gracilipes var. Glandulosa Maxim. under influence with ionizing radiationThe article deals with the study of the biological characteristics of L. gracilipes Mig var. glanduiosa Maxim as a new berry crop. Seeds were treated with ionizing radiation to obtain new forms of crop plants. The identified number of qualitative signs of variability in seedlings exposed to ionizing radiation allows us to preliminarily speak about the identified mutations in L. gracilipes. The resulting mutant forms of the species L. gracilipes with other biological indicators to varying degrees different from the original species make it possible in the future to isolate promising forms valuable from an economic point of view for domestic berry growing. The currently existing economic indicators of the species L. gracilipes in terms of frost resistance (limit -250C), fruit weight - 0.6 g, low productivity (up to 300 g from one bush), put forward specific tasks for the selection of a new rare crop, promising for its cultivation as a fastgrowing berry bush.</t>
+          <t xml:space="preserve">Novel soil-less potting mixes for the mycorrhization of Quercus pubescens Willd. seedlings with Tuber melanosporum VittadTruffle cultivation has quickly grown in Europe and elsewhere as a consequence of the increase in the demand of the market. Thus the optimization of the protocols for the production of elite mycorrhized plants are also needed, keeping in consideration the economic and environmental sustainability. The suitability of two compost-based potting mixes to produce Quercus pubescens Willd. plants mycorrhized with the black Perigord truffle T. melanosporum Vittad. was tested as an alternative to the traditional potting mix used. The effects on mycorrhizal development and the morphometric assessment of the root and shoot system of the Q. pubescens seedlings were investigated eight months after the spore slurry inoculation in a glasshouse experiment. From the results obtained, the compost mix containing green organic residues from pruning and mowing (Mix 2) achieved better performance than the control and the potting mix based on composted municipal organic wastes, showing significantly higher mycorrhization percentage, root length, number of root tips, and root forks. In conclusion, a potting mix containing recycled green organic matter, which is readily available, cheap, and environmentally sustainable, can offer excellent mycorrhization performances and may be included in the mycorrhization process of downy oak seedlings with T. melanosporum under controlled conditions. </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Composted green organic residues are a suitable alternative to traditional potting mixes for growing truffle mycorrhized plants, offering better mycorrhization and root development.</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2235,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>The effect of the drug bio root plus on the yield and quality of root-related seedlings when propagated by shortened lignifiedThe materials and results of research on the use of Bio Root Plus, produced in France, the effect of which has not been studied in the cultivation of grape seedlings, are presented. For the first time, the degree of influence of the drug on the regenerative activity of shortened grape cuttings was established with the industrial technology of growing seedlings using mulching polyethylene film and drip irrigation in the school. The regulations for the use of Bio Root Plus have been developed. The main research was carried out in the conditions of LLC ""Agrovin - Sultan"" of the Shelkovsky district of the Chechen Republic. The most developed root system in seedlings is formed when the cuttings are treated with Bio Root Plus at a concentration of 0.5%. In this variant, the best results were obtained in terms of growth - 100.7 cm versus 69.7 cm in the control. The ripening of shoots at the same time was 90.3%, and in the control only 70%. The leaf surface area was noted in this variant of 1200 cm2, which is 234 cm2 more than the control and 88 cm2 more than when treated with heteroauxin. The highest yield of seedlings of 385 pieces per 1 hectare was obtained when Bio Root Plus was processed at a concentration of 0.5%, which is more than when used in the production of heteroauxin by 13,000 pieces. The highest profitability - 317.9% was obtained in the same variant, and 64.1% less when treated with heteroauxin. The conducted studies allow us to recommend the preparation of Bio Root Plus in a concentration of 0.5% in the production of root-related seedlings.</t>
+          <t xml:space="preserve">Pest categorisation of Neoscytalidium dimidiatumThe EFSA Plant Health Panel performed a pest categorisation of Neoscytalidium dimidiatum, a clearly defined plant pathogenic fungus of the family Botryosphaeriaceae. The pathogen affects a wide range of woody perennial crops and ornamental plants causing symptoms such as leaf spot, shoot blight, branch dieback, canker, pre- and post-harvest fruit rot, gummosis and root rot. The pathogen is present in Africa, Asia, North and South America, and Oceania. It has also been reported from Greece, Cyprus and Italy, with a restricted distribution. Nevertheless, there is a key uncertainty on the geographical distribution of N. dimidiatum worldwide and in the EU, because in the past, when molecular tools were not available, the two synanamorphs of the pathogen (Fusicoccum-like and Scytalidium-like) might have been misidentified based only on morphology and pathogenicity tests. N. dimidiatum is not included in Commission Implementing Regulation (EU) 2019/2072. Because of the wide host range of the pathogen, this pest categorisation focuses on those hosts for which there is robust evidence that the pathogen was formally identified by a combination of morphology, pathogenicity and multilocus sequence analysis. Plants for planting, fresh fruits and bark and wood of host plants as well as soil and other plant growing media are the main pathways for the further entry of the pathogen into the EU. Host availability and climate suitability factors occurring in parts of the EU are favourable for the further establishment of the pathogen. In the areas of its present distribution, including Italy, the pathogen has a direct impact on cultivated hosts. Phytosanitary measures are available to prevent the further introduction and spread of the pathogen into the EU. N. dimidiatum satisfies the criteria that are within the remit of EFSA to assess for this species to be regarded as potential Union quarantine pest. </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2220,7 +2245,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Research on the effectiveness of Bio Root Plus in grape seedling cultivation showed improved growth, shoot ripening, and yield compared to control and heteroauxin treatments.</t>
+          <t>The fungus Neoscytalidium dimidiatum affects various crops, causing leaf spot, fruit rot, and root rot. It can be spread through plants, fruits, bark, wood, soil, and growing media. Measures are available to prevent its spread.</t>
         </is>
       </c>
     </row>
@@ -2230,12 +2255,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Influence of modern technologies on the formation of cultivated cherry varieties, in temperate climatesThe present article is devoted to the study of foreign cherry varieties on different rootstocks. Of all stone fruit crops, the most common is cherry. Cherry fruits are particularly valuable products, which have not only nutritional but also medicinal properties. The diversity of cherry varieties, determined by their morphological features, used as a means of production in certain natural and economic conditions. In this connection, in the ecological zone of our region, a comprehensive assessment of the biological features of different varieties of cherry trees of world selection is given. The influence of modern technologies on the formation of the crown and fruit, as well as the condition of the seedling as a whole, has been studied. The value of the studied traits lies in the characterization of biometric indicators affecting the aboveground elements of fruit trees and the general economic evaluation of cultivated varieties of sweet cherry, in temperate climatic conditions.</t>
+          <t xml:space="preserve">Pest categorisation of Solenopsis invictaThe EFSA Panel on Plant Health performed a pest categorisation of Solenopsis invicta Butler (Hymenoptera: Formicidae) the red imported fire ant, for the EU territory. S. invicta is native to central South America and has spread to North and Central America, East Asia and Australia where it is recognised as a major invasive species causing serious environmental impacts to biodiversity and harming horticultural crops such as cabbage, eggplant and potatoes. It can girdle and kill young citrus trees. S. invicta is not listed as a Union quarantine pest in Annex II of Commission Implementing Regulation (EU) 2019/2072. However, the European Scientific Forum on Invasive Alien Species lists S. invicta as a species of Union concern (Commission Implementing Regulation (EU) 2022/1203). Like other ant species, S. invicta is a social insect commonly creating colonies in the soil. Long-distance spread in the Americas has been attributed to nests being carried in soil accompanying plants for planting, or simply in soil alone. S. invicta could enter the EU via conveyances carrying a wide range of goods if the conveyance is contaminated with soil or has been in close contact with soil, and with plants for planting in soil or growing media. Climatic conditions in large parts of the southern EU are suitable for establishment and spread would occur when mated females disperse to form new colonies. If S. invicta established in the EU, losses to horticultural crops would be expected in addition to losses to biodiversity. The impacts of S. invicta go beyond plant health with the ant attacking new-born, hatching, weak or sick animals. Stings can cause allergic reactions in humans and are a public health issue. However, such factors are outside the scope of a pest categorisation. S. invicta satisfies the criteria that are within the remit of EFSA to assess for it to be regarded as a potential Union quarantine pest. </t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Solenopsis invicta, the red imported fire ant, is an invasive species that poses a threat to biodiversity and horticultural crops. It spreads through soil and can enter the EU through contaminated conveyances. Its establishment in the EU would cause losses to crops and pose a public health issue.</t>
         </is>
       </c>
     </row>
@@ -2245,17 +2275,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fertility and yield of introduced apple varieties on different rootstocks under conditions of chechnyaIn the present article the effect of dwarf clonal rootstock MM-106, M-9, M-26 on introduced apple-tree varieties was studied. With the identified specificity of productivity formation and quality of fruits, taking into account the methods of cultivation. Fruits of apple trees serve as a rich source of pectin substances. The unique soil and climatic conditions of many regions of our republic, contribute to the industrial and amateur cultivation of the fruit crop of the apple tree. In this connection, it became necessary to assess the economic efficiency of various apple varieties and justify their selection for further use in the technological process of intensive horticulture in conditions of Chechnya. To allocate apple-tree varieties with a complex of features having economic and production significance, which consists in determination of influence of variety and rootstock, on terms of entry of trees in the period of fruiting and formation of yield.</t>
+          <t xml:space="preserve">Bioevaluation, pharmacokinetics and molecular docking study of phenylpropanoid rich rhizome essential oil of understudied Zingiber neesanum from Konkan region of IndiaZingiber neesanum a species from the Zingiberaceae family exhibits convincing medicinal applications and is available vastly in the Konkan region. Its anti-inflammatory potential is an unexplored part. This work presents a Bioevaluation, Pharmacokinetics and Molecular docking study emphasizing the anti-inflammatory potential of rhizome oil of this species. An ultrasound-assisted solvent extraction method was employed to isolate oil and characterized by GC/FID and GC/HRMS techniques. The antimicrobial efficacies were checked by the Broth and Agar dilution protocols while the DPPH and ABTS assays were employed to test antioxidant potency. The anti-inflammatory potentials were tested by 3 methods-Heat-induced hemolysis, Inhibition of albumin denaturation and Proteinase inhibitory action. ADMET study was performed by the Swiss-ADME server while the docking was performed with AutoDock 4.2 software with a major component, [E]-3,4-Dimethoxy cinnamic acid methyl ester ([E]-3,4-DCME) using trypsin receptor. A pale yellow-colored essential oil was dominated by Phenylpropanoids (62.09%). Excellent antimicrobial potentials were observed versus Staphylococcus aureus and Candida albicans while excellent antioxidant activities were observed in both assays. But best anti-inflammatory action was documented in the albumin denaturation method. The pharmacokinetic properties of [E]-3,4-DCME, like high GI absorption, zero Lipinski violation with good bioavailability score etc., were promising. The docking results revealed that [E]-3,4-DCME has substantial binding affinity due to 'H' bonding interactions, and non-bonded Van der Waals and -alkyl type interactions with the active site residues of a receptor. So, this study concludes that the rhizome oil of this underexplored species could be utilized in developing novel phytopharmaceuticals after further study. </t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>This article explores the impact of different rootstocks on the growth and yield of introduced apple varieties in Chechnya's unique soil and climatic conditions. The study aims to identify economically efficient apple varieties for intensive horticulture.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
